--- a/convert/together23_pieces_datenbank.xlsx
+++ b/convert/together23_pieces_datenbank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26803"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ooepp.sharepoint.com/sites/Landeslager2023/Freigegebene Dokumente/General/CaEx/Programm/Challenges/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF561980-1328-49A0-ADBE-EC91FD964C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D52087B-267F-434C-94ED-12420CB10914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="27288" windowHeight="17544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="27288" windowHeight="17544" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgabenkatalog" sheetId="1" r:id="rId1"/>
@@ -3609,10 +3609,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AV333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="C334" sqref="C334"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -3711,7 +3712,7 @@
       <c r="AU1" s="118"/>
       <c r="AV1" s="118"/>
     </row>
-    <row r="2" spans="1:48" ht="15.6">
+    <row r="2" spans="1:48" ht="15.6" hidden="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3785,7 +3786,7 @@
       <c r="AU2" s="1"/>
       <c r="AV2" s="1"/>
     </row>
-    <row r="3" spans="1:48" s="51" customFormat="1" ht="15">
+    <row r="3" spans="1:48" s="51" customFormat="1" ht="15" hidden="1">
       <c r="A3" s="51">
         <v>2</v>
       </c>
@@ -3861,7 +3862,7 @@
       <c r="AU3" s="50"/>
       <c r="AV3" s="50"/>
     </row>
-    <row r="4" spans="1:48" ht="15.6">
+    <row r="4" spans="1:48" ht="15.6" hidden="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3935,7 +3936,7 @@
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
     </row>
-    <row r="5" spans="1:48" ht="15.6">
+    <row r="5" spans="1:48" ht="15.6" hidden="1">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4083,7 +4084,7 @@
       <c r="AU6" s="1"/>
       <c r="AV6" s="1"/>
     </row>
-    <row r="7" spans="1:48" ht="15.6">
+    <row r="7" spans="1:48" ht="15.6" hidden="1">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4157,7 +4158,7 @@
       <c r="AU7" s="1"/>
       <c r="AV7" s="1"/>
     </row>
-    <row r="8" spans="1:48" ht="15.6">
+    <row r="8" spans="1:48" ht="15.6" hidden="1">
       <c r="A8" s="51">
         <v>7</v>
       </c>
@@ -4231,7 +4232,7 @@
       <c r="AU8" s="1"/>
       <c r="AV8" s="1"/>
     </row>
-    <row r="9" spans="1:48" s="31" customFormat="1" ht="15">
+    <row r="9" spans="1:48" s="31" customFormat="1" ht="15" hidden="1">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4303,7 +4304,7 @@
       <c r="AU9" s="30"/>
       <c r="AV9" s="30"/>
     </row>
-    <row r="10" spans="1:48" ht="15.6">
+    <row r="10" spans="1:48" ht="15.6" hidden="1">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4379,7 +4380,7 @@
       <c r="AU10" s="1"/>
       <c r="AV10" s="1"/>
     </row>
-    <row r="11" spans="1:48" s="31" customFormat="1" ht="15">
+    <row r="11" spans="1:48" s="31" customFormat="1" ht="15" hidden="1">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4675,7 +4676,7 @@
       <c r="AU14" s="1"/>
       <c r="AV14" s="1"/>
     </row>
-    <row r="15" spans="1:48" ht="15.6">
+    <row r="15" spans="1:48" ht="15.6" hidden="1">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4749,7 +4750,7 @@
       <c r="AU15" s="1"/>
       <c r="AV15" s="1"/>
     </row>
-    <row r="16" spans="1:48" ht="15.6">
+    <row r="16" spans="1:48" ht="15.6" hidden="1">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4897,7 +4898,7 @@
       <c r="AU17" s="1"/>
       <c r="AV17" s="1"/>
     </row>
-    <row r="18" spans="1:48" ht="15.6">
+    <row r="18" spans="1:48" ht="15.6" hidden="1">
       <c r="A18" s="51">
         <v>17</v>
       </c>
@@ -4981,7 +4982,7 @@
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>16</v>
@@ -5193,7 +5194,7 @@
       <c r="AU21" s="1"/>
       <c r="AV21" s="1"/>
     </row>
-    <row r="22" spans="1:48" s="31" customFormat="1" ht="15">
+    <row r="22" spans="1:48" s="31" customFormat="1" ht="15" hidden="1">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5267,7 +5268,7 @@
       <c r="AU22" s="30"/>
       <c r="AV22" s="30"/>
     </row>
-    <row r="23" spans="1:48" ht="15.6">
+    <row r="23" spans="1:48" ht="15.6" hidden="1">
       <c r="A23" s="51">
         <v>22</v>
       </c>
@@ -5341,7 +5342,7 @@
       <c r="AU23" s="1"/>
       <c r="AV23" s="1"/>
     </row>
-    <row r="24" spans="1:48" ht="15.6">
+    <row r="24" spans="1:48" ht="15.6" hidden="1">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5415,7 +5416,7 @@
       <c r="AU24" s="1"/>
       <c r="AV24" s="1"/>
     </row>
-    <row r="25" spans="1:48" ht="15.6">
+    <row r="25" spans="1:48" ht="15.6" hidden="1">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5497,7 +5498,7 @@
         <v>128</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>16</v>
@@ -5563,7 +5564,7 @@
       <c r="AU26" s="1"/>
       <c r="AV26" s="1"/>
     </row>
-    <row r="27" spans="1:48" ht="15.6">
+    <row r="27" spans="1:48" ht="15.6" hidden="1">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5637,7 +5638,7 @@
       <c r="AU27" s="1"/>
       <c r="AV27" s="1"/>
     </row>
-    <row r="28" spans="1:48" ht="15.6">
+    <row r="28" spans="1:48" ht="15.6" hidden="1">
       <c r="A28" s="51">
         <v>27</v>
       </c>
@@ -5711,7 +5712,7 @@
       <c r="AU28" s="1"/>
       <c r="AV28" s="1"/>
     </row>
-    <row r="29" spans="1:48" ht="15.6">
+    <row r="29" spans="1:48" ht="15.6" hidden="1">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5785,7 +5786,7 @@
       <c r="AU29" s="1"/>
       <c r="AV29" s="1"/>
     </row>
-    <row r="30" spans="1:48" s="51" customFormat="1" ht="15">
+    <row r="30" spans="1:48" s="51" customFormat="1" ht="15" hidden="1">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5867,7 +5868,7 @@
         <v>128</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>16</v>
@@ -5933,7 +5934,7 @@
       <c r="AU31" s="1"/>
       <c r="AV31" s="1"/>
     </row>
-    <row r="32" spans="1:48" ht="15.6">
+    <row r="32" spans="1:48" ht="15.6" hidden="1">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6015,7 +6016,7 @@
         <v>128</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D33" s="20" t="s">
         <v>16</v>
@@ -6155,7 +6156,7 @@
       <c r="AU34" s="1"/>
       <c r="AV34" s="1"/>
     </row>
-    <row r="35" spans="1:48" ht="15.6">
+    <row r="35" spans="1:48" ht="15.6" hidden="1">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6237,7 +6238,7 @@
         <v>128</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D36" s="86" t="s">
         <v>16</v>
@@ -6305,7 +6306,7 @@
       <c r="AU36" s="92"/>
       <c r="AV36" s="92"/>
     </row>
-    <row r="37" spans="1:48" ht="15.6">
+    <row r="37" spans="1:48" ht="15.6" hidden="1">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6381,7 +6382,7 @@
       <c r="AU37" s="1"/>
       <c r="AV37" s="1"/>
     </row>
-    <row r="38" spans="1:48" ht="15.6">
+    <row r="38" spans="1:48" ht="15.6" hidden="1">
       <c r="A38" s="51">
         <v>37</v>
       </c>
@@ -6457,7 +6458,7 @@
       <c r="AU38" s="1"/>
       <c r="AV38" s="1"/>
     </row>
-    <row r="39" spans="1:48" ht="15.6">
+    <row r="39" spans="1:48" ht="15.6" hidden="1">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6531,7 +6532,7 @@
       <c r="AU39" s="1"/>
       <c r="AV39" s="1"/>
     </row>
-    <row r="40" spans="1:48" ht="15.6">
+    <row r="40" spans="1:48" ht="15.6" hidden="1">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6679,7 +6680,7 @@
       <c r="AU41" s="1"/>
       <c r="AV41" s="1"/>
     </row>
-    <row r="42" spans="1:48" ht="15.6">
+    <row r="42" spans="1:48" ht="15.6" hidden="1">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6753,7 +6754,7 @@
       <c r="AU42" s="1"/>
       <c r="AV42" s="1"/>
     </row>
-    <row r="43" spans="1:48" ht="15.6">
+    <row r="43" spans="1:48" ht="15.6" hidden="1">
       <c r="A43" s="51">
         <v>42</v>
       </c>
@@ -6827,7 +6828,7 @@
       <c r="AU43" s="1"/>
       <c r="AV43" s="1"/>
     </row>
-    <row r="44" spans="1:48" ht="15.6">
+    <row r="44" spans="1:48" ht="15.6" hidden="1">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6901,7 +6902,7 @@
       <c r="AU44" s="1"/>
       <c r="AV44" s="1"/>
     </row>
-    <row r="45" spans="1:48" ht="15.6">
+    <row r="45" spans="1:48" ht="15.6" hidden="1">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6975,7 +6976,7 @@
       <c r="AU45" s="1"/>
       <c r="AV45" s="1"/>
     </row>
-    <row r="46" spans="1:48" ht="15.6">
+    <row r="46" spans="1:48" ht="15.6" hidden="1">
       <c r="A46">
         <v>45</v>
       </c>
@@ -7123,7 +7124,7 @@
       <c r="AU47" s="1"/>
       <c r="AV47" s="1"/>
     </row>
-    <row r="48" spans="1:48" ht="15.6">
+    <row r="48" spans="1:48" ht="15.6" hidden="1">
       <c r="A48" s="51">
         <v>47</v>
       </c>
@@ -7271,7 +7272,7 @@
       <c r="AU49" s="1"/>
       <c r="AV49" s="1"/>
     </row>
-    <row r="50" spans="1:48" s="85" customFormat="1" ht="15">
+    <row r="50" spans="1:48" s="85" customFormat="1" ht="15" hidden="1">
       <c r="A50">
         <v>49</v>
       </c>
@@ -7345,7 +7346,7 @@
       <c r="AU50" s="92"/>
       <c r="AV50" s="92"/>
     </row>
-    <row r="51" spans="1:48" s="31" customFormat="1" ht="15">
+    <row r="51" spans="1:48" s="31" customFormat="1" ht="15" hidden="1">
       <c r="A51">
         <v>50</v>
       </c>
@@ -7417,7 +7418,7 @@
       <c r="AU51" s="30"/>
       <c r="AV51" s="30"/>
     </row>
-    <row r="52" spans="1:48" ht="15.6">
+    <row r="52" spans="1:48" ht="15.6" hidden="1">
       <c r="A52">
         <v>51</v>
       </c>
@@ -7491,7 +7492,7 @@
       <c r="AU52" s="1"/>
       <c r="AV52" s="1"/>
     </row>
-    <row r="53" spans="1:48" ht="15">
+    <row r="53" spans="1:48" ht="15" hidden="1">
       <c r="A53" s="51">
         <v>52</v>
       </c>
@@ -7567,7 +7568,7 @@
       <c r="AU53" s="1"/>
       <c r="AV53" s="1"/>
     </row>
-    <row r="54" spans="1:48" s="31" customFormat="1" ht="15">
+    <row r="54" spans="1:48" s="31" customFormat="1" ht="15" hidden="1">
       <c r="A54">
         <v>53</v>
       </c>
@@ -7639,7 +7640,7 @@
       <c r="AU54" s="30"/>
       <c r="AV54" s="30"/>
     </row>
-    <row r="55" spans="1:48" ht="15.6">
+    <row r="55" spans="1:48" ht="15.6" hidden="1">
       <c r="A55">
         <v>54</v>
       </c>
@@ -7789,7 +7790,7 @@
       <c r="AU56" s="1"/>
       <c r="AV56" s="1"/>
     </row>
-    <row r="57" spans="1:48" s="27" customFormat="1" ht="15">
+    <row r="57" spans="1:48" s="27" customFormat="1" ht="15" hidden="1">
       <c r="A57">
         <v>56</v>
       </c>
@@ -7861,7 +7862,7 @@
       <c r="AU57" s="26"/>
       <c r="AV57" s="26"/>
     </row>
-    <row r="58" spans="1:48" s="51" customFormat="1" ht="15">
+    <row r="58" spans="1:48" s="51" customFormat="1" ht="15" hidden="1">
       <c r="A58" s="51">
         <v>57</v>
       </c>
@@ -8009,7 +8010,7 @@
       <c r="AU59" s="1"/>
       <c r="AV59" s="1"/>
     </row>
-    <row r="60" spans="1:48" ht="15.6">
+    <row r="60" spans="1:48" ht="15.6" hidden="1">
       <c r="A60">
         <v>59</v>
       </c>
@@ -8083,7 +8084,7 @@
       <c r="AU60" s="1"/>
       <c r="AV60" s="1"/>
     </row>
-    <row r="61" spans="1:48" ht="15.6">
+    <row r="61" spans="1:48" ht="15.6" hidden="1">
       <c r="A61">
         <v>60</v>
       </c>
@@ -8157,7 +8158,7 @@
       <c r="AU61" s="1"/>
       <c r="AV61" s="1"/>
     </row>
-    <row r="62" spans="1:48" ht="15.6">
+    <row r="62" spans="1:48" ht="15.6" hidden="1">
       <c r="A62">
         <v>61</v>
       </c>
@@ -8231,7 +8232,7 @@
       <c r="AU62" s="1"/>
       <c r="AV62" s="1"/>
     </row>
-    <row r="63" spans="1:48" ht="15.6">
+    <row r="63" spans="1:48" ht="15.6" hidden="1">
       <c r="A63" s="51">
         <v>62</v>
       </c>
@@ -8379,7 +8380,7 @@
       <c r="AU64" s="1"/>
       <c r="AV64" s="1"/>
     </row>
-    <row r="65" spans="1:48" ht="15.6">
+    <row r="65" spans="1:48" ht="15.6" hidden="1">
       <c r="A65">
         <v>64</v>
       </c>
@@ -8453,7 +8454,7 @@
       <c r="AU65" s="1"/>
       <c r="AV65" s="1"/>
     </row>
-    <row r="66" spans="1:48" ht="15.6">
+    <row r="66" spans="1:48" ht="15.6" hidden="1">
       <c r="A66">
         <v>65</v>
       </c>
@@ -8527,7 +8528,7 @@
       <c r="AU66" s="1"/>
       <c r="AV66" s="1"/>
     </row>
-    <row r="67" spans="1:48" ht="15.6">
+    <row r="67" spans="1:48" ht="15.6" hidden="1">
       <c r="A67">
         <v>66</v>
       </c>
@@ -8601,7 +8602,7 @@
       <c r="AU67" s="1"/>
       <c r="AV67" s="1"/>
     </row>
-    <row r="68" spans="1:48" s="31" customFormat="1" ht="15">
+    <row r="68" spans="1:48" s="31" customFormat="1" ht="15" hidden="1">
       <c r="A68" s="51">
         <v>67</v>
       </c>
@@ -8823,7 +8824,7 @@
       <c r="AU70" s="1"/>
       <c r="AV70" s="1"/>
     </row>
-    <row r="71" spans="1:48" ht="15.6">
+    <row r="71" spans="1:48" ht="15.6" hidden="1">
       <c r="A71">
         <v>70</v>
       </c>
@@ -8899,7 +8900,7 @@
       <c r="AU71" s="1"/>
       <c r="AV71" s="1"/>
     </row>
-    <row r="72" spans="1:48" s="31" customFormat="1" ht="15">
+    <row r="72" spans="1:48" s="31" customFormat="1" ht="15" hidden="1">
       <c r="A72">
         <v>71</v>
       </c>
@@ -8979,7 +8980,7 @@
         <v>238</v>
       </c>
       <c r="C73" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D73" s="20" t="s">
         <v>16</v>
@@ -9043,7 +9044,7 @@
       <c r="AU73" s="30"/>
       <c r="AV73" s="30"/>
     </row>
-    <row r="74" spans="1:48" s="31" customFormat="1" ht="15">
+    <row r="74" spans="1:48" s="31" customFormat="1" ht="15" hidden="1">
       <c r="A74">
         <v>73</v>
       </c>
@@ -9123,7 +9124,7 @@
         <v>238</v>
       </c>
       <c r="C75" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D75" s="20" t="s">
         <v>16</v>
@@ -9193,7 +9194,7 @@
         <v>238</v>
       </c>
       <c r="C76" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D76" s="20" t="s">
         <v>16</v>
@@ -9263,7 +9264,7 @@
         <v>238</v>
       </c>
       <c r="C77" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D77" s="20" t="s">
         <v>16</v>
@@ -9333,7 +9334,7 @@
         <v>238</v>
       </c>
       <c r="C78" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D78" s="20" t="s">
         <v>16</v>
@@ -9403,7 +9404,7 @@
         <v>238</v>
       </c>
       <c r="C79" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D79" s="20" t="s">
         <v>16</v>
@@ -9617,7 +9618,7 @@
         <v>363</v>
       </c>
       <c r="C82" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D82" s="17" t="s">
         <v>75</v>
@@ -9683,7 +9684,7 @@
       <c r="AU82" s="1"/>
       <c r="AV82" s="1"/>
     </row>
-    <row r="83" spans="1:48" ht="15">
+    <row r="83" spans="1:48" ht="15" hidden="1">
       <c r="A83" s="51">
         <v>82</v>
       </c>
@@ -9755,7 +9756,7 @@
       <c r="AU83" s="1"/>
       <c r="AV83" s="1"/>
     </row>
-    <row r="84" spans="1:48" ht="15.6">
+    <row r="84" spans="1:48" ht="15.6" hidden="1">
       <c r="A84">
         <v>83</v>
       </c>
@@ -9983,7 +9984,7 @@
         <v>363</v>
       </c>
       <c r="C87" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D87" s="17" t="s">
         <v>75</v>
@@ -10057,7 +10058,7 @@
         <v>363</v>
       </c>
       <c r="C88" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D88" s="17" t="s">
         <v>75</v>
@@ -10129,7 +10130,7 @@
         <v>363</v>
       </c>
       <c r="C89" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D89" s="17" t="s">
         <v>75</v>
@@ -10277,7 +10278,7 @@
         <v>363</v>
       </c>
       <c r="C91" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D91" s="17" t="s">
         <v>75</v>
@@ -10351,7 +10352,7 @@
         <v>363</v>
       </c>
       <c r="C92" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D92" s="17" t="s">
         <v>75</v>
@@ -10495,7 +10496,7 @@
         <v>363</v>
       </c>
       <c r="C94" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D94" s="17" t="s">
         <v>75</v>
@@ -10789,7 +10790,7 @@
         <v>363</v>
       </c>
       <c r="C98" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D98" s="86" t="s">
         <v>75</v>
@@ -10861,7 +10862,7 @@
         <v>363</v>
       </c>
       <c r="C99" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D99" s="17" t="s">
         <v>75</v>
@@ -11079,7 +11080,7 @@
         <v>363</v>
       </c>
       <c r="C102" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D102" s="86" t="s">
         <v>75</v>
@@ -11151,7 +11152,7 @@
         <v>363</v>
       </c>
       <c r="C103" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D103" s="17" t="s">
         <v>75</v>
@@ -11215,7 +11216,7 @@
       <c r="AU103" s="1"/>
       <c r="AV103" s="1"/>
     </row>
-    <row r="104" spans="1:48" ht="15.6">
+    <row r="104" spans="1:48" ht="15.6" hidden="1">
       <c r="A104">
         <v>103</v>
       </c>
@@ -11289,7 +11290,7 @@
       <c r="AU104" s="1"/>
       <c r="AV104" s="1"/>
     </row>
-    <row r="105" spans="1:48" ht="15.6">
+    <row r="105" spans="1:48" ht="15.6" hidden="1">
       <c r="A105">
         <v>104</v>
       </c>
@@ -11363,7 +11364,7 @@
       <c r="AU105" s="1"/>
       <c r="AV105" s="1"/>
     </row>
-    <row r="106" spans="1:48" ht="15.6">
+    <row r="106" spans="1:48" ht="15.6" hidden="1">
       <c r="A106">
         <v>105</v>
       </c>
@@ -11437,7 +11438,7 @@
       <c r="AU106" s="1"/>
       <c r="AV106" s="1"/>
     </row>
-    <row r="107" spans="1:48" ht="15.6">
+    <row r="107" spans="1:48" ht="15.6" hidden="1">
       <c r="A107">
         <v>106</v>
       </c>
@@ -11511,7 +11512,7 @@
       <c r="AU107" s="1"/>
       <c r="AV107" s="1"/>
     </row>
-    <row r="108" spans="1:48" ht="15.6">
+    <row r="108" spans="1:48" ht="15.6" hidden="1">
       <c r="A108" s="51">
         <v>107</v>
       </c>
@@ -11585,7 +11586,7 @@
       <c r="AU108" s="1"/>
       <c r="AV108" s="1"/>
     </row>
-    <row r="109" spans="1:48" ht="15.6">
+    <row r="109" spans="1:48" ht="15.6" hidden="1">
       <c r="A109">
         <v>108</v>
       </c>
@@ -11659,7 +11660,7 @@
       <c r="AU109" s="1"/>
       <c r="AV109" s="1"/>
     </row>
-    <row r="110" spans="1:48" ht="15">
+    <row r="110" spans="1:48" ht="15" hidden="1">
       <c r="A110">
         <v>109</v>
       </c>
@@ -11743,7 +11744,7 @@
         <v>359</v>
       </c>
       <c r="C111" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D111" s="75" t="s">
         <v>75</v>
@@ -11816,7 +11817,7 @@
         <v>359</v>
       </c>
       <c r="C112" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D112" s="75" t="s">
         <v>75</v>
@@ -11889,7 +11890,7 @@
         <v>359</v>
       </c>
       <c r="C113" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D113" s="75" t="s">
         <v>75</v>
@@ -11954,7 +11955,7 @@
       <c r="AU113" s="83"/>
       <c r="AV113" s="83"/>
     </row>
-    <row r="114" spans="1:48" ht="15.6">
+    <row r="114" spans="1:48" ht="15.6" hidden="1">
       <c r="A114">
         <v>113</v>
       </c>
@@ -12028,7 +12029,7 @@
       <c r="AU114" s="1"/>
       <c r="AV114" s="1"/>
     </row>
-    <row r="115" spans="1:48" ht="15.6">
+    <row r="115" spans="1:48" ht="15.6" hidden="1">
       <c r="A115">
         <v>114</v>
       </c>
@@ -12180,7 +12181,7 @@
       <c r="AU116" s="1"/>
       <c r="AV116" s="1"/>
     </row>
-    <row r="117" spans="1:48" ht="15.6">
+    <row r="117" spans="1:48" ht="15.6" hidden="1">
       <c r="A117">
         <v>116</v>
       </c>
@@ -12254,7 +12255,7 @@
       <c r="AU117" s="1"/>
       <c r="AV117" s="1"/>
     </row>
-    <row r="118" spans="1:48" ht="15.6">
+    <row r="118" spans="1:48" ht="15.6" hidden="1">
       <c r="A118" s="51">
         <v>117</v>
       </c>
@@ -12336,7 +12337,7 @@
         <v>359</v>
       </c>
       <c r="C119" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D119" s="17" t="s">
         <v>75</v>
@@ -12410,7 +12411,7 @@
         <v>359</v>
       </c>
       <c r="C120" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D120" s="86" t="s">
         <v>75</v>
@@ -12477,7 +12478,7 @@
       <c r="AU120" s="92"/>
       <c r="AV120" s="92"/>
     </row>
-    <row r="121" spans="1:48" ht="15.6">
+    <row r="121" spans="1:48" ht="15.6" hidden="1">
       <c r="A121">
         <v>120</v>
       </c>
@@ -12625,7 +12626,7 @@
       <c r="AU122" s="1"/>
       <c r="AV122" s="1"/>
     </row>
-    <row r="123" spans="1:48" ht="15.6">
+    <row r="123" spans="1:48" ht="15.6" hidden="1">
       <c r="A123" s="51">
         <v>122</v>
       </c>
@@ -12700,7 +12701,7 @@
       <c r="AU123" s="1"/>
       <c r="AV123" s="1"/>
     </row>
-    <row r="124" spans="1:48" ht="15.6">
+    <row r="124" spans="1:48" ht="15.6" hidden="1">
       <c r="A124">
         <v>123</v>
       </c>
@@ -12775,7 +12776,7 @@
       <c r="AU124" s="1"/>
       <c r="AV124" s="1"/>
     </row>
-    <row r="125" spans="1:48" ht="15.6">
+    <row r="125" spans="1:48" ht="15.6" hidden="1">
       <c r="A125">
         <v>124</v>
       </c>
@@ -12850,7 +12851,7 @@
       <c r="AU125" s="1"/>
       <c r="AV125" s="1"/>
     </row>
-    <row r="126" spans="1:48" ht="15.6">
+    <row r="126" spans="1:48" ht="15.6" hidden="1">
       <c r="A126">
         <v>125</v>
       </c>
@@ -12925,7 +12926,7 @@
       <c r="AU126" s="1"/>
       <c r="AV126" s="1"/>
     </row>
-    <row r="127" spans="1:48" ht="15.6">
+    <row r="127" spans="1:48" ht="15.6" hidden="1">
       <c r="A127">
         <v>126</v>
       </c>
@@ -13000,7 +13001,7 @@
       <c r="AU127" s="1"/>
       <c r="AV127" s="1"/>
     </row>
-    <row r="128" spans="1:48" ht="15.6">
+    <row r="128" spans="1:48" ht="15.6" hidden="1">
       <c r="A128" s="51">
         <v>127</v>
       </c>
@@ -13074,7 +13075,7 @@
       <c r="AU128" s="1"/>
       <c r="AV128" s="1"/>
     </row>
-    <row r="129" spans="1:48" ht="15.6">
+    <row r="129" spans="1:48" ht="15.6" hidden="1">
       <c r="A129">
         <v>128</v>
       </c>
@@ -13148,7 +13149,7 @@
       <c r="AU129" s="1"/>
       <c r="AV129" s="1"/>
     </row>
-    <row r="130" spans="1:48" ht="15.6">
+    <row r="130" spans="1:48" ht="15.6" hidden="1">
       <c r="A130">
         <v>129</v>
       </c>
@@ -13224,7 +13225,7 @@
       <c r="AU130" s="1"/>
       <c r="AV130" s="1"/>
     </row>
-    <row r="131" spans="1:48" ht="15.6">
+    <row r="131" spans="1:48" ht="15.6" hidden="1">
       <c r="A131">
         <v>130</v>
       </c>
@@ -13305,7 +13306,7 @@
         <v>238</v>
       </c>
       <c r="C132" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D132" s="17" t="s">
         <v>75</v>
@@ -13367,7 +13368,7 @@
       <c r="AU132" s="1"/>
       <c r="AV132" s="1"/>
     </row>
-    <row r="133" spans="1:48" ht="15.6">
+    <row r="133" spans="1:48" ht="15.6" hidden="1">
       <c r="A133" s="51">
         <v>132</v>
       </c>
@@ -13439,7 +13440,7 @@
       <c r="AU133" s="1"/>
       <c r="AV133" s="1"/>
     </row>
-    <row r="134" spans="1:48" ht="15.6">
+    <row r="134" spans="1:48" ht="15.6" hidden="1">
       <c r="A134">
         <v>133</v>
       </c>
@@ -13521,7 +13522,7 @@
         <v>238</v>
       </c>
       <c r="C135" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D135" s="17" t="s">
         <v>75</v>
@@ -13587,7 +13588,7 @@
       <c r="AU135" s="1"/>
       <c r="AV135" s="1"/>
     </row>
-    <row r="136" spans="1:48" ht="15.6">
+    <row r="136" spans="1:48" ht="15.6" hidden="1">
       <c r="A136">
         <v>135</v>
       </c>
@@ -13729,7 +13730,7 @@
       <c r="AU137" s="1"/>
       <c r="AV137" s="1"/>
     </row>
-    <row r="138" spans="1:48" ht="15.6">
+    <row r="138" spans="1:48" ht="15.6" hidden="1">
       <c r="A138" s="51">
         <v>138</v>
       </c>
@@ -13803,7 +13804,7 @@
       <c r="AU138" s="1"/>
       <c r="AV138" s="1"/>
     </row>
-    <row r="139" spans="1:48" ht="15.6">
+    <row r="139" spans="1:48" ht="15.6" hidden="1">
       <c r="A139">
         <v>139</v>
       </c>
@@ -13869,7 +13870,7 @@
       <c r="AU139" s="1"/>
       <c r="AV139" s="1"/>
     </row>
-    <row r="140" spans="1:48" ht="15.6">
+    <row r="140" spans="1:48" ht="15.6" hidden="1">
       <c r="D140" s="17"/>
       <c r="E140" s="14"/>
       <c r="F140" s="14"/>
@@ -13920,7 +13921,7 @@
       <c r="AU140" s="1"/>
       <c r="AV140" s="1"/>
     </row>
-    <row r="141" spans="1:48" ht="15.6">
+    <row r="141" spans="1:48" ht="15.6" hidden="1">
       <c r="D141" s="17"/>
       <c r="E141" s="15"/>
       <c r="F141" s="14"/>
@@ -13971,7 +13972,7 @@
       <c r="AU141" s="1"/>
       <c r="AV141" s="1"/>
     </row>
-    <row r="142" spans="1:48" ht="15.6">
+    <row r="142" spans="1:48" ht="15.6" hidden="1">
       <c r="D142" s="17"/>
       <c r="E142" s="15"/>
       <c r="F142" s="14"/>
@@ -14022,7 +14023,7 @@
       <c r="AU142" s="1"/>
       <c r="AV142" s="1"/>
     </row>
-    <row r="143" spans="1:48" ht="15.6">
+    <row r="143" spans="1:48" ht="15.6" hidden="1">
       <c r="A143" s="51"/>
       <c r="B143" s="51"/>
       <c r="D143" s="17"/>
@@ -14075,7 +14076,7 @@
       <c r="AU143" s="1"/>
       <c r="AV143" s="1"/>
     </row>
-    <row r="144" spans="1:48" ht="15.6">
+    <row r="144" spans="1:48" ht="15.6" hidden="1">
       <c r="D144" s="17"/>
       <c r="E144" s="15"/>
       <c r="F144" s="14"/>
@@ -14126,7 +14127,7 @@
       <c r="AU144" s="1"/>
       <c r="AV144" s="1"/>
     </row>
-    <row r="145" spans="1:48" ht="15.6">
+    <row r="145" spans="1:48" ht="15.6" hidden="1">
       <c r="D145" s="17"/>
       <c r="E145" s="15"/>
       <c r="F145" s="14"/>
@@ -14177,7 +14178,7 @@
       <c r="AU145" s="1"/>
       <c r="AV145" s="1"/>
     </row>
-    <row r="146" spans="1:48" ht="15.6">
+    <row r="146" spans="1:48" ht="15.6" hidden="1">
       <c r="D146" s="17"/>
       <c r="E146" s="15"/>
       <c r="F146" s="14"/>
@@ -14228,7 +14229,7 @@
       <c r="AU146" s="1"/>
       <c r="AV146" s="1"/>
     </row>
-    <row r="147" spans="1:48" ht="15.6">
+    <row r="147" spans="1:48" ht="15.6" hidden="1">
       <c r="D147" s="17"/>
       <c r="E147" s="15"/>
       <c r="F147" s="14"/>
@@ -14279,7 +14280,7 @@
       <c r="AU147" s="1"/>
       <c r="AV147" s="1"/>
     </row>
-    <row r="148" spans="1:48" ht="15.6">
+    <row r="148" spans="1:48" ht="15.6" hidden="1">
       <c r="A148" s="51"/>
       <c r="B148" s="51"/>
       <c r="D148" s="17"/>
@@ -14332,7 +14333,7 @@
       <c r="AU148" s="1"/>
       <c r="AV148" s="1"/>
     </row>
-    <row r="149" spans="1:48" ht="15.6">
+    <row r="149" spans="1:48" ht="15.6" hidden="1">
       <c r="D149" s="17"/>
       <c r="E149" s="15"/>
       <c r="F149" s="15"/>
@@ -14383,7 +14384,7 @@
       <c r="AU149" s="1"/>
       <c r="AV149" s="1"/>
     </row>
-    <row r="150" spans="1:48" ht="15.6">
+    <row r="150" spans="1:48" ht="15.6" hidden="1">
       <c r="D150" s="17"/>
       <c r="E150" s="15"/>
       <c r="F150" s="15"/>
@@ -14434,7 +14435,7 @@
       <c r="AU150" s="1"/>
       <c r="AV150" s="1"/>
     </row>
-    <row r="151" spans="1:48" ht="15.6">
+    <row r="151" spans="1:48" ht="15.6" hidden="1">
       <c r="D151" s="17"/>
       <c r="E151" s="15"/>
       <c r="F151" s="15"/>
@@ -14485,7 +14486,7 @@
       <c r="AU151" s="1"/>
       <c r="AV151" s="1"/>
     </row>
-    <row r="152" spans="1:48" ht="15.6">
+    <row r="152" spans="1:48" ht="15.6" hidden="1">
       <c r="D152" s="17"/>
       <c r="E152" s="15"/>
       <c r="F152" s="15"/>
@@ -14536,7 +14537,7 @@
       <c r="AU152" s="1"/>
       <c r="AV152" s="1"/>
     </row>
-    <row r="153" spans="1:48" ht="15.6">
+    <row r="153" spans="1:48" ht="15.6" hidden="1">
       <c r="A153" s="51"/>
       <c r="B153" s="51"/>
       <c r="D153" s="17"/>
@@ -14589,7 +14590,7 @@
       <c r="AU153" s="1"/>
       <c r="AV153" s="1"/>
     </row>
-    <row r="154" spans="1:48" ht="15.6">
+    <row r="154" spans="1:48" ht="15.6" hidden="1">
       <c r="D154" s="17"/>
       <c r="E154" s="15"/>
       <c r="F154" s="15"/>
@@ -14638,7 +14639,7 @@
       <c r="AU154" s="1"/>
       <c r="AV154" s="1"/>
     </row>
-    <row r="155" spans="1:48" ht="15.6">
+    <row r="155" spans="1:48" ht="15.6" hidden="1">
       <c r="D155" s="17"/>
       <c r="E155" s="15"/>
       <c r="F155" s="15"/>
@@ -14687,7 +14688,7 @@
       <c r="AU155" s="1"/>
       <c r="AV155" s="1"/>
     </row>
-    <row r="156" spans="1:48" ht="15.6">
+    <row r="156" spans="1:48" ht="15.6" hidden="1">
       <c r="D156" s="17"/>
       <c r="E156" s="15"/>
       <c r="F156" s="15"/>
@@ -14736,7 +14737,7 @@
       <c r="AU156" s="1"/>
       <c r="AV156" s="1"/>
     </row>
-    <row r="157" spans="1:48" ht="15.6">
+    <row r="157" spans="1:48" ht="15.6" hidden="1">
       <c r="D157" s="17"/>
       <c r="E157" s="15"/>
       <c r="F157" s="15"/>
@@ -14785,7 +14786,7 @@
       <c r="AU157" s="1"/>
       <c r="AV157" s="1"/>
     </row>
-    <row r="158" spans="1:48" ht="15.6">
+    <row r="158" spans="1:48" ht="15.6" hidden="1">
       <c r="A158" s="51"/>
       <c r="B158" s="51"/>
       <c r="D158" s="17"/>
@@ -14836,7 +14837,7 @@
       <c r="AU158" s="1"/>
       <c r="AV158" s="1"/>
     </row>
-    <row r="159" spans="1:48" ht="15.6">
+    <row r="159" spans="1:48" ht="15.6" hidden="1">
       <c r="D159" s="17"/>
       <c r="E159" s="15"/>
       <c r="F159" s="15"/>
@@ -14885,7 +14886,7 @@
       <c r="AU159" s="1"/>
       <c r="AV159" s="1"/>
     </row>
-    <row r="160" spans="1:48" ht="15.6">
+    <row r="160" spans="1:48" ht="15.6" hidden="1">
       <c r="D160" s="17"/>
       <c r="E160" s="15"/>
       <c r="F160" s="15"/>
@@ -14934,7 +14935,7 @@
       <c r="AU160" s="1"/>
       <c r="AV160" s="1"/>
     </row>
-    <row r="161" spans="1:48" ht="15.6">
+    <row r="161" spans="1:48" ht="15.6" hidden="1">
       <c r="D161" s="17"/>
       <c r="E161" s="15"/>
       <c r="F161" s="15"/>
@@ -14983,7 +14984,7 @@
       <c r="AU161" s="1"/>
       <c r="AV161" s="1"/>
     </row>
-    <row r="162" spans="1:48" ht="15.6">
+    <row r="162" spans="1:48" ht="15.6" hidden="1">
       <c r="D162" s="17"/>
       <c r="E162" s="15"/>
       <c r="F162" s="15"/>
@@ -15032,7 +15033,7 @@
       <c r="AU162" s="1"/>
       <c r="AV162" s="1"/>
     </row>
-    <row r="163" spans="1:48" ht="15.6">
+    <row r="163" spans="1:48" ht="15.6" hidden="1">
       <c r="A163" s="51"/>
       <c r="B163" s="51"/>
       <c r="D163" s="17"/>
@@ -15083,7 +15084,7 @@
       <c r="AU163" s="1"/>
       <c r="AV163" s="1"/>
     </row>
-    <row r="164" spans="1:48" ht="15.6">
+    <row r="164" spans="1:48" ht="15.6" hidden="1">
       <c r="D164" s="17"/>
       <c r="E164" s="15"/>
       <c r="F164" s="15"/>
@@ -15132,7 +15133,7 @@
       <c r="AU164" s="1"/>
       <c r="AV164" s="1"/>
     </row>
-    <row r="165" spans="1:48">
+    <row r="165" spans="1:48" hidden="1">
       <c r="D165" s="17"/>
       <c r="E165" s="15"/>
       <c r="F165" s="15"/>
@@ -15181,7 +15182,7 @@
       <c r="AU165" s="1"/>
       <c r="AV165" s="1"/>
     </row>
-    <row r="166" spans="1:48">
+    <row r="166" spans="1:48" hidden="1">
       <c r="D166" s="17"/>
       <c r="E166" s="15"/>
       <c r="F166" s="15"/>
@@ -15230,7 +15231,7 @@
       <c r="AU166" s="1"/>
       <c r="AV166" s="1"/>
     </row>
-    <row r="167" spans="1:48">
+    <row r="167" spans="1:48" hidden="1">
       <c r="D167" s="17"/>
       <c r="E167" s="15"/>
       <c r="F167" s="15"/>
@@ -15279,7 +15280,7 @@
       <c r="AU167" s="1"/>
       <c r="AV167" s="1"/>
     </row>
-    <row r="168" spans="1:48">
+    <row r="168" spans="1:48" hidden="1">
       <c r="A168" s="51"/>
       <c r="B168" s="51"/>
       <c r="D168" s="17"/>
@@ -15330,7 +15331,7 @@
       <c r="AU168" s="1"/>
       <c r="AV168" s="1"/>
     </row>
-    <row r="169" spans="1:48">
+    <row r="169" spans="1:48" hidden="1">
       <c r="D169" s="17"/>
       <c r="E169" s="15"/>
       <c r="F169" s="15"/>
@@ -15379,7 +15380,7 @@
       <c r="AU169" s="1"/>
       <c r="AV169" s="1"/>
     </row>
-    <row r="170" spans="1:48">
+    <row r="170" spans="1:48" hidden="1">
       <c r="D170" s="17"/>
       <c r="E170" s="15"/>
       <c r="F170" s="15"/>
@@ -15428,7 +15429,7 @@
       <c r="AU170" s="1"/>
       <c r="AV170" s="1"/>
     </row>
-    <row r="171" spans="1:48">
+    <row r="171" spans="1:48" hidden="1">
       <c r="D171" s="17"/>
       <c r="E171" s="15"/>
       <c r="F171" s="15"/>
@@ -15477,7 +15478,7 @@
       <c r="AU171" s="1"/>
       <c r="AV171" s="1"/>
     </row>
-    <row r="172" spans="1:48">
+    <row r="172" spans="1:48" hidden="1">
       <c r="D172" s="17"/>
       <c r="E172" s="15"/>
       <c r="F172" s="15"/>
@@ -15526,7 +15527,7 @@
       <c r="AU172" s="1"/>
       <c r="AV172" s="1"/>
     </row>
-    <row r="173" spans="1:48">
+    <row r="173" spans="1:48" hidden="1">
       <c r="A173" s="51"/>
       <c r="B173" s="51"/>
       <c r="D173" s="17"/>
@@ -15577,7 +15578,7 @@
       <c r="AU173" s="1"/>
       <c r="AV173" s="1"/>
     </row>
-    <row r="174" spans="1:48">
+    <row r="174" spans="1:48" hidden="1">
       <c r="D174" s="17"/>
       <c r="E174" s="15"/>
       <c r="F174" s="15"/>
@@ -15626,7 +15627,7 @@
       <c r="AU174" s="1"/>
       <c r="AV174" s="1"/>
     </row>
-    <row r="175" spans="1:48">
+    <row r="175" spans="1:48" hidden="1">
       <c r="D175" s="17"/>
       <c r="E175" s="15"/>
       <c r="F175" s="15"/>
@@ -15675,7 +15676,7 @@
       <c r="AU175" s="1"/>
       <c r="AV175" s="1"/>
     </row>
-    <row r="176" spans="1:48">
+    <row r="176" spans="1:48" hidden="1">
       <c r="D176" s="17"/>
       <c r="E176" s="15"/>
       <c r="F176" s="15"/>
@@ -15724,7 +15725,7 @@
       <c r="AU176" s="1"/>
       <c r="AV176" s="1"/>
     </row>
-    <row r="177" spans="1:48">
+    <row r="177" spans="1:48" hidden="1">
       <c r="D177" s="17"/>
       <c r="E177" s="15"/>
       <c r="F177" s="15"/>
@@ -15773,7 +15774,7 @@
       <c r="AU177" s="1"/>
       <c r="AV177" s="1"/>
     </row>
-    <row r="178" spans="1:48">
+    <row r="178" spans="1:48" hidden="1">
       <c r="A178" s="51"/>
       <c r="B178" s="51"/>
       <c r="D178" s="17"/>
@@ -15824,7 +15825,7 @@
       <c r="AU178" s="1"/>
       <c r="AV178" s="1"/>
     </row>
-    <row r="179" spans="1:48">
+    <row r="179" spans="1:48" hidden="1">
       <c r="D179" s="17"/>
       <c r="E179" s="15"/>
       <c r="F179" s="15"/>
@@ -15873,7 +15874,7 @@
       <c r="AU179" s="1"/>
       <c r="AV179" s="1"/>
     </row>
-    <row r="180" spans="1:48">
+    <row r="180" spans="1:48" hidden="1">
       <c r="D180" s="17"/>
       <c r="E180" s="15"/>
       <c r="F180" s="15"/>
@@ -15922,7 +15923,7 @@
       <c r="AU180" s="1"/>
       <c r="AV180" s="1"/>
     </row>
-    <row r="181" spans="1:48">
+    <row r="181" spans="1:48" hidden="1">
       <c r="D181" s="17"/>
       <c r="E181" s="15"/>
       <c r="F181" s="15"/>
@@ -15971,7 +15972,7 @@
       <c r="AU181" s="1"/>
       <c r="AV181" s="1"/>
     </row>
-    <row r="182" spans="1:48">
+    <row r="182" spans="1:48" hidden="1">
       <c r="D182" s="17"/>
       <c r="E182" s="15"/>
       <c r="F182" s="15"/>
@@ -16020,7 +16021,7 @@
       <c r="AU182" s="1"/>
       <c r="AV182" s="1"/>
     </row>
-    <row r="183" spans="1:48">
+    <row r="183" spans="1:48" hidden="1">
       <c r="A183" s="51"/>
       <c r="B183" s="51"/>
       <c r="D183" s="17"/>
@@ -16071,7 +16072,7 @@
       <c r="AU183" s="1"/>
       <c r="AV183" s="1"/>
     </row>
-    <row r="184" spans="1:48">
+    <row r="184" spans="1:48" hidden="1">
       <c r="D184" s="17"/>
       <c r="E184" s="15"/>
       <c r="F184" s="15"/>
@@ -16120,7 +16121,7 @@
       <c r="AU184" s="1"/>
       <c r="AV184" s="1"/>
     </row>
-    <row r="185" spans="1:48">
+    <row r="185" spans="1:48" hidden="1">
       <c r="D185" s="17"/>
       <c r="E185" s="15"/>
       <c r="F185" s="15"/>
@@ -16169,7 +16170,7 @@
       <c r="AU185" s="1"/>
       <c r="AV185" s="1"/>
     </row>
-    <row r="186" spans="1:48">
+    <row r="186" spans="1:48" hidden="1">
       <c r="D186" s="17"/>
       <c r="E186" s="15"/>
       <c r="F186" s="15"/>
@@ -16218,7 +16219,7 @@
       <c r="AU186" s="1"/>
       <c r="AV186" s="1"/>
     </row>
-    <row r="187" spans="1:48">
+    <row r="187" spans="1:48" hidden="1">
       <c r="D187" s="17"/>
       <c r="E187" s="15"/>
       <c r="F187" s="15"/>
@@ -16267,7 +16268,7 @@
       <c r="AU187" s="1"/>
       <c r="AV187" s="1"/>
     </row>
-    <row r="188" spans="1:48">
+    <row r="188" spans="1:48" hidden="1">
       <c r="A188" s="51"/>
       <c r="B188" s="51"/>
       <c r="D188" s="17"/>
@@ -16318,7 +16319,7 @@
       <c r="AU188" s="1"/>
       <c r="AV188" s="1"/>
     </row>
-    <row r="189" spans="1:48">
+    <row r="189" spans="1:48" hidden="1">
       <c r="D189" s="17"/>
       <c r="E189" s="15"/>
       <c r="F189" s="15"/>
@@ -16367,7 +16368,7 @@
       <c r="AU189" s="1"/>
       <c r="AV189" s="1"/>
     </row>
-    <row r="190" spans="1:48">
+    <row r="190" spans="1:48" hidden="1">
       <c r="D190" s="17"/>
       <c r="E190" s="15"/>
       <c r="F190" s="15"/>
@@ -16416,7 +16417,7 @@
       <c r="AU190" s="1"/>
       <c r="AV190" s="1"/>
     </row>
-    <row r="191" spans="1:48">
+    <row r="191" spans="1:48" hidden="1">
       <c r="D191" s="17"/>
       <c r="E191" s="15"/>
       <c r="F191" s="15"/>
@@ -16465,7 +16466,7 @@
       <c r="AU191" s="1"/>
       <c r="AV191" s="1"/>
     </row>
-    <row r="192" spans="1:48">
+    <row r="192" spans="1:48" hidden="1">
       <c r="D192" s="17"/>
       <c r="E192" s="15"/>
       <c r="F192" s="15"/>
@@ -16514,7 +16515,7 @@
       <c r="AU192" s="1"/>
       <c r="AV192" s="1"/>
     </row>
-    <row r="193" spans="1:48">
+    <row r="193" spans="1:48" hidden="1">
       <c r="A193" s="51"/>
       <c r="B193" s="51"/>
       <c r="D193" s="17"/>
@@ -16565,7 +16566,7 @@
       <c r="AU193" s="1"/>
       <c r="AV193" s="1"/>
     </row>
-    <row r="194" spans="1:48">
+    <row r="194" spans="1:48" hidden="1">
       <c r="D194" s="17"/>
       <c r="E194" s="15"/>
       <c r="F194" s="15"/>
@@ -16614,7 +16615,7 @@
       <c r="AU194" s="1"/>
       <c r="AV194" s="1"/>
     </row>
-    <row r="195" spans="1:48">
+    <row r="195" spans="1:48" hidden="1">
       <c r="D195" s="17"/>
       <c r="E195" s="15"/>
       <c r="F195" s="15"/>
@@ -16663,7 +16664,7 @@
       <c r="AU195" s="1"/>
       <c r="AV195" s="1"/>
     </row>
-    <row r="196" spans="1:48">
+    <row r="196" spans="1:48" hidden="1">
       <c r="D196" s="17"/>
       <c r="E196" s="15"/>
       <c r="F196" s="15"/>
@@ -16712,7 +16713,7 @@
       <c r="AU196" s="1"/>
       <c r="AV196" s="1"/>
     </row>
-    <row r="197" spans="1:48">
+    <row r="197" spans="1:48" hidden="1">
       <c r="D197" s="17"/>
       <c r="E197" s="15"/>
       <c r="F197" s="15"/>
@@ -16761,7 +16762,7 @@
       <c r="AU197" s="1"/>
       <c r="AV197" s="1"/>
     </row>
-    <row r="198" spans="1:48">
+    <row r="198" spans="1:48" hidden="1">
       <c r="A198" s="51"/>
       <c r="B198" s="51"/>
       <c r="D198" s="17"/>
@@ -16812,7 +16813,7 @@
       <c r="AU198" s="1"/>
       <c r="AV198" s="1"/>
     </row>
-    <row r="199" spans="1:48">
+    <row r="199" spans="1:48" hidden="1">
       <c r="D199" s="17"/>
       <c r="E199" s="15"/>
       <c r="F199" s="15"/>
@@ -16861,7 +16862,7 @@
       <c r="AU199" s="1"/>
       <c r="AV199" s="1"/>
     </row>
-    <row r="200" spans="1:48">
+    <row r="200" spans="1:48" hidden="1">
       <c r="D200" s="17"/>
       <c r="E200" s="15"/>
       <c r="F200" s="15"/>
@@ -16910,7 +16911,7 @@
       <c r="AU200" s="1"/>
       <c r="AV200" s="1"/>
     </row>
-    <row r="201" spans="1:48">
+    <row r="201" spans="1:48" hidden="1">
       <c r="D201" s="17"/>
       <c r="E201" s="15"/>
       <c r="F201" s="15"/>
@@ -16959,7 +16960,7 @@
       <c r="AU201" s="1"/>
       <c r="AV201" s="1"/>
     </row>
-    <row r="202" spans="1:48">
+    <row r="202" spans="1:48" hidden="1">
       <c r="D202" s="17"/>
       <c r="E202" s="15"/>
       <c r="F202" s="15"/>
@@ -17008,7 +17009,7 @@
       <c r="AU202" s="1"/>
       <c r="AV202" s="1"/>
     </row>
-    <row r="203" spans="1:48">
+    <row r="203" spans="1:48" hidden="1">
       <c r="A203" s="51"/>
       <c r="B203" s="51"/>
       <c r="D203" s="17"/>
@@ -17059,7 +17060,7 @@
       <c r="AU203" s="1"/>
       <c r="AV203" s="1"/>
     </row>
-    <row r="204" spans="1:48">
+    <row r="204" spans="1:48" hidden="1">
       <c r="D204" s="17"/>
       <c r="E204" s="15"/>
       <c r="F204" s="15"/>
@@ -17108,7 +17109,7 @@
       <c r="AU204" s="1"/>
       <c r="AV204" s="1"/>
     </row>
-    <row r="205" spans="1:48">
+    <row r="205" spans="1:48" hidden="1">
       <c r="D205" s="17"/>
       <c r="E205" s="15"/>
       <c r="F205" s="15"/>
@@ -17157,7 +17158,7 @@
       <c r="AU205" s="1"/>
       <c r="AV205" s="1"/>
     </row>
-    <row r="206" spans="1:48">
+    <row r="206" spans="1:48" hidden="1">
       <c r="D206" s="17"/>
       <c r="E206" s="15"/>
       <c r="F206" s="15"/>
@@ -17206,7 +17207,7 @@
       <c r="AU206" s="1"/>
       <c r="AV206" s="1"/>
     </row>
-    <row r="207" spans="1:48">
+    <row r="207" spans="1:48" hidden="1">
       <c r="D207" s="17"/>
       <c r="E207" s="15"/>
       <c r="F207" s="15"/>
@@ -17255,7 +17256,7 @@
       <c r="AU207" s="1"/>
       <c r="AV207" s="1"/>
     </row>
-    <row r="208" spans="1:48">
+    <row r="208" spans="1:48" hidden="1">
       <c r="A208" s="51"/>
       <c r="B208" s="51"/>
       <c r="D208" s="17"/>
@@ -17306,7 +17307,7 @@
       <c r="AU208" s="1"/>
       <c r="AV208" s="1"/>
     </row>
-    <row r="209" spans="1:48">
+    <row r="209" spans="1:48" hidden="1">
       <c r="D209" s="17"/>
       <c r="E209" s="15"/>
       <c r="F209" s="15"/>
@@ -17355,7 +17356,7 @@
       <c r="AU209" s="1"/>
       <c r="AV209" s="1"/>
     </row>
-    <row r="210" spans="1:48">
+    <row r="210" spans="1:48" hidden="1">
       <c r="D210" s="17"/>
       <c r="E210" s="15"/>
       <c r="F210" s="15"/>
@@ -17404,7 +17405,7 @@
       <c r="AU210" s="1"/>
       <c r="AV210" s="1"/>
     </row>
-    <row r="211" spans="1:48">
+    <row r="211" spans="1:48" hidden="1">
       <c r="D211" s="17"/>
       <c r="E211" s="15"/>
       <c r="F211" s="15"/>
@@ -17453,7 +17454,7 @@
       <c r="AU211" s="1"/>
       <c r="AV211" s="1"/>
     </row>
-    <row r="212" spans="1:48">
+    <row r="212" spans="1:48" hidden="1">
       <c r="D212" s="17"/>
       <c r="E212" s="15"/>
       <c r="F212" s="15"/>
@@ -17502,7 +17503,7 @@
       <c r="AU212" s="1"/>
       <c r="AV212" s="1"/>
     </row>
-    <row r="213" spans="1:48">
+    <row r="213" spans="1:48" hidden="1">
       <c r="A213" s="51"/>
       <c r="B213" s="51"/>
       <c r="D213" s="17"/>
@@ -17553,7 +17554,7 @@
       <c r="AU213" s="1"/>
       <c r="AV213" s="1"/>
     </row>
-    <row r="214" spans="1:48">
+    <row r="214" spans="1:48" hidden="1">
       <c r="D214" s="17"/>
       <c r="E214" s="15"/>
       <c r="F214" s="15"/>
@@ -17602,7 +17603,7 @@
       <c r="AU214" s="1"/>
       <c r="AV214" s="1"/>
     </row>
-    <row r="215" spans="1:48">
+    <row r="215" spans="1:48" hidden="1">
       <c r="D215" s="17"/>
       <c r="E215" s="15"/>
       <c r="F215" s="15"/>
@@ -17651,7 +17652,7 @@
       <c r="AU215" s="1"/>
       <c r="AV215" s="1"/>
     </row>
-    <row r="216" spans="1:48">
+    <row r="216" spans="1:48" hidden="1">
       <c r="D216" s="17"/>
       <c r="E216" s="15"/>
       <c r="F216" s="15"/>
@@ -17700,7 +17701,7 @@
       <c r="AU216" s="1"/>
       <c r="AV216" s="1"/>
     </row>
-    <row r="217" spans="1:48">
+    <row r="217" spans="1:48" hidden="1">
       <c r="D217" s="17"/>
       <c r="E217" s="15"/>
       <c r="F217" s="15"/>
@@ -17727,7 +17728,7 @@
       <c r="Y217" s="2"/>
       <c r="Z217" s="2"/>
     </row>
-    <row r="218" spans="1:48">
+    <row r="218" spans="1:48" hidden="1">
       <c r="A218" s="51"/>
       <c r="B218" s="51"/>
       <c r="D218" s="17"/>
@@ -17756,7 +17757,7 @@
       <c r="Y218" s="2"/>
       <c r="Z218" s="2"/>
     </row>
-    <row r="219" spans="1:48">
+    <row r="219" spans="1:48" hidden="1">
       <c r="D219" s="17"/>
       <c r="E219" s="15"/>
       <c r="F219" s="15"/>
@@ -17783,7 +17784,7 @@
       <c r="Y219" s="2"/>
       <c r="Z219" s="2"/>
     </row>
-    <row r="220" spans="1:48">
+    <row r="220" spans="1:48" hidden="1">
       <c r="D220" s="17"/>
       <c r="E220" s="15"/>
       <c r="F220" s="15"/>
@@ -17810,7 +17811,7 @@
       <c r="Y220" s="2"/>
       <c r="Z220" s="2"/>
     </row>
-    <row r="221" spans="1:48">
+    <row r="221" spans="1:48" hidden="1">
       <c r="D221" s="17"/>
       <c r="E221" s="15"/>
       <c r="F221" s="15"/>
@@ -17837,7 +17838,7 @@
       <c r="Y221" s="2"/>
       <c r="Z221" s="2"/>
     </row>
-    <row r="222" spans="1:48">
+    <row r="222" spans="1:48" hidden="1">
       <c r="D222" s="17"/>
       <c r="E222" s="15"/>
       <c r="F222" s="15"/>
@@ -17864,7 +17865,7 @@
       <c r="Y222" s="2"/>
       <c r="Z222" s="2"/>
     </row>
-    <row r="223" spans="1:48">
+    <row r="223" spans="1:48" hidden="1">
       <c r="A223" s="51"/>
       <c r="B223" s="51"/>
       <c r="D223" s="17"/>
@@ -17893,7 +17894,7 @@
       <c r="Y223" s="2"/>
       <c r="Z223" s="2"/>
     </row>
-    <row r="224" spans="1:48">
+    <row r="224" spans="1:48" hidden="1">
       <c r="D224" s="17"/>
       <c r="E224" s="15"/>
       <c r="F224" s="15"/>
@@ -17920,7 +17921,7 @@
       <c r="Y224" s="2"/>
       <c r="Z224" s="2"/>
     </row>
-    <row r="225" spans="1:26">
+    <row r="225" spans="1:26" hidden="1">
       <c r="D225" s="17"/>
       <c r="E225" s="15"/>
       <c r="F225" s="15"/>
@@ -17947,7 +17948,7 @@
       <c r="Y225" s="2"/>
       <c r="Z225" s="2"/>
     </row>
-    <row r="226" spans="1:26">
+    <row r="226" spans="1:26" hidden="1">
       <c r="D226" s="17"/>
       <c r="E226" s="15"/>
       <c r="F226" s="15"/>
@@ -17974,7 +17975,7 @@
       <c r="Y226" s="2"/>
       <c r="Z226" s="2"/>
     </row>
-    <row r="227" spans="1:26">
+    <row r="227" spans="1:26" hidden="1">
       <c r="D227" s="17"/>
       <c r="E227" s="15"/>
       <c r="F227" s="15"/>
@@ -18001,7 +18002,7 @@
       <c r="Y227" s="2"/>
       <c r="Z227" s="2"/>
     </row>
-    <row r="228" spans="1:26">
+    <row r="228" spans="1:26" hidden="1">
       <c r="A228" s="51"/>
       <c r="B228" s="51"/>
       <c r="D228" s="17"/>
@@ -18030,7 +18031,7 @@
       <c r="Y228" s="2"/>
       <c r="Z228" s="2"/>
     </row>
-    <row r="229" spans="1:26">
+    <row r="229" spans="1:26" hidden="1">
       <c r="D229" s="17"/>
       <c r="E229" s="15"/>
       <c r="F229" s="15"/>
@@ -18057,7 +18058,7 @@
       <c r="Y229" s="2"/>
       <c r="Z229" s="2"/>
     </row>
-    <row r="230" spans="1:26">
+    <row r="230" spans="1:26" hidden="1">
       <c r="D230" s="17"/>
       <c r="E230" s="15"/>
       <c r="F230" s="15"/>
@@ -18084,7 +18085,7 @@
       <c r="Y230" s="2"/>
       <c r="Z230" s="2"/>
     </row>
-    <row r="231" spans="1:26">
+    <row r="231" spans="1:26" hidden="1">
       <c r="D231" s="17"/>
       <c r="E231" s="15"/>
       <c r="F231" s="15"/>
@@ -18111,7 +18112,7 @@
       <c r="Y231" s="2"/>
       <c r="Z231" s="2"/>
     </row>
-    <row r="232" spans="1:26">
+    <row r="232" spans="1:26" hidden="1">
       <c r="D232" s="17"/>
       <c r="E232" s="15"/>
       <c r="F232" s="15"/>
@@ -18138,7 +18139,7 @@
       <c r="Y232" s="2"/>
       <c r="Z232" s="2"/>
     </row>
-    <row r="233" spans="1:26">
+    <row r="233" spans="1:26" hidden="1">
       <c r="A233" s="51"/>
       <c r="B233" s="51"/>
       <c r="D233" s="17"/>
@@ -18167,7 +18168,7 @@
       <c r="Y233" s="2"/>
       <c r="Z233" s="2"/>
     </row>
-    <row r="234" spans="1:26">
+    <row r="234" spans="1:26" hidden="1">
       <c r="D234" s="17"/>
       <c r="E234" s="15"/>
       <c r="F234" s="15"/>
@@ -18194,7 +18195,7 @@
       <c r="Y234" s="2"/>
       <c r="Z234" s="2"/>
     </row>
-    <row r="235" spans="1:26">
+    <row r="235" spans="1:26" hidden="1">
       <c r="D235" s="17"/>
       <c r="E235" s="15"/>
       <c r="F235" s="15"/>
@@ -18221,7 +18222,7 @@
       <c r="Y235" s="2"/>
       <c r="Z235" s="2"/>
     </row>
-    <row r="236" spans="1:26">
+    <row r="236" spans="1:26" hidden="1">
       <c r="D236" s="17"/>
       <c r="E236" s="15"/>
       <c r="F236" s="15"/>
@@ -18248,7 +18249,7 @@
       <c r="Y236" s="2"/>
       <c r="Z236" s="2"/>
     </row>
-    <row r="237" spans="1:26">
+    <row r="237" spans="1:26" hidden="1">
       <c r="D237" s="17"/>
       <c r="E237" s="15"/>
       <c r="F237" s="15"/>
@@ -18275,7 +18276,7 @@
       <c r="Y237" s="2"/>
       <c r="Z237" s="2"/>
     </row>
-    <row r="238" spans="1:26">
+    <row r="238" spans="1:26" hidden="1">
       <c r="A238" s="51"/>
       <c r="B238" s="51"/>
       <c r="D238" s="17"/>
@@ -18304,7 +18305,7 @@
       <c r="Y238" s="2"/>
       <c r="Z238" s="2"/>
     </row>
-    <row r="239" spans="1:26">
+    <row r="239" spans="1:26" hidden="1">
       <c r="D239" s="17"/>
       <c r="E239" s="15"/>
       <c r="F239" s="15"/>
@@ -18331,7 +18332,7 @@
       <c r="Y239" s="2"/>
       <c r="Z239" s="2"/>
     </row>
-    <row r="240" spans="1:26">
+    <row r="240" spans="1:26" hidden="1">
       <c r="D240" s="17"/>
       <c r="E240" s="15"/>
       <c r="F240" s="15"/>
@@ -18358,7 +18359,7 @@
       <c r="Y240" s="2"/>
       <c r="Z240" s="2"/>
     </row>
-    <row r="241" spans="1:26">
+    <row r="241" spans="1:26" hidden="1">
       <c r="D241" s="17"/>
       <c r="E241" s="15"/>
       <c r="F241" s="15"/>
@@ -18385,7 +18386,7 @@
       <c r="Y241" s="2"/>
       <c r="Z241" s="2"/>
     </row>
-    <row r="242" spans="1:26">
+    <row r="242" spans="1:26" hidden="1">
       <c r="D242" s="17"/>
       <c r="E242" s="15"/>
       <c r="F242" s="15"/>
@@ -18412,7 +18413,7 @@
       <c r="Y242" s="2"/>
       <c r="Z242" s="2"/>
     </row>
-    <row r="243" spans="1:26">
+    <row r="243" spans="1:26" hidden="1">
       <c r="A243" s="51"/>
       <c r="B243" s="51"/>
       <c r="D243" s="17"/>
@@ -18441,7 +18442,7 @@
       <c r="Y243" s="2"/>
       <c r="Z243" s="2"/>
     </row>
-    <row r="244" spans="1:26">
+    <row r="244" spans="1:26" hidden="1">
       <c r="D244" s="17"/>
       <c r="E244" s="15"/>
       <c r="F244" s="15"/>
@@ -18468,7 +18469,7 @@
       <c r="Y244" s="2"/>
       <c r="Z244" s="2"/>
     </row>
-    <row r="245" spans="1:26">
+    <row r="245" spans="1:26" hidden="1">
       <c r="D245" s="17"/>
       <c r="E245" s="15"/>
       <c r="F245" s="15"/>
@@ -18495,7 +18496,7 @@
       <c r="Y245" s="2"/>
       <c r="Z245" s="2"/>
     </row>
-    <row r="246" spans="1:26">
+    <row r="246" spans="1:26" hidden="1">
       <c r="D246" s="17"/>
       <c r="E246" s="15"/>
       <c r="F246" s="15"/>
@@ -18522,7 +18523,7 @@
       <c r="Y246" s="2"/>
       <c r="Z246" s="2"/>
     </row>
-    <row r="247" spans="1:26">
+    <row r="247" spans="1:26" hidden="1">
       <c r="D247" s="17"/>
       <c r="E247" s="15"/>
       <c r="F247" s="15"/>
@@ -18549,7 +18550,7 @@
       <c r="Y247" s="2"/>
       <c r="Z247" s="2"/>
     </row>
-    <row r="248" spans="1:26">
+    <row r="248" spans="1:26" hidden="1">
       <c r="A248" s="51"/>
       <c r="B248" s="51"/>
       <c r="D248" s="17"/>
@@ -18578,7 +18579,7 @@
       <c r="Y248" s="2"/>
       <c r="Z248" s="2"/>
     </row>
-    <row r="249" spans="1:26">
+    <row r="249" spans="1:26" hidden="1">
       <c r="D249" s="17"/>
       <c r="E249" s="15"/>
       <c r="F249" s="15"/>
@@ -18605,7 +18606,7 @@
       <c r="Y249" s="2"/>
       <c r="Z249" s="2"/>
     </row>
-    <row r="250" spans="1:26">
+    <row r="250" spans="1:26" hidden="1">
       <c r="D250" s="17"/>
       <c r="E250" s="15"/>
       <c r="F250" s="15"/>
@@ -18632,7 +18633,7 @@
       <c r="Y250" s="2"/>
       <c r="Z250" s="2"/>
     </row>
-    <row r="251" spans="1:26">
+    <row r="251" spans="1:26" hidden="1">
       <c r="D251" s="17"/>
       <c r="E251" s="15"/>
       <c r="F251" s="15"/>
@@ -18659,7 +18660,7 @@
       <c r="Y251" s="2"/>
       <c r="Z251" s="2"/>
     </row>
-    <row r="252" spans="1:26">
+    <row r="252" spans="1:26" hidden="1">
       <c r="D252" s="17"/>
       <c r="E252" s="15"/>
       <c r="F252" s="15"/>
@@ -18686,7 +18687,7 @@
       <c r="Y252" s="2"/>
       <c r="Z252" s="2"/>
     </row>
-    <row r="253" spans="1:26">
+    <row r="253" spans="1:26" hidden="1">
       <c r="A253" s="51"/>
       <c r="B253" s="51"/>
       <c r="D253" s="17"/>
@@ -18715,7 +18716,7 @@
       <c r="Y253" s="2"/>
       <c r="Z253" s="2"/>
     </row>
-    <row r="254" spans="1:26">
+    <row r="254" spans="1:26" hidden="1">
       <c r="D254" s="17"/>
       <c r="E254" s="15"/>
       <c r="F254" s="15"/>
@@ -18742,7 +18743,7 @@
       <c r="Y254" s="2"/>
       <c r="Z254" s="2"/>
     </row>
-    <row r="255" spans="1:26">
+    <row r="255" spans="1:26" hidden="1">
       <c r="D255" s="17"/>
       <c r="E255" s="15"/>
       <c r="F255" s="15"/>
@@ -18769,7 +18770,7 @@
       <c r="Y255" s="2"/>
       <c r="Z255" s="2"/>
     </row>
-    <row r="256" spans="1:26">
+    <row r="256" spans="1:26" hidden="1">
       <c r="D256" s="17"/>
       <c r="E256" s="15"/>
       <c r="F256" s="15"/>
@@ -18796,7 +18797,7 @@
       <c r="Y256" s="2"/>
       <c r="Z256" s="2"/>
     </row>
-    <row r="257" spans="1:26">
+    <row r="257" spans="1:26" hidden="1">
       <c r="D257" s="17"/>
       <c r="E257" s="15"/>
       <c r="F257" s="15"/>
@@ -18823,7 +18824,7 @@
       <c r="Y257" s="2"/>
       <c r="Z257" s="2"/>
     </row>
-    <row r="258" spans="1:26">
+    <row r="258" spans="1:26" hidden="1">
       <c r="A258" s="51"/>
       <c r="B258" s="51"/>
       <c r="D258" s="17"/>
@@ -18852,7 +18853,7 @@
       <c r="Y258" s="2"/>
       <c r="Z258" s="2"/>
     </row>
-    <row r="259" spans="1:26">
+    <row r="259" spans="1:26" hidden="1">
       <c r="D259" s="17"/>
       <c r="E259" s="15"/>
       <c r="F259" s="15"/>
@@ -18879,7 +18880,7 @@
       <c r="Y259" s="2"/>
       <c r="Z259" s="2"/>
     </row>
-    <row r="260" spans="1:26">
+    <row r="260" spans="1:26" hidden="1">
       <c r="D260" s="17"/>
       <c r="E260" s="15"/>
       <c r="F260" s="15"/>
@@ -18906,7 +18907,7 @@
       <c r="Y260" s="2"/>
       <c r="Z260" s="2"/>
     </row>
-    <row r="261" spans="1:26">
+    <row r="261" spans="1:26" hidden="1">
       <c r="D261" s="17"/>
       <c r="E261" s="15"/>
       <c r="F261" s="15"/>
@@ -18933,7 +18934,7 @@
       <c r="Y261" s="2"/>
       <c r="Z261" s="2"/>
     </row>
-    <row r="262" spans="1:26">
+    <row r="262" spans="1:26" hidden="1">
       <c r="D262" s="17"/>
       <c r="E262" s="15"/>
       <c r="F262" s="15"/>
@@ -18960,7 +18961,7 @@
       <c r="Y262" s="2"/>
       <c r="Z262" s="2"/>
     </row>
-    <row r="263" spans="1:26">
+    <row r="263" spans="1:26" hidden="1">
       <c r="A263" s="51"/>
       <c r="B263" s="51"/>
       <c r="D263" s="17"/>
@@ -18989,7 +18990,7 @@
       <c r="Y263" s="2"/>
       <c r="Z263" s="2"/>
     </row>
-    <row r="264" spans="1:26">
+    <row r="264" spans="1:26" hidden="1">
       <c r="D264" s="17"/>
       <c r="E264" s="15"/>
       <c r="F264" s="15"/>
@@ -19016,7 +19017,7 @@
       <c r="Y264" s="2"/>
       <c r="Z264" s="2"/>
     </row>
-    <row r="265" spans="1:26">
+    <row r="265" spans="1:26" hidden="1">
       <c r="D265" s="17"/>
       <c r="E265" s="15"/>
       <c r="F265" s="15"/>
@@ -19043,7 +19044,7 @@
       <c r="Y265" s="2"/>
       <c r="Z265" s="2"/>
     </row>
-    <row r="266" spans="1:26">
+    <row r="266" spans="1:26" hidden="1">
       <c r="D266" s="17"/>
       <c r="E266" s="15"/>
       <c r="F266" s="15"/>
@@ -19070,7 +19071,7 @@
       <c r="Y266" s="2"/>
       <c r="Z266" s="2"/>
     </row>
-    <row r="267" spans="1:26">
+    <row r="267" spans="1:26" hidden="1">
       <c r="D267" s="17"/>
       <c r="E267" s="15"/>
       <c r="F267" s="15"/>
@@ -19097,7 +19098,7 @@
       <c r="Y267" s="2"/>
       <c r="Z267" s="2"/>
     </row>
-    <row r="268" spans="1:26">
+    <row r="268" spans="1:26" hidden="1">
       <c r="A268" s="51"/>
       <c r="B268" s="51"/>
       <c r="D268" s="17"/>
@@ -19126,7 +19127,7 @@
       <c r="Y268" s="2"/>
       <c r="Z268" s="2"/>
     </row>
-    <row r="269" spans="1:26">
+    <row r="269" spans="1:26" hidden="1">
       <c r="D269" s="17"/>
       <c r="E269" s="15"/>
       <c r="F269" s="15"/>
@@ -19153,7 +19154,7 @@
       <c r="Y269" s="2"/>
       <c r="Z269" s="2"/>
     </row>
-    <row r="270" spans="1:26">
+    <row r="270" spans="1:26" hidden="1">
       <c r="D270" s="17"/>
       <c r="E270" s="15"/>
       <c r="F270" s="15"/>
@@ -19180,7 +19181,7 @@
       <c r="Y270" s="2"/>
       <c r="Z270" s="2"/>
     </row>
-    <row r="271" spans="1:26">
+    <row r="271" spans="1:26" hidden="1">
       <c r="D271" s="17"/>
       <c r="E271" s="15"/>
       <c r="F271" s="15"/>
@@ -19207,7 +19208,7 @@
       <c r="Y271" s="2"/>
       <c r="Z271" s="2"/>
     </row>
-    <row r="272" spans="1:26">
+    <row r="272" spans="1:26" hidden="1">
       <c r="D272" s="17"/>
       <c r="E272" s="15"/>
       <c r="F272" s="15"/>
@@ -19234,7 +19235,7 @@
       <c r="Y272" s="2"/>
       <c r="Z272" s="2"/>
     </row>
-    <row r="273" spans="1:26">
+    <row r="273" spans="1:26" hidden="1">
       <c r="A273" s="51"/>
       <c r="B273" s="51"/>
       <c r="D273" s="17"/>
@@ -19263,7 +19264,7 @@
       <c r="Y273" s="2"/>
       <c r="Z273" s="2"/>
     </row>
-    <row r="274" spans="1:26">
+    <row r="274" spans="1:26" hidden="1">
       <c r="D274" s="17"/>
       <c r="E274" s="15"/>
       <c r="F274" s="15"/>
@@ -19290,7 +19291,7 @@
       <c r="Y274" s="2"/>
       <c r="Z274" s="2"/>
     </row>
-    <row r="275" spans="1:26">
+    <row r="275" spans="1:26" hidden="1">
       <c r="D275" s="17"/>
       <c r="E275" s="15"/>
       <c r="F275" s="15"/>
@@ -19317,7 +19318,7 @@
       <c r="Y275" s="2"/>
       <c r="Z275" s="2"/>
     </row>
-    <row r="276" spans="1:26">
+    <row r="276" spans="1:26" hidden="1">
       <c r="D276" s="17"/>
       <c r="E276" s="15"/>
       <c r="F276" s="15"/>
@@ -19344,7 +19345,7 @@
       <c r="Y276" s="2"/>
       <c r="Z276" s="2"/>
     </row>
-    <row r="277" spans="1:26">
+    <row r="277" spans="1:26" hidden="1">
       <c r="D277" s="17"/>
       <c r="E277" s="15"/>
       <c r="F277" s="15"/>
@@ -19371,7 +19372,7 @@
       <c r="Y277" s="2"/>
       <c r="Z277" s="2"/>
     </row>
-    <row r="278" spans="1:26">
+    <row r="278" spans="1:26" hidden="1">
       <c r="A278" s="51"/>
       <c r="B278" s="51"/>
       <c r="D278" s="17"/>
@@ -19400,7 +19401,7 @@
       <c r="Y278" s="2"/>
       <c r="Z278" s="2"/>
     </row>
-    <row r="279" spans="1:26">
+    <row r="279" spans="1:26" hidden="1">
       <c r="D279" s="17"/>
       <c r="E279" s="15"/>
       <c r="F279" s="15"/>
@@ -19427,7 +19428,7 @@
       <c r="Y279" s="2"/>
       <c r="Z279" s="2"/>
     </row>
-    <row r="280" spans="1:26">
+    <row r="280" spans="1:26" hidden="1">
       <c r="D280" s="17"/>
       <c r="E280" s="15"/>
       <c r="F280" s="15"/>
@@ -19454,7 +19455,7 @@
       <c r="Y280" s="2"/>
       <c r="Z280" s="2"/>
     </row>
-    <row r="281" spans="1:26">
+    <row r="281" spans="1:26" hidden="1">
       <c r="D281" s="17"/>
       <c r="E281" s="15"/>
       <c r="F281" s="15"/>
@@ -19481,7 +19482,7 @@
       <c r="Y281" s="2"/>
       <c r="Z281" s="2"/>
     </row>
-    <row r="282" spans="1:26">
+    <row r="282" spans="1:26" hidden="1">
       <c r="D282" s="17"/>
       <c r="E282" s="15"/>
       <c r="F282" s="15"/>
@@ -19508,7 +19509,7 @@
       <c r="Y282" s="2"/>
       <c r="Z282" s="2"/>
     </row>
-    <row r="283" spans="1:26">
+    <row r="283" spans="1:26" hidden="1">
       <c r="A283" s="51"/>
       <c r="B283" s="51"/>
       <c r="D283" s="17"/>
@@ -19537,7 +19538,7 @@
       <c r="Y283" s="2"/>
       <c r="Z283" s="2"/>
     </row>
-    <row r="284" spans="1:26">
+    <row r="284" spans="1:26" hidden="1">
       <c r="D284" s="17"/>
       <c r="E284" s="15"/>
       <c r="F284" s="15"/>
@@ -19564,7 +19565,7 @@
       <c r="Y284" s="2"/>
       <c r="Z284" s="2"/>
     </row>
-    <row r="285" spans="1:26">
+    <row r="285" spans="1:26" hidden="1">
       <c r="D285" s="17"/>
       <c r="E285" s="15"/>
       <c r="F285" s="15"/>
@@ -19591,7 +19592,7 @@
       <c r="Y285" s="2"/>
       <c r="Z285" s="2"/>
     </row>
-    <row r="286" spans="1:26">
+    <row r="286" spans="1:26" hidden="1">
       <c r="D286" s="17"/>
       <c r="E286" s="15"/>
       <c r="F286" s="15"/>
@@ -19618,7 +19619,7 @@
       <c r="Y286" s="2"/>
       <c r="Z286" s="2"/>
     </row>
-    <row r="287" spans="1:26">
+    <row r="287" spans="1:26" hidden="1">
       <c r="D287" s="17"/>
       <c r="E287" s="15"/>
       <c r="F287" s="15"/>
@@ -19645,7 +19646,7 @@
       <c r="Y287" s="2"/>
       <c r="Z287" s="2"/>
     </row>
-    <row r="288" spans="1:26">
+    <row r="288" spans="1:26" hidden="1">
       <c r="A288" s="51"/>
       <c r="B288" s="51"/>
       <c r="D288" s="17"/>
@@ -19674,7 +19675,7 @@
       <c r="Y288" s="2"/>
       <c r="Z288" s="2"/>
     </row>
-    <row r="289" spans="1:26">
+    <row r="289" spans="1:26" hidden="1">
       <c r="D289" s="17"/>
       <c r="E289" s="15"/>
       <c r="F289" s="15"/>
@@ -19701,7 +19702,7 @@
       <c r="Y289" s="2"/>
       <c r="Z289" s="2"/>
     </row>
-    <row r="290" spans="1:26">
+    <row r="290" spans="1:26" hidden="1">
       <c r="D290" s="17"/>
       <c r="E290" s="15"/>
       <c r="F290" s="15"/>
@@ -19728,7 +19729,7 @@
       <c r="Y290" s="2"/>
       <c r="Z290" s="2"/>
     </row>
-    <row r="291" spans="1:26">
+    <row r="291" spans="1:26" hidden="1">
       <c r="D291" s="17"/>
       <c r="E291" s="15"/>
       <c r="F291" s="15"/>
@@ -19755,7 +19756,7 @@
       <c r="Y291" s="2"/>
       <c r="Z291" s="2"/>
     </row>
-    <row r="292" spans="1:26">
+    <row r="292" spans="1:26" hidden="1">
       <c r="D292" s="17"/>
       <c r="E292" s="15"/>
       <c r="F292" s="15"/>
@@ -19782,7 +19783,7 @@
       <c r="Y292" s="2"/>
       <c r="Z292" s="2"/>
     </row>
-    <row r="293" spans="1:26">
+    <row r="293" spans="1:26" hidden="1">
       <c r="A293" s="51"/>
       <c r="B293" s="51"/>
       <c r="D293" s="17"/>
@@ -19811,7 +19812,7 @@
       <c r="Y293" s="2"/>
       <c r="Z293" s="2"/>
     </row>
-    <row r="294" spans="1:26">
+    <row r="294" spans="1:26" hidden="1">
       <c r="D294" s="17"/>
       <c r="E294" s="15"/>
       <c r="F294" s="15"/>
@@ -19838,7 +19839,7 @@
       <c r="Y294" s="2"/>
       <c r="Z294" s="2"/>
     </row>
-    <row r="295" spans="1:26">
+    <row r="295" spans="1:26" hidden="1">
       <c r="D295" s="17"/>
       <c r="E295" s="15"/>
       <c r="F295" s="15"/>
@@ -19865,7 +19866,7 @@
       <c r="Y295" s="2"/>
       <c r="Z295" s="2"/>
     </row>
-    <row r="296" spans="1:26">
+    <row r="296" spans="1:26" hidden="1">
       <c r="D296" s="17"/>
       <c r="E296" s="15"/>
       <c r="F296" s="15"/>
@@ -19892,7 +19893,7 @@
       <c r="Y296" s="2"/>
       <c r="Z296" s="2"/>
     </row>
-    <row r="297" spans="1:26">
+    <row r="297" spans="1:26" hidden="1">
       <c r="D297" s="17"/>
       <c r="E297" s="15"/>
       <c r="F297" s="15"/>
@@ -19919,7 +19920,7 @@
       <c r="Y297" s="2"/>
       <c r="Z297" s="2"/>
     </row>
-    <row r="298" spans="1:26">
+    <row r="298" spans="1:26" hidden="1">
       <c r="A298" s="51"/>
       <c r="B298" s="51"/>
       <c r="D298" s="17"/>
@@ -19948,7 +19949,7 @@
       <c r="Y298" s="2"/>
       <c r="Z298" s="2"/>
     </row>
-    <row r="299" spans="1:26">
+    <row r="299" spans="1:26" hidden="1">
       <c r="D299" s="17"/>
       <c r="E299" s="15"/>
       <c r="F299" s="15"/>
@@ -19975,7 +19976,7 @@
       <c r="Y299" s="2"/>
       <c r="Z299" s="2"/>
     </row>
-    <row r="300" spans="1:26">
+    <row r="300" spans="1:26" hidden="1">
       <c r="D300" s="17"/>
       <c r="E300" s="15"/>
       <c r="F300" s="15"/>
@@ -20002,7 +20003,7 @@
       <c r="Y300" s="2"/>
       <c r="Z300" s="2"/>
     </row>
-    <row r="301" spans="1:26">
+    <row r="301" spans="1:26" hidden="1">
       <c r="D301" s="17"/>
       <c r="E301" s="15"/>
       <c r="F301" s="15"/>
@@ -20029,7 +20030,7 @@
       <c r="Y301" s="2"/>
       <c r="Z301" s="2"/>
     </row>
-    <row r="302" spans="1:26">
+    <row r="302" spans="1:26" hidden="1">
       <c r="D302" s="17"/>
       <c r="E302" s="15"/>
       <c r="F302" s="15"/>
@@ -20056,7 +20057,7 @@
       <c r="Y302" s="2"/>
       <c r="Z302" s="2"/>
     </row>
-    <row r="303" spans="1:26">
+    <row r="303" spans="1:26" hidden="1">
       <c r="A303" s="51"/>
       <c r="B303" s="51"/>
       <c r="D303" s="17"/>
@@ -20085,7 +20086,7 @@
       <c r="Y303" s="2"/>
       <c r="Z303" s="2"/>
     </row>
-    <row r="304" spans="1:26">
+    <row r="304" spans="1:26" hidden="1">
       <c r="D304" s="17"/>
       <c r="E304" s="15"/>
       <c r="F304" s="15"/>
@@ -20112,7 +20113,7 @@
       <c r="Y304" s="2"/>
       <c r="Z304" s="2"/>
     </row>
-    <row r="305" spans="1:26">
+    <row r="305" spans="1:26" hidden="1">
       <c r="D305" s="17"/>
       <c r="E305" s="15"/>
       <c r="F305" s="15"/>
@@ -20139,7 +20140,7 @@
       <c r="Y305" s="2"/>
       <c r="Z305" s="2"/>
     </row>
-    <row r="306" spans="1:26">
+    <row r="306" spans="1:26" hidden="1">
       <c r="D306" s="17"/>
       <c r="E306" s="15"/>
       <c r="F306" s="15"/>
@@ -20166,7 +20167,7 @@
       <c r="Y306" s="2"/>
       <c r="Z306" s="2"/>
     </row>
-    <row r="307" spans="1:26">
+    <row r="307" spans="1:26" hidden="1">
       <c r="D307" s="17"/>
       <c r="E307" s="15"/>
       <c r="F307" s="15"/>
@@ -20193,7 +20194,7 @@
       <c r="Y307" s="2"/>
       <c r="Z307" s="2"/>
     </row>
-    <row r="308" spans="1:26">
+    <row r="308" spans="1:26" hidden="1">
       <c r="A308" s="51"/>
       <c r="B308" s="51"/>
       <c r="D308" s="17"/>
@@ -20222,7 +20223,7 @@
       <c r="Y308" s="2"/>
       <c r="Z308" s="2"/>
     </row>
-    <row r="309" spans="1:26">
+    <row r="309" spans="1:26" hidden="1">
       <c r="D309" s="17"/>
       <c r="E309" s="15"/>
       <c r="F309" s="15"/>
@@ -20249,7 +20250,7 @@
       <c r="Y309" s="2"/>
       <c r="Z309" s="2"/>
     </row>
-    <row r="310" spans="1:26">
+    <row r="310" spans="1:26" hidden="1">
       <c r="D310" s="17"/>
       <c r="E310" s="15"/>
       <c r="F310" s="15"/>
@@ -20276,7 +20277,7 @@
       <c r="Y310" s="2"/>
       <c r="Z310" s="2"/>
     </row>
-    <row r="311" spans="1:26">
+    <row r="311" spans="1:26" hidden="1">
       <c r="D311" s="17"/>
       <c r="E311" s="15"/>
       <c r="F311" s="15"/>
@@ -20303,7 +20304,7 @@
       <c r="Y311" s="2"/>
       <c r="Z311" s="2"/>
     </row>
-    <row r="312" spans="1:26">
+    <row r="312" spans="1:26" hidden="1">
       <c r="D312" s="17"/>
       <c r="E312" s="15"/>
       <c r="F312" s="15"/>
@@ -20330,7 +20331,7 @@
       <c r="Y312" s="2"/>
       <c r="Z312" s="2"/>
     </row>
-    <row r="313" spans="1:26">
+    <row r="313" spans="1:26" hidden="1">
       <c r="A313" s="51"/>
       <c r="B313" s="51"/>
       <c r="D313" s="17"/>
@@ -20359,7 +20360,7 @@
       <c r="Y313" s="2"/>
       <c r="Z313" s="2"/>
     </row>
-    <row r="314" spans="1:26">
+    <row r="314" spans="1:26" hidden="1">
       <c r="D314" s="17"/>
       <c r="E314" s="15"/>
       <c r="F314" s="15"/>
@@ -20386,7 +20387,7 @@
       <c r="Y314" s="2"/>
       <c r="Z314" s="2"/>
     </row>
-    <row r="315" spans="1:26">
+    <row r="315" spans="1:26" hidden="1">
       <c r="D315" s="17"/>
       <c r="E315" s="15"/>
       <c r="F315" s="15"/>
@@ -20413,7 +20414,7 @@
       <c r="Y315" s="2"/>
       <c r="Z315" s="2"/>
     </row>
-    <row r="316" spans="1:26">
+    <row r="316" spans="1:26" hidden="1">
       <c r="D316" s="17"/>
       <c r="E316" s="15"/>
       <c r="F316" s="15"/>
@@ -20440,7 +20441,7 @@
       <c r="Y316" s="2"/>
       <c r="Z316" s="2"/>
     </row>
-    <row r="317" spans="1:26">
+    <row r="317" spans="1:26" hidden="1">
       <c r="D317" s="17"/>
       <c r="E317" s="15"/>
       <c r="F317" s="15"/>
@@ -20467,7 +20468,7 @@
       <c r="Y317" s="2"/>
       <c r="Z317" s="2"/>
     </row>
-    <row r="318" spans="1:26">
+    <row r="318" spans="1:26" hidden="1">
       <c r="A318" s="51"/>
       <c r="B318" s="51"/>
       <c r="D318" s="17"/>
@@ -20496,7 +20497,7 @@
       <c r="Y318" s="2"/>
       <c r="Z318" s="2"/>
     </row>
-    <row r="319" spans="1:26">
+    <row r="319" spans="1:26" hidden="1">
       <c r="D319" s="17"/>
       <c r="E319" s="15"/>
       <c r="F319" s="15"/>
@@ -20523,7 +20524,7 @@
       <c r="Y319" s="2"/>
       <c r="Z319" s="2"/>
     </row>
-    <row r="320" spans="1:26">
+    <row r="320" spans="1:26" hidden="1">
       <c r="D320" s="17"/>
       <c r="E320" s="15"/>
       <c r="F320" s="15"/>
@@ -20550,7 +20551,7 @@
       <c r="Y320" s="2"/>
       <c r="Z320" s="2"/>
     </row>
-    <row r="321" spans="1:26">
+    <row r="321" spans="1:26" hidden="1">
       <c r="D321" s="17"/>
       <c r="E321" s="15"/>
       <c r="F321" s="15"/>
@@ -20577,7 +20578,7 @@
       <c r="Y321" s="2"/>
       <c r="Z321" s="2"/>
     </row>
-    <row r="322" spans="1:26">
+    <row r="322" spans="1:26" hidden="1">
       <c r="D322" s="17"/>
       <c r="E322" s="15"/>
       <c r="F322" s="15"/>
@@ -20604,7 +20605,7 @@
       <c r="Y322" s="2"/>
       <c r="Z322" s="2"/>
     </row>
-    <row r="323" spans="1:26">
+    <row r="323" spans="1:26" hidden="1">
       <c r="A323" s="51"/>
       <c r="B323" s="51"/>
       <c r="D323" s="17"/>
@@ -20633,7 +20634,7 @@
       <c r="Y323" s="2"/>
       <c r="Z323" s="2"/>
     </row>
-    <row r="324" spans="1:26">
+    <row r="324" spans="1:26" hidden="1">
       <c r="D324" s="17"/>
       <c r="E324" s="15"/>
       <c r="F324" s="15"/>
@@ -20660,7 +20661,7 @@
       <c r="Y324" s="2"/>
       <c r="Z324" s="2"/>
     </row>
-    <row r="325" spans="1:26">
+    <row r="325" spans="1:26" hidden="1">
       <c r="D325" s="17"/>
       <c r="E325" s="15"/>
       <c r="F325" s="15"/>
@@ -20687,7 +20688,7 @@
       <c r="Y325" s="2"/>
       <c r="Z325" s="2"/>
     </row>
-    <row r="326" spans="1:26">
+    <row r="326" spans="1:26" hidden="1">
       <c r="D326" s="17"/>
       <c r="E326" s="15"/>
       <c r="F326" s="15"/>
@@ -20714,7 +20715,7 @@
       <c r="Y326" s="2"/>
       <c r="Z326" s="2"/>
     </row>
-    <row r="327" spans="1:26">
+    <row r="327" spans="1:26" hidden="1">
       <c r="D327" s="17"/>
       <c r="E327" s="15"/>
       <c r="F327" s="15"/>
@@ -20741,7 +20742,7 @@
       <c r="Y327" s="2"/>
       <c r="Z327" s="2"/>
     </row>
-    <row r="328" spans="1:26">
+    <row r="328" spans="1:26" hidden="1">
       <c r="A328" s="51"/>
       <c r="B328" s="51"/>
       <c r="D328" s="17"/>
@@ -20770,7 +20771,7 @@
       <c r="Y328" s="2"/>
       <c r="Z328" s="2"/>
     </row>
-    <row r="329" spans="1:26">
+    <row r="329" spans="1:26" hidden="1">
       <c r="D329" s="17"/>
       <c r="E329" s="15"/>
       <c r="F329" s="15"/>
@@ -20797,7 +20798,7 @@
       <c r="Y329" s="2"/>
       <c r="Z329" s="2"/>
     </row>
-    <row r="330" spans="1:26">
+    <row r="330" spans="1:26" hidden="1">
       <c r="D330" s="17"/>
       <c r="E330" s="15"/>
       <c r="F330" s="15"/>
@@ -20824,7 +20825,7 @@
       <c r="Y330" s="2"/>
       <c r="Z330" s="2"/>
     </row>
-    <row r="331" spans="1:26">
+    <row r="331" spans="1:26" hidden="1">
       <c r="A331">
         <v>122</v>
       </c>
@@ -20900,7 +20901,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O333" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:O333" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="11">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="M86" r:id="rId1" xr:uid="{954017CD-E028-47AD-880B-D994F42943E3}"/>
     <hyperlink ref="M87" r:id="rId2" xr:uid="{F643B520-F58D-4BD6-B634-4474D947E197}"/>
@@ -22260,8 +22267,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M136"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -22673,8 +22680,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="109">
-        <f>Aufgabenkatalog!L9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="109"/>
       <c r="J9" s="109"/>
@@ -23158,7 +23164,7 @@
       </c>
       <c r="M19" s="109" t="str">
         <f>IF(Aufgabenkatalog!C19="Ja","true","false")</f>
-        <v>true</v>
+        <v>false</v>
       </c>
     </row>
     <row r="20" spans="1:13" hidden="1">
@@ -23487,7 +23493,7 @@
       </c>
       <c r="M26" s="109" t="str">
         <f>IF(Aufgabenkatalog!C26="Ja","true","false")</f>
-        <v>true</v>
+        <v>false</v>
       </c>
     </row>
     <row r="27" spans="1:13" hidden="1">
@@ -23722,7 +23728,7 @@
       </c>
       <c r="M31" s="109" t="str">
         <f>IF(Aufgabenkatalog!C31="Ja","true","false")</f>
-        <v>true</v>
+        <v>false</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -23816,7 +23822,7 @@
       </c>
       <c r="M33" s="109" t="str">
         <f>IF(Aufgabenkatalog!C33="Ja","true","false")</f>
-        <v>true</v>
+        <v>false</v>
       </c>
     </row>
     <row r="34" spans="1:13" hidden="1">
@@ -23957,7 +23963,7 @@
       </c>
       <c r="M36" s="109" t="str">
         <f>IF(Aufgabenkatalog!C36="Ja","true","false")</f>
-        <v>true</v>
+        <v>false</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -25696,7 +25702,7 @@
       </c>
       <c r="M73" s="109" t="str">
         <f>IF(Aufgabenkatalog!C73="Ja","true","false")</f>
-        <v>true</v>
+        <v>false</v>
       </c>
     </row>
     <row r="74" spans="1:13" hidden="1">
@@ -25790,7 +25796,7 @@
       </c>
       <c r="M75" s="109" t="str">
         <f>IF(Aufgabenkatalog!C75="Ja","true","false")</f>
-        <v>true</v>
+        <v>false</v>
       </c>
     </row>
     <row r="76" spans="1:13" hidden="1">
@@ -25837,7 +25843,7 @@
       </c>
       <c r="M76" s="109" t="str">
         <f>IF(Aufgabenkatalog!C76="Ja","true","false")</f>
-        <v>true</v>
+        <v>false</v>
       </c>
     </row>
     <row r="77" spans="1:13" hidden="1">
@@ -25884,7 +25890,7 @@
       </c>
       <c r="M77" s="109" t="str">
         <f>IF(Aufgabenkatalog!C77="Ja","true","false")</f>
-        <v>true</v>
+        <v>false</v>
       </c>
     </row>
     <row r="78" spans="1:13" hidden="1">
@@ -25931,7 +25937,7 @@
       </c>
       <c r="M78" s="109" t="str">
         <f>IF(Aufgabenkatalog!C78="Ja","true","false")</f>
-        <v>true</v>
+        <v>false</v>
       </c>
     </row>
     <row r="79" spans="1:13" hidden="1">
@@ -25978,7 +25984,7 @@
       </c>
       <c r="M79" s="109" t="str">
         <f>IF(Aufgabenkatalog!C79="Ja","true","false")</f>
-        <v>true</v>
+        <v>false</v>
       </c>
     </row>
     <row r="80" spans="1:13" hidden="1">
@@ -26119,7 +26125,7 @@
       </c>
       <c r="M82" s="109" t="str">
         <f>IF(Aufgabenkatalog!C82="Ja","true","false")</f>
-        <v>true</v>
+        <v>false</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -26354,7 +26360,7 @@
       </c>
       <c r="M87" s="109" t="str">
         <f>IF(Aufgabenkatalog!C87="Ja","true","false")</f>
-        <v>true</v>
+        <v>false</v>
       </c>
     </row>
     <row r="88" spans="1:13" hidden="1">
@@ -26401,7 +26407,7 @@
       </c>
       <c r="M88" s="109" t="str">
         <f>IF(Aufgabenkatalog!C88="Ja","true","false")</f>
-        <v>true</v>
+        <v>false</v>
       </c>
     </row>
     <row r="89" spans="1:13" hidden="1">
@@ -26448,7 +26454,7 @@
       </c>
       <c r="M89" s="109" t="str">
         <f>IF(Aufgabenkatalog!C89="Ja","true","false")</f>
-        <v>true</v>
+        <v>false</v>
       </c>
     </row>
     <row r="90" spans="1:13" hidden="1">
@@ -26542,7 +26548,7 @@
       </c>
       <c r="M91" s="109" t="str">
         <f>IF(Aufgabenkatalog!C91="Ja","true","false")</f>
-        <v>true</v>
+        <v>false</v>
       </c>
     </row>
     <row r="92" spans="1:13" hidden="1">
@@ -26589,7 +26595,7 @@
       </c>
       <c r="M92" s="109" t="str">
         <f>IF(Aufgabenkatalog!C92="Ja","true","false")</f>
-        <v>true</v>
+        <v>false</v>
       </c>
     </row>
     <row r="93" spans="1:13" hidden="1">
@@ -26683,7 +26689,7 @@
       </c>
       <c r="M94" s="109" t="str">
         <f>IF(Aufgabenkatalog!C94="Ja","true","false")</f>
-        <v>true</v>
+        <v>false</v>
       </c>
     </row>
     <row r="95" spans="1:13" hidden="1">
@@ -26871,7 +26877,7 @@
       </c>
       <c r="M98" s="109" t="str">
         <f>IF(Aufgabenkatalog!C98="Ja","true","false")</f>
-        <v>true</v>
+        <v>false</v>
       </c>
     </row>
     <row r="99" spans="1:13" hidden="1">
@@ -26918,7 +26924,7 @@
       </c>
       <c r="M99" s="109" t="str">
         <f>IF(Aufgabenkatalog!C99="Ja","true","false")</f>
-        <v>true</v>
+        <v>false</v>
       </c>
     </row>
     <row r="100" spans="1:13" hidden="1">
@@ -27059,7 +27065,7 @@
       </c>
       <c r="M102" s="109" t="str">
         <f>IF(Aufgabenkatalog!C102="Ja","true","false")</f>
-        <v>true</v>
+        <v>false</v>
       </c>
     </row>
     <row r="103" spans="1:13" hidden="1">
@@ -27106,7 +27112,7 @@
       </c>
       <c r="M103" s="109" t="str">
         <f>IF(Aufgabenkatalog!C103="Ja","true","false")</f>
-        <v>true</v>
+        <v>false</v>
       </c>
     </row>
     <row r="104" spans="1:13" hidden="1">
@@ -27482,7 +27488,7 @@
       </c>
       <c r="M111" s="109" t="str">
         <f>IF(Aufgabenkatalog!C111="Ja","true","false")</f>
-        <v>true</v>
+        <v>false</v>
       </c>
     </row>
     <row r="112" spans="1:13" hidden="1">
@@ -27529,7 +27535,7 @@
       </c>
       <c r="M112" s="109" t="str">
         <f>IF(Aufgabenkatalog!C112="Ja","true","false")</f>
-        <v>true</v>
+        <v>false</v>
       </c>
     </row>
     <row r="113" spans="1:13" hidden="1">
@@ -27576,7 +27582,7 @@
       </c>
       <c r="M113" s="109" t="str">
         <f>IF(Aufgabenkatalog!C113="Ja","true","false")</f>
-        <v>true</v>
+        <v>false</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -27858,7 +27864,7 @@
       </c>
       <c r="M119" s="109" t="str">
         <f>IF(Aufgabenkatalog!C119="Ja","true","false")</f>
-        <v>true</v>
+        <v>false</v>
       </c>
     </row>
     <row r="120" spans="1:13" hidden="1">
@@ -27905,7 +27911,7 @@
       </c>
       <c r="M120" s="109" t="str">
         <f>IF(Aufgabenkatalog!C120="Ja","true","false")</f>
-        <v>true</v>
+        <v>false</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -28466,7 +28472,7 @@
       </c>
       <c r="M132" s="109" t="str">
         <f>IF(Aufgabenkatalog!C132="Ja","true","false")</f>
-        <v>true</v>
+        <v>false</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -28606,7 +28612,7 @@
       </c>
       <c r="M135" s="109" t="str">
         <f>IF(Aufgabenkatalog!C135="Ja","true","false")</f>
-        <v>true</v>
+        <v>false</v>
       </c>
     </row>
     <row r="136" spans="1:13" hidden="1">

--- a/convert/together23_pieces_datenbank.xlsx
+++ b/convert/together23_pieces_datenbank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ooepp.sharepoint.com/sites/Landeslager2023/Freigegebene Dokumente/General/CaEx/Programm/Challenges/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D52087B-267F-434C-94ED-12420CB10914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03F4F0D4-C555-4377-8B01-36A2FACB12A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="27288" windowHeight="17544" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="27288" windowHeight="17544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgabenkatalog" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="801">
   <si>
     <t>id</t>
   </si>
@@ -112,33 +112,36 @@
     <t>Michael</t>
   </si>
   <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>HOME</t>
+  </si>
+  <si>
+    <t>Abheben</t>
+  </si>
+  <si>
+    <t>Baut ein Objekt, welches mind. 15 s in der Luft bleiben kann. Verwende dabei die dir zu Verfügung stehenden Utensilien.</t>
+  </si>
+  <si>
+    <t>Take off</t>
+  </si>
+  <si>
+    <t>Build an object that can stay in the air for at least 15 seconds. Use the utensils at your disposal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>40-60</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>nein</t>
   </si>
   <si>
-    <t>HOME</t>
-  </si>
-  <si>
-    <t>Abheben</t>
-  </si>
-  <si>
-    <t>Baut ein Objekt, welches mind. 15 s in der Luft bleiben kann. Verwende dabei die dir zu Verfügung stehenden Utensilien.</t>
-  </si>
-  <si>
-    <t>Take off</t>
-  </si>
-  <si>
-    <t>Build an object that can stay in the air for at least 15 seconds. Use the utensils at your disposal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>40-60</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Augen zu!</t>
   </si>
   <si>
@@ -185,9 +188,6 @@
   </si>
   <si>
     <t>Ball</t>
-  </si>
-  <si>
-    <t>ja</t>
   </si>
   <si>
     <t xml:space="preserve">Bank Challenge </t>
@@ -2030,10 +2030,13 @@
     <t>Bleistift, A4 Papier, Lineal 30 cm</t>
   </si>
   <si>
-    <t>Party Bild</t>
-  </si>
-  <si>
-    <t>Finde heraus wie oft das Party Team am großen Bild im Stufenlager ist</t>
+    <t>CaEx Together Bild</t>
+  </si>
+  <si>
+    <t>Finde heraus wie oft das Party Team am großen Bild im Stufenlager zu finden ist (CaEx Dach)</t>
+  </si>
+  <si>
+    <t>CaEx Together Picture</t>
   </si>
   <si>
     <t>Challenge Vally</t>
@@ -2096,6 +2099,9 @@
     <t>Bastle dir aus Baumaterial das Finnische Spiel Mölky und spiele eine Runde</t>
   </si>
   <si>
+    <t>Make the Finnish game Mölky out of building materials and play a round of Mölky.</t>
+  </si>
+  <si>
     <t>https://www.molkky.world/de/molkky-spielregeln</t>
   </si>
   <si>
@@ -2103,6 +2109,48 @@
   </si>
   <si>
     <t>Sammle 10 Flaschen oder Milchpackerl Stöpsel und gib sie bei der Müllstation ab um am Sonntag zu beobachten wie ein Karabiner daraus gemacht wird</t>
+  </si>
+  <si>
+    <t>Collect 10 bottles or milk carton stoppers and hand them in at the waste station to watch them being made into a carabiner on Sunday.</t>
+  </si>
+  <si>
+    <t>Theaterstück</t>
+  </si>
+  <si>
+    <t>Am Donnerstag findet um 11 Uhr am Together Hauptplatz ein Theaterstück statt , siehe es dir an und berichte wie es dir gefallen hat.</t>
+  </si>
+  <si>
+    <t>There will be a play on Thursday at 11am at Together Hauptplatz , check it out and report back how you liked it.</t>
+  </si>
+  <si>
+    <t>Together Run</t>
+  </si>
+  <si>
+    <t>Am Sonntag (13.8.2023) findet ein Together Run (5 km) rund um das Lagergelände statt. Nim in einer Staffel mit 4 weiteren CaEx im Nachbar Unterlager teil (Anmeldung Sprtzelt)</t>
+  </si>
+  <si>
+    <t>CaEx High Kicks Slot 1 Donnerstag</t>
+  </si>
+  <si>
+    <t>Melde dich beim CaEx High Kicks an, Slots: 14:45 (Zipline) - Tickets gibt’s bei den Pieces</t>
+  </si>
+  <si>
+    <t>Sign up for CaEx High Kicks, slots: 14:45, 15:15, 15:45, 16:15, 16:45, 17:15 (Zipline) and King X 14:30 and 16:00 - tickets available at the Pieces.</t>
+  </si>
+  <si>
+    <t>Melde dich beim CaEx High Kicks an, Slots: 15:15 (Zipline)  - Tickets gibt’s bei den Pieces</t>
+  </si>
+  <si>
+    <t>Melde dich beim CaEx High Kicks an, Slots: 15:45 (Zipline)  - Tickets gibt’s bei den Pieces</t>
+  </si>
+  <si>
+    <t>Melde dich beim CaEx High Kicks an, Slots: 16:15 (Zipline)  - Tickets gibt’s bei den Pieces</t>
+  </si>
+  <si>
+    <t>Melde dich beim CaEx High Kicks an, Slots: 16:45 (Zipline)  - Tickets gibt’s bei den Pieces</t>
+  </si>
+  <si>
+    <t>Melde dich beim CaEx High Kicks an, Slots: 17:15 (Zipline)  - Tickets gibt’s bei den Pieces</t>
   </si>
   <si>
     <t> </t>
@@ -2526,7 +2574,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
   </numFmts>
-  <fonts count="57">
+  <fonts count="58">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2901,6 +2949,11 @@
       <name val="Malgun Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Bahnschrift"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2971,7 +3024,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3275,6 +3328,10 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -3609,10 +3666,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AV333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C124" workbookViewId="0">
       <selection activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
@@ -3712,7 +3768,7 @@
       <c r="AU1" s="118"/>
       <c r="AV1" s="118"/>
     </row>
-    <row r="2" spans="1:48" ht="15.6" hidden="1">
+    <row r="2" spans="1:48" ht="15.6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3786,7 +3842,7 @@
       <c r="AU2" s="1"/>
       <c r="AV2" s="1"/>
     </row>
-    <row r="3" spans="1:48" s="51" customFormat="1" ht="15" hidden="1">
+    <row r="3" spans="1:48" s="51" customFormat="1" ht="15">
       <c r="A3" s="51">
         <v>2</v>
       </c>
@@ -3794,25 +3850,25 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D3" s="44" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G3" s="45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H3" s="45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I3" s="70" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J3" s="46">
         <v>60</v>
@@ -3823,10 +3879,10 @@
       </c>
       <c r="M3" s="46"/>
       <c r="N3" s="63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O3" s="49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P3" s="49"/>
       <c r="Q3" s="49"/>
@@ -3862,7 +3918,7 @@
       <c r="AU3" s="50"/>
       <c r="AV3" s="50"/>
     </row>
-    <row r="4" spans="1:48" ht="15.6" hidden="1">
+    <row r="4" spans="1:48" ht="15.6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3870,22 +3926,22 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>21</v>
@@ -3936,7 +3992,7 @@
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
     </row>
-    <row r="5" spans="1:48" ht="15.6" hidden="1">
+    <row r="5" spans="1:48" ht="15.6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3944,22 +4000,22 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>21</v>
@@ -3973,7 +4029,7 @@
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="64" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -4018,7 +4074,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>16</v>
@@ -4084,7 +4140,7 @@
       <c r="AU6" s="1"/>
       <c r="AV6" s="1"/>
     </row>
-    <row r="7" spans="1:48" ht="15.6" hidden="1">
+    <row r="7" spans="1:48" ht="15.6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4092,7 +4148,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>16</v>
@@ -4158,7 +4214,7 @@
       <c r="AU7" s="1"/>
       <c r="AV7" s="1"/>
     </row>
-    <row r="8" spans="1:48" ht="15.6" hidden="1">
+    <row r="8" spans="1:48" ht="15.6">
       <c r="A8" s="51">
         <v>7</v>
       </c>
@@ -4166,7 +4222,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>16</v>
@@ -4232,7 +4288,7 @@
       <c r="AU8" s="1"/>
       <c r="AV8" s="1"/>
     </row>
-    <row r="9" spans="1:48" s="31" customFormat="1" ht="15" hidden="1">
+    <row r="9" spans="1:48" s="31" customFormat="1" ht="15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4240,7 +4296,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>16</v>
@@ -4258,13 +4314,17 @@
         <v>56</v>
       </c>
       <c r="I9" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="22"/>
+        <v>29</v>
+      </c>
+      <c r="J9" s="22">
+        <v>30</v>
+      </c>
       <c r="K9" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="24"/>
+        <v>29</v>
+      </c>
+      <c r="L9" s="24">
+        <v>2</v>
+      </c>
       <c r="M9" s="22"/>
       <c r="N9" s="28" t="s">
         <v>23</v>
@@ -4304,7 +4364,7 @@
       <c r="AU9" s="30"/>
       <c r="AV9" s="30"/>
     </row>
-    <row r="10" spans="1:48" ht="15.6" hidden="1">
+    <row r="10" spans="1:48" ht="15.6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4312,7 +4372,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>16</v>
@@ -4380,7 +4440,7 @@
       <c r="AU10" s="1"/>
       <c r="AV10" s="1"/>
     </row>
-    <row r="11" spans="1:48" s="31" customFormat="1" ht="15" hidden="1">
+    <row r="11" spans="1:48" s="31" customFormat="1" ht="15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4388,7 +4448,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>16</v>
@@ -4462,7 +4522,7 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>16</v>
@@ -4536,7 +4596,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>16</v>
@@ -4610,7 +4670,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>75</v>
@@ -4676,7 +4736,7 @@
       <c r="AU14" s="1"/>
       <c r="AV14" s="1"/>
     </row>
-    <row r="15" spans="1:48" ht="15.6" hidden="1">
+    <row r="15" spans="1:48" ht="15.6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4684,7 +4744,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>16</v>
@@ -4750,7 +4810,7 @@
       <c r="AU15" s="1"/>
       <c r="AV15" s="1"/>
     </row>
-    <row r="16" spans="1:48" ht="15.6" hidden="1">
+    <row r="16" spans="1:48" ht="15.6">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4758,7 +4818,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>16</v>
@@ -4832,7 +4892,7 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>16</v>
@@ -4898,7 +4958,7 @@
       <c r="AU17" s="1"/>
       <c r="AV17" s="1"/>
     </row>
-    <row r="18" spans="1:48" ht="15.6" hidden="1">
+    <row r="18" spans="1:48" ht="15.6">
       <c r="A18" s="51">
         <v>17</v>
       </c>
@@ -4906,7 +4966,7 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>16</v>
@@ -4982,7 +5042,7 @@
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>16</v>
@@ -5056,7 +5116,7 @@
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>16</v>
@@ -5130,7 +5190,7 @@
         <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>75</v>
@@ -5194,7 +5254,7 @@
       <c r="AU21" s="1"/>
       <c r="AV21" s="1"/>
     </row>
-    <row r="22" spans="1:48" s="31" customFormat="1" ht="15" hidden="1">
+    <row r="22" spans="1:48" s="31" customFormat="1" ht="15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5202,7 +5262,7 @@
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>16</v>
@@ -5268,7 +5328,7 @@
       <c r="AU22" s="30"/>
       <c r="AV22" s="30"/>
     </row>
-    <row r="23" spans="1:48" ht="15.6" hidden="1">
+    <row r="23" spans="1:48" ht="15.6">
       <c r="A23" s="51">
         <v>22</v>
       </c>
@@ -5276,7 +5336,7 @@
         <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>16</v>
@@ -5342,7 +5402,7 @@
       <c r="AU23" s="1"/>
       <c r="AV23" s="1"/>
     </row>
-    <row r="24" spans="1:48" ht="15.6" hidden="1">
+    <row r="24" spans="1:48" ht="15.6">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5350,7 +5410,7 @@
         <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>75</v>
@@ -5416,7 +5476,7 @@
       <c r="AU24" s="1"/>
       <c r="AV24" s="1"/>
     </row>
-    <row r="25" spans="1:48" ht="15.6" hidden="1">
+    <row r="25" spans="1:48" ht="15.6">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5424,7 +5484,7 @@
         <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>16</v>
@@ -5498,7 +5558,7 @@
         <v>128</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>16</v>
@@ -5564,7 +5624,7 @@
       <c r="AU26" s="1"/>
       <c r="AV26" s="1"/>
     </row>
-    <row r="27" spans="1:48" ht="15.6" hidden="1">
+    <row r="27" spans="1:48" ht="15.6">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5572,7 +5632,7 @@
         <v>128</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>16</v>
@@ -5638,7 +5698,7 @@
       <c r="AU27" s="1"/>
       <c r="AV27" s="1"/>
     </row>
-    <row r="28" spans="1:48" ht="15.6" hidden="1">
+    <row r="28" spans="1:48" ht="15.6">
       <c r="A28" s="51">
         <v>27</v>
       </c>
@@ -5646,7 +5706,7 @@
         <v>128</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>16</v>
@@ -5712,7 +5772,7 @@
       <c r="AU28" s="1"/>
       <c r="AV28" s="1"/>
     </row>
-    <row r="29" spans="1:48" ht="15.6" hidden="1">
+    <row r="29" spans="1:48" ht="15.6">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5720,7 +5780,7 @@
         <v>128</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>16</v>
@@ -5786,7 +5846,7 @@
       <c r="AU29" s="1"/>
       <c r="AV29" s="1"/>
     </row>
-    <row r="30" spans="1:48" s="51" customFormat="1" ht="15" hidden="1">
+    <row r="30" spans="1:48" s="51" customFormat="1" ht="15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5794,7 +5854,7 @@
         <v>128</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D30" s="44" t="s">
         <v>16</v>
@@ -5812,7 +5872,7 @@
         <v>155</v>
       </c>
       <c r="I30" s="69" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J30" s="46" t="s">
         <v>156</v>
@@ -5868,7 +5928,7 @@
         <v>128</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>16</v>
@@ -5934,7 +5994,7 @@
       <c r="AU31" s="1"/>
       <c r="AV31" s="1"/>
     </row>
-    <row r="32" spans="1:48" ht="15.6" hidden="1">
+    <row r="32" spans="1:48" ht="15.6">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5942,7 +6002,7 @@
         <v>128</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>16</v>
@@ -6016,7 +6076,7 @@
         <v>128</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D33" s="20" t="s">
         <v>16</v>
@@ -6034,7 +6094,7 @@
         <v>168</v>
       </c>
       <c r="I33" s="39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J33" s="22">
         <v>60</v>
@@ -6090,7 +6150,7 @@
         <v>128</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>16</v>
@@ -6156,7 +6216,7 @@
       <c r="AU34" s="1"/>
       <c r="AV34" s="1"/>
     </row>
-    <row r="35" spans="1:48" ht="15.6" hidden="1">
+    <row r="35" spans="1:48" ht="15.6">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6164,7 +6224,7 @@
         <v>128</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>16</v>
@@ -6238,7 +6298,7 @@
         <v>128</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D36" s="86" t="s">
         <v>16</v>
@@ -6306,7 +6366,7 @@
       <c r="AU36" s="92"/>
       <c r="AV36" s="92"/>
     </row>
-    <row r="37" spans="1:48" ht="15.6" hidden="1">
+    <row r="37" spans="1:48" ht="15.6">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6314,7 +6374,7 @@
         <v>128</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>16</v>
@@ -6382,7 +6442,7 @@
       <c r="AU37" s="1"/>
       <c r="AV37" s="1"/>
     </row>
-    <row r="38" spans="1:48" ht="15.6" hidden="1">
+    <row r="38" spans="1:48" ht="15.6">
       <c r="A38" s="51">
         <v>37</v>
       </c>
@@ -6390,7 +6450,7 @@
         <v>128</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D38" s="17" t="s">
         <v>16</v>
@@ -6458,7 +6518,7 @@
       <c r="AU38" s="1"/>
       <c r="AV38" s="1"/>
     </row>
-    <row r="39" spans="1:48" ht="15.6" hidden="1">
+    <row r="39" spans="1:48" ht="15.6">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6466,7 +6526,7 @@
         <v>128</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>16</v>
@@ -6532,7 +6592,7 @@
       <c r="AU39" s="1"/>
       <c r="AV39" s="1"/>
     </row>
-    <row r="40" spans="1:48" ht="15.6" hidden="1">
+    <row r="40" spans="1:48" ht="15.6">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6540,7 +6600,7 @@
         <v>128</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D40" s="17" t="s">
         <v>16</v>
@@ -6614,7 +6674,7 @@
         <v>128</v>
       </c>
       <c r="C41" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D41" s="17" t="s">
         <v>16</v>
@@ -6680,7 +6740,7 @@
       <c r="AU41" s="1"/>
       <c r="AV41" s="1"/>
     </row>
-    <row r="42" spans="1:48" ht="15.6" hidden="1">
+    <row r="42" spans="1:48" ht="15.6">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6688,7 +6748,7 @@
         <v>128</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D42" s="17" t="s">
         <v>16</v>
@@ -6754,7 +6814,7 @@
       <c r="AU42" s="1"/>
       <c r="AV42" s="1"/>
     </row>
-    <row r="43" spans="1:48" ht="15.6" hidden="1">
+    <row r="43" spans="1:48" ht="15.6">
       <c r="A43" s="51">
         <v>42</v>
       </c>
@@ -6762,7 +6822,7 @@
         <v>128</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D43" s="17" t="s">
         <v>16</v>
@@ -6828,7 +6888,7 @@
       <c r="AU43" s="1"/>
       <c r="AV43" s="1"/>
     </row>
-    <row r="44" spans="1:48" ht="15.6" hidden="1">
+    <row r="44" spans="1:48" ht="15.6">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6836,7 +6896,7 @@
         <v>128</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D44" s="17" t="s">
         <v>16</v>
@@ -6902,7 +6962,7 @@
       <c r="AU44" s="1"/>
       <c r="AV44" s="1"/>
     </row>
-    <row r="45" spans="1:48" ht="15.6" hidden="1">
+    <row r="45" spans="1:48" ht="15.6">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6910,7 +6970,7 @@
         <v>128</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D45" s="17" t="s">
         <v>16</v>
@@ -6976,7 +7036,7 @@
       <c r="AU45" s="1"/>
       <c r="AV45" s="1"/>
     </row>
-    <row r="46" spans="1:48" ht="15.6" hidden="1">
+    <row r="46" spans="1:48" ht="15.6">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6984,7 +7044,7 @@
         <v>128</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D46" s="17" t="s">
         <v>16</v>
@@ -7058,7 +7118,7 @@
         <v>128</v>
       </c>
       <c r="C47" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D47" s="17" t="s">
         <v>16</v>
@@ -7124,7 +7184,7 @@
       <c r="AU47" s="1"/>
       <c r="AV47" s="1"/>
     </row>
-    <row r="48" spans="1:48" ht="15.6" hidden="1">
+    <row r="48" spans="1:48" ht="15.6">
       <c r="A48" s="51">
         <v>47</v>
       </c>
@@ -7132,7 +7192,7 @@
         <v>128</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D48" s="17" t="s">
         <v>16</v>
@@ -7206,7 +7266,7 @@
         <v>128</v>
       </c>
       <c r="C49" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D49" s="17" t="s">
         <v>16</v>
@@ -7272,7 +7332,7 @@
       <c r="AU49" s="1"/>
       <c r="AV49" s="1"/>
     </row>
-    <row r="50" spans="1:48" s="85" customFormat="1" ht="15" hidden="1">
+    <row r="50" spans="1:48" s="85" customFormat="1" ht="15">
       <c r="A50">
         <v>49</v>
       </c>
@@ -7280,7 +7340,7 @@
         <v>238</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D50" s="86" t="s">
         <v>16</v>
@@ -7346,7 +7406,7 @@
       <c r="AU50" s="92"/>
       <c r="AV50" s="92"/>
     </row>
-    <row r="51" spans="1:48" s="31" customFormat="1" ht="15" hidden="1">
+    <row r="51" spans="1:48" s="31" customFormat="1" ht="15">
       <c r="A51">
         <v>50</v>
       </c>
@@ -7354,7 +7414,7 @@
         <v>238</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D51" s="20" t="s">
         <v>16</v>
@@ -7372,7 +7432,7 @@
         <v>247</v>
       </c>
       <c r="I51" s="39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J51" s="22"/>
       <c r="K51" s="22"/>
@@ -7418,7 +7478,7 @@
       <c r="AU51" s="30"/>
       <c r="AV51" s="30"/>
     </row>
-    <row r="52" spans="1:48" ht="15.6" hidden="1">
+    <row r="52" spans="1:48" ht="15.6">
       <c r="A52">
         <v>51</v>
       </c>
@@ -7426,7 +7486,7 @@
         <v>238</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D52" s="17" t="s">
         <v>16</v>
@@ -7492,7 +7552,7 @@
       <c r="AU52" s="1"/>
       <c r="AV52" s="1"/>
     </row>
-    <row r="53" spans="1:48" ht="15" hidden="1">
+    <row r="53" spans="1:48" ht="15">
       <c r="A53" s="51">
         <v>52</v>
       </c>
@@ -7500,7 +7560,7 @@
         <v>238</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D53" s="17" t="s">
         <v>16</v>
@@ -7568,7 +7628,7 @@
       <c r="AU53" s="1"/>
       <c r="AV53" s="1"/>
     </row>
-    <row r="54" spans="1:48" s="31" customFormat="1" ht="15" hidden="1">
+    <row r="54" spans="1:48" s="31" customFormat="1" ht="15">
       <c r="A54">
         <v>53</v>
       </c>
@@ -7576,7 +7636,7 @@
         <v>238</v>
       </c>
       <c r="C54" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D54" s="20" t="s">
         <v>16</v>
@@ -7594,7 +7654,7 @@
         <v>260</v>
       </c>
       <c r="I54" s="39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J54" s="22"/>
       <c r="K54" s="22"/>
@@ -7640,7 +7700,7 @@
       <c r="AU54" s="30"/>
       <c r="AV54" s="30"/>
     </row>
-    <row r="55" spans="1:48" ht="15.6" hidden="1">
+    <row r="55" spans="1:48" ht="15.6">
       <c r="A55">
         <v>54</v>
       </c>
@@ -7648,7 +7708,7 @@
         <v>238</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D55" s="17" t="s">
         <v>16</v>
@@ -7724,7 +7784,7 @@
         <v>238</v>
       </c>
       <c r="C56" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D56" s="17" t="s">
         <v>16</v>
@@ -7790,7 +7850,7 @@
       <c r="AU56" s="1"/>
       <c r="AV56" s="1"/>
     </row>
-    <row r="57" spans="1:48" s="27" customFormat="1" ht="15" hidden="1">
+    <row r="57" spans="1:48" s="27" customFormat="1" ht="15">
       <c r="A57">
         <v>56</v>
       </c>
@@ -7798,7 +7858,7 @@
         <v>238</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D57" s="20" t="s">
         <v>16</v>
@@ -7862,7 +7922,7 @@
       <c r="AU57" s="26"/>
       <c r="AV57" s="26"/>
     </row>
-    <row r="58" spans="1:48" s="51" customFormat="1" ht="15" hidden="1">
+    <row r="58" spans="1:48" s="51" customFormat="1" ht="15">
       <c r="A58" s="51">
         <v>57</v>
       </c>
@@ -7870,7 +7930,7 @@
         <v>238</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D58" s="44" t="s">
         <v>16</v>
@@ -7944,7 +8004,7 @@
         <v>238</v>
       </c>
       <c r="C59" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D59" s="17" t="s">
         <v>16</v>
@@ -8010,7 +8070,7 @@
       <c r="AU59" s="1"/>
       <c r="AV59" s="1"/>
     </row>
-    <row r="60" spans="1:48" ht="15.6" hidden="1">
+    <row r="60" spans="1:48" ht="15.6">
       <c r="A60">
         <v>59</v>
       </c>
@@ -8018,7 +8078,7 @@
         <v>238</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D60" s="17" t="s">
         <v>16</v>
@@ -8084,7 +8144,7 @@
       <c r="AU60" s="1"/>
       <c r="AV60" s="1"/>
     </row>
-    <row r="61" spans="1:48" ht="15.6" hidden="1">
+    <row r="61" spans="1:48" ht="15.6">
       <c r="A61">
         <v>60</v>
       </c>
@@ -8092,7 +8152,7 @@
         <v>238</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D61" s="17" t="s">
         <v>16</v>
@@ -8158,7 +8218,7 @@
       <c r="AU61" s="1"/>
       <c r="AV61" s="1"/>
     </row>
-    <row r="62" spans="1:48" ht="15.6" hidden="1">
+    <row r="62" spans="1:48" ht="15.6">
       <c r="A62">
         <v>61</v>
       </c>
@@ -8166,7 +8226,7 @@
         <v>238</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D62" s="17" t="s">
         <v>16</v>
@@ -8232,7 +8292,7 @@
       <c r="AU62" s="1"/>
       <c r="AV62" s="1"/>
     </row>
-    <row r="63" spans="1:48" ht="15.6" hidden="1">
+    <row r="63" spans="1:48" ht="15.6">
       <c r="A63" s="51">
         <v>62</v>
       </c>
@@ -8240,7 +8300,7 @@
         <v>238</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D63" s="17" t="s">
         <v>16</v>
@@ -8314,7 +8374,7 @@
         <v>238</v>
       </c>
       <c r="C64" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D64" s="17" t="s">
         <v>16</v>
@@ -8380,7 +8440,7 @@
       <c r="AU64" s="1"/>
       <c r="AV64" s="1"/>
     </row>
-    <row r="65" spans="1:48" ht="15.6" hidden="1">
+    <row r="65" spans="1:48" ht="15.6">
       <c r="A65">
         <v>64</v>
       </c>
@@ -8388,7 +8448,7 @@
         <v>238</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D65" s="17" t="s">
         <v>16</v>
@@ -8454,7 +8514,7 @@
       <c r="AU65" s="1"/>
       <c r="AV65" s="1"/>
     </row>
-    <row r="66" spans="1:48" ht="15.6" hidden="1">
+    <row r="66" spans="1:48" ht="15.6">
       <c r="A66">
         <v>65</v>
       </c>
@@ -8462,7 +8522,7 @@
         <v>238</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D66" s="17" t="s">
         <v>16</v>
@@ -8528,7 +8588,7 @@
       <c r="AU66" s="1"/>
       <c r="AV66" s="1"/>
     </row>
-    <row r="67" spans="1:48" ht="15.6" hidden="1">
+    <row r="67" spans="1:48" ht="15.6">
       <c r="A67">
         <v>66</v>
       </c>
@@ -8536,7 +8596,7 @@
         <v>238</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D67" s="17" t="s">
         <v>16</v>
@@ -8602,7 +8662,7 @@
       <c r="AU67" s="1"/>
       <c r="AV67" s="1"/>
     </row>
-    <row r="68" spans="1:48" s="31" customFormat="1" ht="15" hidden="1">
+    <row r="68" spans="1:48" s="31" customFormat="1" ht="15">
       <c r="A68" s="51">
         <v>67</v>
       </c>
@@ -8610,7 +8670,7 @@
         <v>238</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D68" s="20" t="s">
         <v>16</v>
@@ -8684,7 +8744,7 @@
         <v>238</v>
       </c>
       <c r="C69" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D69" s="17" t="s">
         <v>16</v>
@@ -8758,7 +8818,7 @@
         <v>238</v>
       </c>
       <c r="C70" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D70" s="17" t="s">
         <v>16</v>
@@ -8824,7 +8884,7 @@
       <c r="AU70" s="1"/>
       <c r="AV70" s="1"/>
     </row>
-    <row r="71" spans="1:48" ht="15.6" hidden="1">
+    <row r="71" spans="1:48" ht="15.6">
       <c r="A71">
         <v>70</v>
       </c>
@@ -8832,7 +8892,7 @@
         <v>238</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D71" s="17" t="s">
         <v>16</v>
@@ -8900,7 +8960,7 @@
       <c r="AU71" s="1"/>
       <c r="AV71" s="1"/>
     </row>
-    <row r="72" spans="1:48" s="31" customFormat="1" ht="15" hidden="1">
+    <row r="72" spans="1:48" s="31" customFormat="1" ht="15">
       <c r="A72">
         <v>71</v>
       </c>
@@ -8908,7 +8968,7 @@
         <v>238</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D72" s="20" t="s">
         <v>16</v>
@@ -8980,7 +9040,7 @@
         <v>238</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D73" s="20" t="s">
         <v>16</v>
@@ -8996,7 +9056,7 @@
       </c>
       <c r="H73" s="21"/>
       <c r="I73" s="39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J73" s="22" t="s">
         <v>233</v>
@@ -9044,7 +9104,7 @@
       <c r="AU73" s="30"/>
       <c r="AV73" s="30"/>
     </row>
-    <row r="74" spans="1:48" s="31" customFormat="1" ht="15" hidden="1">
+    <row r="74" spans="1:48" s="31" customFormat="1" ht="15">
       <c r="A74">
         <v>73</v>
       </c>
@@ -9052,7 +9112,7 @@
         <v>238</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D74" s="20" t="s">
         <v>16</v>
@@ -9124,7 +9184,7 @@
         <v>238</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D75" s="20" t="s">
         <v>16</v>
@@ -9140,7 +9200,7 @@
       </c>
       <c r="H75" s="21"/>
       <c r="I75" s="39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J75" s="22"/>
       <c r="K75" s="22"/>
@@ -9194,7 +9254,7 @@
         <v>238</v>
       </c>
       <c r="C76" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D76" s="20" t="s">
         <v>16</v>
@@ -9210,7 +9270,7 @@
       </c>
       <c r="H76" s="21"/>
       <c r="I76" s="39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J76" s="22"/>
       <c r="K76" s="22"/>
@@ -9264,7 +9324,7 @@
         <v>238</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D77" s="20" t="s">
         <v>16</v>
@@ -9280,7 +9340,7 @@
       </c>
       <c r="H77" s="21"/>
       <c r="I77" s="39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J77" s="22"/>
       <c r="K77" s="22"/>
@@ -9334,7 +9394,7 @@
         <v>238</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D78" s="20" t="s">
         <v>16</v>
@@ -9350,7 +9410,7 @@
       </c>
       <c r="H78" s="21"/>
       <c r="I78" s="39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J78" s="22"/>
       <c r="K78" s="22"/>
@@ -9404,7 +9464,7 @@
         <v>238</v>
       </c>
       <c r="C79" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D79" s="20" t="s">
         <v>16</v>
@@ -9420,7 +9480,7 @@
       </c>
       <c r="H79" s="21"/>
       <c r="I79" s="39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J79" s="22"/>
       <c r="K79" s="22"/>
@@ -9474,7 +9534,7 @@
         <v>359</v>
       </c>
       <c r="C80" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D80" s="17" t="s">
         <v>75</v>
@@ -9546,7 +9606,7 @@
         <v>363</v>
       </c>
       <c r="C81" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D81" s="17" t="s">
         <v>75</v>
@@ -9618,7 +9678,7 @@
         <v>363</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D82" s="17" t="s">
         <v>75</v>
@@ -9684,7 +9744,7 @@
       <c r="AU82" s="1"/>
       <c r="AV82" s="1"/>
     </row>
-    <row r="83" spans="1:48" ht="15" hidden="1">
+    <row r="83" spans="1:48" ht="15">
       <c r="A83" s="51">
         <v>82</v>
       </c>
@@ -9692,7 +9752,7 @@
         <v>363</v>
       </c>
       <c r="C83" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D83" s="17" t="s">
         <v>75</v>
@@ -9756,7 +9816,7 @@
       <c r="AU83" s="1"/>
       <c r="AV83" s="1"/>
     </row>
-    <row r="84" spans="1:48" ht="15.6" hidden="1">
+    <row r="84" spans="1:48" ht="15.6">
       <c r="A84">
         <v>83</v>
       </c>
@@ -9764,7 +9824,7 @@
         <v>363</v>
       </c>
       <c r="C84" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D84" s="17" t="s">
         <v>75</v>
@@ -9838,7 +9898,7 @@
         <v>363</v>
       </c>
       <c r="C85" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D85" s="17" t="s">
         <v>75</v>
@@ -9910,7 +9970,7 @@
         <v>363</v>
       </c>
       <c r="C86" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D86" s="17" t="s">
         <v>75</v>
@@ -9984,7 +10044,7 @@
         <v>363</v>
       </c>
       <c r="C87" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D87" s="17" t="s">
         <v>75</v>
@@ -10058,7 +10118,7 @@
         <v>363</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D88" s="17" t="s">
         <v>75</v>
@@ -10130,7 +10190,7 @@
         <v>363</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D89" s="17" t="s">
         <v>75</v>
@@ -10204,7 +10264,7 @@
         <v>363</v>
       </c>
       <c r="C90" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D90" s="17" t="s">
         <v>75</v>
@@ -10278,7 +10338,7 @@
         <v>363</v>
       </c>
       <c r="C91" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D91" s="17" t="s">
         <v>75</v>
@@ -10352,7 +10412,7 @@
         <v>363</v>
       </c>
       <c r="C92" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D92" s="17" t="s">
         <v>75</v>
@@ -10424,7 +10484,7 @@
         <v>363</v>
       </c>
       <c r="C93" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D93" s="17" t="s">
         <v>75</v>
@@ -10496,7 +10556,7 @@
         <v>363</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D94" s="17" t="s">
         <v>75</v>
@@ -10570,7 +10630,7 @@
         <v>363</v>
       </c>
       <c r="C95" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D95" s="17" t="s">
         <v>75</v>
@@ -10642,7 +10702,7 @@
         <v>363</v>
       </c>
       <c r="C96" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D96" s="17" t="s">
         <v>75</v>
@@ -10716,7 +10776,7 @@
         <v>363</v>
       </c>
       <c r="C97" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D97" s="17" t="s">
         <v>75</v>
@@ -10790,7 +10850,7 @@
         <v>363</v>
       </c>
       <c r="C98" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D98" s="86" t="s">
         <v>75</v>
@@ -10862,7 +10922,7 @@
         <v>363</v>
       </c>
       <c r="C99" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D99" s="17" t="s">
         <v>75</v>
@@ -10934,7 +10994,7 @@
         <v>363</v>
       </c>
       <c r="C100" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D100" s="17" t="s">
         <v>75</v>
@@ -11008,7 +11068,7 @@
         <v>363</v>
       </c>
       <c r="C101" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D101" s="17" t="s">
         <v>75</v>
@@ -11080,7 +11140,7 @@
         <v>363</v>
       </c>
       <c r="C102" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D102" s="86" t="s">
         <v>75</v>
@@ -11152,7 +11212,7 @@
         <v>363</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D103" s="17" t="s">
         <v>75</v>
@@ -11216,7 +11276,7 @@
       <c r="AU103" s="1"/>
       <c r="AV103" s="1"/>
     </row>
-    <row r="104" spans="1:48" ht="15.6" hidden="1">
+    <row r="104" spans="1:48" ht="15.6">
       <c r="A104">
         <v>103</v>
       </c>
@@ -11224,7 +11284,7 @@
         <v>363</v>
       </c>
       <c r="C104" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D104" s="17" t="s">
         <v>75</v>
@@ -11290,7 +11350,7 @@
       <c r="AU104" s="1"/>
       <c r="AV104" s="1"/>
     </row>
-    <row r="105" spans="1:48" ht="15.6" hidden="1">
+    <row r="105" spans="1:48" ht="15.6">
       <c r="A105">
         <v>104</v>
       </c>
@@ -11298,7 +11358,7 @@
         <v>363</v>
       </c>
       <c r="C105" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D105" s="17" t="s">
         <v>75</v>
@@ -11364,7 +11424,7 @@
       <c r="AU105" s="1"/>
       <c r="AV105" s="1"/>
     </row>
-    <row r="106" spans="1:48" ht="15.6" hidden="1">
+    <row r="106" spans="1:48" ht="15.6">
       <c r="A106">
         <v>105</v>
       </c>
@@ -11372,7 +11432,7 @@
         <v>359</v>
       </c>
       <c r="C106" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D106" s="17" t="s">
         <v>75</v>
@@ -11438,7 +11498,7 @@
       <c r="AU106" s="1"/>
       <c r="AV106" s="1"/>
     </row>
-    <row r="107" spans="1:48" ht="15.6" hidden="1">
+    <row r="107" spans="1:48" ht="15.6">
       <c r="A107">
         <v>106</v>
       </c>
@@ -11446,7 +11506,7 @@
         <v>359</v>
       </c>
       <c r="C107" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D107" s="17" t="s">
         <v>75</v>
@@ -11512,7 +11572,7 @@
       <c r="AU107" s="1"/>
       <c r="AV107" s="1"/>
     </row>
-    <row r="108" spans="1:48" ht="15.6" hidden="1">
+    <row r="108" spans="1:48" ht="15.6">
       <c r="A108" s="51">
         <v>107</v>
       </c>
@@ -11520,7 +11580,7 @@
         <v>359</v>
       </c>
       <c r="C108" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D108" s="17" t="s">
         <v>75</v>
@@ -11586,7 +11646,7 @@
       <c r="AU108" s="1"/>
       <c r="AV108" s="1"/>
     </row>
-    <row r="109" spans="1:48" ht="15.6" hidden="1">
+    <row r="109" spans="1:48" ht="15.6">
       <c r="A109">
         <v>108</v>
       </c>
@@ -11594,7 +11654,7 @@
         <v>359</v>
       </c>
       <c r="C109" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D109" s="17" t="s">
         <v>75</v>
@@ -11660,7 +11720,7 @@
       <c r="AU109" s="1"/>
       <c r="AV109" s="1"/>
     </row>
-    <row r="110" spans="1:48" ht="15" hidden="1">
+    <row r="110" spans="1:48" ht="15">
       <c r="A110">
         <v>109</v>
       </c>
@@ -11668,7 +11728,7 @@
         <v>359</v>
       </c>
       <c r="C110" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D110" s="17" t="s">
         <v>75</v>
@@ -11744,7 +11804,7 @@
         <v>359</v>
       </c>
       <c r="C111" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D111" s="75" t="s">
         <v>75</v>
@@ -11817,7 +11877,7 @@
         <v>359</v>
       </c>
       <c r="C112" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D112" s="75" t="s">
         <v>75</v>
@@ -11890,7 +11950,7 @@
         <v>359</v>
       </c>
       <c r="C113" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D113" s="75" t="s">
         <v>75</v>
@@ -11955,7 +12015,7 @@
       <c r="AU113" s="83"/>
       <c r="AV113" s="83"/>
     </row>
-    <row r="114" spans="1:48" ht="15.6" hidden="1">
+    <row r="114" spans="1:48" ht="15.6">
       <c r="A114">
         <v>113</v>
       </c>
@@ -11963,7 +12023,7 @@
         <v>359</v>
       </c>
       <c r="C114" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D114" s="17" t="s">
         <v>75</v>
@@ -12029,7 +12089,7 @@
       <c r="AU114" s="1"/>
       <c r="AV114" s="1"/>
     </row>
-    <row r="115" spans="1:48" ht="15.6" hidden="1">
+    <row r="115" spans="1:48" ht="15.6">
       <c r="A115">
         <v>114</v>
       </c>
@@ -12037,7 +12097,7 @@
         <v>359</v>
       </c>
       <c r="C115" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D115" s="17" t="s">
         <v>75</v>
@@ -12113,7 +12173,7 @@
         <v>359</v>
       </c>
       <c r="C116" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D116" s="17" t="s">
         <v>75</v>
@@ -12181,7 +12241,7 @@
       <c r="AU116" s="1"/>
       <c r="AV116" s="1"/>
     </row>
-    <row r="117" spans="1:48" ht="15.6" hidden="1">
+    <row r="117" spans="1:48" ht="15.6">
       <c r="A117">
         <v>116</v>
       </c>
@@ -12189,7 +12249,7 @@
         <v>359</v>
       </c>
       <c r="C117" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D117" s="17" t="s">
         <v>75</v>
@@ -12255,7 +12315,7 @@
       <c r="AU117" s="1"/>
       <c r="AV117" s="1"/>
     </row>
-    <row r="118" spans="1:48" ht="15.6" hidden="1">
+    <row r="118" spans="1:48" ht="15.6">
       <c r="A118" s="51">
         <v>117</v>
       </c>
@@ -12263,7 +12323,7 @@
         <v>359</v>
       </c>
       <c r="C118" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D118" s="17" t="s">
         <v>75</v>
@@ -12337,7 +12397,7 @@
         <v>359</v>
       </c>
       <c r="C119" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D119" s="17" t="s">
         <v>75</v>
@@ -12411,7 +12471,7 @@
         <v>359</v>
       </c>
       <c r="C120" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D120" s="86" t="s">
         <v>75</v>
@@ -12478,7 +12538,7 @@
       <c r="AU120" s="92"/>
       <c r="AV120" s="92"/>
     </row>
-    <row r="121" spans="1:48" ht="15.6" hidden="1">
+    <row r="121" spans="1:48" ht="15.6">
       <c r="A121">
         <v>120</v>
       </c>
@@ -12486,7 +12546,7 @@
         <v>359</v>
       </c>
       <c r="C121" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D121" s="17" t="s">
         <v>75</v>
@@ -12559,7 +12619,7 @@
         <v>359</v>
       </c>
       <c r="C122" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D122" s="17" t="s">
         <v>75</v>
@@ -12626,7 +12686,7 @@
       <c r="AU122" s="1"/>
       <c r="AV122" s="1"/>
     </row>
-    <row r="123" spans="1:48" ht="15.6" hidden="1">
+    <row r="123" spans="1:48" ht="15.6">
       <c r="A123" s="51">
         <v>122</v>
       </c>
@@ -12634,7 +12694,7 @@
         <v>359</v>
       </c>
       <c r="C123" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D123" s="17" t="s">
         <v>75</v>
@@ -12701,7 +12761,7 @@
       <c r="AU123" s="1"/>
       <c r="AV123" s="1"/>
     </row>
-    <row r="124" spans="1:48" ht="15.6" hidden="1">
+    <row r="124" spans="1:48" ht="15.6">
       <c r="A124">
         <v>123</v>
       </c>
@@ -12709,7 +12769,7 @@
         <v>359</v>
       </c>
       <c r="C124" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D124" s="17" t="s">
         <v>75</v>
@@ -12776,7 +12836,7 @@
       <c r="AU124" s="1"/>
       <c r="AV124" s="1"/>
     </row>
-    <row r="125" spans="1:48" ht="15.6" hidden="1">
+    <row r="125" spans="1:48" ht="15.6">
       <c r="A125">
         <v>124</v>
       </c>
@@ -12784,7 +12844,7 @@
         <v>359</v>
       </c>
       <c r="C125" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D125" s="17" t="s">
         <v>75</v>
@@ -12851,7 +12911,7 @@
       <c r="AU125" s="1"/>
       <c r="AV125" s="1"/>
     </row>
-    <row r="126" spans="1:48" ht="15.6" hidden="1">
+    <row r="126" spans="1:48" ht="15.6">
       <c r="A126">
         <v>125</v>
       </c>
@@ -12859,7 +12919,7 @@
         <v>359</v>
       </c>
       <c r="C126" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D126" s="17" t="s">
         <v>75</v>
@@ -12926,7 +12986,7 @@
       <c r="AU126" s="1"/>
       <c r="AV126" s="1"/>
     </row>
-    <row r="127" spans="1:48" ht="15.6" hidden="1">
+    <row r="127" spans="1:48" ht="15.6">
       <c r="A127">
         <v>126</v>
       </c>
@@ -12934,7 +12994,7 @@
         <v>359</v>
       </c>
       <c r="C127" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D127" s="17" t="s">
         <v>75</v>
@@ -13001,7 +13061,7 @@
       <c r="AU127" s="1"/>
       <c r="AV127" s="1"/>
     </row>
-    <row r="128" spans="1:48" ht="15.6" hidden="1">
+    <row r="128" spans="1:48" ht="15.6">
       <c r="A128" s="51">
         <v>127</v>
       </c>
@@ -13009,7 +13069,7 @@
         <v>359</v>
       </c>
       <c r="C128" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D128" s="17" t="s">
         <v>75</v>
@@ -13075,7 +13135,7 @@
       <c r="AU128" s="1"/>
       <c r="AV128" s="1"/>
     </row>
-    <row r="129" spans="1:48" ht="15.6" hidden="1">
+    <row r="129" spans="1:48" ht="15.6">
       <c r="A129">
         <v>128</v>
       </c>
@@ -13083,7 +13143,7 @@
         <v>359</v>
       </c>
       <c r="C129" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D129" s="17" t="s">
         <v>75</v>
@@ -13149,7 +13209,7 @@
       <c r="AU129" s="1"/>
       <c r="AV129" s="1"/>
     </row>
-    <row r="130" spans="1:48" ht="15.6" hidden="1">
+    <row r="130" spans="1:48" ht="15.6">
       <c r="A130">
         <v>129</v>
       </c>
@@ -13157,7 +13217,7 @@
         <v>359</v>
       </c>
       <c r="C130" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D130" s="17" t="s">
         <v>75</v>
@@ -13225,7 +13285,7 @@
       <c r="AU130" s="1"/>
       <c r="AV130" s="1"/>
     </row>
-    <row r="131" spans="1:48" ht="15.6" hidden="1">
+    <row r="131" spans="1:48" ht="15.6">
       <c r="A131">
         <v>130</v>
       </c>
@@ -13233,7 +13293,7 @@
         <v>359</v>
       </c>
       <c r="C131" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D131" s="17" t="s">
         <v>75</v>
@@ -13306,7 +13366,7 @@
         <v>238</v>
       </c>
       <c r="C132" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D132" s="17" t="s">
         <v>75</v>
@@ -13318,7 +13378,7 @@
         <v>623</v>
       </c>
       <c r="G132" s="14" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="H132" s="14"/>
       <c r="I132" s="6" t="s">
@@ -13368,7 +13428,7 @@
       <c r="AU132" s="1"/>
       <c r="AV132" s="1"/>
     </row>
-    <row r="133" spans="1:48" ht="15.6" hidden="1">
+    <row r="133" spans="1:48" ht="15.6">
       <c r="A133" s="51">
         <v>132</v>
       </c>
@@ -13376,19 +13436,19 @@
         <v>238</v>
       </c>
       <c r="C133" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D133" s="17" t="s">
         <v>75</v>
       </c>
       <c r="E133" s="35" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F133" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="G133" s="14" t="s">
         <v>625</v>
-      </c>
-      <c r="G133" s="14" t="s">
-        <v>624</v>
       </c>
       <c r="H133" s="14"/>
       <c r="I133" s="6" t="s">
@@ -13440,7 +13500,7 @@
       <c r="AU133" s="1"/>
       <c r="AV133" s="1"/>
     </row>
-    <row r="134" spans="1:48" ht="15.6" hidden="1">
+    <row r="134" spans="1:48" ht="15.6">
       <c r="A134">
         <v>133</v>
       </c>
@@ -13448,22 +13508,22 @@
         <v>238</v>
       </c>
       <c r="C134" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D134" s="17" t="s">
         <v>75</v>
       </c>
       <c r="E134" s="14" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F134" s="14" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G134" s="14" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H134" s="14" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="I134" s="6" t="s">
         <v>21</v>
@@ -13477,7 +13537,7 @@
       </c>
       <c r="M134" s="6"/>
       <c r="N134" s="18" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="O134" s="3"/>
       <c r="P134" s="3"/>
@@ -13522,22 +13582,22 @@
         <v>238</v>
       </c>
       <c r="C135" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D135" s="17" t="s">
         <v>75</v>
       </c>
       <c r="E135" s="14" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F135" s="14" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G135" s="14" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H135" s="14" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="I135" s="6" t="s">
         <v>21</v>
@@ -13551,7 +13611,7 @@
       </c>
       <c r="M135" s="6"/>
       <c r="N135" s="18" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="O135" s="3"/>
       <c r="P135" s="3"/>
@@ -13588,7 +13648,7 @@
       <c r="AU135" s="1"/>
       <c r="AV135" s="1"/>
     </row>
-    <row r="136" spans="1:48" ht="15.6" hidden="1">
+    <row r="136" spans="1:48" ht="15.6">
       <c r="A136">
         <v>135</v>
       </c>
@@ -13596,17 +13656,17 @@
         <v>238</v>
       </c>
       <c r="C136" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D136" s="17" t="s">
         <v>75</v>
       </c>
       <c r="E136" s="14" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F136" s="14"/>
       <c r="G136" s="14" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H136" s="14"/>
       <c r="I136" s="6" t="s">
@@ -13664,22 +13724,22 @@
         <v>238</v>
       </c>
       <c r="C137" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D137" s="17" t="s">
         <v>75</v>
       </c>
       <c r="E137" s="14" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F137" s="14" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G137" s="14" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H137" s="14" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="I137" s="6" t="s">
         <v>21</v>
@@ -13730,7 +13790,7 @@
       <c r="AU137" s="1"/>
       <c r="AV137" s="1"/>
     </row>
-    <row r="138" spans="1:48" ht="15.6" hidden="1">
+    <row r="138" spans="1:48" ht="15.6">
       <c r="A138" s="51">
         <v>138</v>
       </c>
@@ -13738,21 +13798,23 @@
         <v>238</v>
       </c>
       <c r="C138" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D138" s="17" t="s">
         <v>75</v>
       </c>
       <c r="E138" s="14" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F138" s="14" t="s">
+        <v>644</v>
+      </c>
+      <c r="G138" s="14" t="s">
         <v>643</v>
       </c>
-      <c r="G138" s="14" t="s">
-        <v>642</v>
-      </c>
-      <c r="H138" s="14"/>
+      <c r="H138" s="14" t="s">
+        <v>645</v>
+      </c>
       <c r="I138" s="6" t="s">
         <v>21</v>
       </c>
@@ -13764,7 +13826,7 @@
         <v>2</v>
       </c>
       <c r="M138" s="93" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="N138" s="18" t="s">
         <v>23</v>
@@ -13804,7 +13866,7 @@
       <c r="AU138" s="1"/>
       <c r="AV138" s="1"/>
     </row>
-    <row r="139" spans="1:48" ht="15.6" hidden="1">
+    <row r="139" spans="1:48" ht="15">
       <c r="A139">
         <v>139</v>
       </c>
@@ -13818,23 +13880,31 @@
         <v>75</v>
       </c>
       <c r="E139" s="14" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="G139" s="14" t="s">
-        <v>645</v>
-      </c>
-      <c r="H139" s="14"/>
+        <v>647</v>
+      </c>
+      <c r="H139" s="14" t="s">
+        <v>649</v>
+      </c>
       <c r="I139" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J139" s="6"/>
+      <c r="J139" s="6">
+        <v>30</v>
+      </c>
       <c r="K139" s="6"/>
-      <c r="L139" s="7"/>
+      <c r="L139" s="7">
+        <v>1</v>
+      </c>
       <c r="M139" s="6"/>
-      <c r="N139" s="18"/>
+      <c r="N139" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="O139" s="3"/>
       <c r="P139" s="3"/>
       <c r="Q139" s="3"/>
@@ -13870,22 +13940,43 @@
       <c r="AU139" s="1"/>
       <c r="AV139" s="1"/>
     </row>
-    <row r="140" spans="1:48" ht="15.6" hidden="1">
-      <c r="D140" s="17"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="14"/>
+    <row r="140" spans="1:48" ht="15">
+      <c r="A140">
+        <v>140</v>
+      </c>
+      <c r="B140" t="s">
+        <v>238</v>
+      </c>
+      <c r="C140" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E140" s="14" t="s">
+        <v>650</v>
+      </c>
+      <c r="F140" s="14" t="s">
+        <v>651</v>
+      </c>
       <c r="G140" s="14"/>
-      <c r="H140" s="14"/>
+      <c r="H140" s="14" t="s">
+        <v>652</v>
+      </c>
       <c r="I140" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J140" s="6"/>
+      <c r="J140" s="6">
+        <v>30</v>
+      </c>
       <c r="K140" s="6"/>
-      <c r="L140" s="7" t="s">
-        <v>647</v>
+      <c r="L140" s="7">
+        <v>1</v>
       </c>
       <c r="M140" s="6"/>
-      <c r="N140" s="18"/>
+      <c r="N140" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="O140" s="3"/>
       <c r="P140" s="3"/>
       <c r="Q140" s="3"/>
@@ -13921,19 +14012,36 @@
       <c r="AU140" s="1"/>
       <c r="AV140" s="1"/>
     </row>
-    <row r="141" spans="1:48" ht="15.6" hidden="1">
-      <c r="D141" s="17"/>
-      <c r="E141" s="15"/>
-      <c r="F141" s="14"/>
+    <row r="141" spans="1:48" ht="15">
+      <c r="A141">
+        <v>141</v>
+      </c>
+      <c r="B141" t="s">
+        <v>238</v>
+      </c>
+      <c r="C141" t="s">
+        <v>24</v>
+      </c>
+      <c r="D141" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E141" s="15" t="s">
+        <v>653</v>
+      </c>
+      <c r="F141" s="14" t="s">
+        <v>654</v>
+      </c>
       <c r="G141" s="14"/>
       <c r="H141" s="14"/>
       <c r="I141" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J141" s="6"/>
+      <c r="J141" s="6">
+        <v>60</v>
+      </c>
       <c r="K141" s="6"/>
-      <c r="L141" s="7" t="s">
-        <v>647</v>
+      <c r="L141" s="7">
+        <v>2</v>
       </c>
       <c r="M141" s="6"/>
       <c r="N141" s="18"/>
@@ -13972,22 +14080,43 @@
       <c r="AU141" s="1"/>
       <c r="AV141" s="1"/>
     </row>
-    <row r="142" spans="1:48" ht="15.6" hidden="1">
-      <c r="D142" s="17"/>
-      <c r="E142" s="15"/>
-      <c r="F142" s="14"/>
-      <c r="G142" s="14"/>
-      <c r="H142" s="14"/>
+    <row r="142" spans="1:48" ht="15">
+      <c r="A142">
+        <v>142</v>
+      </c>
+      <c r="B142" t="s">
+        <v>238</v>
+      </c>
+      <c r="C142" t="s">
+        <v>24</v>
+      </c>
+      <c r="D142" s="121" t="s">
+        <v>75</v>
+      </c>
+      <c r="E142" s="35" t="s">
+        <v>655</v>
+      </c>
+      <c r="F142" s="35" t="s">
+        <v>656</v>
+      </c>
+      <c r="G142" s="35" t="s">
+        <v>638</v>
+      </c>
+      <c r="H142" s="35" t="s">
+        <v>657</v>
+      </c>
       <c r="I142" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J142" s="6"/>
       <c r="K142" s="6"/>
-      <c r="L142" s="7" t="s">
-        <v>647</v>
+      <c r="L142" s="7">
+        <v>3</v>
       </c>
       <c r="M142" s="6"/>
-      <c r="N142" s="18"/>
+      <c r="N142" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="O142" s="3"/>
       <c r="P142" s="3"/>
       <c r="Q142" s="3"/>
@@ -14007,40 +14136,59 @@
       <c r="AE142" s="3"/>
       <c r="AF142" s="3"/>
       <c r="AG142" s="3"/>
-      <c r="AH142" s="1"/>
-      <c r="AI142" s="1"/>
-      <c r="AJ142" s="1"/>
-      <c r="AK142" s="1"/>
-      <c r="AL142" s="1"/>
-      <c r="AM142" s="1"/>
-      <c r="AN142" s="1"/>
-      <c r="AO142" s="1"/>
-      <c r="AP142" s="1"/>
-      <c r="AQ142" s="1"/>
-      <c r="AR142" s="1"/>
-      <c r="AS142" s="1"/>
-      <c r="AT142" s="1"/>
-      <c r="AU142" s="1"/>
-      <c r="AV142" s="1"/>
-    </row>
-    <row r="143" spans="1:48" ht="15.6" hidden="1">
-      <c r="A143" s="51"/>
-      <c r="B143" s="51"/>
-      <c r="D143" s="17"/>
-      <c r="E143" s="15"/>
-      <c r="F143" s="14"/>
-      <c r="G143" s="14"/>
-      <c r="H143" s="14"/>
+      <c r="AH142" s="122"/>
+      <c r="AI142" s="122"/>
+      <c r="AJ142" s="122"/>
+      <c r="AK142" s="122"/>
+      <c r="AL142" s="122"/>
+      <c r="AM142" s="122"/>
+      <c r="AN142" s="122"/>
+      <c r="AO142" s="122"/>
+      <c r="AP142" s="122"/>
+      <c r="AQ142" s="122"/>
+      <c r="AR142" s="122"/>
+      <c r="AS142" s="122"/>
+      <c r="AT142" s="122"/>
+      <c r="AU142" s="122"/>
+      <c r="AV142" s="122"/>
+    </row>
+    <row r="143" spans="1:48" ht="15">
+      <c r="A143">
+        <v>143</v>
+      </c>
+      <c r="B143" t="s">
+        <v>238</v>
+      </c>
+      <c r="C143" t="s">
+        <v>24</v>
+      </c>
+      <c r="D143" s="121" t="s">
+        <v>75</v>
+      </c>
+      <c r="E143" s="35" t="s">
+        <v>655</v>
+      </c>
+      <c r="F143" s="35" t="s">
+        <v>658</v>
+      </c>
+      <c r="G143" s="35" t="s">
+        <v>638</v>
+      </c>
+      <c r="H143" s="35" t="s">
+        <v>657</v>
+      </c>
       <c r="I143" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J143" s="6"/>
       <c r="K143" s="6"/>
-      <c r="L143" s="7" t="s">
-        <v>647</v>
+      <c r="L143" s="7">
+        <v>3</v>
       </c>
       <c r="M143" s="6"/>
-      <c r="N143" s="18"/>
+      <c r="N143" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="O143" s="3"/>
       <c r="P143" s="3"/>
       <c r="Q143" s="3"/>
@@ -14060,38 +14208,59 @@
       <c r="AE143" s="3"/>
       <c r="AF143" s="3"/>
       <c r="AG143" s="3"/>
-      <c r="AH143" s="1"/>
-      <c r="AI143" s="1"/>
-      <c r="AJ143" s="1"/>
-      <c r="AK143" s="1"/>
-      <c r="AL143" s="1"/>
-      <c r="AM143" s="1"/>
-      <c r="AN143" s="1"/>
-      <c r="AO143" s="1"/>
-      <c r="AP143" s="1"/>
-      <c r="AQ143" s="1"/>
-      <c r="AR143" s="1"/>
-      <c r="AS143" s="1"/>
-      <c r="AT143" s="1"/>
-      <c r="AU143" s="1"/>
-      <c r="AV143" s="1"/>
-    </row>
-    <row r="144" spans="1:48" ht="15.6" hidden="1">
-      <c r="D144" s="17"/>
-      <c r="E144" s="15"/>
-      <c r="F144" s="14"/>
-      <c r="G144" s="14"/>
-      <c r="H144" s="14"/>
+      <c r="AH143" s="122"/>
+      <c r="AI143" s="122"/>
+      <c r="AJ143" s="122"/>
+      <c r="AK143" s="122"/>
+      <c r="AL143" s="122"/>
+      <c r="AM143" s="122"/>
+      <c r="AN143" s="122"/>
+      <c r="AO143" s="122"/>
+      <c r="AP143" s="122"/>
+      <c r="AQ143" s="122"/>
+      <c r="AR143" s="122"/>
+      <c r="AS143" s="122"/>
+      <c r="AT143" s="122"/>
+      <c r="AU143" s="122"/>
+      <c r="AV143" s="122"/>
+    </row>
+    <row r="144" spans="1:48" ht="15">
+      <c r="A144">
+        <v>144</v>
+      </c>
+      <c r="B144" t="s">
+        <v>238</v>
+      </c>
+      <c r="C144" t="s">
+        <v>24</v>
+      </c>
+      <c r="D144" s="121" t="s">
+        <v>75</v>
+      </c>
+      <c r="E144" s="35" t="s">
+        <v>655</v>
+      </c>
+      <c r="F144" s="35" t="s">
+        <v>659</v>
+      </c>
+      <c r="G144" s="35" t="s">
+        <v>638</v>
+      </c>
+      <c r="H144" s="35" t="s">
+        <v>657</v>
+      </c>
       <c r="I144" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J144" s="6"/>
       <c r="K144" s="6"/>
-      <c r="L144" s="7" t="s">
-        <v>647</v>
+      <c r="L144" s="7">
+        <v>3</v>
       </c>
       <c r="M144" s="6"/>
-      <c r="N144" s="18"/>
+      <c r="N144" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="O144" s="3"/>
       <c r="P144" s="3"/>
       <c r="Q144" s="3"/>
@@ -14111,38 +14280,59 @@
       <c r="AE144" s="3"/>
       <c r="AF144" s="3"/>
       <c r="AG144" s="3"/>
-      <c r="AH144" s="1"/>
-      <c r="AI144" s="1"/>
-      <c r="AJ144" s="1"/>
-      <c r="AK144" s="1"/>
-      <c r="AL144" s="1"/>
-      <c r="AM144" s="1"/>
-      <c r="AN144" s="1"/>
-      <c r="AO144" s="1"/>
-      <c r="AP144" s="1"/>
-      <c r="AQ144" s="1"/>
-      <c r="AR144" s="1"/>
-      <c r="AS144" s="1"/>
-      <c r="AT144" s="1"/>
-      <c r="AU144" s="1"/>
-      <c r="AV144" s="1"/>
-    </row>
-    <row r="145" spans="1:48" ht="15.6" hidden="1">
-      <c r="D145" s="17"/>
-      <c r="E145" s="15"/>
-      <c r="F145" s="14"/>
-      <c r="G145" s="14"/>
-      <c r="H145" s="14"/>
+      <c r="AH144" s="122"/>
+      <c r="AI144" s="122"/>
+      <c r="AJ144" s="122"/>
+      <c r="AK144" s="122"/>
+      <c r="AL144" s="122"/>
+      <c r="AM144" s="122"/>
+      <c r="AN144" s="122"/>
+      <c r="AO144" s="122"/>
+      <c r="AP144" s="122"/>
+      <c r="AQ144" s="122"/>
+      <c r="AR144" s="122"/>
+      <c r="AS144" s="122"/>
+      <c r="AT144" s="122"/>
+      <c r="AU144" s="122"/>
+      <c r="AV144" s="122"/>
+    </row>
+    <row r="145" spans="1:48" ht="15">
+      <c r="A145">
+        <v>145</v>
+      </c>
+      <c r="B145" t="s">
+        <v>238</v>
+      </c>
+      <c r="C145" t="s">
+        <v>24</v>
+      </c>
+      <c r="D145" s="121" t="s">
+        <v>75</v>
+      </c>
+      <c r="E145" s="35" t="s">
+        <v>655</v>
+      </c>
+      <c r="F145" s="35" t="s">
+        <v>660</v>
+      </c>
+      <c r="G145" s="35" t="s">
+        <v>638</v>
+      </c>
+      <c r="H145" s="35" t="s">
+        <v>657</v>
+      </c>
       <c r="I145" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J145" s="6"/>
       <c r="K145" s="6"/>
-      <c r="L145" s="7" t="s">
-        <v>647</v>
+      <c r="L145" s="7">
+        <v>3</v>
       </c>
       <c r="M145" s="6"/>
-      <c r="N145" s="18"/>
+      <c r="N145" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="O145" s="3"/>
       <c r="P145" s="3"/>
       <c r="Q145" s="3"/>
@@ -14162,38 +14352,59 @@
       <c r="AE145" s="3"/>
       <c r="AF145" s="3"/>
       <c r="AG145" s="3"/>
-      <c r="AH145" s="1"/>
-      <c r="AI145" s="1"/>
-      <c r="AJ145" s="1"/>
-      <c r="AK145" s="1"/>
-      <c r="AL145" s="1"/>
-      <c r="AM145" s="1"/>
-      <c r="AN145" s="1"/>
-      <c r="AO145" s="1"/>
-      <c r="AP145" s="1"/>
-      <c r="AQ145" s="1"/>
-      <c r="AR145" s="1"/>
-      <c r="AS145" s="1"/>
-      <c r="AT145" s="1"/>
-      <c r="AU145" s="1"/>
-      <c r="AV145" s="1"/>
-    </row>
-    <row r="146" spans="1:48" ht="15.6" hidden="1">
-      <c r="D146" s="17"/>
-      <c r="E146" s="15"/>
-      <c r="F146" s="14"/>
-      <c r="G146" s="14"/>
-      <c r="H146" s="14"/>
+      <c r="AH145" s="122"/>
+      <c r="AI145" s="122"/>
+      <c r="AJ145" s="122"/>
+      <c r="AK145" s="122"/>
+      <c r="AL145" s="122"/>
+      <c r="AM145" s="122"/>
+      <c r="AN145" s="122"/>
+      <c r="AO145" s="122"/>
+      <c r="AP145" s="122"/>
+      <c r="AQ145" s="122"/>
+      <c r="AR145" s="122"/>
+      <c r="AS145" s="122"/>
+      <c r="AT145" s="122"/>
+      <c r="AU145" s="122"/>
+      <c r="AV145" s="122"/>
+    </row>
+    <row r="146" spans="1:48" ht="15">
+      <c r="A146">
+        <v>146</v>
+      </c>
+      <c r="B146" t="s">
+        <v>238</v>
+      </c>
+      <c r="C146" t="s">
+        <v>24</v>
+      </c>
+      <c r="D146" s="121" t="s">
+        <v>75</v>
+      </c>
+      <c r="E146" s="35" t="s">
+        <v>655</v>
+      </c>
+      <c r="F146" s="35" t="s">
+        <v>661</v>
+      </c>
+      <c r="G146" s="35" t="s">
+        <v>638</v>
+      </c>
+      <c r="H146" s="35" t="s">
+        <v>657</v>
+      </c>
       <c r="I146" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J146" s="6"/>
       <c r="K146" s="6"/>
-      <c r="L146" s="7" t="s">
-        <v>647</v>
+      <c r="L146" s="7">
+        <v>3</v>
       </c>
       <c r="M146" s="6"/>
-      <c r="N146" s="18"/>
+      <c r="N146" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="O146" s="3"/>
       <c r="P146" s="3"/>
       <c r="Q146" s="3"/>
@@ -14213,38 +14424,59 @@
       <c r="AE146" s="3"/>
       <c r="AF146" s="3"/>
       <c r="AG146" s="3"/>
-      <c r="AH146" s="1"/>
-      <c r="AI146" s="1"/>
-      <c r="AJ146" s="1"/>
-      <c r="AK146" s="1"/>
-      <c r="AL146" s="1"/>
-      <c r="AM146" s="1"/>
-      <c r="AN146" s="1"/>
-      <c r="AO146" s="1"/>
-      <c r="AP146" s="1"/>
-      <c r="AQ146" s="1"/>
-      <c r="AR146" s="1"/>
-      <c r="AS146" s="1"/>
-      <c r="AT146" s="1"/>
-      <c r="AU146" s="1"/>
-      <c r="AV146" s="1"/>
-    </row>
-    <row r="147" spans="1:48" ht="15.6" hidden="1">
-      <c r="D147" s="17"/>
-      <c r="E147" s="15"/>
-      <c r="F147" s="14"/>
-      <c r="G147" s="14"/>
-      <c r="H147" s="14"/>
+      <c r="AH146" s="122"/>
+      <c r="AI146" s="122"/>
+      <c r="AJ146" s="122"/>
+      <c r="AK146" s="122"/>
+      <c r="AL146" s="122"/>
+      <c r="AM146" s="122"/>
+      <c r="AN146" s="122"/>
+      <c r="AO146" s="122"/>
+      <c r="AP146" s="122"/>
+      <c r="AQ146" s="122"/>
+      <c r="AR146" s="122"/>
+      <c r="AS146" s="122"/>
+      <c r="AT146" s="122"/>
+      <c r="AU146" s="122"/>
+      <c r="AV146" s="122"/>
+    </row>
+    <row r="147" spans="1:48" ht="15">
+      <c r="A147">
+        <v>147</v>
+      </c>
+      <c r="B147" t="s">
+        <v>238</v>
+      </c>
+      <c r="C147" t="s">
+        <v>24</v>
+      </c>
+      <c r="D147" s="121" t="s">
+        <v>75</v>
+      </c>
+      <c r="E147" s="35" t="s">
+        <v>655</v>
+      </c>
+      <c r="F147" s="35" t="s">
+        <v>662</v>
+      </c>
+      <c r="G147" s="35" t="s">
+        <v>638</v>
+      </c>
+      <c r="H147" s="35" t="s">
+        <v>657</v>
+      </c>
       <c r="I147" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J147" s="6"/>
       <c r="K147" s="6"/>
-      <c r="L147" s="7" t="s">
-        <v>647</v>
+      <c r="L147" s="7">
+        <v>3</v>
       </c>
       <c r="M147" s="6"/>
-      <c r="N147" s="18"/>
+      <c r="N147" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="O147" s="3"/>
       <c r="P147" s="3"/>
       <c r="Q147" s="3"/>
@@ -14264,40 +14496,59 @@
       <c r="AE147" s="3"/>
       <c r="AF147" s="3"/>
       <c r="AG147" s="3"/>
-      <c r="AH147" s="1"/>
-      <c r="AI147" s="1"/>
-      <c r="AJ147" s="1"/>
-      <c r="AK147" s="1"/>
-      <c r="AL147" s="1"/>
-      <c r="AM147" s="1"/>
-      <c r="AN147" s="1"/>
-      <c r="AO147" s="1"/>
-      <c r="AP147" s="1"/>
-      <c r="AQ147" s="1"/>
-      <c r="AR147" s="1"/>
-      <c r="AS147" s="1"/>
-      <c r="AT147" s="1"/>
-      <c r="AU147" s="1"/>
-      <c r="AV147" s="1"/>
-    </row>
-    <row r="148" spans="1:48" ht="15.6" hidden="1">
-      <c r="A148" s="51"/>
-      <c r="B148" s="51"/>
-      <c r="D148" s="17"/>
-      <c r="E148" s="15"/>
-      <c r="F148" s="15"/>
-      <c r="G148" s="15"/>
-      <c r="H148" s="15"/>
+      <c r="AH147" s="122"/>
+      <c r="AI147" s="122"/>
+      <c r="AJ147" s="122"/>
+      <c r="AK147" s="122"/>
+      <c r="AL147" s="122"/>
+      <c r="AM147" s="122"/>
+      <c r="AN147" s="122"/>
+      <c r="AO147" s="122"/>
+      <c r="AP147" s="122"/>
+      <c r="AQ147" s="122"/>
+      <c r="AR147" s="122"/>
+      <c r="AS147" s="122"/>
+      <c r="AT147" s="122"/>
+      <c r="AU147" s="122"/>
+      <c r="AV147" s="122"/>
+    </row>
+    <row r="148" spans="1:48" ht="15">
+      <c r="A148">
+        <v>148</v>
+      </c>
+      <c r="B148" t="s">
+        <v>238</v>
+      </c>
+      <c r="C148" t="s">
+        <v>24</v>
+      </c>
+      <c r="D148" s="121" t="s">
+        <v>75</v>
+      </c>
+      <c r="E148" s="35" t="s">
+        <v>655</v>
+      </c>
+      <c r="F148" s="35" t="s">
+        <v>662</v>
+      </c>
+      <c r="G148" s="35" t="s">
+        <v>638</v>
+      </c>
+      <c r="H148" s="35" t="s">
+        <v>657</v>
+      </c>
       <c r="I148" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J148" s="6"/>
       <c r="K148" s="6"/>
-      <c r="L148" s="7" t="s">
-        <v>647</v>
+      <c r="L148" s="7">
+        <v>3</v>
       </c>
       <c r="M148" s="6"/>
-      <c r="N148" s="18"/>
+      <c r="N148" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="O148" s="3"/>
       <c r="P148" s="3"/>
       <c r="Q148" s="3"/>
@@ -14317,38 +14568,59 @@
       <c r="AE148" s="3"/>
       <c r="AF148" s="3"/>
       <c r="AG148" s="3"/>
-      <c r="AH148" s="1"/>
-      <c r="AI148" s="1"/>
-      <c r="AJ148" s="1"/>
-      <c r="AK148" s="1"/>
-      <c r="AL148" s="1"/>
-      <c r="AM148" s="1"/>
-      <c r="AN148" s="1"/>
-      <c r="AO148" s="1"/>
-      <c r="AP148" s="1"/>
-      <c r="AQ148" s="1"/>
-      <c r="AR148" s="1"/>
-      <c r="AS148" s="1"/>
-      <c r="AT148" s="1"/>
-      <c r="AU148" s="1"/>
-      <c r="AV148" s="1"/>
-    </row>
-    <row r="149" spans="1:48" ht="15.6" hidden="1">
-      <c r="D149" s="17"/>
-      <c r="E149" s="15"/>
-      <c r="F149" s="15"/>
-      <c r="G149" s="15"/>
-      <c r="H149" s="15"/>
+      <c r="AH148" s="122"/>
+      <c r="AI148" s="122"/>
+      <c r="AJ148" s="122"/>
+      <c r="AK148" s="122"/>
+      <c r="AL148" s="122"/>
+      <c r="AM148" s="122"/>
+      <c r="AN148" s="122"/>
+      <c r="AO148" s="122"/>
+      <c r="AP148" s="122"/>
+      <c r="AQ148" s="122"/>
+      <c r="AR148" s="122"/>
+      <c r="AS148" s="122"/>
+      <c r="AT148" s="122"/>
+      <c r="AU148" s="122"/>
+      <c r="AV148" s="122"/>
+    </row>
+    <row r="149" spans="1:48" ht="15">
+      <c r="A149">
+        <v>149</v>
+      </c>
+      <c r="B149" t="s">
+        <v>238</v>
+      </c>
+      <c r="C149" t="s">
+        <v>24</v>
+      </c>
+      <c r="D149" s="121" t="s">
+        <v>75</v>
+      </c>
+      <c r="E149" s="35" t="s">
+        <v>655</v>
+      </c>
+      <c r="F149" s="35" t="s">
+        <v>662</v>
+      </c>
+      <c r="G149" s="35" t="s">
+        <v>638</v>
+      </c>
+      <c r="H149" s="35" t="s">
+        <v>657</v>
+      </c>
       <c r="I149" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J149" s="6"/>
       <c r="K149" s="6"/>
-      <c r="L149" s="7" t="s">
-        <v>647</v>
+      <c r="L149" s="7">
+        <v>3</v>
       </c>
       <c r="M149" s="6"/>
-      <c r="N149" s="18"/>
+      <c r="N149" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="O149" s="3"/>
       <c r="P149" s="3"/>
       <c r="Q149" s="3"/>
@@ -14368,23 +14640,23 @@
       <c r="AE149" s="3"/>
       <c r="AF149" s="3"/>
       <c r="AG149" s="3"/>
-      <c r="AH149" s="1"/>
-      <c r="AI149" s="1"/>
-      <c r="AJ149" s="1"/>
-      <c r="AK149" s="1"/>
-      <c r="AL149" s="1"/>
-      <c r="AM149" s="1"/>
-      <c r="AN149" s="1"/>
-      <c r="AO149" s="1"/>
-      <c r="AP149" s="1"/>
-      <c r="AQ149" s="1"/>
-      <c r="AR149" s="1"/>
-      <c r="AS149" s="1"/>
-      <c r="AT149" s="1"/>
-      <c r="AU149" s="1"/>
-      <c r="AV149" s="1"/>
-    </row>
-    <row r="150" spans="1:48" ht="15.6" hidden="1">
+      <c r="AH149" s="122"/>
+      <c r="AI149" s="122"/>
+      <c r="AJ149" s="122"/>
+      <c r="AK149" s="122"/>
+      <c r="AL149" s="122"/>
+      <c r="AM149" s="122"/>
+      <c r="AN149" s="122"/>
+      <c r="AO149" s="122"/>
+      <c r="AP149" s="122"/>
+      <c r="AQ149" s="122"/>
+      <c r="AR149" s="122"/>
+      <c r="AS149" s="122"/>
+      <c r="AT149" s="122"/>
+      <c r="AU149" s="122"/>
+      <c r="AV149" s="122"/>
+    </row>
+    <row r="150" spans="1:48" ht="15.6">
       <c r="D150" s="17"/>
       <c r="E150" s="15"/>
       <c r="F150" s="15"/>
@@ -14396,7 +14668,7 @@
       <c r="J150" s="6"/>
       <c r="K150" s="6"/>
       <c r="L150" s="7" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M150" s="6"/>
       <c r="N150" s="18"/>
@@ -14435,7 +14707,7 @@
       <c r="AU150" s="1"/>
       <c r="AV150" s="1"/>
     </row>
-    <row r="151" spans="1:48" ht="15.6" hidden="1">
+    <row r="151" spans="1:48" ht="15.6">
       <c r="D151" s="17"/>
       <c r="E151" s="15"/>
       <c r="F151" s="15"/>
@@ -14447,7 +14719,7 @@
       <c r="J151" s="6"/>
       <c r="K151" s="6"/>
       <c r="L151" s="7" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M151" s="6"/>
       <c r="N151" s="18"/>
@@ -14486,7 +14758,7 @@
       <c r="AU151" s="1"/>
       <c r="AV151" s="1"/>
     </row>
-    <row r="152" spans="1:48" ht="15.6" hidden="1">
+    <row r="152" spans="1:48" ht="15.6">
       <c r="D152" s="17"/>
       <c r="E152" s="15"/>
       <c r="F152" s="15"/>
@@ -14498,7 +14770,7 @@
       <c r="J152" s="6"/>
       <c r="K152" s="6"/>
       <c r="L152" s="7" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M152" s="6"/>
       <c r="N152" s="18"/>
@@ -14537,7 +14809,7 @@
       <c r="AU152" s="1"/>
       <c r="AV152" s="1"/>
     </row>
-    <row r="153" spans="1:48" ht="15.6" hidden="1">
+    <row r="153" spans="1:48" ht="15.6">
       <c r="A153" s="51"/>
       <c r="B153" s="51"/>
       <c r="D153" s="17"/>
@@ -14551,7 +14823,7 @@
       <c r="J153" s="6"/>
       <c r="K153" s="6"/>
       <c r="L153" s="7" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M153" s="6"/>
       <c r="N153" s="18"/>
@@ -14590,7 +14862,7 @@
       <c r="AU153" s="1"/>
       <c r="AV153" s="1"/>
     </row>
-    <row r="154" spans="1:48" ht="15.6" hidden="1">
+    <row r="154" spans="1:48" ht="15.6">
       <c r="D154" s="17"/>
       <c r="E154" s="15"/>
       <c r="F154" s="15"/>
@@ -14600,7 +14872,7 @@
       <c r="J154" s="6"/>
       <c r="K154" s="6"/>
       <c r="L154" s="7" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M154" s="6"/>
       <c r="N154" s="18"/>
@@ -14639,7 +14911,7 @@
       <c r="AU154" s="1"/>
       <c r="AV154" s="1"/>
     </row>
-    <row r="155" spans="1:48" ht="15.6" hidden="1">
+    <row r="155" spans="1:48" ht="15.6">
       <c r="D155" s="17"/>
       <c r="E155" s="15"/>
       <c r="F155" s="15"/>
@@ -14649,7 +14921,7 @@
       <c r="J155" s="6"/>
       <c r="K155" s="6"/>
       <c r="L155" s="7" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M155" s="6"/>
       <c r="N155" s="18"/>
@@ -14688,7 +14960,7 @@
       <c r="AU155" s="1"/>
       <c r="AV155" s="1"/>
     </row>
-    <row r="156" spans="1:48" ht="15.6" hidden="1">
+    <row r="156" spans="1:48" ht="15.6">
       <c r="D156" s="17"/>
       <c r="E156" s="15"/>
       <c r="F156" s="15"/>
@@ -14698,7 +14970,7 @@
       <c r="J156" s="6"/>
       <c r="K156" s="6"/>
       <c r="L156" s="7" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M156" s="6"/>
       <c r="N156" s="18"/>
@@ -14737,7 +15009,7 @@
       <c r="AU156" s="1"/>
       <c r="AV156" s="1"/>
     </row>
-    <row r="157" spans="1:48" ht="15.6" hidden="1">
+    <row r="157" spans="1:48" ht="15.6">
       <c r="D157" s="17"/>
       <c r="E157" s="15"/>
       <c r="F157" s="15"/>
@@ -14747,7 +15019,7 @@
       <c r="J157" s="6"/>
       <c r="K157" s="6"/>
       <c r="L157" s="7" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M157" s="6"/>
       <c r="N157" s="18"/>
@@ -14786,7 +15058,7 @@
       <c r="AU157" s="1"/>
       <c r="AV157" s="1"/>
     </row>
-    <row r="158" spans="1:48" ht="15.6" hidden="1">
+    <row r="158" spans="1:48" ht="15.6">
       <c r="A158" s="51"/>
       <c r="B158" s="51"/>
       <c r="D158" s="17"/>
@@ -14798,7 +15070,7 @@
       <c r="J158" s="6"/>
       <c r="K158" s="6"/>
       <c r="L158" s="7" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M158" s="6"/>
       <c r="N158" s="18"/>
@@ -14837,7 +15109,7 @@
       <c r="AU158" s="1"/>
       <c r="AV158" s="1"/>
     </row>
-    <row r="159" spans="1:48" ht="15.6" hidden="1">
+    <row r="159" spans="1:48" ht="15.6">
       <c r="D159" s="17"/>
       <c r="E159" s="15"/>
       <c r="F159" s="15"/>
@@ -14847,7 +15119,7 @@
       <c r="J159" s="6"/>
       <c r="K159" s="6"/>
       <c r="L159" s="7" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M159" s="6"/>
       <c r="N159" s="18"/>
@@ -14886,7 +15158,7 @@
       <c r="AU159" s="1"/>
       <c r="AV159" s="1"/>
     </row>
-    <row r="160" spans="1:48" ht="15.6" hidden="1">
+    <row r="160" spans="1:48" ht="15.6">
       <c r="D160" s="17"/>
       <c r="E160" s="15"/>
       <c r="F160" s="15"/>
@@ -14896,7 +15168,7 @@
       <c r="J160" s="6"/>
       <c r="K160" s="6"/>
       <c r="L160" s="7" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M160" s="6"/>
       <c r="N160" s="18"/>
@@ -14935,7 +15207,7 @@
       <c r="AU160" s="1"/>
       <c r="AV160" s="1"/>
     </row>
-    <row r="161" spans="1:48" ht="15.6" hidden="1">
+    <row r="161" spans="1:48" ht="15.6">
       <c r="D161" s="17"/>
       <c r="E161" s="15"/>
       <c r="F161" s="15"/>
@@ -14945,7 +15217,7 @@
       <c r="J161" s="6"/>
       <c r="K161" s="6"/>
       <c r="L161" s="7" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M161" s="6"/>
       <c r="N161" s="18"/>
@@ -14984,7 +15256,7 @@
       <c r="AU161" s="1"/>
       <c r="AV161" s="1"/>
     </row>
-    <row r="162" spans="1:48" ht="15.6" hidden="1">
+    <row r="162" spans="1:48" ht="15.6">
       <c r="D162" s="17"/>
       <c r="E162" s="15"/>
       <c r="F162" s="15"/>
@@ -14994,7 +15266,7 @@
       <c r="J162" s="6"/>
       <c r="K162" s="6"/>
       <c r="L162" s="7" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M162" s="6"/>
       <c r="N162" s="18"/>
@@ -15033,7 +15305,7 @@
       <c r="AU162" s="1"/>
       <c r="AV162" s="1"/>
     </row>
-    <row r="163" spans="1:48" ht="15.6" hidden="1">
+    <row r="163" spans="1:48" ht="15.6">
       <c r="A163" s="51"/>
       <c r="B163" s="51"/>
       <c r="D163" s="17"/>
@@ -15045,7 +15317,7 @@
       <c r="J163" s="6"/>
       <c r="K163" s="6"/>
       <c r="L163" s="7" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M163" s="6"/>
       <c r="N163" s="18"/>
@@ -15084,7 +15356,7 @@
       <c r="AU163" s="1"/>
       <c r="AV163" s="1"/>
     </row>
-    <row r="164" spans="1:48" ht="15.6" hidden="1">
+    <row r="164" spans="1:48" ht="15.6">
       <c r="D164" s="17"/>
       <c r="E164" s="15"/>
       <c r="F164" s="15"/>
@@ -15094,7 +15366,7 @@
       <c r="J164" s="6"/>
       <c r="K164" s="6"/>
       <c r="L164" s="7" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M164" s="6"/>
       <c r="N164" s="18"/>
@@ -15133,7 +15405,7 @@
       <c r="AU164" s="1"/>
       <c r="AV164" s="1"/>
     </row>
-    <row r="165" spans="1:48" hidden="1">
+    <row r="165" spans="1:48">
       <c r="D165" s="17"/>
       <c r="E165" s="15"/>
       <c r="F165" s="15"/>
@@ -15143,7 +15415,7 @@
       <c r="J165" s="9"/>
       <c r="K165" s="9"/>
       <c r="L165" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M165" s="9"/>
       <c r="N165" s="19"/>
@@ -15182,7 +15454,7 @@
       <c r="AU165" s="1"/>
       <c r="AV165" s="1"/>
     </row>
-    <row r="166" spans="1:48" hidden="1">
+    <row r="166" spans="1:48">
       <c r="D166" s="17"/>
       <c r="E166" s="15"/>
       <c r="F166" s="15"/>
@@ -15192,7 +15464,7 @@
       <c r="J166" s="9"/>
       <c r="K166" s="9"/>
       <c r="L166" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M166" s="9"/>
       <c r="N166" s="19"/>
@@ -15231,7 +15503,7 @@
       <c r="AU166" s="1"/>
       <c r="AV166" s="1"/>
     </row>
-    <row r="167" spans="1:48" hidden="1">
+    <row r="167" spans="1:48">
       <c r="D167" s="17"/>
       <c r="E167" s="15"/>
       <c r="F167" s="15"/>
@@ -15241,7 +15513,7 @@
       <c r="J167" s="9"/>
       <c r="K167" s="9"/>
       <c r="L167" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M167" s="9"/>
       <c r="N167" s="19"/>
@@ -15280,7 +15552,7 @@
       <c r="AU167" s="1"/>
       <c r="AV167" s="1"/>
     </row>
-    <row r="168" spans="1:48" hidden="1">
+    <row r="168" spans="1:48">
       <c r="A168" s="51"/>
       <c r="B168" s="51"/>
       <c r="D168" s="17"/>
@@ -15292,7 +15564,7 @@
       <c r="J168" s="9"/>
       <c r="K168" s="9"/>
       <c r="L168" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M168" s="9"/>
       <c r="N168" s="19"/>
@@ -15331,7 +15603,7 @@
       <c r="AU168" s="1"/>
       <c r="AV168" s="1"/>
     </row>
-    <row r="169" spans="1:48" hidden="1">
+    <row r="169" spans="1:48">
       <c r="D169" s="17"/>
       <c r="E169" s="15"/>
       <c r="F169" s="15"/>
@@ -15341,7 +15613,7 @@
       <c r="J169" s="9"/>
       <c r="K169" s="9"/>
       <c r="L169" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M169" s="9"/>
       <c r="N169" s="19"/>
@@ -15380,7 +15652,7 @@
       <c r="AU169" s="1"/>
       <c r="AV169" s="1"/>
     </row>
-    <row r="170" spans="1:48" hidden="1">
+    <row r="170" spans="1:48">
       <c r="D170" s="17"/>
       <c r="E170" s="15"/>
       <c r="F170" s="15"/>
@@ -15390,7 +15662,7 @@
       <c r="J170" s="9"/>
       <c r="K170" s="9"/>
       <c r="L170" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M170" s="9"/>
       <c r="N170" s="19"/>
@@ -15429,7 +15701,7 @@
       <c r="AU170" s="1"/>
       <c r="AV170" s="1"/>
     </row>
-    <row r="171" spans="1:48" hidden="1">
+    <row r="171" spans="1:48">
       <c r="D171" s="17"/>
       <c r="E171" s="15"/>
       <c r="F171" s="15"/>
@@ -15439,7 +15711,7 @@
       <c r="J171" s="9"/>
       <c r="K171" s="9"/>
       <c r="L171" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M171" s="9"/>
       <c r="N171" s="19"/>
@@ -15478,7 +15750,7 @@
       <c r="AU171" s="1"/>
       <c r="AV171" s="1"/>
     </row>
-    <row r="172" spans="1:48" hidden="1">
+    <row r="172" spans="1:48">
       <c r="D172" s="17"/>
       <c r="E172" s="15"/>
       <c r="F172" s="15"/>
@@ -15488,7 +15760,7 @@
       <c r="J172" s="9"/>
       <c r="K172" s="9"/>
       <c r="L172" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M172" s="9"/>
       <c r="N172" s="19"/>
@@ -15527,7 +15799,7 @@
       <c r="AU172" s="1"/>
       <c r="AV172" s="1"/>
     </row>
-    <row r="173" spans="1:48" hidden="1">
+    <row r="173" spans="1:48">
       <c r="A173" s="51"/>
       <c r="B173" s="51"/>
       <c r="D173" s="17"/>
@@ -15539,7 +15811,7 @@
       <c r="J173" s="9"/>
       <c r="K173" s="9"/>
       <c r="L173" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M173" s="9"/>
       <c r="N173" s="19"/>
@@ -15578,7 +15850,7 @@
       <c r="AU173" s="1"/>
       <c r="AV173" s="1"/>
     </row>
-    <row r="174" spans="1:48" hidden="1">
+    <row r="174" spans="1:48">
       <c r="D174" s="17"/>
       <c r="E174" s="15"/>
       <c r="F174" s="15"/>
@@ -15588,7 +15860,7 @@
       <c r="J174" s="9"/>
       <c r="K174" s="9"/>
       <c r="L174" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M174" s="9"/>
       <c r="N174" s="19"/>
@@ -15627,7 +15899,7 @@
       <c r="AU174" s="1"/>
       <c r="AV174" s="1"/>
     </row>
-    <row r="175" spans="1:48" hidden="1">
+    <row r="175" spans="1:48">
       <c r="D175" s="17"/>
       <c r="E175" s="15"/>
       <c r="F175" s="15"/>
@@ -15637,7 +15909,7 @@
       <c r="J175" s="9"/>
       <c r="K175" s="9"/>
       <c r="L175" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M175" s="9"/>
       <c r="N175" s="19"/>
@@ -15676,7 +15948,7 @@
       <c r="AU175" s="1"/>
       <c r="AV175" s="1"/>
     </row>
-    <row r="176" spans="1:48" hidden="1">
+    <row r="176" spans="1:48">
       <c r="D176" s="17"/>
       <c r="E176" s="15"/>
       <c r="F176" s="15"/>
@@ -15686,7 +15958,7 @@
       <c r="J176" s="9"/>
       <c r="K176" s="9"/>
       <c r="L176" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M176" s="9"/>
       <c r="N176" s="19"/>
@@ -15725,7 +15997,7 @@
       <c r="AU176" s="1"/>
       <c r="AV176" s="1"/>
     </row>
-    <row r="177" spans="1:48" hidden="1">
+    <row r="177" spans="1:48">
       <c r="D177" s="17"/>
       <c r="E177" s="15"/>
       <c r="F177" s="15"/>
@@ -15735,7 +16007,7 @@
       <c r="J177" s="9"/>
       <c r="K177" s="9"/>
       <c r="L177" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M177" s="9"/>
       <c r="N177" s="19"/>
@@ -15774,7 +16046,7 @@
       <c r="AU177" s="1"/>
       <c r="AV177" s="1"/>
     </row>
-    <row r="178" spans="1:48" hidden="1">
+    <row r="178" spans="1:48">
       <c r="A178" s="51"/>
       <c r="B178" s="51"/>
       <c r="D178" s="17"/>
@@ -15786,7 +16058,7 @@
       <c r="J178" s="9"/>
       <c r="K178" s="9"/>
       <c r="L178" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M178" s="9"/>
       <c r="N178" s="19"/>
@@ -15825,7 +16097,7 @@
       <c r="AU178" s="1"/>
       <c r="AV178" s="1"/>
     </row>
-    <row r="179" spans="1:48" hidden="1">
+    <row r="179" spans="1:48">
       <c r="D179" s="17"/>
       <c r="E179" s="15"/>
       <c r="F179" s="15"/>
@@ -15835,7 +16107,7 @@
       <c r="J179" s="9"/>
       <c r="K179" s="9"/>
       <c r="L179" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M179" s="9"/>
       <c r="N179" s="19"/>
@@ -15874,7 +16146,7 @@
       <c r="AU179" s="1"/>
       <c r="AV179" s="1"/>
     </row>
-    <row r="180" spans="1:48" hidden="1">
+    <row r="180" spans="1:48">
       <c r="D180" s="17"/>
       <c r="E180" s="15"/>
       <c r="F180" s="15"/>
@@ -15884,7 +16156,7 @@
       <c r="J180" s="9"/>
       <c r="K180" s="9"/>
       <c r="L180" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M180" s="9"/>
       <c r="N180" s="19"/>
@@ -15923,7 +16195,7 @@
       <c r="AU180" s="1"/>
       <c r="AV180" s="1"/>
     </row>
-    <row r="181" spans="1:48" hidden="1">
+    <row r="181" spans="1:48">
       <c r="D181" s="17"/>
       <c r="E181" s="15"/>
       <c r="F181" s="15"/>
@@ -15933,7 +16205,7 @@
       <c r="J181" s="9"/>
       <c r="K181" s="9"/>
       <c r="L181" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M181" s="9"/>
       <c r="N181" s="19"/>
@@ -15972,7 +16244,7 @@
       <c r="AU181" s="1"/>
       <c r="AV181" s="1"/>
     </row>
-    <row r="182" spans="1:48" hidden="1">
+    <row r="182" spans="1:48">
       <c r="D182" s="17"/>
       <c r="E182" s="15"/>
       <c r="F182" s="15"/>
@@ -15982,7 +16254,7 @@
       <c r="J182" s="9"/>
       <c r="K182" s="9"/>
       <c r="L182" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M182" s="9"/>
       <c r="N182" s="19"/>
@@ -16021,7 +16293,7 @@
       <c r="AU182" s="1"/>
       <c r="AV182" s="1"/>
     </row>
-    <row r="183" spans="1:48" hidden="1">
+    <row r="183" spans="1:48">
       <c r="A183" s="51"/>
       <c r="B183" s="51"/>
       <c r="D183" s="17"/>
@@ -16033,7 +16305,7 @@
       <c r="J183" s="9"/>
       <c r="K183" s="9"/>
       <c r="L183" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M183" s="9"/>
       <c r="N183" s="19"/>
@@ -16072,7 +16344,7 @@
       <c r="AU183" s="1"/>
       <c r="AV183" s="1"/>
     </row>
-    <row r="184" spans="1:48" hidden="1">
+    <row r="184" spans="1:48">
       <c r="D184" s="17"/>
       <c r="E184" s="15"/>
       <c r="F184" s="15"/>
@@ -16082,7 +16354,7 @@
       <c r="J184" s="9"/>
       <c r="K184" s="9"/>
       <c r="L184" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M184" s="9"/>
       <c r="N184" s="19"/>
@@ -16121,7 +16393,7 @@
       <c r="AU184" s="1"/>
       <c r="AV184" s="1"/>
     </row>
-    <row r="185" spans="1:48" hidden="1">
+    <row r="185" spans="1:48">
       <c r="D185" s="17"/>
       <c r="E185" s="15"/>
       <c r="F185" s="15"/>
@@ -16131,7 +16403,7 @@
       <c r="J185" s="9"/>
       <c r="K185" s="9"/>
       <c r="L185" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M185" s="9"/>
       <c r="N185" s="19"/>
@@ -16170,7 +16442,7 @@
       <c r="AU185" s="1"/>
       <c r="AV185" s="1"/>
     </row>
-    <row r="186" spans="1:48" hidden="1">
+    <row r="186" spans="1:48">
       <c r="D186" s="17"/>
       <c r="E186" s="15"/>
       <c r="F186" s="15"/>
@@ -16180,7 +16452,7 @@
       <c r="J186" s="9"/>
       <c r="K186" s="9"/>
       <c r="L186" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M186" s="9"/>
       <c r="N186" s="19"/>
@@ -16219,7 +16491,7 @@
       <c r="AU186" s="1"/>
       <c r="AV186" s="1"/>
     </row>
-    <row r="187" spans="1:48" hidden="1">
+    <row r="187" spans="1:48">
       <c r="D187" s="17"/>
       <c r="E187" s="15"/>
       <c r="F187" s="15"/>
@@ -16229,7 +16501,7 @@
       <c r="J187" s="9"/>
       <c r="K187" s="9"/>
       <c r="L187" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M187" s="9"/>
       <c r="N187" s="19"/>
@@ -16268,7 +16540,7 @@
       <c r="AU187" s="1"/>
       <c r="AV187" s="1"/>
     </row>
-    <row r="188" spans="1:48" hidden="1">
+    <row r="188" spans="1:48">
       <c r="A188" s="51"/>
       <c r="B188" s="51"/>
       <c r="D188" s="17"/>
@@ -16280,7 +16552,7 @@
       <c r="J188" s="9"/>
       <c r="K188" s="9"/>
       <c r="L188" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M188" s="9"/>
       <c r="N188" s="19"/>
@@ -16319,7 +16591,7 @@
       <c r="AU188" s="1"/>
       <c r="AV188" s="1"/>
     </row>
-    <row r="189" spans="1:48" hidden="1">
+    <row r="189" spans="1:48">
       <c r="D189" s="17"/>
       <c r="E189" s="15"/>
       <c r="F189" s="15"/>
@@ -16329,7 +16601,7 @@
       <c r="J189" s="9"/>
       <c r="K189" s="9"/>
       <c r="L189" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M189" s="9"/>
       <c r="N189" s="19"/>
@@ -16368,7 +16640,7 @@
       <c r="AU189" s="1"/>
       <c r="AV189" s="1"/>
     </row>
-    <row r="190" spans="1:48" hidden="1">
+    <row r="190" spans="1:48">
       <c r="D190" s="17"/>
       <c r="E190" s="15"/>
       <c r="F190" s="15"/>
@@ -16378,7 +16650,7 @@
       <c r="J190" s="9"/>
       <c r="K190" s="9"/>
       <c r="L190" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M190" s="9"/>
       <c r="N190" s="19"/>
@@ -16417,7 +16689,7 @@
       <c r="AU190" s="1"/>
       <c r="AV190" s="1"/>
     </row>
-    <row r="191" spans="1:48" hidden="1">
+    <row r="191" spans="1:48">
       <c r="D191" s="17"/>
       <c r="E191" s="15"/>
       <c r="F191" s="15"/>
@@ -16427,7 +16699,7 @@
       <c r="J191" s="9"/>
       <c r="K191" s="9"/>
       <c r="L191" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M191" s="9"/>
       <c r="N191" s="19"/>
@@ -16466,7 +16738,7 @@
       <c r="AU191" s="1"/>
       <c r="AV191" s="1"/>
     </row>
-    <row r="192" spans="1:48" hidden="1">
+    <row r="192" spans="1:48">
       <c r="D192" s="17"/>
       <c r="E192" s="15"/>
       <c r="F192" s="15"/>
@@ -16476,7 +16748,7 @@
       <c r="J192" s="9"/>
       <c r="K192" s="9"/>
       <c r="L192" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M192" s="9"/>
       <c r="N192" s="19"/>
@@ -16515,7 +16787,7 @@
       <c r="AU192" s="1"/>
       <c r="AV192" s="1"/>
     </row>
-    <row r="193" spans="1:48" hidden="1">
+    <row r="193" spans="1:48">
       <c r="A193" s="51"/>
       <c r="B193" s="51"/>
       <c r="D193" s="17"/>
@@ -16527,7 +16799,7 @@
       <c r="J193" s="9"/>
       <c r="K193" s="9"/>
       <c r="L193" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M193" s="9"/>
       <c r="N193" s="19"/>
@@ -16566,7 +16838,7 @@
       <c r="AU193" s="1"/>
       <c r="AV193" s="1"/>
     </row>
-    <row r="194" spans="1:48" hidden="1">
+    <row r="194" spans="1:48">
       <c r="D194" s="17"/>
       <c r="E194" s="15"/>
       <c r="F194" s="15"/>
@@ -16576,7 +16848,7 @@
       <c r="J194" s="9"/>
       <c r="K194" s="9"/>
       <c r="L194" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M194" s="9"/>
       <c r="N194" s="19"/>
@@ -16615,7 +16887,7 @@
       <c r="AU194" s="1"/>
       <c r="AV194" s="1"/>
     </row>
-    <row r="195" spans="1:48" hidden="1">
+    <row r="195" spans="1:48">
       <c r="D195" s="17"/>
       <c r="E195" s="15"/>
       <c r="F195" s="15"/>
@@ -16625,7 +16897,7 @@
       <c r="J195" s="9"/>
       <c r="K195" s="9"/>
       <c r="L195" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M195" s="9"/>
       <c r="N195" s="19"/>
@@ -16664,7 +16936,7 @@
       <c r="AU195" s="1"/>
       <c r="AV195" s="1"/>
     </row>
-    <row r="196" spans="1:48" hidden="1">
+    <row r="196" spans="1:48">
       <c r="D196" s="17"/>
       <c r="E196" s="15"/>
       <c r="F196" s="15"/>
@@ -16674,7 +16946,7 @@
       <c r="J196" s="9"/>
       <c r="K196" s="9"/>
       <c r="L196" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M196" s="9"/>
       <c r="N196" s="19"/>
@@ -16713,7 +16985,7 @@
       <c r="AU196" s="1"/>
       <c r="AV196" s="1"/>
     </row>
-    <row r="197" spans="1:48" hidden="1">
+    <row r="197" spans="1:48">
       <c r="D197" s="17"/>
       <c r="E197" s="15"/>
       <c r="F197" s="15"/>
@@ -16723,7 +16995,7 @@
       <c r="J197" s="9"/>
       <c r="K197" s="9"/>
       <c r="L197" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M197" s="9"/>
       <c r="N197" s="19"/>
@@ -16762,7 +17034,7 @@
       <c r="AU197" s="1"/>
       <c r="AV197" s="1"/>
     </row>
-    <row r="198" spans="1:48" hidden="1">
+    <row r="198" spans="1:48">
       <c r="A198" s="51"/>
       <c r="B198" s="51"/>
       <c r="D198" s="17"/>
@@ -16774,7 +17046,7 @@
       <c r="J198" s="9"/>
       <c r="K198" s="9"/>
       <c r="L198" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M198" s="9"/>
       <c r="N198" s="19"/>
@@ -16813,7 +17085,7 @@
       <c r="AU198" s="1"/>
       <c r="AV198" s="1"/>
     </row>
-    <row r="199" spans="1:48" hidden="1">
+    <row r="199" spans="1:48">
       <c r="D199" s="17"/>
       <c r="E199" s="15"/>
       <c r="F199" s="15"/>
@@ -16823,7 +17095,7 @@
       <c r="J199" s="9"/>
       <c r="K199" s="9"/>
       <c r="L199" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M199" s="9"/>
       <c r="N199" s="19"/>
@@ -16862,7 +17134,7 @@
       <c r="AU199" s="1"/>
       <c r="AV199" s="1"/>
     </row>
-    <row r="200" spans="1:48" hidden="1">
+    <row r="200" spans="1:48">
       <c r="D200" s="17"/>
       <c r="E200" s="15"/>
       <c r="F200" s="15"/>
@@ -16872,7 +17144,7 @@
       <c r="J200" s="9"/>
       <c r="K200" s="9"/>
       <c r="L200" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M200" s="9"/>
       <c r="N200" s="19"/>
@@ -16911,7 +17183,7 @@
       <c r="AU200" s="1"/>
       <c r="AV200" s="1"/>
     </row>
-    <row r="201" spans="1:48" hidden="1">
+    <row r="201" spans="1:48">
       <c r="D201" s="17"/>
       <c r="E201" s="15"/>
       <c r="F201" s="15"/>
@@ -16921,7 +17193,7 @@
       <c r="J201" s="9"/>
       <c r="K201" s="9"/>
       <c r="L201" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M201" s="9"/>
       <c r="N201" s="19"/>
@@ -16960,7 +17232,7 @@
       <c r="AU201" s="1"/>
       <c r="AV201" s="1"/>
     </row>
-    <row r="202" spans="1:48" hidden="1">
+    <row r="202" spans="1:48">
       <c r="D202" s="17"/>
       <c r="E202" s="15"/>
       <c r="F202" s="15"/>
@@ -16970,7 +17242,7 @@
       <c r="J202" s="9"/>
       <c r="K202" s="9"/>
       <c r="L202" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M202" s="9"/>
       <c r="N202" s="19"/>
@@ -17009,7 +17281,7 @@
       <c r="AU202" s="1"/>
       <c r="AV202" s="1"/>
     </row>
-    <row r="203" spans="1:48" hidden="1">
+    <row r="203" spans="1:48">
       <c r="A203" s="51"/>
       <c r="B203" s="51"/>
       <c r="D203" s="17"/>
@@ -17021,7 +17293,7 @@
       <c r="J203" s="9"/>
       <c r="K203" s="9"/>
       <c r="L203" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M203" s="9"/>
       <c r="N203" s="19"/>
@@ -17060,7 +17332,7 @@
       <c r="AU203" s="1"/>
       <c r="AV203" s="1"/>
     </row>
-    <row r="204" spans="1:48" hidden="1">
+    <row r="204" spans="1:48">
       <c r="D204" s="17"/>
       <c r="E204" s="15"/>
       <c r="F204" s="15"/>
@@ -17070,7 +17342,7 @@
       <c r="J204" s="9"/>
       <c r="K204" s="9"/>
       <c r="L204" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M204" s="9"/>
       <c r="N204" s="19"/>
@@ -17109,7 +17381,7 @@
       <c r="AU204" s="1"/>
       <c r="AV204" s="1"/>
     </row>
-    <row r="205" spans="1:48" hidden="1">
+    <row r="205" spans="1:48">
       <c r="D205" s="17"/>
       <c r="E205" s="15"/>
       <c r="F205" s="15"/>
@@ -17119,7 +17391,7 @@
       <c r="J205" s="9"/>
       <c r="K205" s="9"/>
       <c r="L205" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M205" s="9"/>
       <c r="N205" s="19"/>
@@ -17158,7 +17430,7 @@
       <c r="AU205" s="1"/>
       <c r="AV205" s="1"/>
     </row>
-    <row r="206" spans="1:48" hidden="1">
+    <row r="206" spans="1:48">
       <c r="D206" s="17"/>
       <c r="E206" s="15"/>
       <c r="F206" s="15"/>
@@ -17168,7 +17440,7 @@
       <c r="J206" s="9"/>
       <c r="K206" s="9"/>
       <c r="L206" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M206" s="9"/>
       <c r="N206" s="19"/>
@@ -17207,7 +17479,7 @@
       <c r="AU206" s="1"/>
       <c r="AV206" s="1"/>
     </row>
-    <row r="207" spans="1:48" hidden="1">
+    <row r="207" spans="1:48">
       <c r="D207" s="17"/>
       <c r="E207" s="15"/>
       <c r="F207" s="15"/>
@@ -17217,7 +17489,7 @@
       <c r="J207" s="9"/>
       <c r="K207" s="9"/>
       <c r="L207" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M207" s="9"/>
       <c r="N207" s="19"/>
@@ -17256,7 +17528,7 @@
       <c r="AU207" s="1"/>
       <c r="AV207" s="1"/>
     </row>
-    <row r="208" spans="1:48" hidden="1">
+    <row r="208" spans="1:48">
       <c r="A208" s="51"/>
       <c r="B208" s="51"/>
       <c r="D208" s="17"/>
@@ -17268,7 +17540,7 @@
       <c r="J208" s="9"/>
       <c r="K208" s="9"/>
       <c r="L208" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M208" s="9"/>
       <c r="N208" s="19"/>
@@ -17307,7 +17579,7 @@
       <c r="AU208" s="1"/>
       <c r="AV208" s="1"/>
     </row>
-    <row r="209" spans="1:48" hidden="1">
+    <row r="209" spans="1:48">
       <c r="D209" s="17"/>
       <c r="E209" s="15"/>
       <c r="F209" s="15"/>
@@ -17317,7 +17589,7 @@
       <c r="J209" s="9"/>
       <c r="K209" s="9"/>
       <c r="L209" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M209" s="9"/>
       <c r="N209" s="19"/>
@@ -17356,7 +17628,7 @@
       <c r="AU209" s="1"/>
       <c r="AV209" s="1"/>
     </row>
-    <row r="210" spans="1:48" hidden="1">
+    <row r="210" spans="1:48">
       <c r="D210" s="17"/>
       <c r="E210" s="15"/>
       <c r="F210" s="15"/>
@@ -17366,7 +17638,7 @@
       <c r="J210" s="9"/>
       <c r="K210" s="9"/>
       <c r="L210" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M210" s="9"/>
       <c r="N210" s="19"/>
@@ -17405,7 +17677,7 @@
       <c r="AU210" s="1"/>
       <c r="AV210" s="1"/>
     </row>
-    <row r="211" spans="1:48" hidden="1">
+    <row r="211" spans="1:48">
       <c r="D211" s="17"/>
       <c r="E211" s="15"/>
       <c r="F211" s="15"/>
@@ -17415,7 +17687,7 @@
       <c r="J211" s="9"/>
       <c r="K211" s="9"/>
       <c r="L211" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M211" s="9"/>
       <c r="N211" s="19"/>
@@ -17454,7 +17726,7 @@
       <c r="AU211" s="1"/>
       <c r="AV211" s="1"/>
     </row>
-    <row r="212" spans="1:48" hidden="1">
+    <row r="212" spans="1:48">
       <c r="D212" s="17"/>
       <c r="E212" s="15"/>
       <c r="F212" s="15"/>
@@ -17464,7 +17736,7 @@
       <c r="J212" s="9"/>
       <c r="K212" s="9"/>
       <c r="L212" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M212" s="9"/>
       <c r="N212" s="19"/>
@@ -17503,7 +17775,7 @@
       <c r="AU212" s="1"/>
       <c r="AV212" s="1"/>
     </row>
-    <row r="213" spans="1:48" hidden="1">
+    <row r="213" spans="1:48">
       <c r="A213" s="51"/>
       <c r="B213" s="51"/>
       <c r="D213" s="17"/>
@@ -17515,7 +17787,7 @@
       <c r="J213" s="9"/>
       <c r="K213" s="9"/>
       <c r="L213" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M213" s="9"/>
       <c r="N213" s="19"/>
@@ -17554,7 +17826,7 @@
       <c r="AU213" s="1"/>
       <c r="AV213" s="1"/>
     </row>
-    <row r="214" spans="1:48" hidden="1">
+    <row r="214" spans="1:48">
       <c r="D214" s="17"/>
       <c r="E214" s="15"/>
       <c r="F214" s="15"/>
@@ -17564,7 +17836,7 @@
       <c r="J214" s="9"/>
       <c r="K214" s="9"/>
       <c r="L214" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M214" s="9"/>
       <c r="N214" s="19"/>
@@ -17603,7 +17875,7 @@
       <c r="AU214" s="1"/>
       <c r="AV214" s="1"/>
     </row>
-    <row r="215" spans="1:48" hidden="1">
+    <row r="215" spans="1:48">
       <c r="D215" s="17"/>
       <c r="E215" s="15"/>
       <c r="F215" s="15"/>
@@ -17613,7 +17885,7 @@
       <c r="J215" s="9"/>
       <c r="K215" s="9"/>
       <c r="L215" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M215" s="9"/>
       <c r="N215" s="19"/>
@@ -17652,7 +17924,7 @@
       <c r="AU215" s="1"/>
       <c r="AV215" s="1"/>
     </row>
-    <row r="216" spans="1:48" hidden="1">
+    <row r="216" spans="1:48">
       <c r="D216" s="17"/>
       <c r="E216" s="15"/>
       <c r="F216" s="15"/>
@@ -17662,7 +17934,7 @@
       <c r="J216" s="9"/>
       <c r="K216" s="9"/>
       <c r="L216" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M216" s="9"/>
       <c r="N216" s="19"/>
@@ -17701,7 +17973,7 @@
       <c r="AU216" s="1"/>
       <c r="AV216" s="1"/>
     </row>
-    <row r="217" spans="1:48" hidden="1">
+    <row r="217" spans="1:48">
       <c r="D217" s="17"/>
       <c r="E217" s="15"/>
       <c r="F217" s="15"/>
@@ -17711,7 +17983,7 @@
       <c r="J217" s="9"/>
       <c r="K217" s="9"/>
       <c r="L217" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M217" s="9"/>
       <c r="N217" s="19"/>
@@ -17728,7 +18000,7 @@
       <c r="Y217" s="2"/>
       <c r="Z217" s="2"/>
     </row>
-    <row r="218" spans="1:48" hidden="1">
+    <row r="218" spans="1:48">
       <c r="A218" s="51"/>
       <c r="B218" s="51"/>
       <c r="D218" s="17"/>
@@ -17740,7 +18012,7 @@
       <c r="J218" s="9"/>
       <c r="K218" s="9"/>
       <c r="L218" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M218" s="9"/>
       <c r="N218" s="19"/>
@@ -17757,7 +18029,7 @@
       <c r="Y218" s="2"/>
       <c r="Z218" s="2"/>
     </row>
-    <row r="219" spans="1:48" hidden="1">
+    <row r="219" spans="1:48">
       <c r="D219" s="17"/>
       <c r="E219" s="15"/>
       <c r="F219" s="15"/>
@@ -17767,7 +18039,7 @@
       <c r="J219" s="9"/>
       <c r="K219" s="9"/>
       <c r="L219" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M219" s="9"/>
       <c r="N219" s="19"/>
@@ -17784,7 +18056,7 @@
       <c r="Y219" s="2"/>
       <c r="Z219" s="2"/>
     </row>
-    <row r="220" spans="1:48" hidden="1">
+    <row r="220" spans="1:48">
       <c r="D220" s="17"/>
       <c r="E220" s="15"/>
       <c r="F220" s="15"/>
@@ -17794,7 +18066,7 @@
       <c r="J220" s="9"/>
       <c r="K220" s="9"/>
       <c r="L220" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M220" s="9"/>
       <c r="N220" s="19"/>
@@ -17811,7 +18083,7 @@
       <c r="Y220" s="2"/>
       <c r="Z220" s="2"/>
     </row>
-    <row r="221" spans="1:48" hidden="1">
+    <row r="221" spans="1:48">
       <c r="D221" s="17"/>
       <c r="E221" s="15"/>
       <c r="F221" s="15"/>
@@ -17821,7 +18093,7 @@
       <c r="J221" s="9"/>
       <c r="K221" s="9"/>
       <c r="L221" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M221" s="9"/>
       <c r="N221" s="19"/>
@@ -17838,7 +18110,7 @@
       <c r="Y221" s="2"/>
       <c r="Z221" s="2"/>
     </row>
-    <row r="222" spans="1:48" hidden="1">
+    <row r="222" spans="1:48">
       <c r="D222" s="17"/>
       <c r="E222" s="15"/>
       <c r="F222" s="15"/>
@@ -17848,7 +18120,7 @@
       <c r="J222" s="9"/>
       <c r="K222" s="9"/>
       <c r="L222" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M222" s="9"/>
       <c r="N222" s="19"/>
@@ -17865,7 +18137,7 @@
       <c r="Y222" s="2"/>
       <c r="Z222" s="2"/>
     </row>
-    <row r="223" spans="1:48" hidden="1">
+    <row r="223" spans="1:48">
       <c r="A223" s="51"/>
       <c r="B223" s="51"/>
       <c r="D223" s="17"/>
@@ -17877,7 +18149,7 @@
       <c r="J223" s="9"/>
       <c r="K223" s="9"/>
       <c r="L223" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M223" s="9"/>
       <c r="N223" s="19"/>
@@ -17894,7 +18166,7 @@
       <c r="Y223" s="2"/>
       <c r="Z223" s="2"/>
     </row>
-    <row r="224" spans="1:48" hidden="1">
+    <row r="224" spans="1:48">
       <c r="D224" s="17"/>
       <c r="E224" s="15"/>
       <c r="F224" s="15"/>
@@ -17904,7 +18176,7 @@
       <c r="J224" s="9"/>
       <c r="K224" s="9"/>
       <c r="L224" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M224" s="9"/>
       <c r="N224" s="19"/>
@@ -17921,7 +18193,7 @@
       <c r="Y224" s="2"/>
       <c r="Z224" s="2"/>
     </row>
-    <row r="225" spans="1:26" hidden="1">
+    <row r="225" spans="1:26">
       <c r="D225" s="17"/>
       <c r="E225" s="15"/>
       <c r="F225" s="15"/>
@@ -17931,7 +18203,7 @@
       <c r="J225" s="9"/>
       <c r="K225" s="9"/>
       <c r="L225" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M225" s="9"/>
       <c r="N225" s="19"/>
@@ -17948,7 +18220,7 @@
       <c r="Y225" s="2"/>
       <c r="Z225" s="2"/>
     </row>
-    <row r="226" spans="1:26" hidden="1">
+    <row r="226" spans="1:26">
       <c r="D226" s="17"/>
       <c r="E226" s="15"/>
       <c r="F226" s="15"/>
@@ -17958,7 +18230,7 @@
       <c r="J226" s="9"/>
       <c r="K226" s="9"/>
       <c r="L226" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M226" s="9"/>
       <c r="N226" s="19"/>
@@ -17975,7 +18247,7 @@
       <c r="Y226" s="2"/>
       <c r="Z226" s="2"/>
     </row>
-    <row r="227" spans="1:26" hidden="1">
+    <row r="227" spans="1:26">
       <c r="D227" s="17"/>
       <c r="E227" s="15"/>
       <c r="F227" s="15"/>
@@ -17985,7 +18257,7 @@
       <c r="J227" s="9"/>
       <c r="K227" s="9"/>
       <c r="L227" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M227" s="9"/>
       <c r="N227" s="19"/>
@@ -18002,7 +18274,7 @@
       <c r="Y227" s="2"/>
       <c r="Z227" s="2"/>
     </row>
-    <row r="228" spans="1:26" hidden="1">
+    <row r="228" spans="1:26">
       <c r="A228" s="51"/>
       <c r="B228" s="51"/>
       <c r="D228" s="17"/>
@@ -18014,7 +18286,7 @@
       <c r="J228" s="9"/>
       <c r="K228" s="9"/>
       <c r="L228" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M228" s="9"/>
       <c r="N228" s="19"/>
@@ -18031,7 +18303,7 @@
       <c r="Y228" s="2"/>
       <c r="Z228" s="2"/>
     </row>
-    <row r="229" spans="1:26" hidden="1">
+    <row r="229" spans="1:26">
       <c r="D229" s="17"/>
       <c r="E229" s="15"/>
       <c r="F229" s="15"/>
@@ -18041,7 +18313,7 @@
       <c r="J229" s="9"/>
       <c r="K229" s="9"/>
       <c r="L229" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M229" s="9"/>
       <c r="N229" s="19"/>
@@ -18058,7 +18330,7 @@
       <c r="Y229" s="2"/>
       <c r="Z229" s="2"/>
     </row>
-    <row r="230" spans="1:26" hidden="1">
+    <row r="230" spans="1:26">
       <c r="D230" s="17"/>
       <c r="E230" s="15"/>
       <c r="F230" s="15"/>
@@ -18068,7 +18340,7 @@
       <c r="J230" s="9"/>
       <c r="K230" s="9"/>
       <c r="L230" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M230" s="9"/>
       <c r="N230" s="19"/>
@@ -18085,7 +18357,7 @@
       <c r="Y230" s="2"/>
       <c r="Z230" s="2"/>
     </row>
-    <row r="231" spans="1:26" hidden="1">
+    <row r="231" spans="1:26">
       <c r="D231" s="17"/>
       <c r="E231" s="15"/>
       <c r="F231" s="15"/>
@@ -18095,7 +18367,7 @@
       <c r="J231" s="9"/>
       <c r="K231" s="9"/>
       <c r="L231" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M231" s="9"/>
       <c r="N231" s="19"/>
@@ -18112,7 +18384,7 @@
       <c r="Y231" s="2"/>
       <c r="Z231" s="2"/>
     </row>
-    <row r="232" spans="1:26" hidden="1">
+    <row r="232" spans="1:26">
       <c r="D232" s="17"/>
       <c r="E232" s="15"/>
       <c r="F232" s="15"/>
@@ -18122,7 +18394,7 @@
       <c r="J232" s="9"/>
       <c r="K232" s="9"/>
       <c r="L232" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M232" s="9"/>
       <c r="N232" s="19"/>
@@ -18139,7 +18411,7 @@
       <c r="Y232" s="2"/>
       <c r="Z232" s="2"/>
     </row>
-    <row r="233" spans="1:26" hidden="1">
+    <row r="233" spans="1:26">
       <c r="A233" s="51"/>
       <c r="B233" s="51"/>
       <c r="D233" s="17"/>
@@ -18151,7 +18423,7 @@
       <c r="J233" s="9"/>
       <c r="K233" s="9"/>
       <c r="L233" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M233" s="9"/>
       <c r="N233" s="19"/>
@@ -18168,7 +18440,7 @@
       <c r="Y233" s="2"/>
       <c r="Z233" s="2"/>
     </row>
-    <row r="234" spans="1:26" hidden="1">
+    <row r="234" spans="1:26">
       <c r="D234" s="17"/>
       <c r="E234" s="15"/>
       <c r="F234" s="15"/>
@@ -18178,7 +18450,7 @@
       <c r="J234" s="9"/>
       <c r="K234" s="9"/>
       <c r="L234" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M234" s="9"/>
       <c r="N234" s="19"/>
@@ -18195,7 +18467,7 @@
       <c r="Y234" s="2"/>
       <c r="Z234" s="2"/>
     </row>
-    <row r="235" spans="1:26" hidden="1">
+    <row r="235" spans="1:26">
       <c r="D235" s="17"/>
       <c r="E235" s="15"/>
       <c r="F235" s="15"/>
@@ -18205,7 +18477,7 @@
       <c r="J235" s="9"/>
       <c r="K235" s="9"/>
       <c r="L235" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M235" s="9"/>
       <c r="N235" s="19"/>
@@ -18222,7 +18494,7 @@
       <c r="Y235" s="2"/>
       <c r="Z235" s="2"/>
     </row>
-    <row r="236" spans="1:26" hidden="1">
+    <row r="236" spans="1:26">
       <c r="D236" s="17"/>
       <c r="E236" s="15"/>
       <c r="F236" s="15"/>
@@ -18232,7 +18504,7 @@
       <c r="J236" s="9"/>
       <c r="K236" s="9"/>
       <c r="L236" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M236" s="9"/>
       <c r="N236" s="19"/>
@@ -18249,7 +18521,7 @@
       <c r="Y236" s="2"/>
       <c r="Z236" s="2"/>
     </row>
-    <row r="237" spans="1:26" hidden="1">
+    <row r="237" spans="1:26">
       <c r="D237" s="17"/>
       <c r="E237" s="15"/>
       <c r="F237" s="15"/>
@@ -18259,7 +18531,7 @@
       <c r="J237" s="9"/>
       <c r="K237" s="9"/>
       <c r="L237" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M237" s="9"/>
       <c r="N237" s="19"/>
@@ -18276,7 +18548,7 @@
       <c r="Y237" s="2"/>
       <c r="Z237" s="2"/>
     </row>
-    <row r="238" spans="1:26" hidden="1">
+    <row r="238" spans="1:26">
       <c r="A238" s="51"/>
       <c r="B238" s="51"/>
       <c r="D238" s="17"/>
@@ -18288,7 +18560,7 @@
       <c r="J238" s="9"/>
       <c r="K238" s="9"/>
       <c r="L238" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M238" s="9"/>
       <c r="N238" s="19"/>
@@ -18305,7 +18577,7 @@
       <c r="Y238" s="2"/>
       <c r="Z238" s="2"/>
     </row>
-    <row r="239" spans="1:26" hidden="1">
+    <row r="239" spans="1:26">
       <c r="D239" s="17"/>
       <c r="E239" s="15"/>
       <c r="F239" s="15"/>
@@ -18315,7 +18587,7 @@
       <c r="J239" s="9"/>
       <c r="K239" s="9"/>
       <c r="L239" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M239" s="9"/>
       <c r="N239" s="19"/>
@@ -18332,7 +18604,7 @@
       <c r="Y239" s="2"/>
       <c r="Z239" s="2"/>
     </row>
-    <row r="240" spans="1:26" hidden="1">
+    <row r="240" spans="1:26">
       <c r="D240" s="17"/>
       <c r="E240" s="15"/>
       <c r="F240" s="15"/>
@@ -18342,7 +18614,7 @@
       <c r="J240" s="9"/>
       <c r="K240" s="9"/>
       <c r="L240" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M240" s="9"/>
       <c r="N240" s="19"/>
@@ -18359,7 +18631,7 @@
       <c r="Y240" s="2"/>
       <c r="Z240" s="2"/>
     </row>
-    <row r="241" spans="1:26" hidden="1">
+    <row r="241" spans="1:26">
       <c r="D241" s="17"/>
       <c r="E241" s="15"/>
       <c r="F241" s="15"/>
@@ -18369,7 +18641,7 @@
       <c r="J241" s="9"/>
       <c r="K241" s="9"/>
       <c r="L241" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M241" s="9"/>
       <c r="N241" s="19"/>
@@ -18386,7 +18658,7 @@
       <c r="Y241" s="2"/>
       <c r="Z241" s="2"/>
     </row>
-    <row r="242" spans="1:26" hidden="1">
+    <row r="242" spans="1:26">
       <c r="D242" s="17"/>
       <c r="E242" s="15"/>
       <c r="F242" s="15"/>
@@ -18396,7 +18668,7 @@
       <c r="J242" s="9"/>
       <c r="K242" s="9"/>
       <c r="L242" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M242" s="9"/>
       <c r="N242" s="19"/>
@@ -18413,7 +18685,7 @@
       <c r="Y242" s="2"/>
       <c r="Z242" s="2"/>
     </row>
-    <row r="243" spans="1:26" hidden="1">
+    <row r="243" spans="1:26">
       <c r="A243" s="51"/>
       <c r="B243" s="51"/>
       <c r="D243" s="17"/>
@@ -18425,7 +18697,7 @@
       <c r="J243" s="9"/>
       <c r="K243" s="9"/>
       <c r="L243" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M243" s="9"/>
       <c r="N243" s="19"/>
@@ -18442,7 +18714,7 @@
       <c r="Y243" s="2"/>
       <c r="Z243" s="2"/>
     </row>
-    <row r="244" spans="1:26" hidden="1">
+    <row r="244" spans="1:26">
       <c r="D244" s="17"/>
       <c r="E244" s="15"/>
       <c r="F244" s="15"/>
@@ -18452,7 +18724,7 @@
       <c r="J244" s="9"/>
       <c r="K244" s="9"/>
       <c r="L244" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M244" s="9"/>
       <c r="N244" s="19"/>
@@ -18469,7 +18741,7 @@
       <c r="Y244" s="2"/>
       <c r="Z244" s="2"/>
     </row>
-    <row r="245" spans="1:26" hidden="1">
+    <row r="245" spans="1:26">
       <c r="D245" s="17"/>
       <c r="E245" s="15"/>
       <c r="F245" s="15"/>
@@ -18479,7 +18751,7 @@
       <c r="J245" s="9"/>
       <c r="K245" s="9"/>
       <c r="L245" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M245" s="9"/>
       <c r="N245" s="19"/>
@@ -18496,7 +18768,7 @@
       <c r="Y245" s="2"/>
       <c r="Z245" s="2"/>
     </row>
-    <row r="246" spans="1:26" hidden="1">
+    <row r="246" spans="1:26">
       <c r="D246" s="17"/>
       <c r="E246" s="15"/>
       <c r="F246" s="15"/>
@@ -18506,7 +18778,7 @@
       <c r="J246" s="9"/>
       <c r="K246" s="9"/>
       <c r="L246" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M246" s="9"/>
       <c r="N246" s="19"/>
@@ -18523,7 +18795,7 @@
       <c r="Y246" s="2"/>
       <c r="Z246" s="2"/>
     </row>
-    <row r="247" spans="1:26" hidden="1">
+    <row r="247" spans="1:26">
       <c r="D247" s="17"/>
       <c r="E247" s="15"/>
       <c r="F247" s="15"/>
@@ -18533,7 +18805,7 @@
       <c r="J247" s="9"/>
       <c r="K247" s="9"/>
       <c r="L247" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M247" s="9"/>
       <c r="N247" s="19"/>
@@ -18550,7 +18822,7 @@
       <c r="Y247" s="2"/>
       <c r="Z247" s="2"/>
     </row>
-    <row r="248" spans="1:26" hidden="1">
+    <row r="248" spans="1:26">
       <c r="A248" s="51"/>
       <c r="B248" s="51"/>
       <c r="D248" s="17"/>
@@ -18562,7 +18834,7 @@
       <c r="J248" s="9"/>
       <c r="K248" s="9"/>
       <c r="L248" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M248" s="9"/>
       <c r="N248" s="19"/>
@@ -18579,7 +18851,7 @@
       <c r="Y248" s="2"/>
       <c r="Z248" s="2"/>
     </row>
-    <row r="249" spans="1:26" hidden="1">
+    <row r="249" spans="1:26">
       <c r="D249" s="17"/>
       <c r="E249" s="15"/>
       <c r="F249" s="15"/>
@@ -18589,7 +18861,7 @@
       <c r="J249" s="9"/>
       <c r="K249" s="9"/>
       <c r="L249" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M249" s="9"/>
       <c r="N249" s="19"/>
@@ -18606,7 +18878,7 @@
       <c r="Y249" s="2"/>
       <c r="Z249" s="2"/>
     </row>
-    <row r="250" spans="1:26" hidden="1">
+    <row r="250" spans="1:26">
       <c r="D250" s="17"/>
       <c r="E250" s="15"/>
       <c r="F250" s="15"/>
@@ -18616,7 +18888,7 @@
       <c r="J250" s="9"/>
       <c r="K250" s="9"/>
       <c r="L250" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M250" s="9"/>
       <c r="N250" s="19"/>
@@ -18633,7 +18905,7 @@
       <c r="Y250" s="2"/>
       <c r="Z250" s="2"/>
     </row>
-    <row r="251" spans="1:26" hidden="1">
+    <row r="251" spans="1:26">
       <c r="D251" s="17"/>
       <c r="E251" s="15"/>
       <c r="F251" s="15"/>
@@ -18643,7 +18915,7 @@
       <c r="J251" s="9"/>
       <c r="K251" s="9"/>
       <c r="L251" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M251" s="9"/>
       <c r="N251" s="19"/>
@@ -18660,7 +18932,7 @@
       <c r="Y251" s="2"/>
       <c r="Z251" s="2"/>
     </row>
-    <row r="252" spans="1:26" hidden="1">
+    <row r="252" spans="1:26">
       <c r="D252" s="17"/>
       <c r="E252" s="15"/>
       <c r="F252" s="15"/>
@@ -18670,7 +18942,7 @@
       <c r="J252" s="9"/>
       <c r="K252" s="9"/>
       <c r="L252" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M252" s="9"/>
       <c r="N252" s="19"/>
@@ -18687,7 +18959,7 @@
       <c r="Y252" s="2"/>
       <c r="Z252" s="2"/>
     </row>
-    <row r="253" spans="1:26" hidden="1">
+    <row r="253" spans="1:26">
       <c r="A253" s="51"/>
       <c r="B253" s="51"/>
       <c r="D253" s="17"/>
@@ -18699,7 +18971,7 @@
       <c r="J253" s="9"/>
       <c r="K253" s="9"/>
       <c r="L253" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M253" s="9"/>
       <c r="N253" s="19"/>
@@ -18716,7 +18988,7 @@
       <c r="Y253" s="2"/>
       <c r="Z253" s="2"/>
     </row>
-    <row r="254" spans="1:26" hidden="1">
+    <row r="254" spans="1:26">
       <c r="D254" s="17"/>
       <c r="E254" s="15"/>
       <c r="F254" s="15"/>
@@ -18726,7 +18998,7 @@
       <c r="J254" s="9"/>
       <c r="K254" s="9"/>
       <c r="L254" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M254" s="9"/>
       <c r="N254" s="19"/>
@@ -18743,7 +19015,7 @@
       <c r="Y254" s="2"/>
       <c r="Z254" s="2"/>
     </row>
-    <row r="255" spans="1:26" hidden="1">
+    <row r="255" spans="1:26">
       <c r="D255" s="17"/>
       <c r="E255" s="15"/>
       <c r="F255" s="15"/>
@@ -18753,7 +19025,7 @@
       <c r="J255" s="9"/>
       <c r="K255" s="9"/>
       <c r="L255" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M255" s="9"/>
       <c r="N255" s="19"/>
@@ -18770,7 +19042,7 @@
       <c r="Y255" s="2"/>
       <c r="Z255" s="2"/>
     </row>
-    <row r="256" spans="1:26" hidden="1">
+    <row r="256" spans="1:26">
       <c r="D256" s="17"/>
       <c r="E256" s="15"/>
       <c r="F256" s="15"/>
@@ -18780,7 +19052,7 @@
       <c r="J256" s="9"/>
       <c r="K256" s="9"/>
       <c r="L256" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M256" s="9"/>
       <c r="N256" s="19"/>
@@ -18797,7 +19069,7 @@
       <c r="Y256" s="2"/>
       <c r="Z256" s="2"/>
     </row>
-    <row r="257" spans="1:26" hidden="1">
+    <row r="257" spans="1:26">
       <c r="D257" s="17"/>
       <c r="E257" s="15"/>
       <c r="F257" s="15"/>
@@ -18807,7 +19079,7 @@
       <c r="J257" s="9"/>
       <c r="K257" s="9"/>
       <c r="L257" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M257" s="9"/>
       <c r="N257" s="19"/>
@@ -18824,7 +19096,7 @@
       <c r="Y257" s="2"/>
       <c r="Z257" s="2"/>
     </row>
-    <row r="258" spans="1:26" hidden="1">
+    <row r="258" spans="1:26">
       <c r="A258" s="51"/>
       <c r="B258" s="51"/>
       <c r="D258" s="17"/>
@@ -18836,7 +19108,7 @@
       <c r="J258" s="9"/>
       <c r="K258" s="9"/>
       <c r="L258" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M258" s="9"/>
       <c r="N258" s="19"/>
@@ -18853,7 +19125,7 @@
       <c r="Y258" s="2"/>
       <c r="Z258" s="2"/>
     </row>
-    <row r="259" spans="1:26" hidden="1">
+    <row r="259" spans="1:26">
       <c r="D259" s="17"/>
       <c r="E259" s="15"/>
       <c r="F259" s="15"/>
@@ -18863,7 +19135,7 @@
       <c r="J259" s="9"/>
       <c r="K259" s="9"/>
       <c r="L259" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M259" s="9"/>
       <c r="N259" s="19"/>
@@ -18880,7 +19152,7 @@
       <c r="Y259" s="2"/>
       <c r="Z259" s="2"/>
     </row>
-    <row r="260" spans="1:26" hidden="1">
+    <row r="260" spans="1:26">
       <c r="D260" s="17"/>
       <c r="E260" s="15"/>
       <c r="F260" s="15"/>
@@ -18890,7 +19162,7 @@
       <c r="J260" s="9"/>
       <c r="K260" s="9"/>
       <c r="L260" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M260" s="9"/>
       <c r="N260" s="19"/>
@@ -18907,7 +19179,7 @@
       <c r="Y260" s="2"/>
       <c r="Z260" s="2"/>
     </row>
-    <row r="261" spans="1:26" hidden="1">
+    <row r="261" spans="1:26">
       <c r="D261" s="17"/>
       <c r="E261" s="15"/>
       <c r="F261" s="15"/>
@@ -18917,7 +19189,7 @@
       <c r="J261" s="9"/>
       <c r="K261" s="9"/>
       <c r="L261" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M261" s="9"/>
       <c r="N261" s="19"/>
@@ -18934,7 +19206,7 @@
       <c r="Y261" s="2"/>
       <c r="Z261" s="2"/>
     </row>
-    <row r="262" spans="1:26" hidden="1">
+    <row r="262" spans="1:26">
       <c r="D262" s="17"/>
       <c r="E262" s="15"/>
       <c r="F262" s="15"/>
@@ -18944,7 +19216,7 @@
       <c r="J262" s="9"/>
       <c r="K262" s="9"/>
       <c r="L262" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M262" s="9"/>
       <c r="N262" s="19"/>
@@ -18961,7 +19233,7 @@
       <c r="Y262" s="2"/>
       <c r="Z262" s="2"/>
     </row>
-    <row r="263" spans="1:26" hidden="1">
+    <row r="263" spans="1:26">
       <c r="A263" s="51"/>
       <c r="B263" s="51"/>
       <c r="D263" s="17"/>
@@ -18973,7 +19245,7 @@
       <c r="J263" s="9"/>
       <c r="K263" s="9"/>
       <c r="L263" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M263" s="9"/>
       <c r="N263" s="19"/>
@@ -18990,7 +19262,7 @@
       <c r="Y263" s="2"/>
       <c r="Z263" s="2"/>
     </row>
-    <row r="264" spans="1:26" hidden="1">
+    <row r="264" spans="1:26">
       <c r="D264" s="17"/>
       <c r="E264" s="15"/>
       <c r="F264" s="15"/>
@@ -19000,7 +19272,7 @@
       <c r="J264" s="9"/>
       <c r="K264" s="9"/>
       <c r="L264" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M264" s="9"/>
       <c r="N264" s="19"/>
@@ -19017,7 +19289,7 @@
       <c r="Y264" s="2"/>
       <c r="Z264" s="2"/>
     </row>
-    <row r="265" spans="1:26" hidden="1">
+    <row r="265" spans="1:26">
       <c r="D265" s="17"/>
       <c r="E265" s="15"/>
       <c r="F265" s="15"/>
@@ -19027,7 +19299,7 @@
       <c r="J265" s="9"/>
       <c r="K265" s="9"/>
       <c r="L265" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M265" s="9"/>
       <c r="N265" s="19"/>
@@ -19044,7 +19316,7 @@
       <c r="Y265" s="2"/>
       <c r="Z265" s="2"/>
     </row>
-    <row r="266" spans="1:26" hidden="1">
+    <row r="266" spans="1:26">
       <c r="D266" s="17"/>
       <c r="E266" s="15"/>
       <c r="F266" s="15"/>
@@ -19054,7 +19326,7 @@
       <c r="J266" s="9"/>
       <c r="K266" s="9"/>
       <c r="L266" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M266" s="9"/>
       <c r="N266" s="19"/>
@@ -19071,7 +19343,7 @@
       <c r="Y266" s="2"/>
       <c r="Z266" s="2"/>
     </row>
-    <row r="267" spans="1:26" hidden="1">
+    <row r="267" spans="1:26">
       <c r="D267" s="17"/>
       <c r="E267" s="15"/>
       <c r="F267" s="15"/>
@@ -19081,7 +19353,7 @@
       <c r="J267" s="9"/>
       <c r="K267" s="9"/>
       <c r="L267" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M267" s="9"/>
       <c r="N267" s="19"/>
@@ -19098,7 +19370,7 @@
       <c r="Y267" s="2"/>
       <c r="Z267" s="2"/>
     </row>
-    <row r="268" spans="1:26" hidden="1">
+    <row r="268" spans="1:26">
       <c r="A268" s="51"/>
       <c r="B268" s="51"/>
       <c r="D268" s="17"/>
@@ -19110,7 +19382,7 @@
       <c r="J268" s="9"/>
       <c r="K268" s="9"/>
       <c r="L268" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M268" s="9"/>
       <c r="N268" s="19"/>
@@ -19127,7 +19399,7 @@
       <c r="Y268" s="2"/>
       <c r="Z268" s="2"/>
     </row>
-    <row r="269" spans="1:26" hidden="1">
+    <row r="269" spans="1:26">
       <c r="D269" s="17"/>
       <c r="E269" s="15"/>
       <c r="F269" s="15"/>
@@ -19137,7 +19409,7 @@
       <c r="J269" s="9"/>
       <c r="K269" s="9"/>
       <c r="L269" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M269" s="9"/>
       <c r="N269" s="19"/>
@@ -19154,7 +19426,7 @@
       <c r="Y269" s="2"/>
       <c r="Z269" s="2"/>
     </row>
-    <row r="270" spans="1:26" hidden="1">
+    <row r="270" spans="1:26">
       <c r="D270" s="17"/>
       <c r="E270" s="15"/>
       <c r="F270" s="15"/>
@@ -19164,7 +19436,7 @@
       <c r="J270" s="9"/>
       <c r="K270" s="9"/>
       <c r="L270" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M270" s="9"/>
       <c r="N270" s="19"/>
@@ -19181,7 +19453,7 @@
       <c r="Y270" s="2"/>
       <c r="Z270" s="2"/>
     </row>
-    <row r="271" spans="1:26" hidden="1">
+    <row r="271" spans="1:26">
       <c r="D271" s="17"/>
       <c r="E271" s="15"/>
       <c r="F271" s="15"/>
@@ -19191,7 +19463,7 @@
       <c r="J271" s="9"/>
       <c r="K271" s="9"/>
       <c r="L271" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M271" s="9"/>
       <c r="N271" s="19"/>
@@ -19208,7 +19480,7 @@
       <c r="Y271" s="2"/>
       <c r="Z271" s="2"/>
     </row>
-    <row r="272" spans="1:26" hidden="1">
+    <row r="272" spans="1:26">
       <c r="D272" s="17"/>
       <c r="E272" s="15"/>
       <c r="F272" s="15"/>
@@ -19218,7 +19490,7 @@
       <c r="J272" s="9"/>
       <c r="K272" s="9"/>
       <c r="L272" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M272" s="9"/>
       <c r="N272" s="19"/>
@@ -19235,7 +19507,7 @@
       <c r="Y272" s="2"/>
       <c r="Z272" s="2"/>
     </row>
-    <row r="273" spans="1:26" hidden="1">
+    <row r="273" spans="1:26">
       <c r="A273" s="51"/>
       <c r="B273" s="51"/>
       <c r="D273" s="17"/>
@@ -19247,7 +19519,7 @@
       <c r="J273" s="9"/>
       <c r="K273" s="9"/>
       <c r="L273" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M273" s="9"/>
       <c r="N273" s="19"/>
@@ -19264,7 +19536,7 @@
       <c r="Y273" s="2"/>
       <c r="Z273" s="2"/>
     </row>
-    <row r="274" spans="1:26" hidden="1">
+    <row r="274" spans="1:26">
       <c r="D274" s="17"/>
       <c r="E274" s="15"/>
       <c r="F274" s="15"/>
@@ -19274,7 +19546,7 @@
       <c r="J274" s="9"/>
       <c r="K274" s="9"/>
       <c r="L274" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M274" s="9"/>
       <c r="N274" s="19"/>
@@ -19291,7 +19563,7 @@
       <c r="Y274" s="2"/>
       <c r="Z274" s="2"/>
     </row>
-    <row r="275" spans="1:26" hidden="1">
+    <row r="275" spans="1:26">
       <c r="D275" s="17"/>
       <c r="E275" s="15"/>
       <c r="F275" s="15"/>
@@ -19301,7 +19573,7 @@
       <c r="J275" s="9"/>
       <c r="K275" s="9"/>
       <c r="L275" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M275" s="9"/>
       <c r="N275" s="19"/>
@@ -19318,7 +19590,7 @@
       <c r="Y275" s="2"/>
       <c r="Z275" s="2"/>
     </row>
-    <row r="276" spans="1:26" hidden="1">
+    <row r="276" spans="1:26">
       <c r="D276" s="17"/>
       <c r="E276" s="15"/>
       <c r="F276" s="15"/>
@@ -19328,7 +19600,7 @@
       <c r="J276" s="9"/>
       <c r="K276" s="9"/>
       <c r="L276" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M276" s="9"/>
       <c r="N276" s="19"/>
@@ -19345,7 +19617,7 @@
       <c r="Y276" s="2"/>
       <c r="Z276" s="2"/>
     </row>
-    <row r="277" spans="1:26" hidden="1">
+    <row r="277" spans="1:26">
       <c r="D277" s="17"/>
       <c r="E277" s="15"/>
       <c r="F277" s="15"/>
@@ -19355,7 +19627,7 @@
       <c r="J277" s="9"/>
       <c r="K277" s="9"/>
       <c r="L277" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M277" s="9"/>
       <c r="N277" s="19"/>
@@ -19372,7 +19644,7 @@
       <c r="Y277" s="2"/>
       <c r="Z277" s="2"/>
     </row>
-    <row r="278" spans="1:26" hidden="1">
+    <row r="278" spans="1:26">
       <c r="A278" s="51"/>
       <c r="B278" s="51"/>
       <c r="D278" s="17"/>
@@ -19384,7 +19656,7 @@
       <c r="J278" s="9"/>
       <c r="K278" s="9"/>
       <c r="L278" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M278" s="9"/>
       <c r="N278" s="19"/>
@@ -19401,7 +19673,7 @@
       <c r="Y278" s="2"/>
       <c r="Z278" s="2"/>
     </row>
-    <row r="279" spans="1:26" hidden="1">
+    <row r="279" spans="1:26">
       <c r="D279" s="17"/>
       <c r="E279" s="15"/>
       <c r="F279" s="15"/>
@@ -19411,7 +19683,7 @@
       <c r="J279" s="9"/>
       <c r="K279" s="9"/>
       <c r="L279" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M279" s="9"/>
       <c r="N279" s="19"/>
@@ -19428,7 +19700,7 @@
       <c r="Y279" s="2"/>
       <c r="Z279" s="2"/>
     </row>
-    <row r="280" spans="1:26" hidden="1">
+    <row r="280" spans="1:26">
       <c r="D280" s="17"/>
       <c r="E280" s="15"/>
       <c r="F280" s="15"/>
@@ -19438,7 +19710,7 @@
       <c r="J280" s="9"/>
       <c r="K280" s="9"/>
       <c r="L280" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M280" s="9"/>
       <c r="N280" s="19"/>
@@ -19455,7 +19727,7 @@
       <c r="Y280" s="2"/>
       <c r="Z280" s="2"/>
     </row>
-    <row r="281" spans="1:26" hidden="1">
+    <row r="281" spans="1:26">
       <c r="D281" s="17"/>
       <c r="E281" s="15"/>
       <c r="F281" s="15"/>
@@ -19465,7 +19737,7 @@
       <c r="J281" s="9"/>
       <c r="K281" s="9"/>
       <c r="L281" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M281" s="9"/>
       <c r="N281" s="19"/>
@@ -19482,7 +19754,7 @@
       <c r="Y281" s="2"/>
       <c r="Z281" s="2"/>
     </row>
-    <row r="282" spans="1:26" hidden="1">
+    <row r="282" spans="1:26">
       <c r="D282" s="17"/>
       <c r="E282" s="15"/>
       <c r="F282" s="15"/>
@@ -19492,7 +19764,7 @@
       <c r="J282" s="9"/>
       <c r="K282" s="9"/>
       <c r="L282" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M282" s="9"/>
       <c r="N282" s="19"/>
@@ -19509,7 +19781,7 @@
       <c r="Y282" s="2"/>
       <c r="Z282" s="2"/>
     </row>
-    <row r="283" spans="1:26" hidden="1">
+    <row r="283" spans="1:26">
       <c r="A283" s="51"/>
       <c r="B283" s="51"/>
       <c r="D283" s="17"/>
@@ -19521,7 +19793,7 @@
       <c r="J283" s="9"/>
       <c r="K283" s="9"/>
       <c r="L283" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M283" s="9"/>
       <c r="N283" s="19"/>
@@ -19538,7 +19810,7 @@
       <c r="Y283" s="2"/>
       <c r="Z283" s="2"/>
     </row>
-    <row r="284" spans="1:26" hidden="1">
+    <row r="284" spans="1:26">
       <c r="D284" s="17"/>
       <c r="E284" s="15"/>
       <c r="F284" s="15"/>
@@ -19548,7 +19820,7 @@
       <c r="J284" s="9"/>
       <c r="K284" s="9"/>
       <c r="L284" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M284" s="9"/>
       <c r="N284" s="19"/>
@@ -19565,7 +19837,7 @@
       <c r="Y284" s="2"/>
       <c r="Z284" s="2"/>
     </row>
-    <row r="285" spans="1:26" hidden="1">
+    <row r="285" spans="1:26">
       <c r="D285" s="17"/>
       <c r="E285" s="15"/>
       <c r="F285" s="15"/>
@@ -19575,7 +19847,7 @@
       <c r="J285" s="9"/>
       <c r="K285" s="9"/>
       <c r="L285" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M285" s="9"/>
       <c r="N285" s="19"/>
@@ -19592,7 +19864,7 @@
       <c r="Y285" s="2"/>
       <c r="Z285" s="2"/>
     </row>
-    <row r="286" spans="1:26" hidden="1">
+    <row r="286" spans="1:26">
       <c r="D286" s="17"/>
       <c r="E286" s="15"/>
       <c r="F286" s="15"/>
@@ -19602,7 +19874,7 @@
       <c r="J286" s="9"/>
       <c r="K286" s="9"/>
       <c r="L286" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M286" s="9"/>
       <c r="N286" s="19"/>
@@ -19619,7 +19891,7 @@
       <c r="Y286" s="2"/>
       <c r="Z286" s="2"/>
     </row>
-    <row r="287" spans="1:26" hidden="1">
+    <row r="287" spans="1:26">
       <c r="D287" s="17"/>
       <c r="E287" s="15"/>
       <c r="F287" s="15"/>
@@ -19629,7 +19901,7 @@
       <c r="J287" s="9"/>
       <c r="K287" s="9"/>
       <c r="L287" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M287" s="9"/>
       <c r="N287" s="19"/>
@@ -19646,7 +19918,7 @@
       <c r="Y287" s="2"/>
       <c r="Z287" s="2"/>
     </row>
-    <row r="288" spans="1:26" hidden="1">
+    <row r="288" spans="1:26">
       <c r="A288" s="51"/>
       <c r="B288" s="51"/>
       <c r="D288" s="17"/>
@@ -19658,7 +19930,7 @@
       <c r="J288" s="9"/>
       <c r="K288" s="9"/>
       <c r="L288" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M288" s="9"/>
       <c r="N288" s="19"/>
@@ -19675,7 +19947,7 @@
       <c r="Y288" s="2"/>
       <c r="Z288" s="2"/>
     </row>
-    <row r="289" spans="1:26" hidden="1">
+    <row r="289" spans="1:26">
       <c r="D289" s="17"/>
       <c r="E289" s="15"/>
       <c r="F289" s="15"/>
@@ -19685,7 +19957,7 @@
       <c r="J289" s="9"/>
       <c r="K289" s="9"/>
       <c r="L289" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M289" s="9"/>
       <c r="N289" s="19"/>
@@ -19702,7 +19974,7 @@
       <c r="Y289" s="2"/>
       <c r="Z289" s="2"/>
     </row>
-    <row r="290" spans="1:26" hidden="1">
+    <row r="290" spans="1:26">
       <c r="D290" s="17"/>
       <c r="E290" s="15"/>
       <c r="F290" s="15"/>
@@ -19712,7 +19984,7 @@
       <c r="J290" s="9"/>
       <c r="K290" s="9"/>
       <c r="L290" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M290" s="9"/>
       <c r="N290" s="19"/>
@@ -19729,7 +20001,7 @@
       <c r="Y290" s="2"/>
       <c r="Z290" s="2"/>
     </row>
-    <row r="291" spans="1:26" hidden="1">
+    <row r="291" spans="1:26">
       <c r="D291" s="17"/>
       <c r="E291" s="15"/>
       <c r="F291" s="15"/>
@@ -19739,7 +20011,7 @@
       <c r="J291" s="9"/>
       <c r="K291" s="9"/>
       <c r="L291" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M291" s="9"/>
       <c r="N291" s="19"/>
@@ -19756,7 +20028,7 @@
       <c r="Y291" s="2"/>
       <c r="Z291" s="2"/>
     </row>
-    <row r="292" spans="1:26" hidden="1">
+    <row r="292" spans="1:26">
       <c r="D292" s="17"/>
       <c r="E292" s="15"/>
       <c r="F292" s="15"/>
@@ -19766,7 +20038,7 @@
       <c r="J292" s="9"/>
       <c r="K292" s="9"/>
       <c r="L292" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M292" s="9"/>
       <c r="N292" s="19"/>
@@ -19783,7 +20055,7 @@
       <c r="Y292" s="2"/>
       <c r="Z292" s="2"/>
     </row>
-    <row r="293" spans="1:26" hidden="1">
+    <row r="293" spans="1:26">
       <c r="A293" s="51"/>
       <c r="B293" s="51"/>
       <c r="D293" s="17"/>
@@ -19795,7 +20067,7 @@
       <c r="J293" s="9"/>
       <c r="K293" s="9"/>
       <c r="L293" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M293" s="9"/>
       <c r="N293" s="19"/>
@@ -19812,7 +20084,7 @@
       <c r="Y293" s="2"/>
       <c r="Z293" s="2"/>
     </row>
-    <row r="294" spans="1:26" hidden="1">
+    <row r="294" spans="1:26">
       <c r="D294" s="17"/>
       <c r="E294" s="15"/>
       <c r="F294" s="15"/>
@@ -19822,7 +20094,7 @@
       <c r="J294" s="9"/>
       <c r="K294" s="9"/>
       <c r="L294" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M294" s="9"/>
       <c r="N294" s="19"/>
@@ -19839,7 +20111,7 @@
       <c r="Y294" s="2"/>
       <c r="Z294" s="2"/>
     </row>
-    <row r="295" spans="1:26" hidden="1">
+    <row r="295" spans="1:26">
       <c r="D295" s="17"/>
       <c r="E295" s="15"/>
       <c r="F295" s="15"/>
@@ -19849,7 +20121,7 @@
       <c r="J295" s="9"/>
       <c r="K295" s="9"/>
       <c r="L295" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M295" s="9"/>
       <c r="N295" s="19"/>
@@ -19866,7 +20138,7 @@
       <c r="Y295" s="2"/>
       <c r="Z295" s="2"/>
     </row>
-    <row r="296" spans="1:26" hidden="1">
+    <row r="296" spans="1:26">
       <c r="D296" s="17"/>
       <c r="E296" s="15"/>
       <c r="F296" s="15"/>
@@ -19876,7 +20148,7 @@
       <c r="J296" s="9"/>
       <c r="K296" s="9"/>
       <c r="L296" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M296" s="9"/>
       <c r="N296" s="19"/>
@@ -19893,7 +20165,7 @@
       <c r="Y296" s="2"/>
       <c r="Z296" s="2"/>
     </row>
-    <row r="297" spans="1:26" hidden="1">
+    <row r="297" spans="1:26">
       <c r="D297" s="17"/>
       <c r="E297" s="15"/>
       <c r="F297" s="15"/>
@@ -19903,7 +20175,7 @@
       <c r="J297" s="9"/>
       <c r="K297" s="9"/>
       <c r="L297" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M297" s="9"/>
       <c r="N297" s="19"/>
@@ -19920,7 +20192,7 @@
       <c r="Y297" s="2"/>
       <c r="Z297" s="2"/>
     </row>
-    <row r="298" spans="1:26" hidden="1">
+    <row r="298" spans="1:26">
       <c r="A298" s="51"/>
       <c r="B298" s="51"/>
       <c r="D298" s="17"/>
@@ -19932,7 +20204,7 @@
       <c r="J298" s="9"/>
       <c r="K298" s="9"/>
       <c r="L298" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M298" s="9"/>
       <c r="N298" s="19"/>
@@ -19949,7 +20221,7 @@
       <c r="Y298" s="2"/>
       <c r="Z298" s="2"/>
     </row>
-    <row r="299" spans="1:26" hidden="1">
+    <row r="299" spans="1:26">
       <c r="D299" s="17"/>
       <c r="E299" s="15"/>
       <c r="F299" s="15"/>
@@ -19959,7 +20231,7 @@
       <c r="J299" s="9"/>
       <c r="K299" s="9"/>
       <c r="L299" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M299" s="9"/>
       <c r="N299" s="19"/>
@@ -19976,7 +20248,7 @@
       <c r="Y299" s="2"/>
       <c r="Z299" s="2"/>
     </row>
-    <row r="300" spans="1:26" hidden="1">
+    <row r="300" spans="1:26">
       <c r="D300" s="17"/>
       <c r="E300" s="15"/>
       <c r="F300" s="15"/>
@@ -19986,7 +20258,7 @@
       <c r="J300" s="9"/>
       <c r="K300" s="9"/>
       <c r="L300" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M300" s="9"/>
       <c r="N300" s="19"/>
@@ -20003,7 +20275,7 @@
       <c r="Y300" s="2"/>
       <c r="Z300" s="2"/>
     </row>
-    <row r="301" spans="1:26" hidden="1">
+    <row r="301" spans="1:26">
       <c r="D301" s="17"/>
       <c r="E301" s="15"/>
       <c r="F301" s="15"/>
@@ -20013,7 +20285,7 @@
       <c r="J301" s="9"/>
       <c r="K301" s="9"/>
       <c r="L301" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M301" s="9"/>
       <c r="N301" s="19"/>
@@ -20030,7 +20302,7 @@
       <c r="Y301" s="2"/>
       <c r="Z301" s="2"/>
     </row>
-    <row r="302" spans="1:26" hidden="1">
+    <row r="302" spans="1:26">
       <c r="D302" s="17"/>
       <c r="E302" s="15"/>
       <c r="F302" s="15"/>
@@ -20040,7 +20312,7 @@
       <c r="J302" s="9"/>
       <c r="K302" s="9"/>
       <c r="L302" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M302" s="9"/>
       <c r="N302" s="19"/>
@@ -20057,7 +20329,7 @@
       <c r="Y302" s="2"/>
       <c r="Z302" s="2"/>
     </row>
-    <row r="303" spans="1:26" hidden="1">
+    <row r="303" spans="1:26">
       <c r="A303" s="51"/>
       <c r="B303" s="51"/>
       <c r="D303" s="17"/>
@@ -20069,7 +20341,7 @@
       <c r="J303" s="9"/>
       <c r="K303" s="9"/>
       <c r="L303" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M303" s="9"/>
       <c r="N303" s="19"/>
@@ -20086,7 +20358,7 @@
       <c r="Y303" s="2"/>
       <c r="Z303" s="2"/>
     </row>
-    <row r="304" spans="1:26" hidden="1">
+    <row r="304" spans="1:26">
       <c r="D304" s="17"/>
       <c r="E304" s="15"/>
       <c r="F304" s="15"/>
@@ -20096,7 +20368,7 @@
       <c r="J304" s="9"/>
       <c r="K304" s="9"/>
       <c r="L304" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M304" s="9"/>
       <c r="N304" s="19"/>
@@ -20113,7 +20385,7 @@
       <c r="Y304" s="2"/>
       <c r="Z304" s="2"/>
     </row>
-    <row r="305" spans="1:26" hidden="1">
+    <row r="305" spans="1:26">
       <c r="D305" s="17"/>
       <c r="E305" s="15"/>
       <c r="F305" s="15"/>
@@ -20123,7 +20395,7 @@
       <c r="J305" s="9"/>
       <c r="K305" s="9"/>
       <c r="L305" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M305" s="9"/>
       <c r="N305" s="19"/>
@@ -20140,7 +20412,7 @@
       <c r="Y305" s="2"/>
       <c r="Z305" s="2"/>
     </row>
-    <row r="306" spans="1:26" hidden="1">
+    <row r="306" spans="1:26">
       <c r="D306" s="17"/>
       <c r="E306" s="15"/>
       <c r="F306" s="15"/>
@@ -20150,7 +20422,7 @@
       <c r="J306" s="9"/>
       <c r="K306" s="9"/>
       <c r="L306" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M306" s="9"/>
       <c r="N306" s="19"/>
@@ -20167,7 +20439,7 @@
       <c r="Y306" s="2"/>
       <c r="Z306" s="2"/>
     </row>
-    <row r="307" spans="1:26" hidden="1">
+    <row r="307" spans="1:26">
       <c r="D307" s="17"/>
       <c r="E307" s="15"/>
       <c r="F307" s="15"/>
@@ -20177,7 +20449,7 @@
       <c r="J307" s="9"/>
       <c r="K307" s="9"/>
       <c r="L307" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M307" s="9"/>
       <c r="N307" s="19"/>
@@ -20194,7 +20466,7 @@
       <c r="Y307" s="2"/>
       <c r="Z307" s="2"/>
     </row>
-    <row r="308" spans="1:26" hidden="1">
+    <row r="308" spans="1:26">
       <c r="A308" s="51"/>
       <c r="B308" s="51"/>
       <c r="D308" s="17"/>
@@ -20206,7 +20478,7 @@
       <c r="J308" s="9"/>
       <c r="K308" s="9"/>
       <c r="L308" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M308" s="9"/>
       <c r="N308" s="19"/>
@@ -20223,7 +20495,7 @@
       <c r="Y308" s="2"/>
       <c r="Z308" s="2"/>
     </row>
-    <row r="309" spans="1:26" hidden="1">
+    <row r="309" spans="1:26">
       <c r="D309" s="17"/>
       <c r="E309" s="15"/>
       <c r="F309" s="15"/>
@@ -20233,7 +20505,7 @@
       <c r="J309" s="9"/>
       <c r="K309" s="9"/>
       <c r="L309" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M309" s="9"/>
       <c r="N309" s="19"/>
@@ -20250,7 +20522,7 @@
       <c r="Y309" s="2"/>
       <c r="Z309" s="2"/>
     </row>
-    <row r="310" spans="1:26" hidden="1">
+    <row r="310" spans="1:26">
       <c r="D310" s="17"/>
       <c r="E310" s="15"/>
       <c r="F310" s="15"/>
@@ -20260,7 +20532,7 @@
       <c r="J310" s="9"/>
       <c r="K310" s="9"/>
       <c r="L310" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M310" s="9"/>
       <c r="N310" s="19"/>
@@ -20277,7 +20549,7 @@
       <c r="Y310" s="2"/>
       <c r="Z310" s="2"/>
     </row>
-    <row r="311" spans="1:26" hidden="1">
+    <row r="311" spans="1:26">
       <c r="D311" s="17"/>
       <c r="E311" s="15"/>
       <c r="F311" s="15"/>
@@ -20287,7 +20559,7 @@
       <c r="J311" s="9"/>
       <c r="K311" s="9"/>
       <c r="L311" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M311" s="9"/>
       <c r="N311" s="19"/>
@@ -20304,7 +20576,7 @@
       <c r="Y311" s="2"/>
       <c r="Z311" s="2"/>
     </row>
-    <row r="312" spans="1:26" hidden="1">
+    <row r="312" spans="1:26">
       <c r="D312" s="17"/>
       <c r="E312" s="15"/>
       <c r="F312" s="15"/>
@@ -20314,7 +20586,7 @@
       <c r="J312" s="9"/>
       <c r="K312" s="9"/>
       <c r="L312" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M312" s="9"/>
       <c r="N312" s="19"/>
@@ -20331,7 +20603,7 @@
       <c r="Y312" s="2"/>
       <c r="Z312" s="2"/>
     </row>
-    <row r="313" spans="1:26" hidden="1">
+    <row r="313" spans="1:26">
       <c r="A313" s="51"/>
       <c r="B313" s="51"/>
       <c r="D313" s="17"/>
@@ -20343,7 +20615,7 @@
       <c r="J313" s="9"/>
       <c r="K313" s="9"/>
       <c r="L313" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M313" s="9"/>
       <c r="N313" s="19"/>
@@ -20360,7 +20632,7 @@
       <c r="Y313" s="2"/>
       <c r="Z313" s="2"/>
     </row>
-    <row r="314" spans="1:26" hidden="1">
+    <row r="314" spans="1:26">
       <c r="D314" s="17"/>
       <c r="E314" s="15"/>
       <c r="F314" s="15"/>
@@ -20370,7 +20642,7 @@
       <c r="J314" s="9"/>
       <c r="K314" s="9"/>
       <c r="L314" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M314" s="9"/>
       <c r="N314" s="19"/>
@@ -20387,7 +20659,7 @@
       <c r="Y314" s="2"/>
       <c r="Z314" s="2"/>
     </row>
-    <row r="315" spans="1:26" hidden="1">
+    <row r="315" spans="1:26">
       <c r="D315" s="17"/>
       <c r="E315" s="15"/>
       <c r="F315" s="15"/>
@@ -20397,7 +20669,7 @@
       <c r="J315" s="9"/>
       <c r="K315" s="9"/>
       <c r="L315" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M315" s="9"/>
       <c r="N315" s="19"/>
@@ -20414,7 +20686,7 @@
       <c r="Y315" s="2"/>
       <c r="Z315" s="2"/>
     </row>
-    <row r="316" spans="1:26" hidden="1">
+    <row r="316" spans="1:26">
       <c r="D316" s="17"/>
       <c r="E316" s="15"/>
       <c r="F316" s="15"/>
@@ -20424,7 +20696,7 @@
       <c r="J316" s="9"/>
       <c r="K316" s="9"/>
       <c r="L316" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M316" s="9"/>
       <c r="N316" s="19"/>
@@ -20441,7 +20713,7 @@
       <c r="Y316" s="2"/>
       <c r="Z316" s="2"/>
     </row>
-    <row r="317" spans="1:26" hidden="1">
+    <row r="317" spans="1:26">
       <c r="D317" s="17"/>
       <c r="E317" s="15"/>
       <c r="F317" s="15"/>
@@ -20451,7 +20723,7 @@
       <c r="J317" s="9"/>
       <c r="K317" s="9"/>
       <c r="L317" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M317" s="9"/>
       <c r="N317" s="19"/>
@@ -20468,7 +20740,7 @@
       <c r="Y317" s="2"/>
       <c r="Z317" s="2"/>
     </row>
-    <row r="318" spans="1:26" hidden="1">
+    <row r="318" spans="1:26">
       <c r="A318" s="51"/>
       <c r="B318" s="51"/>
       <c r="D318" s="17"/>
@@ -20480,7 +20752,7 @@
       <c r="J318" s="9"/>
       <c r="K318" s="9"/>
       <c r="L318" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M318" s="9"/>
       <c r="N318" s="19"/>
@@ -20497,7 +20769,7 @@
       <c r="Y318" s="2"/>
       <c r="Z318" s="2"/>
     </row>
-    <row r="319" spans="1:26" hidden="1">
+    <row r="319" spans="1:26">
       <c r="D319" s="17"/>
       <c r="E319" s="15"/>
       <c r="F319" s="15"/>
@@ -20507,7 +20779,7 @@
       <c r="J319" s="9"/>
       <c r="K319" s="9"/>
       <c r="L319" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M319" s="9"/>
       <c r="N319" s="19"/>
@@ -20524,7 +20796,7 @@
       <c r="Y319" s="2"/>
       <c r="Z319" s="2"/>
     </row>
-    <row r="320" spans="1:26" hidden="1">
+    <row r="320" spans="1:26">
       <c r="D320" s="17"/>
       <c r="E320" s="15"/>
       <c r="F320" s="15"/>
@@ -20534,7 +20806,7 @@
       <c r="J320" s="9"/>
       <c r="K320" s="9"/>
       <c r="L320" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M320" s="9"/>
       <c r="N320" s="19"/>
@@ -20551,7 +20823,7 @@
       <c r="Y320" s="2"/>
       <c r="Z320" s="2"/>
     </row>
-    <row r="321" spans="1:26" hidden="1">
+    <row r="321" spans="1:26">
       <c r="D321" s="17"/>
       <c r="E321" s="15"/>
       <c r="F321" s="15"/>
@@ -20561,7 +20833,7 @@
       <c r="J321" s="9"/>
       <c r="K321" s="9"/>
       <c r="L321" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M321" s="9"/>
       <c r="N321" s="19"/>
@@ -20578,7 +20850,7 @@
       <c r="Y321" s="2"/>
       <c r="Z321" s="2"/>
     </row>
-    <row r="322" spans="1:26" hidden="1">
+    <row r="322" spans="1:26">
       <c r="D322" s="17"/>
       <c r="E322" s="15"/>
       <c r="F322" s="15"/>
@@ -20588,7 +20860,7 @@
       <c r="J322" s="9"/>
       <c r="K322" s="9"/>
       <c r="L322" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M322" s="9"/>
       <c r="N322" s="19"/>
@@ -20605,7 +20877,7 @@
       <c r="Y322" s="2"/>
       <c r="Z322" s="2"/>
     </row>
-    <row r="323" spans="1:26" hidden="1">
+    <row r="323" spans="1:26">
       <c r="A323" s="51"/>
       <c r="B323" s="51"/>
       <c r="D323" s="17"/>
@@ -20617,7 +20889,7 @@
       <c r="J323" s="9"/>
       <c r="K323" s="9"/>
       <c r="L323" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M323" s="9"/>
       <c r="N323" s="19"/>
@@ -20634,7 +20906,7 @@
       <c r="Y323" s="2"/>
       <c r="Z323" s="2"/>
     </row>
-    <row r="324" spans="1:26" hidden="1">
+    <row r="324" spans="1:26">
       <c r="D324" s="17"/>
       <c r="E324" s="15"/>
       <c r="F324" s="15"/>
@@ -20644,7 +20916,7 @@
       <c r="J324" s="9"/>
       <c r="K324" s="9"/>
       <c r="L324" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M324" s="9"/>
       <c r="N324" s="19"/>
@@ -20661,7 +20933,7 @@
       <c r="Y324" s="2"/>
       <c r="Z324" s="2"/>
     </row>
-    <row r="325" spans="1:26" hidden="1">
+    <row r="325" spans="1:26">
       <c r="D325" s="17"/>
       <c r="E325" s="15"/>
       <c r="F325" s="15"/>
@@ -20671,7 +20943,7 @@
       <c r="J325" s="9"/>
       <c r="K325" s="9"/>
       <c r="L325" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M325" s="9"/>
       <c r="N325" s="19"/>
@@ -20688,7 +20960,7 @@
       <c r="Y325" s="2"/>
       <c r="Z325" s="2"/>
     </row>
-    <row r="326" spans="1:26" hidden="1">
+    <row r="326" spans="1:26">
       <c r="D326" s="17"/>
       <c r="E326" s="15"/>
       <c r="F326" s="15"/>
@@ -20698,7 +20970,7 @@
       <c r="J326" s="9"/>
       <c r="K326" s="9"/>
       <c r="L326" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M326" s="9"/>
       <c r="N326" s="19"/>
@@ -20715,7 +20987,7 @@
       <c r="Y326" s="2"/>
       <c r="Z326" s="2"/>
     </row>
-    <row r="327" spans="1:26" hidden="1">
+    <row r="327" spans="1:26">
       <c r="D327" s="17"/>
       <c r="E327" s="15"/>
       <c r="F327" s="15"/>
@@ -20725,7 +20997,7 @@
       <c r="J327" s="9"/>
       <c r="K327" s="9"/>
       <c r="L327" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M327" s="9"/>
       <c r="N327" s="19"/>
@@ -20742,7 +21014,7 @@
       <c r="Y327" s="2"/>
       <c r="Z327" s="2"/>
     </row>
-    <row r="328" spans="1:26" hidden="1">
+    <row r="328" spans="1:26">
       <c r="A328" s="51"/>
       <c r="B328" s="51"/>
       <c r="D328" s="17"/>
@@ -20754,7 +21026,7 @@
       <c r="J328" s="9"/>
       <c r="K328" s="9"/>
       <c r="L328" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M328" s="9"/>
       <c r="N328" s="19"/>
@@ -20771,7 +21043,7 @@
       <c r="Y328" s="2"/>
       <c r="Z328" s="2"/>
     </row>
-    <row r="329" spans="1:26" hidden="1">
+    <row r="329" spans="1:26">
       <c r="D329" s="17"/>
       <c r="E329" s="15"/>
       <c r="F329" s="15"/>
@@ -20781,7 +21053,7 @@
       <c r="J329" s="9"/>
       <c r="K329" s="9"/>
       <c r="L329" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M329" s="9"/>
       <c r="N329" s="19"/>
@@ -20798,7 +21070,7 @@
       <c r="Y329" s="2"/>
       <c r="Z329" s="2"/>
     </row>
-    <row r="330" spans="1:26" hidden="1">
+    <row r="330" spans="1:26">
       <c r="D330" s="17"/>
       <c r="E330" s="15"/>
       <c r="F330" s="15"/>
@@ -20808,7 +21080,7 @@
       <c r="J330" s="9"/>
       <c r="K330" s="9"/>
       <c r="L330" s="10" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="M330" s="9"/>
       <c r="N330" s="19"/>
@@ -20825,7 +21097,7 @@
       <c r="Y330" s="2"/>
       <c r="Z330" s="2"/>
     </row>
-    <row r="331" spans="1:26" hidden="1">
+    <row r="331" spans="1:26">
       <c r="A331">
         <v>122</v>
       </c>
@@ -20833,7 +21105,7 @@
         <v>238</v>
       </c>
       <c r="C331" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="332" spans="1:26">
@@ -20844,22 +21116,22 @@
         <v>238</v>
       </c>
       <c r="C332" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D332" s="11" t="s">
         <v>75</v>
       </c>
       <c r="E332" s="16" t="s">
-        <v>648</v>
+        <v>664</v>
       </c>
       <c r="F332" s="16" t="s">
-        <v>649</v>
+        <v>665</v>
       </c>
       <c r="G332" s="16" t="s">
-        <v>650</v>
+        <v>666</v>
       </c>
       <c r="H332" s="16" t="s">
-        <v>651</v>
+        <v>667</v>
       </c>
       <c r="J332" s="11">
         <v>15</v>
@@ -20876,22 +21148,22 @@
         <v>238</v>
       </c>
       <c r="C333" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D333" s="11" t="s">
         <v>75</v>
       </c>
       <c r="E333" s="16" t="s">
-        <v>652</v>
+        <v>668</v>
       </c>
       <c r="F333" s="16" t="s">
-        <v>653</v>
+        <v>669</v>
       </c>
       <c r="G333" s="16" t="s">
-        <v>654</v>
+        <v>670</v>
       </c>
       <c r="H333" s="16" t="s">
-        <v>655</v>
+        <v>671</v>
       </c>
       <c r="J333" s="11">
         <v>20</v>
@@ -20901,13 +21173,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O333" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="11">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:O333" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="M86" r:id="rId1" xr:uid="{954017CD-E028-47AD-880B-D994F42943E3}"/>
     <hyperlink ref="M87" r:id="rId2" xr:uid="{F643B520-F58D-4BD6-B634-4474D947E197}"/>
@@ -20965,30 +21231,30 @@
   <sheetData>
     <row r="1" spans="1:11" s="13" customFormat="1" ht="31.5" customHeight="1">
       <c r="A1" s="53" t="s">
-        <v>656</v>
+        <v>672</v>
       </c>
       <c r="B1" s="53"/>
       <c r="C1" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>657</v>
+        <v>673</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>658</v>
+        <v>674</v>
       </c>
       <c r="F1" s="54"/>
       <c r="G1" s="53" t="s">
-        <v>659</v>
+        <v>675</v>
       </c>
       <c r="H1" s="58" t="s">
-        <v>660</v>
+        <v>676</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>661</v>
+        <v>677</v>
       </c>
       <c r="J1" s="55" t="s">
-        <v>662</v>
+        <v>678</v>
       </c>
       <c r="K1" s="61">
         <f>SUM(H2:H85)</f>
@@ -21000,13 +21266,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>663</v>
+        <v>679</v>
       </c>
       <c r="D2" s="57" t="s">
-        <v>664</v>
+        <v>680</v>
       </c>
       <c r="G2" s="60" t="s">
-        <v>665</v>
+        <v>681</v>
       </c>
       <c r="H2" s="59">
         <v>30</v>
@@ -21017,13 +21283,13 @@
         <v>800</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>666</v>
+        <v>682</v>
       </c>
       <c r="D3" s="57" t="s">
-        <v>664</v>
+        <v>680</v>
       </c>
       <c r="F3" s="60" t="s">
-        <v>667</v>
+        <v>683</v>
       </c>
       <c r="G3" s="11">
         <v>50</v>
@@ -21033,7 +21299,7 @@
         <v>60.8</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>668</v>
+        <v>684</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -21044,7 +21310,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>669</v>
+        <v>685</v>
       </c>
       <c r="G5" s="11">
         <v>2500</v>
@@ -21053,7 +21319,7 @@
         <v>29.45</v>
       </c>
       <c r="I5" s="34" t="s">
-        <v>670</v>
+        <v>686</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -21061,20 +21327,20 @@
         <v>8</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>671</v>
+        <v>687</v>
       </c>
       <c r="F6" s="60" t="s">
-        <v>672</v>
+        <v>688</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>673</v>
+        <v>689</v>
       </c>
       <c r="H6" s="59">
         <f>8*3.76</f>
         <v>30.08</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>674</v>
+        <v>690</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -21082,7 +21348,7 @@
         <v>1000</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>675</v>
+        <v>691</v>
       </c>
       <c r="I7" s="34"/>
     </row>
@@ -21091,7 +21357,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>676</v>
+        <v>692</v>
       </c>
       <c r="I8" s="34"/>
     </row>
@@ -21100,16 +21366,16 @@
         <v>10</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>677</v>
+        <v>693</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>678</v>
+        <v>694</v>
       </c>
       <c r="H9" s="59">
         <v>2.25</v>
       </c>
       <c r="I9" s="34" t="s">
-        <v>679</v>
+        <v>695</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -21117,16 +21383,16 @@
         <v>4</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>680</v>
+        <v>696</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>681</v>
+        <v>697</v>
       </c>
       <c r="H10" s="59">
         <v>5.9</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>679</v>
+        <v>695</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -21134,7 +21400,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>682</v>
+        <v>698</v>
       </c>
       <c r="G11" s="11">
         <v>144</v>
@@ -21143,7 +21409,7 @@
         <v>26.85</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>683</v>
+        <v>699</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -21151,16 +21417,16 @@
         <v>10</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>684</v>
+        <v>700</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>685</v>
+        <v>701</v>
       </c>
       <c r="H12" s="59">
         <v>19.95</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>670</v>
+        <v>686</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -21168,7 +21434,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>686</v>
+        <v>702</v>
       </c>
       <c r="G13" s="62">
         <v>20000</v>
@@ -21177,7 +21443,7 @@
         <v>29.99</v>
       </c>
       <c r="I13" s="34" t="s">
-        <v>687</v>
+        <v>703</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -21185,7 +21451,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>688</v>
+        <v>704</v>
       </c>
       <c r="G14" s="11">
         <v>5000</v>
@@ -21194,7 +21460,7 @@
         <v>54.95</v>
       </c>
       <c r="I14" s="34" t="s">
-        <v>689</v>
+        <v>705</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -21202,7 +21468,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>690</v>
+        <v>706</v>
       </c>
       <c r="G15" s="11">
         <v>75</v>
@@ -21216,7 +21482,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>691</v>
+        <v>707</v>
       </c>
       <c r="G16" s="11">
         <v>100</v>
@@ -21230,7 +21496,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>692</v>
+        <v>708</v>
       </c>
       <c r="G17" s="11">
         <v>1000</v>
@@ -21244,10 +21510,10 @@
         <v>5</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>693</v>
+        <v>709</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>694</v>
+        <v>710</v>
       </c>
       <c r="H18" s="59">
         <v>15</v>
@@ -21258,13 +21524,13 @@
         <v>2</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>695</v>
+        <v>711</v>
       </c>
       <c r="E19" t="s">
         <v>238</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>696</v>
+        <v>712</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -21272,7 +21538,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>697</v>
+        <v>713</v>
       </c>
       <c r="G20" s="11">
         <v>1</v>
@@ -21286,7 +21552,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>698</v>
+        <v>714</v>
       </c>
       <c r="G21" s="11">
         <v>1200</v>
@@ -21300,10 +21566,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>699</v>
+        <v>715</v>
       </c>
       <c r="F22" s="60" t="s">
-        <v>700</v>
+        <v>716</v>
       </c>
       <c r="G22" s="11">
         <v>50</v>
@@ -21317,22 +21583,22 @@
         <v>1</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>701</v>
+        <v>717</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>702</v>
+        <v>718</v>
       </c>
       <c r="H23" s="59">
         <v>10.85</v>
       </c>
       <c r="I23" s="34" t="s">
-        <v>703</v>
+        <v>719</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="56"/>
       <c r="C24" s="16" t="s">
-        <v>704</v>
+        <v>720</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -21340,10 +21606,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>705</v>
+        <v>721</v>
       </c>
       <c r="F25" s="60" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="G25" s="11">
         <v>50</v>
@@ -21355,7 +21621,7 @@
     <row r="26" spans="1:9">
       <c r="A26" s="56"/>
       <c r="C26" s="16" t="s">
-        <v>707</v>
+        <v>723</v>
       </c>
       <c r="E26" t="s">
         <v>359</v>
@@ -21382,7 +21648,7 @@
         <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>708</v>
+        <v>724</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -21397,21 +21663,21 @@
         <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>708</v>
+        <v>724</v>
       </c>
       <c r="E31" t="s">
-        <v>709</v>
+        <v>725</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="56" t="s">
-        <v>710</v>
+        <v>726</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F32" s="60" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="G32" s="11">
         <v>1</v>
@@ -21428,7 +21694,7 @@
         <v>151</v>
       </c>
       <c r="F33" s="60" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="G33" s="11">
         <v>1</v>
@@ -21442,10 +21708,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>711</v>
+        <v>727</v>
       </c>
       <c r="F34" s="60" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="G34" s="11">
         <v>1</v>
@@ -21459,10 +21725,10 @@
         <v>2</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>712</v>
+        <v>728</v>
       </c>
       <c r="F35" s="60" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="G35" s="11">
         <v>1</v>
@@ -21476,10 +21742,10 @@
         <v>2</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>713</v>
+        <v>729</v>
       </c>
       <c r="F36" s="60" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="G36" s="11">
         <v>72</v>
@@ -21493,10 +21759,10 @@
         <v>10</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>714</v>
+        <v>730</v>
       </c>
       <c r="F37" s="60" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="G37" s="11">
         <v>10</v>
@@ -21514,16 +21780,16 @@
         <v>100</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>715</v>
+        <v>731</v>
       </c>
       <c r="D39" t="s">
-        <v>708</v>
+        <v>724</v>
       </c>
       <c r="E39" t="s">
-        <v>716</v>
+        <v>732</v>
       </c>
       <c r="F39" s="60" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="G39" s="11">
         <v>1</v>
@@ -21538,10 +21804,10 @@
         <v>5</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>717</v>
+        <v>733</v>
       </c>
       <c r="F41" s="60" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="G41" s="11">
         <v>1</v>
@@ -21553,7 +21819,7 @@
     <row r="42" spans="1:8">
       <c r="A42" s="56"/>
       <c r="C42" s="16" t="s">
-        <v>718</v>
+        <v>734</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -21564,7 +21830,7 @@
         <v>21</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>719</v>
+        <v>735</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -21575,7 +21841,7 @@
         <v>21</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>720</v>
+        <v>736</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -21586,7 +21852,7 @@
         <v>197</v>
       </c>
       <c r="F45" s="60" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="G45" s="11">
         <v>10</v>
@@ -21598,13 +21864,13 @@
     <row r="46" spans="1:8">
       <c r="A46" s="16"/>
       <c r="C46" s="16" t="s">
-        <v>721</v>
+        <v>737</v>
       </c>
       <c r="D46" t="s">
-        <v>708</v>
+        <v>724</v>
       </c>
       <c r="E46" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -21613,23 +21879,23 @@
         <v>490</v>
       </c>
       <c r="D47" t="s">
-        <v>708</v>
+        <v>724</v>
       </c>
       <c r="E47" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="C48" s="16" t="s">
-        <v>723</v>
+        <v>739</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="C49" s="16" t="s">
+        <v>740</v>
+      </c>
+      <c r="D49" t="s">
         <v>724</v>
-      </c>
-      <c r="D49" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -21637,10 +21903,10 @@
         <v>3</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>725</v>
+        <v>741</v>
       </c>
       <c r="F50" s="60" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="G50" s="11">
         <v>3</v>
@@ -21651,15 +21917,15 @@
     </row>
     <row r="51" spans="1:8">
       <c r="C51" s="16" t="s">
-        <v>726</v>
+        <v>742</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="C52" s="16" t="s">
-        <v>727</v>
+        <v>743</v>
       </c>
       <c r="D52" t="s">
-        <v>708</v>
+        <v>724</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -21667,10 +21933,10 @@
         <v>10</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>728</v>
+        <v>744</v>
       </c>
       <c r="F53" s="60" t="s">
-        <v>700</v>
+        <v>716</v>
       </c>
       <c r="G53" s="11">
         <v>500</v>
@@ -21681,7 +21947,7 @@
     </row>
     <row r="54" spans="1:8">
       <c r="C54" s="16" t="s">
-        <v>729</v>
+        <v>745</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -21689,10 +21955,10 @@
         <v>2</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="F55" s="60" t="s">
-        <v>731</v>
+        <v>747</v>
       </c>
       <c r="G55" s="11">
         <v>150</v>
@@ -21706,10 +21972,10 @@
         <v>2</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>732</v>
+        <v>748</v>
       </c>
       <c r="F56" s="60" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="G56" s="11">
         <v>50</v>
@@ -21723,10 +21989,10 @@
         <v>2</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>733</v>
+        <v>749</v>
       </c>
       <c r="F57" s="60" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="G57" s="11">
         <v>120</v>
@@ -21743,7 +22009,7 @@
         <v>455</v>
       </c>
       <c r="F58" s="60" t="s">
-        <v>731</v>
+        <v>747</v>
       </c>
       <c r="G58" s="11">
         <v>50</v>
@@ -21760,10 +22026,10 @@
         <v>470</v>
       </c>
       <c r="E59" t="s">
-        <v>734</v>
+        <v>750</v>
       </c>
       <c r="F59" s="60" t="s">
-        <v>735</v>
+        <v>751</v>
       </c>
       <c r="G59" s="11">
         <v>1</v>
@@ -21774,10 +22040,10 @@
         <v>1</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>736</v>
+        <v>752</v>
       </c>
       <c r="F60" s="60" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="G60" s="11">
         <v>300</v>
@@ -21791,13 +22057,13 @@
         <v>20</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="E61" t="s">
-        <v>738</v>
+        <v>754</v>
       </c>
       <c r="F61" s="60" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="G61" s="11">
         <v>1</v>
@@ -21808,13 +22074,13 @@
         <v>20</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="D62" t="s">
-        <v>708</v>
+        <v>724</v>
       </c>
       <c r="E62" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -21822,16 +22088,16 @@
         <v>50</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>740</v>
+        <v>756</v>
       </c>
       <c r="D63" t="s">
-        <v>708</v>
+        <v>724</v>
       </c>
       <c r="E63" t="s">
-        <v>734</v>
+        <v>750</v>
       </c>
       <c r="F63" s="60" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="G63" s="11">
         <v>6</v>
@@ -21842,16 +22108,16 @@
         <v>2</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>741</v>
+        <v>757</v>
       </c>
       <c r="D64" t="s">
-        <v>708</v>
+        <v>724</v>
       </c>
       <c r="E64" t="s">
-        <v>734</v>
+        <v>750</v>
       </c>
       <c r="F64" s="60" t="s">
-        <v>742</v>
+        <v>758</v>
       </c>
       <c r="G64" s="11">
         <v>1</v>
@@ -21862,16 +22128,16 @@
         <v>2</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>743</v>
+        <v>759</v>
       </c>
       <c r="D65" t="s">
-        <v>708</v>
+        <v>724</v>
       </c>
       <c r="E65" t="s">
-        <v>734</v>
+        <v>750</v>
       </c>
       <c r="F65" s="60" t="s">
-        <v>742</v>
+        <v>758</v>
       </c>
       <c r="G65" s="11">
         <v>1</v>
@@ -21879,10 +22145,10 @@
     </row>
     <row r="66" spans="1:7">
       <c r="C66" s="16" t="s">
-        <v>744</v>
+        <v>760</v>
       </c>
       <c r="D66" t="s">
-        <v>708</v>
+        <v>724</v>
       </c>
       <c r="E66" t="s">
         <v>238</v>
@@ -21893,7 +22159,7 @@
         <v>595</v>
       </c>
       <c r="D67" t="s">
-        <v>708</v>
+        <v>724</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15.6">
@@ -21901,23 +22167,23 @@
         <v>600</v>
       </c>
       <c r="D68" t="s">
-        <v>708</v>
+        <v>724</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="C69" s="16" t="s">
-        <v>745</v>
+        <v>761</v>
       </c>
       <c r="D69" t="s">
-        <v>708</v>
+        <v>724</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="C70" s="16" t="s">
-        <v>746</v>
+        <v>762</v>
       </c>
       <c r="D70" t="s">
-        <v>708</v>
+        <v>724</v>
       </c>
       <c r="E70" t="s">
         <v>238</v>
@@ -21928,17 +22194,17 @@
         <v>2</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>747</v>
+        <v>763</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="C72" s="16" t="s">
-        <v>748</v>
+        <v>764</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="C73" s="16" t="s">
-        <v>749</v>
+        <v>765</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -21946,22 +22212,22 @@
         <v>2</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>750</v>
+        <v>766</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="C75" s="16" t="s">
-        <v>751</v>
+        <v>767</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="C76" s="16" t="s">
-        <v>752</v>
+        <v>768</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="C77" s="16" t="s">
-        <v>753</v>
+        <v>769</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -21969,7 +22235,7 @@
         <v>10</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>754</v>
+        <v>770</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -21977,7 +22243,7 @@
         <v>10</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>755</v>
+        <v>771</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -21985,7 +22251,7 @@
         <v>3</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>756</v>
+        <v>772</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -21993,12 +22259,12 @@
         <v>3</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>757</v>
+        <v>773</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="C82" s="16" t="s">
-        <v>758</v>
+        <v>774</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -22061,19 +22327,19 @@
   <sheetData>
     <row r="1" spans="1:6" s="13" customFormat="1" ht="31.5" customHeight="1">
       <c r="A1" s="53" t="s">
-        <v>656</v>
+        <v>672</v>
       </c>
       <c r="B1" s="68" t="s">
-        <v>759</v>
+        <v>775</v>
       </c>
       <c r="C1" s="68" t="s">
-        <v>760</v>
+        <v>776</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>761</v>
+        <v>777</v>
       </c>
       <c r="F1" s="53" t="s">
-        <v>762</v>
+        <v>778</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -22084,23 +22350,23 @@
         <v>302</v>
       </c>
       <c r="D2" t="s">
-        <v>763</v>
+        <v>779</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="16" t="s">
-        <v>764</v>
+        <v>780</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>765</v>
+        <v>781</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -22108,23 +22374,23 @@
         <v>93</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>766</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="16" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="16" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -22132,7 +22398,7 @@
         <v>253</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -22140,7 +22406,7 @@
         <v>367</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>772</v>
+        <v>788</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -22148,7 +22414,7 @@
         <v>378</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>773</v>
+        <v>789</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -22183,7 +22449,7 @@
         <v>471</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>774</v>
+        <v>790</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -22191,7 +22457,7 @@
         <v>480</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>775</v>
+        <v>791</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>359</v>
@@ -22199,10 +22465,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="16" t="s">
-        <v>776</v>
+        <v>792</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>777</v>
+        <v>793</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>359</v>
@@ -22210,7 +22476,7 @@
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="16" t="s">
-        <v>778</v>
+        <v>794</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>12</v>
@@ -22235,7 +22501,7 @@
         <v>601</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>779</v>
+        <v>795</v>
       </c>
     </row>
     <row r="20" spans="2:6">
@@ -22243,7 +22509,7 @@
         <v>606</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>780</v>
+        <v>796</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>359</v>
@@ -22254,7 +22520,7 @@
         <v>509</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>781</v>
+        <v>797</v>
       </c>
     </row>
   </sheetData>
@@ -22298,7 +22564,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="107" t="s">
-        <v>782</v>
+        <v>798</v>
       </c>
       <c r="G1" s="107" t="s">
         <v>9</v>
@@ -22310,7 +22576,7 @@
         <v>10</v>
       </c>
       <c r="J1" s="107" t="s">
-        <v>783</v>
+        <v>799</v>
       </c>
       <c r="K1" s="108" t="s">
         <v>12</v>
@@ -22366,7 +22632,7 @@
       </c>
       <c r="M2" s="109" t="str">
         <f>IF(Aufgabenkatalog!C2="Ja","true","false")</f>
-        <v>false</v>
+        <v>true</v>
       </c>
     </row>
     <row r="3" spans="1:13" hidden="1">
@@ -22677,7 +22943,7 @@
       </c>
       <c r="G9" s="109">
         <f>Aufgabenkatalog!J9</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H9" s="109">
         <v>1</v>
@@ -28439,11 +28705,11 @@
       <c r="B132" s="109"/>
       <c r="C132" s="109" t="str">
         <f>Aufgabenkatalog!G132</f>
-        <v>Party Bild</v>
+        <v>CaEx Together Picture</v>
       </c>
       <c r="D132" s="109" t="str">
         <f>Aufgabenkatalog!F132</f>
-        <v>Finde heraus wie oft das Party Team am großen Bild im Stufenlager ist</v>
+        <v>Finde heraus wie oft das Party Team am großen Bild im Stufenlager zu finden ist (CaEx Dach)</v>
       </c>
       <c r="E132" s="109">
         <f>Aufgabenkatalog!H132</f>
@@ -28481,7 +28747,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="109" t="s">
-        <v>784</v>
+        <v>800</v>
       </c>
       <c r="C133" s="109" t="str">
         <f>Aufgabenkatalog!G133</f>
@@ -28621,7 +28887,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="109" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C136" s="109" t="str">
         <f>Aufgabenkatalog!G136</f>
@@ -28672,27 +28938,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="560b4f41-a4e7-4222-8b43-3e9fe5c92fe3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e71fd78-3e96-49c3-9420-53931bd42b51">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Link xmlns="1e71fd78-3e96-49c3-9420-53931bd42b51" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100DF62AD970F9A6B40AEC446DFC723E2E7" ma:contentTypeVersion="18" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="2ee5de522d8969a87915241833e169e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e71fd78-3e96-49c3-9420-53931bd42b51" xmlns:ns3="560b4f41-a4e7-4222-8b43-3e9fe5c92fe3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f0565dce9d753535fb46b0675310da8" ns2:_="" ns3:_="">
     <xsd:import namespace="1e71fd78-3e96-49c3-9420-53931bd42b51"/>
@@ -28949,8 +29194,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="560b4f41-a4e7-4222-8b43-3e9fe5c92fe3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e71fd78-3e96-49c3-9420-53931bd42b51">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Link xmlns="1e71fd78-3e96-49c3-9420-53931bd42b51" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F68D982-58DF-4F63-BD9F-DE9DC568D661}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE651BA1-3BDA-4F8F-9625-2ABBB82D566C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28958,5 +29224,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE651BA1-3BDA-4F8F-9625-2ABBB82D566C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F68D982-58DF-4F63-BD9F-DE9DC568D661}"/>
 </file>
--- a/convert/together23_pieces_datenbank.xlsx
+++ b/convert/together23_pieces_datenbank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ooepp.sharepoint.com/sites/Landeslager2023/Freigegebene Dokumente/General/CaEx/Programm/Challenges/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03F4F0D4-C555-4377-8B01-36A2FACB12A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7ED1F60-2D09-4DAC-9BFF-6A8B2EFFCF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="27288" windowHeight="17544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="27288" windowHeight="17544" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgabenkatalog" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="818">
   <si>
     <t>id</t>
   </si>
@@ -2120,7 +2120,10 @@
     <t>Am Donnerstag findet um 11 Uhr am Together Hauptplatz ein Theaterstück statt , siehe es dir an und berichte wie es dir gefallen hat.</t>
   </si>
   <si>
-    <t>There will be a play on Thursday at 11am at Together Hauptplatz , check it out and report back how you liked it.</t>
+    <t>Theatre play</t>
+  </si>
+  <si>
+    <t>There will be a theatre play on Thursday at 11am at Together main square , check it out and report back how you liked it.</t>
   </si>
   <si>
     <t>Together Run</t>
@@ -2129,28 +2132,76 @@
     <t>Am Sonntag (13.8.2023) findet ein Together Run (5 km) rund um das Lagergelände statt. Nim in einer Staffel mit 4 weiteren CaEx im Nachbar Unterlager teil (Anmeldung Sprtzelt)</t>
   </si>
   <si>
+    <t>On Sunday (13.8.2023) there will be a Together Run (5 km) around the camp area. Take part in a team with 4 other CaEx in the neighbouring subcamp (registration in the sports tent).</t>
+  </si>
+  <si>
     <t>CaEx High Kicks Slot 1 Donnerstag</t>
   </si>
   <si>
     <t>Melde dich beim CaEx High Kicks an, Slots: 14:45 (Zipline) - Tickets gibt’s bei den Pieces</t>
   </si>
   <si>
-    <t>Sign up for CaEx High Kicks, slots: 14:45, 15:15, 15:45, 16:15, 16:45, 17:15 (Zipline) and King X 14:30 and 16:00 - tickets available at the Pieces.</t>
+    <t>CaEx High Kicks Slot Thursday</t>
+  </si>
+  <si>
+    <t>Sign up for CaEx High Kicks, slots: 14:45 (Zipline) - Tickets available at the Pieces</t>
   </si>
   <si>
     <t>Melde dich beim CaEx High Kicks an, Slots: 15:15 (Zipline)  - Tickets gibt’s bei den Pieces</t>
   </si>
   <si>
+    <t>Sign up for CaEx High Kicks, Slots: 15:15 (Zipline) - Tickets available at the Pieces</t>
+  </si>
+  <si>
     <t>Melde dich beim CaEx High Kicks an, Slots: 15:45 (Zipline)  - Tickets gibt’s bei den Pieces</t>
   </si>
   <si>
+    <t>Sign up for CaEx High Kicks, Slots: 15:45 (Zipline) - Tickets available at the Pieces</t>
+  </si>
+  <si>
     <t>Melde dich beim CaEx High Kicks an, Slots: 16:15 (Zipline)  - Tickets gibt’s bei den Pieces</t>
   </si>
   <si>
+    <t>Sign up for CaEx High Kicks, Slots: 16:15 (Zipline) - Tickets available at the Pieces</t>
+  </si>
+  <si>
     <t>Melde dich beim CaEx High Kicks an, Slots: 16:45 (Zipline)  - Tickets gibt’s bei den Pieces</t>
   </si>
   <si>
+    <t>Sign up for CaEx High Kicks, Slots: 16:45 (Zipline) - Tickets available at the Pieces</t>
+  </si>
+  <si>
     <t>Melde dich beim CaEx High Kicks an, Slots: 17:15 (Zipline)  - Tickets gibt’s bei den Pieces</t>
+  </si>
+  <si>
+    <t>Sign up for CaEx High Kicks, Slots: 17:15 (Zipline) - Tickets available at the Pieces</t>
+  </si>
+  <si>
+    <t>Melde dich beim CaEx High Kicks an, Slots: 14:30 (KingX)  - Tickets gibt’s bei den Pieces</t>
+  </si>
+  <si>
+    <t>Sign up for CaEx High Kicks, Slots: 14:30 (KingX) - Tickets available at the Pieces</t>
+  </si>
+  <si>
+    <t>Melde dich beim CaEx High Kicks an, Slots: 16:00 (KingX)  - Tickets gibt’s bei den Pieces</t>
+  </si>
+  <si>
+    <t>Sign up for CaEx High Kicks, Slots: 16:00 (KingX) - Tickets available at the Pieces</t>
+  </si>
+  <si>
+    <t>Nein</t>
+  </si>
+  <si>
+    <t>CaEx High Kicks Slot 1 Freitag</t>
+  </si>
+  <si>
+    <t>CaEx High Kicks Slot 1 Samstag</t>
+  </si>
+  <si>
+    <t>CaEx High Kicks Slot 1 Dienstag</t>
+  </si>
+  <si>
+    <t>Melde dich beim CaEx High Kicks an, Slots: 15:15 (Zipline) - Tickets gibt’s bei den Pieces</t>
   </si>
   <si>
     <t> </t>
@@ -3668,8 +3719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C124" workbookViewId="0">
-      <selection activeCell="C137" sqref="C137"/>
+    <sheetView topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -3842,7 +3893,7 @@
       <c r="AU2" s="1"/>
       <c r="AV2" s="1"/>
     </row>
-    <row r="3" spans="1:48" s="51" customFormat="1" ht="15">
+    <row r="3" spans="1:48" s="51" customFormat="1" ht="15.6">
       <c r="A3" s="51">
         <v>2</v>
       </c>
@@ -4288,7 +4339,7 @@
       <c r="AU8" s="1"/>
       <c r="AV8" s="1"/>
     </row>
-    <row r="9" spans="1:48" s="31" customFormat="1" ht="15">
+    <row r="9" spans="1:48" s="31" customFormat="1" ht="15.6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4440,7 +4491,7 @@
       <c r="AU10" s="1"/>
       <c r="AV10" s="1"/>
     </row>
-    <row r="11" spans="1:48" s="31" customFormat="1" ht="15">
+    <row r="11" spans="1:48" s="31" customFormat="1" ht="15.6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5034,7 +5085,7 @@
       <c r="AU18" s="1"/>
       <c r="AV18" s="1"/>
     </row>
-    <row r="19" spans="1:48" s="27" customFormat="1" ht="15">
+    <row r="19" spans="1:48" s="27" customFormat="1" ht="15.6">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5254,7 +5305,7 @@
       <c r="AU21" s="1"/>
       <c r="AV21" s="1"/>
     </row>
-    <row r="22" spans="1:48" s="31" customFormat="1" ht="15">
+    <row r="22" spans="1:48" s="31" customFormat="1" ht="15.6">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5846,7 +5897,7 @@
       <c r="AU29" s="1"/>
       <c r="AV29" s="1"/>
     </row>
-    <row r="30" spans="1:48" s="51" customFormat="1" ht="15">
+    <row r="30" spans="1:48" s="51" customFormat="1" ht="15.6">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6068,7 +6119,7 @@
       <c r="AU32" s="1"/>
       <c r="AV32" s="1"/>
     </row>
-    <row r="33" spans="1:48" s="31" customFormat="1" ht="15">
+    <row r="33" spans="1:48" s="31" customFormat="1" ht="15.6">
       <c r="A33" s="51">
         <v>32</v>
       </c>
@@ -6290,7 +6341,7 @@
       <c r="AU35" s="1"/>
       <c r="AV35" s="1"/>
     </row>
-    <row r="36" spans="1:48" s="85" customFormat="1" ht="15">
+    <row r="36" spans="1:48" s="85" customFormat="1" ht="15.6">
       <c r="A36" s="85">
         <v>35</v>
       </c>
@@ -7332,7 +7383,7 @@
       <c r="AU49" s="1"/>
       <c r="AV49" s="1"/>
     </row>
-    <row r="50" spans="1:48" s="85" customFormat="1" ht="15">
+    <row r="50" spans="1:48" s="85" customFormat="1" ht="15.6">
       <c r="A50">
         <v>49</v>
       </c>
@@ -7406,7 +7457,7 @@
       <c r="AU50" s="92"/>
       <c r="AV50" s="92"/>
     </row>
-    <row r="51" spans="1:48" s="31" customFormat="1" ht="15">
+    <row r="51" spans="1:48" s="31" customFormat="1" ht="15.6">
       <c r="A51">
         <v>50</v>
       </c>
@@ -7552,7 +7603,7 @@
       <c r="AU52" s="1"/>
       <c r="AV52" s="1"/>
     </row>
-    <row r="53" spans="1:48" ht="15">
+    <row r="53" spans="1:48" ht="15.6">
       <c r="A53" s="51">
         <v>52</v>
       </c>
@@ -7628,7 +7679,7 @@
       <c r="AU53" s="1"/>
       <c r="AV53" s="1"/>
     </row>
-    <row r="54" spans="1:48" s="31" customFormat="1" ht="15">
+    <row r="54" spans="1:48" s="31" customFormat="1" ht="15.6">
       <c r="A54">
         <v>53</v>
       </c>
@@ -7850,7 +7901,7 @@
       <c r="AU56" s="1"/>
       <c r="AV56" s="1"/>
     </row>
-    <row r="57" spans="1:48" s="27" customFormat="1" ht="15">
+    <row r="57" spans="1:48" s="27" customFormat="1" ht="15.6">
       <c r="A57">
         <v>56</v>
       </c>
@@ -7922,7 +7973,7 @@
       <c r="AU57" s="26"/>
       <c r="AV57" s="26"/>
     </row>
-    <row r="58" spans="1:48" s="51" customFormat="1" ht="15">
+    <row r="58" spans="1:48" s="51" customFormat="1" ht="15.6">
       <c r="A58" s="51">
         <v>57</v>
       </c>
@@ -8662,7 +8713,7 @@
       <c r="AU67" s="1"/>
       <c r="AV67" s="1"/>
     </row>
-    <row r="68" spans="1:48" s="31" customFormat="1" ht="15">
+    <row r="68" spans="1:48" s="31" customFormat="1" ht="15.6">
       <c r="A68" s="51">
         <v>67</v>
       </c>
@@ -8960,7 +9011,7 @@
       <c r="AU71" s="1"/>
       <c r="AV71" s="1"/>
     </row>
-    <row r="72" spans="1:48" s="31" customFormat="1" ht="15">
+    <row r="72" spans="1:48" s="31" customFormat="1" ht="15.6">
       <c r="A72">
         <v>71</v>
       </c>
@@ -9032,7 +9083,7 @@
       <c r="AU72" s="30"/>
       <c r="AV72" s="30"/>
     </row>
-    <row r="73" spans="1:48" s="31" customFormat="1" ht="15">
+    <row r="73" spans="1:48" s="31" customFormat="1" ht="15.6">
       <c r="A73" s="51">
         <v>72</v>
       </c>
@@ -9104,7 +9155,7 @@
       <c r="AU73" s="30"/>
       <c r="AV73" s="30"/>
     </row>
-    <row r="74" spans="1:48" s="31" customFormat="1" ht="15">
+    <row r="74" spans="1:48" s="31" customFormat="1" ht="15.6">
       <c r="A74">
         <v>73</v>
       </c>
@@ -9176,7 +9227,7 @@
       <c r="AU74" s="30"/>
       <c r="AV74" s="30"/>
     </row>
-    <row r="75" spans="1:48" s="31" customFormat="1" ht="15">
+    <row r="75" spans="1:48" s="31" customFormat="1" ht="15.6">
       <c r="A75">
         <v>74</v>
       </c>
@@ -9246,7 +9297,7 @@
       <c r="AU75" s="30"/>
       <c r="AV75" s="30"/>
     </row>
-    <row r="76" spans="1:48" s="31" customFormat="1" ht="15">
+    <row r="76" spans="1:48" s="31" customFormat="1" ht="15.6">
       <c r="A76">
         <v>75</v>
       </c>
@@ -9316,7 +9367,7 @@
       <c r="AU76" s="30"/>
       <c r="AV76" s="30"/>
     </row>
-    <row r="77" spans="1:48" s="31" customFormat="1" ht="15">
+    <row r="77" spans="1:48" s="31" customFormat="1" ht="15.6">
       <c r="A77">
         <v>76</v>
       </c>
@@ -9386,7 +9437,7 @@
       <c r="AU77" s="30"/>
       <c r="AV77" s="30"/>
     </row>
-    <row r="78" spans="1:48" s="31" customFormat="1" ht="15">
+    <row r="78" spans="1:48" s="31" customFormat="1" ht="15.6">
       <c r="A78" s="51">
         <v>77</v>
       </c>
@@ -9456,7 +9507,7 @@
       <c r="AU78" s="30"/>
       <c r="AV78" s="30"/>
     </row>
-    <row r="79" spans="1:48" s="31" customFormat="1" ht="15">
+    <row r="79" spans="1:48" s="31" customFormat="1" ht="15.6">
       <c r="A79">
         <v>78</v>
       </c>
@@ -9526,7 +9577,7 @@
       <c r="AU79" s="30"/>
       <c r="AV79" s="30"/>
     </row>
-    <row r="80" spans="1:48" ht="15">
+    <row r="80" spans="1:48" ht="15.6">
       <c r="A80">
         <v>79</v>
       </c>
@@ -9670,7 +9721,7 @@
       <c r="AU81" s="1"/>
       <c r="AV81" s="1"/>
     </row>
-    <row r="82" spans="1:48" ht="15">
+    <row r="82" spans="1:48" ht="15.6">
       <c r="A82">
         <v>81</v>
       </c>
@@ -9744,7 +9795,7 @@
       <c r="AU82" s="1"/>
       <c r="AV82" s="1"/>
     </row>
-    <row r="83" spans="1:48" ht="15">
+    <row r="83" spans="1:48" ht="15.6">
       <c r="A83" s="51">
         <v>82</v>
       </c>
@@ -10842,7 +10893,7 @@
       <c r="AU97" s="1"/>
       <c r="AV97" s="1"/>
     </row>
-    <row r="98" spans="1:48" s="85" customFormat="1" ht="15">
+    <row r="98" spans="1:48" s="85" customFormat="1" ht="15.6">
       <c r="A98" s="100">
         <v>97</v>
       </c>
@@ -11132,7 +11183,7 @@
       <c r="AU101" s="1"/>
       <c r="AV101" s="1"/>
     </row>
-    <row r="102" spans="1:48" s="85" customFormat="1" ht="15">
+    <row r="102" spans="1:48" s="85" customFormat="1" ht="15.6">
       <c r="A102" s="85">
         <v>101</v>
       </c>
@@ -11720,7 +11771,7 @@
       <c r="AU109" s="1"/>
       <c r="AV109" s="1"/>
     </row>
-    <row r="110" spans="1:48" ht="15">
+    <row r="110" spans="1:48" ht="15.6">
       <c r="A110">
         <v>109</v>
       </c>
@@ -11796,7 +11847,7 @@
       <c r="AU110" s="1"/>
       <c r="AV110" s="1"/>
     </row>
-    <row r="111" spans="1:48" s="74" customFormat="1" ht="15">
+    <row r="111" spans="1:48" s="74" customFormat="1" ht="15.6">
       <c r="A111">
         <v>110</v>
       </c>
@@ -11869,7 +11920,7 @@
       <c r="AU111" s="83"/>
       <c r="AV111" s="83"/>
     </row>
-    <row r="112" spans="1:48" s="74" customFormat="1" ht="15">
+    <row r="112" spans="1:48" s="74" customFormat="1" ht="15.6">
       <c r="A112">
         <v>111</v>
       </c>
@@ -11942,7 +11993,7 @@
       <c r="AU112" s="83"/>
       <c r="AV112" s="83"/>
     </row>
-    <row r="113" spans="1:48" s="74" customFormat="1" ht="15">
+    <row r="113" spans="1:48" s="74" customFormat="1" ht="15.6">
       <c r="A113" s="51">
         <v>112</v>
       </c>
@@ -12463,7 +12514,7 @@
       <c r="AU119" s="1"/>
       <c r="AV119" s="1"/>
     </row>
-    <row r="120" spans="1:48" s="85" customFormat="1" ht="15">
+    <row r="120" spans="1:48" s="85" customFormat="1" ht="15.6">
       <c r="A120" s="85">
         <v>119</v>
       </c>
@@ -13866,7 +13917,7 @@
       <c r="AU138" s="1"/>
       <c r="AV138" s="1"/>
     </row>
-    <row r="139" spans="1:48" ht="15">
+    <row r="139" spans="1:48" ht="15.6">
       <c r="A139">
         <v>139</v>
       </c>
@@ -13940,7 +13991,7 @@
       <c r="AU139" s="1"/>
       <c r="AV139" s="1"/>
     </row>
-    <row r="140" spans="1:48" ht="15">
+    <row r="140" spans="1:48" ht="15.6">
       <c r="A140">
         <v>140</v>
       </c>
@@ -13948,7 +13999,7 @@
         <v>238</v>
       </c>
       <c r="C140" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D140" s="17" t="s">
         <v>75</v>
@@ -13959,9 +14010,11 @@
       <c r="F140" s="14" t="s">
         <v>651</v>
       </c>
-      <c r="G140" s="14"/>
+      <c r="G140" s="14" t="s">
+        <v>652</v>
+      </c>
       <c r="H140" s="14" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="I140" s="6" t="s">
         <v>21</v>
@@ -14012,7 +14065,7 @@
       <c r="AU140" s="1"/>
       <c r="AV140" s="1"/>
     </row>
-    <row r="141" spans="1:48" ht="15">
+    <row r="141" spans="1:48" ht="15.6">
       <c r="A141">
         <v>141</v>
       </c>
@@ -14020,19 +14073,23 @@
         <v>238</v>
       </c>
       <c r="C141" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D141" s="17" t="s">
         <v>75</v>
       </c>
       <c r="E141" s="15" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F141" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="G141" s="14" t="s">
         <v>654</v>
       </c>
-      <c r="G141" s="14"/>
-      <c r="H141" s="14"/>
+      <c r="H141" s="14" t="s">
+        <v>656</v>
+      </c>
       <c r="I141" s="6" t="s">
         <v>21</v>
       </c>
@@ -14080,7 +14137,7 @@
       <c r="AU141" s="1"/>
       <c r="AV141" s="1"/>
     </row>
-    <row r="142" spans="1:48" ht="15">
+    <row r="142" spans="1:48" ht="15.6">
       <c r="A142">
         <v>142</v>
       </c>
@@ -14088,33 +14145,35 @@
         <v>238</v>
       </c>
       <c r="C142" t="s">
-        <v>24</v>
-      </c>
-      <c r="D142" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E142" s="35" t="s">
-        <v>655</v>
-      </c>
-      <c r="F142" s="35" t="s">
-        <v>656</v>
-      </c>
-      <c r="G142" s="35" t="s">
-        <v>638</v>
-      </c>
-      <c r="H142" s="35" t="s">
+      <c r="E142" s="14" t="s">
         <v>657</v>
+      </c>
+      <c r="F142" s="14" t="s">
+        <v>658</v>
+      </c>
+      <c r="G142" s="14" t="s">
+        <v>659</v>
+      </c>
+      <c r="H142" s="14" t="s">
+        <v>660</v>
       </c>
       <c r="I142" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J142" s="6"/>
+      <c r="J142" s="6">
+        <v>60</v>
+      </c>
       <c r="K142" s="6"/>
       <c r="L142" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M142" s="6"/>
-      <c r="N142" s="18" t="s">
+      <c r="N142" s="120" t="s">
         <v>23</v>
       </c>
       <c r="O142" s="3"/>
@@ -14136,23 +14195,23 @@
       <c r="AE142" s="3"/>
       <c r="AF142" s="3"/>
       <c r="AG142" s="3"/>
-      <c r="AH142" s="122"/>
-      <c r="AI142" s="122"/>
-      <c r="AJ142" s="122"/>
-      <c r="AK142" s="122"/>
-      <c r="AL142" s="122"/>
-      <c r="AM142" s="122"/>
-      <c r="AN142" s="122"/>
-      <c r="AO142" s="122"/>
-      <c r="AP142" s="122"/>
-      <c r="AQ142" s="122"/>
-      <c r="AR142" s="122"/>
-      <c r="AS142" s="122"/>
-      <c r="AT142" s="122"/>
-      <c r="AU142" s="122"/>
-      <c r="AV142" s="122"/>
-    </row>
-    <row r="143" spans="1:48" ht="15">
+      <c r="AH142" s="1"/>
+      <c r="AI142" s="1"/>
+      <c r="AJ142" s="1"/>
+      <c r="AK142" s="1"/>
+      <c r="AL142" s="1"/>
+      <c r="AM142" s="1"/>
+      <c r="AN142" s="1"/>
+      <c r="AO142" s="1"/>
+      <c r="AP142" s="1"/>
+      <c r="AQ142" s="1"/>
+      <c r="AR142" s="1"/>
+      <c r="AS142" s="1"/>
+      <c r="AT142" s="1"/>
+      <c r="AU142" s="1"/>
+      <c r="AV142" s="1"/>
+    </row>
+    <row r="143" spans="1:48" ht="15.6">
       <c r="A143">
         <v>143</v>
       </c>
@@ -14160,33 +14219,35 @@
         <v>238</v>
       </c>
       <c r="C143" t="s">
-        <v>24</v>
-      </c>
-      <c r="D143" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="D143" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E143" s="35" t="s">
-        <v>655</v>
-      </c>
-      <c r="F143" s="35" t="s">
-        <v>658</v>
-      </c>
-      <c r="G143" s="35" t="s">
-        <v>638</v>
-      </c>
-      <c r="H143" s="35" t="s">
+      <c r="E143" s="14" t="s">
         <v>657</v>
+      </c>
+      <c r="F143" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="G143" s="14" t="s">
+        <v>659</v>
+      </c>
+      <c r="H143" s="14" t="s">
+        <v>662</v>
       </c>
       <c r="I143" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J143" s="6"/>
+      <c r="J143" s="6">
+        <v>60</v>
+      </c>
       <c r="K143" s="6"/>
       <c r="L143" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M143" s="6"/>
-      <c r="N143" s="18" t="s">
+      <c r="N143" s="120" t="s">
         <v>23</v>
       </c>
       <c r="O143" s="3"/>
@@ -14208,23 +14269,23 @@
       <c r="AE143" s="3"/>
       <c r="AF143" s="3"/>
       <c r="AG143" s="3"/>
-      <c r="AH143" s="122"/>
-      <c r="AI143" s="122"/>
-      <c r="AJ143" s="122"/>
-      <c r="AK143" s="122"/>
-      <c r="AL143" s="122"/>
-      <c r="AM143" s="122"/>
-      <c r="AN143" s="122"/>
-      <c r="AO143" s="122"/>
-      <c r="AP143" s="122"/>
-      <c r="AQ143" s="122"/>
-      <c r="AR143" s="122"/>
-      <c r="AS143" s="122"/>
-      <c r="AT143" s="122"/>
-      <c r="AU143" s="122"/>
-      <c r="AV143" s="122"/>
-    </row>
-    <row r="144" spans="1:48" ht="15">
+      <c r="AH143" s="1"/>
+      <c r="AI143" s="1"/>
+      <c r="AJ143" s="1"/>
+      <c r="AK143" s="1"/>
+      <c r="AL143" s="1"/>
+      <c r="AM143" s="1"/>
+      <c r="AN143" s="1"/>
+      <c r="AO143" s="1"/>
+      <c r="AP143" s="1"/>
+      <c r="AQ143" s="1"/>
+      <c r="AR143" s="1"/>
+      <c r="AS143" s="1"/>
+      <c r="AT143" s="1"/>
+      <c r="AU143" s="1"/>
+      <c r="AV143" s="1"/>
+    </row>
+    <row r="144" spans="1:48" ht="15.6">
       <c r="A144">
         <v>144</v>
       </c>
@@ -14232,33 +14293,35 @@
         <v>238</v>
       </c>
       <c r="C144" t="s">
-        <v>24</v>
-      </c>
-      <c r="D144" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="D144" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E144" s="35" t="s">
-        <v>655</v>
-      </c>
-      <c r="F144" s="35" t="s">
+      <c r="E144" s="14" t="s">
+        <v>657</v>
+      </c>
+      <c r="F144" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="G144" s="14" t="s">
         <v>659</v>
       </c>
-      <c r="G144" s="35" t="s">
-        <v>638</v>
-      </c>
-      <c r="H144" s="35" t="s">
-        <v>657</v>
+      <c r="H144" s="14" t="s">
+        <v>664</v>
       </c>
       <c r="I144" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J144" s="6"/>
+      <c r="J144" s="6">
+        <v>60</v>
+      </c>
       <c r="K144" s="6"/>
       <c r="L144" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M144" s="6"/>
-      <c r="N144" s="18" t="s">
+      <c r="N144" s="120" t="s">
         <v>23</v>
       </c>
       <c r="O144" s="3"/>
@@ -14280,23 +14343,23 @@
       <c r="AE144" s="3"/>
       <c r="AF144" s="3"/>
       <c r="AG144" s="3"/>
-      <c r="AH144" s="122"/>
-      <c r="AI144" s="122"/>
-      <c r="AJ144" s="122"/>
-      <c r="AK144" s="122"/>
-      <c r="AL144" s="122"/>
-      <c r="AM144" s="122"/>
-      <c r="AN144" s="122"/>
-      <c r="AO144" s="122"/>
-      <c r="AP144" s="122"/>
-      <c r="AQ144" s="122"/>
-      <c r="AR144" s="122"/>
-      <c r="AS144" s="122"/>
-      <c r="AT144" s="122"/>
-      <c r="AU144" s="122"/>
-      <c r="AV144" s="122"/>
-    </row>
-    <row r="145" spans="1:48" ht="15">
+      <c r="AH144" s="1"/>
+      <c r="AI144" s="1"/>
+      <c r="AJ144" s="1"/>
+      <c r="AK144" s="1"/>
+      <c r="AL144" s="1"/>
+      <c r="AM144" s="1"/>
+      <c r="AN144" s="1"/>
+      <c r="AO144" s="1"/>
+      <c r="AP144" s="1"/>
+      <c r="AQ144" s="1"/>
+      <c r="AR144" s="1"/>
+      <c r="AS144" s="1"/>
+      <c r="AT144" s="1"/>
+      <c r="AU144" s="1"/>
+      <c r="AV144" s="1"/>
+    </row>
+    <row r="145" spans="1:48" ht="15.6">
       <c r="A145">
         <v>145</v>
       </c>
@@ -14304,33 +14367,35 @@
         <v>238</v>
       </c>
       <c r="C145" t="s">
-        <v>24</v>
-      </c>
-      <c r="D145" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E145" s="35" t="s">
-        <v>655</v>
-      </c>
-      <c r="F145" s="35" t="s">
-        <v>660</v>
-      </c>
-      <c r="G145" s="35" t="s">
-        <v>638</v>
-      </c>
-      <c r="H145" s="35" t="s">
+      <c r="E145" s="14" t="s">
         <v>657</v>
+      </c>
+      <c r="F145" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="G145" s="14" t="s">
+        <v>659</v>
+      </c>
+      <c r="H145" s="14" t="s">
+        <v>666</v>
       </c>
       <c r="I145" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J145" s="6"/>
+      <c r="J145" s="6">
+        <v>60</v>
+      </c>
       <c r="K145" s="6"/>
       <c r="L145" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M145" s="6"/>
-      <c r="N145" s="18" t="s">
+      <c r="N145" s="120" t="s">
         <v>23</v>
       </c>
       <c r="O145" s="3"/>
@@ -14352,23 +14417,23 @@
       <c r="AE145" s="3"/>
       <c r="AF145" s="3"/>
       <c r="AG145" s="3"/>
-      <c r="AH145" s="122"/>
-      <c r="AI145" s="122"/>
-      <c r="AJ145" s="122"/>
-      <c r="AK145" s="122"/>
-      <c r="AL145" s="122"/>
-      <c r="AM145" s="122"/>
-      <c r="AN145" s="122"/>
-      <c r="AO145" s="122"/>
-      <c r="AP145" s="122"/>
-      <c r="AQ145" s="122"/>
-      <c r="AR145" s="122"/>
-      <c r="AS145" s="122"/>
-      <c r="AT145" s="122"/>
-      <c r="AU145" s="122"/>
-      <c r="AV145" s="122"/>
-    </row>
-    <row r="146" spans="1:48" ht="15">
+      <c r="AH145" s="1"/>
+      <c r="AI145" s="1"/>
+      <c r="AJ145" s="1"/>
+      <c r="AK145" s="1"/>
+      <c r="AL145" s="1"/>
+      <c r="AM145" s="1"/>
+      <c r="AN145" s="1"/>
+      <c r="AO145" s="1"/>
+      <c r="AP145" s="1"/>
+      <c r="AQ145" s="1"/>
+      <c r="AR145" s="1"/>
+      <c r="AS145" s="1"/>
+      <c r="AT145" s="1"/>
+      <c r="AU145" s="1"/>
+      <c r="AV145" s="1"/>
+    </row>
+    <row r="146" spans="1:48" ht="15.6">
       <c r="A146">
         <v>146</v>
       </c>
@@ -14376,33 +14441,35 @@
         <v>238</v>
       </c>
       <c r="C146" t="s">
-        <v>24</v>
-      </c>
-      <c r="D146" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="D146" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E146" s="35" t="s">
-        <v>655</v>
-      </c>
-      <c r="F146" s="35" t="s">
-        <v>661</v>
-      </c>
-      <c r="G146" s="35" t="s">
-        <v>638</v>
-      </c>
-      <c r="H146" s="35" t="s">
+      <c r="E146" s="14" t="s">
         <v>657</v>
+      </c>
+      <c r="F146" s="14" t="s">
+        <v>667</v>
+      </c>
+      <c r="G146" s="14" t="s">
+        <v>659</v>
+      </c>
+      <c r="H146" s="14" t="s">
+        <v>668</v>
       </c>
       <c r="I146" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J146" s="6"/>
+      <c r="J146" s="6">
+        <v>60</v>
+      </c>
       <c r="K146" s="6"/>
       <c r="L146" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M146" s="6"/>
-      <c r="N146" s="18" t="s">
+      <c r="N146" s="120" t="s">
         <v>23</v>
       </c>
       <c r="O146" s="3"/>
@@ -14424,23 +14491,23 @@
       <c r="AE146" s="3"/>
       <c r="AF146" s="3"/>
       <c r="AG146" s="3"/>
-      <c r="AH146" s="122"/>
-      <c r="AI146" s="122"/>
-      <c r="AJ146" s="122"/>
-      <c r="AK146" s="122"/>
-      <c r="AL146" s="122"/>
-      <c r="AM146" s="122"/>
-      <c r="AN146" s="122"/>
-      <c r="AO146" s="122"/>
-      <c r="AP146" s="122"/>
-      <c r="AQ146" s="122"/>
-      <c r="AR146" s="122"/>
-      <c r="AS146" s="122"/>
-      <c r="AT146" s="122"/>
-      <c r="AU146" s="122"/>
-      <c r="AV146" s="122"/>
-    </row>
-    <row r="147" spans="1:48" ht="15">
+      <c r="AH146" s="1"/>
+      <c r="AI146" s="1"/>
+      <c r="AJ146" s="1"/>
+      <c r="AK146" s="1"/>
+      <c r="AL146" s="1"/>
+      <c r="AM146" s="1"/>
+      <c r="AN146" s="1"/>
+      <c r="AO146" s="1"/>
+      <c r="AP146" s="1"/>
+      <c r="AQ146" s="1"/>
+      <c r="AR146" s="1"/>
+      <c r="AS146" s="1"/>
+      <c r="AT146" s="1"/>
+      <c r="AU146" s="1"/>
+      <c r="AV146" s="1"/>
+    </row>
+    <row r="147" spans="1:48" ht="15.6">
       <c r="A147">
         <v>147</v>
       </c>
@@ -14448,33 +14515,35 @@
         <v>238</v>
       </c>
       <c r="C147" t="s">
-        <v>24</v>
-      </c>
-      <c r="D147" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="D147" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E147" s="35" t="s">
-        <v>655</v>
-      </c>
-      <c r="F147" s="35" t="s">
-        <v>662</v>
-      </c>
-      <c r="G147" s="35" t="s">
-        <v>638</v>
-      </c>
-      <c r="H147" s="35" t="s">
+      <c r="E147" s="14" t="s">
         <v>657</v>
+      </c>
+      <c r="F147" s="14" t="s">
+        <v>669</v>
+      </c>
+      <c r="G147" s="14" t="s">
+        <v>659</v>
+      </c>
+      <c r="H147" s="14" t="s">
+        <v>670</v>
       </c>
       <c r="I147" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J147" s="6"/>
+      <c r="J147" s="6">
+        <v>60</v>
+      </c>
       <c r="K147" s="6"/>
       <c r="L147" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M147" s="6"/>
-      <c r="N147" s="18" t="s">
+      <c r="N147" s="120" t="s">
         <v>23</v>
       </c>
       <c r="O147" s="3"/>
@@ -14496,23 +14565,23 @@
       <c r="AE147" s="3"/>
       <c r="AF147" s="3"/>
       <c r="AG147" s="3"/>
-      <c r="AH147" s="122"/>
-      <c r="AI147" s="122"/>
-      <c r="AJ147" s="122"/>
-      <c r="AK147" s="122"/>
-      <c r="AL147" s="122"/>
-      <c r="AM147" s="122"/>
-      <c r="AN147" s="122"/>
-      <c r="AO147" s="122"/>
-      <c r="AP147" s="122"/>
-      <c r="AQ147" s="122"/>
-      <c r="AR147" s="122"/>
-      <c r="AS147" s="122"/>
-      <c r="AT147" s="122"/>
-      <c r="AU147" s="122"/>
-      <c r="AV147" s="122"/>
-    </row>
-    <row r="148" spans="1:48" ht="15">
+      <c r="AH147" s="1"/>
+      <c r="AI147" s="1"/>
+      <c r="AJ147" s="1"/>
+      <c r="AK147" s="1"/>
+      <c r="AL147" s="1"/>
+      <c r="AM147" s="1"/>
+      <c r="AN147" s="1"/>
+      <c r="AO147" s="1"/>
+      <c r="AP147" s="1"/>
+      <c r="AQ147" s="1"/>
+      <c r="AR147" s="1"/>
+      <c r="AS147" s="1"/>
+      <c r="AT147" s="1"/>
+      <c r="AU147" s="1"/>
+      <c r="AV147" s="1"/>
+    </row>
+    <row r="148" spans="1:48" ht="15.6">
       <c r="A148">
         <v>148</v>
       </c>
@@ -14520,33 +14589,35 @@
         <v>238</v>
       </c>
       <c r="C148" t="s">
-        <v>24</v>
-      </c>
-      <c r="D148" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="D148" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E148" s="35" t="s">
-        <v>655</v>
-      </c>
-      <c r="F148" s="35" t="s">
-        <v>662</v>
-      </c>
-      <c r="G148" s="35" t="s">
-        <v>638</v>
-      </c>
-      <c r="H148" s="35" t="s">
+      <c r="E148" s="14" t="s">
         <v>657</v>
+      </c>
+      <c r="F148" s="14" t="s">
+        <v>671</v>
+      </c>
+      <c r="G148" s="14" t="s">
+        <v>659</v>
+      </c>
+      <c r="H148" s="14" t="s">
+        <v>672</v>
       </c>
       <c r="I148" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J148" s="6"/>
+      <c r="J148" s="6">
+        <v>120</v>
+      </c>
       <c r="K148" s="6"/>
       <c r="L148" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M148" s="6"/>
-      <c r="N148" s="18" t="s">
+      <c r="N148" s="120" t="s">
         <v>23</v>
       </c>
       <c r="O148" s="3"/>
@@ -14568,23 +14639,23 @@
       <c r="AE148" s="3"/>
       <c r="AF148" s="3"/>
       <c r="AG148" s="3"/>
-      <c r="AH148" s="122"/>
-      <c r="AI148" s="122"/>
-      <c r="AJ148" s="122"/>
-      <c r="AK148" s="122"/>
-      <c r="AL148" s="122"/>
-      <c r="AM148" s="122"/>
-      <c r="AN148" s="122"/>
-      <c r="AO148" s="122"/>
-      <c r="AP148" s="122"/>
-      <c r="AQ148" s="122"/>
-      <c r="AR148" s="122"/>
-      <c r="AS148" s="122"/>
-      <c r="AT148" s="122"/>
-      <c r="AU148" s="122"/>
-      <c r="AV148" s="122"/>
-    </row>
-    <row r="149" spans="1:48" ht="15">
+      <c r="AH148" s="1"/>
+      <c r="AI148" s="1"/>
+      <c r="AJ148" s="1"/>
+      <c r="AK148" s="1"/>
+      <c r="AL148" s="1"/>
+      <c r="AM148" s="1"/>
+      <c r="AN148" s="1"/>
+      <c r="AO148" s="1"/>
+      <c r="AP148" s="1"/>
+      <c r="AQ148" s="1"/>
+      <c r="AR148" s="1"/>
+      <c r="AS148" s="1"/>
+      <c r="AT148" s="1"/>
+      <c r="AU148" s="1"/>
+      <c r="AV148" s="1"/>
+    </row>
+    <row r="149" spans="1:48" ht="15.6">
       <c r="A149">
         <v>149</v>
       </c>
@@ -14592,33 +14663,35 @@
         <v>238</v>
       </c>
       <c r="C149" t="s">
-        <v>24</v>
-      </c>
-      <c r="D149" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="D149" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E149" s="35" t="s">
-        <v>655</v>
-      </c>
-      <c r="F149" s="35" t="s">
-        <v>662</v>
-      </c>
-      <c r="G149" s="35" t="s">
-        <v>638</v>
-      </c>
-      <c r="H149" s="35" t="s">
+      <c r="E149" s="14" t="s">
         <v>657</v>
+      </c>
+      <c r="F149" s="14" t="s">
+        <v>673</v>
+      </c>
+      <c r="G149" s="14" t="s">
+        <v>659</v>
+      </c>
+      <c r="H149" s="14" t="s">
+        <v>674</v>
       </c>
       <c r="I149" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J149" s="6"/>
+      <c r="J149" s="6">
+        <v>120</v>
+      </c>
       <c r="K149" s="6"/>
       <c r="L149" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M149" s="6"/>
-      <c r="N149" s="18" t="s">
+      <c r="N149" s="120" t="s">
         <v>23</v>
       </c>
       <c r="O149" s="3"/>
@@ -14640,35 +14713,56 @@
       <c r="AE149" s="3"/>
       <c r="AF149" s="3"/>
       <c r="AG149" s="3"/>
-      <c r="AH149" s="122"/>
-      <c r="AI149" s="122"/>
-      <c r="AJ149" s="122"/>
-      <c r="AK149" s="122"/>
-      <c r="AL149" s="122"/>
-      <c r="AM149" s="122"/>
-      <c r="AN149" s="122"/>
-      <c r="AO149" s="122"/>
-      <c r="AP149" s="122"/>
-      <c r="AQ149" s="122"/>
-      <c r="AR149" s="122"/>
-      <c r="AS149" s="122"/>
-      <c r="AT149" s="122"/>
-      <c r="AU149" s="122"/>
-      <c r="AV149" s="122"/>
-    </row>
-    <row r="150" spans="1:48" ht="15.6">
-      <c r="D150" s="17"/>
-      <c r="E150" s="15"/>
-      <c r="F150" s="15"/>
-      <c r="G150" s="15"/>
-      <c r="H150" s="15"/>
+      <c r="AH149" s="1"/>
+      <c r="AI149" s="1"/>
+      <c r="AJ149" s="1"/>
+      <c r="AK149" s="1"/>
+      <c r="AL149" s="1"/>
+      <c r="AM149" s="1"/>
+      <c r="AN149" s="1"/>
+      <c r="AO149" s="1"/>
+      <c r="AP149" s="1"/>
+      <c r="AQ149" s="1"/>
+      <c r="AR149" s="1"/>
+      <c r="AS149" s="1"/>
+      <c r="AT149" s="1"/>
+      <c r="AU149" s="1"/>
+      <c r="AV149" s="1"/>
+    </row>
+    <row r="150" spans="1:48" ht="15">
+      <c r="A150">
+        <v>150</v>
+      </c>
+      <c r="B150" t="s">
+        <v>238</v>
+      </c>
+      <c r="C150" t="s">
+        <v>675</v>
+      </c>
+      <c r="D150" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E150" s="35" t="s">
+        <v>657</v>
+      </c>
+      <c r="F150" s="35" t="s">
+        <v>671</v>
+      </c>
+      <c r="G150" s="35" t="s">
+        <v>659</v>
+      </c>
+      <c r="H150" s="35" t="s">
+        <v>672</v>
+      </c>
       <c r="I150" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J150" s="6"/>
+      <c r="J150" s="6">
+        <v>120</v>
+      </c>
       <c r="K150" s="6"/>
-      <c r="L150" s="7" t="s">
-        <v>663</v>
+      <c r="L150" s="7">
+        <v>3</v>
       </c>
       <c r="M150" s="6"/>
       <c r="N150" s="18"/>
@@ -14707,19 +14801,40 @@
       <c r="AU150" s="1"/>
       <c r="AV150" s="1"/>
     </row>
-    <row r="151" spans="1:48" ht="15.6">
-      <c r="D151" s="17"/>
-      <c r="E151" s="15"/>
-      <c r="F151" s="15"/>
-      <c r="G151" s="15"/>
-      <c r="H151" s="15"/>
+    <row r="151" spans="1:48" ht="15">
+      <c r="A151">
+        <v>151</v>
+      </c>
+      <c r="B151" t="s">
+        <v>238</v>
+      </c>
+      <c r="C151" t="s">
+        <v>675</v>
+      </c>
+      <c r="D151" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E151" s="35" t="s">
+        <v>676</v>
+      </c>
+      <c r="F151" s="35" t="s">
+        <v>673</v>
+      </c>
+      <c r="G151" s="35" t="s">
+        <v>659</v>
+      </c>
+      <c r="H151" s="35" t="s">
+        <v>672</v>
+      </c>
       <c r="I151" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J151" s="6"/>
+      <c r="J151" s="6">
+        <v>120</v>
+      </c>
       <c r="K151" s="6"/>
-      <c r="L151" s="7" t="s">
-        <v>663</v>
+      <c r="L151" s="7">
+        <v>3</v>
       </c>
       <c r="M151" s="6"/>
       <c r="N151" s="18"/>
@@ -14758,19 +14873,40 @@
       <c r="AU151" s="1"/>
       <c r="AV151" s="1"/>
     </row>
-    <row r="152" spans="1:48" ht="15.6">
-      <c r="D152" s="17"/>
-      <c r="E152" s="15"/>
-      <c r="F152" s="15"/>
-      <c r="G152" s="15"/>
-      <c r="H152" s="15"/>
+    <row r="152" spans="1:48" ht="15">
+      <c r="A152">
+        <v>152</v>
+      </c>
+      <c r="B152" t="s">
+        <v>238</v>
+      </c>
+      <c r="C152" t="s">
+        <v>675</v>
+      </c>
+      <c r="D152" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E152" s="35" t="s">
+        <v>676</v>
+      </c>
+      <c r="F152" s="35" t="s">
+        <v>673</v>
+      </c>
+      <c r="G152" s="35" t="s">
+        <v>659</v>
+      </c>
+      <c r="H152" s="35" t="s">
+        <v>672</v>
+      </c>
       <c r="I152" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J152" s="6"/>
+      <c r="J152" s="6">
+        <v>120</v>
+      </c>
       <c r="K152" s="6"/>
-      <c r="L152" s="7" t="s">
-        <v>663</v>
+      <c r="L152" s="7">
+        <v>3</v>
       </c>
       <c r="M152" s="6"/>
       <c r="N152" s="18"/>
@@ -14809,21 +14945,40 @@
       <c r="AU152" s="1"/>
       <c r="AV152" s="1"/>
     </row>
-    <row r="153" spans="1:48" ht="15.6">
-      <c r="A153" s="51"/>
-      <c r="B153" s="51"/>
-      <c r="D153" s="17"/>
-      <c r="E153" s="15"/>
-      <c r="F153" s="15"/>
-      <c r="G153" s="15"/>
-      <c r="H153" s="15"/>
+    <row r="153" spans="1:48" ht="15">
+      <c r="A153">
+        <v>153</v>
+      </c>
+      <c r="B153" t="s">
+        <v>238</v>
+      </c>
+      <c r="C153" t="s">
+        <v>675</v>
+      </c>
+      <c r="D153" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E153" s="35" t="s">
+        <v>677</v>
+      </c>
+      <c r="F153" s="35" t="s">
+        <v>673</v>
+      </c>
+      <c r="G153" s="35" t="s">
+        <v>659</v>
+      </c>
+      <c r="H153" s="35" t="s">
+        <v>672</v>
+      </c>
       <c r="I153" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J153" s="6"/>
+      <c r="J153" s="6">
+        <v>120</v>
+      </c>
       <c r="K153" s="6"/>
-      <c r="L153" s="7" t="s">
-        <v>663</v>
+      <c r="L153" s="7">
+        <v>3</v>
       </c>
       <c r="M153" s="6"/>
       <c r="N153" s="18"/>
@@ -14862,17 +15017,40 @@
       <c r="AU153" s="1"/>
       <c r="AV153" s="1"/>
     </row>
-    <row r="154" spans="1:48" ht="15.6">
-      <c r="D154" s="17"/>
-      <c r="E154" s="15"/>
-      <c r="F154" s="15"/>
-      <c r="G154" s="15"/>
-      <c r="H154" s="15"/>
-      <c r="I154" s="6"/>
-      <c r="J154" s="6"/>
+    <row r="154" spans="1:48" ht="15">
+      <c r="A154">
+        <v>154</v>
+      </c>
+      <c r="B154" t="s">
+        <v>238</v>
+      </c>
+      <c r="C154" t="s">
+        <v>675</v>
+      </c>
+      <c r="D154" s="121" t="s">
+        <v>75</v>
+      </c>
+      <c r="E154" s="35" t="s">
+        <v>678</v>
+      </c>
+      <c r="F154" s="35" t="s">
+        <v>671</v>
+      </c>
+      <c r="G154" s="35" t="s">
+        <v>659</v>
+      </c>
+      <c r="H154" s="35" t="s">
+        <v>672</v>
+      </c>
+      <c r="I154" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J154" s="6">
+        <v>120</v>
+      </c>
       <c r="K154" s="6"/>
-      <c r="L154" s="7" t="s">
-        <v>663</v>
+      <c r="L154" s="7">
+        <v>3</v>
       </c>
       <c r="M154" s="6"/>
       <c r="N154" s="18"/>
@@ -14895,33 +15073,56 @@
       <c r="AE154" s="3"/>
       <c r="AF154" s="3"/>
       <c r="AG154" s="3"/>
-      <c r="AH154" s="1"/>
-      <c r="AI154" s="1"/>
-      <c r="AJ154" s="1"/>
-      <c r="AK154" s="1"/>
-      <c r="AL154" s="1"/>
-      <c r="AM154" s="1"/>
-      <c r="AN154" s="1"/>
-      <c r="AO154" s="1"/>
-      <c r="AP154" s="1"/>
-      <c r="AQ154" s="1"/>
-      <c r="AR154" s="1"/>
-      <c r="AS154" s="1"/>
-      <c r="AT154" s="1"/>
-      <c r="AU154" s="1"/>
-      <c r="AV154" s="1"/>
-    </row>
-    <row r="155" spans="1:48" ht="15.6">
-      <c r="D155" s="17"/>
-      <c r="E155" s="15"/>
-      <c r="F155" s="15"/>
-      <c r="G155" s="15"/>
-      <c r="H155" s="15"/>
-      <c r="I155" s="6"/>
-      <c r="J155" s="6"/>
+      <c r="AH154" s="122"/>
+      <c r="AI154" s="122"/>
+      <c r="AJ154" s="122"/>
+      <c r="AK154" s="122"/>
+      <c r="AL154" s="122"/>
+      <c r="AM154" s="122"/>
+      <c r="AN154" s="122"/>
+      <c r="AO154" s="122"/>
+      <c r="AP154" s="122"/>
+      <c r="AQ154" s="122"/>
+      <c r="AR154" s="122"/>
+      <c r="AS154" s="122"/>
+      <c r="AT154" s="122"/>
+      <c r="AU154" s="122"/>
+      <c r="AV154" s="122"/>
+    </row>
+    <row r="155" spans="1:48" ht="15">
+      <c r="A155">
+        <v>155</v>
+      </c>
+      <c r="B155" t="s">
+        <v>238</v>
+      </c>
+      <c r="C155" t="s">
+        <v>675</v>
+      </c>
+      <c r="D155" s="121" t="s">
+        <v>75</v>
+      </c>
+      <c r="E155" s="35" t="s">
+        <v>678</v>
+      </c>
+      <c r="F155" s="35" t="s">
+        <v>673</v>
+      </c>
+      <c r="G155" s="35" t="s">
+        <v>659</v>
+      </c>
+      <c r="H155" s="35" t="s">
+        <v>674</v>
+      </c>
+      <c r="I155" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J155" s="6">
+        <v>120</v>
+      </c>
       <c r="K155" s="6"/>
-      <c r="L155" s="7" t="s">
-        <v>663</v>
+      <c r="L155" s="7">
+        <v>3</v>
       </c>
       <c r="M155" s="6"/>
       <c r="N155" s="18"/>
@@ -14944,36 +15145,61 @@
       <c r="AE155" s="3"/>
       <c r="AF155" s="3"/>
       <c r="AG155" s="3"/>
-      <c r="AH155" s="1"/>
-      <c r="AI155" s="1"/>
-      <c r="AJ155" s="1"/>
-      <c r="AK155" s="1"/>
-      <c r="AL155" s="1"/>
-      <c r="AM155" s="1"/>
-      <c r="AN155" s="1"/>
-      <c r="AO155" s="1"/>
-      <c r="AP155" s="1"/>
-      <c r="AQ155" s="1"/>
-      <c r="AR155" s="1"/>
-      <c r="AS155" s="1"/>
-      <c r="AT155" s="1"/>
-      <c r="AU155" s="1"/>
-      <c r="AV155" s="1"/>
-    </row>
-    <row r="156" spans="1:48" ht="15.6">
-      <c r="D156" s="17"/>
-      <c r="E156" s="15"/>
-      <c r="F156" s="15"/>
-      <c r="G156" s="15"/>
-      <c r="H156" s="15"/>
-      <c r="I156" s="6"/>
-      <c r="J156" s="6"/>
+      <c r="AH155" s="122"/>
+      <c r="AI155" s="122"/>
+      <c r="AJ155" s="122"/>
+      <c r="AK155" s="122"/>
+      <c r="AL155" s="122"/>
+      <c r="AM155" s="122"/>
+      <c r="AN155" s="122"/>
+      <c r="AO155" s="122"/>
+      <c r="AP155" s="122"/>
+      <c r="AQ155" s="122"/>
+      <c r="AR155" s="122"/>
+      <c r="AS155" s="122"/>
+      <c r="AT155" s="122"/>
+      <c r="AU155" s="122"/>
+      <c r="AV155" s="122"/>
+    </row>
+    <row r="156" spans="1:48" ht="15">
+      <c r="A156">
+        <v>156</v>
+      </c>
+      <c r="B156" t="s">
+        <v>238</v>
+      </c>
+      <c r="C156" t="s">
+        <v>675</v>
+      </c>
+      <c r="D156" s="121" t="s">
+        <v>75</v>
+      </c>
+      <c r="E156" s="35" t="s">
+        <v>678</v>
+      </c>
+      <c r="F156" s="35" t="s">
+        <v>658</v>
+      </c>
+      <c r="G156" s="35" t="s">
+        <v>659</v>
+      </c>
+      <c r="H156" s="35" t="s">
+        <v>660</v>
+      </c>
+      <c r="I156" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J156" s="6">
+        <v>60</v>
+      </c>
       <c r="K156" s="6"/>
-      <c r="L156" s="7" t="s">
-        <v>663</v>
+      <c r="L156" s="7">
+        <v>2</v>
       </c>
       <c r="M156" s="6"/>
-      <c r="N156" s="18"/>
+      <c r="N156" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="O156" s="3"/>
       <c r="P156" s="3"/>
       <c r="Q156" s="3"/>
@@ -14993,36 +15219,61 @@
       <c r="AE156" s="3"/>
       <c r="AF156" s="3"/>
       <c r="AG156" s="3"/>
-      <c r="AH156" s="1"/>
-      <c r="AI156" s="1"/>
-      <c r="AJ156" s="1"/>
-      <c r="AK156" s="1"/>
-      <c r="AL156" s="1"/>
-      <c r="AM156" s="1"/>
-      <c r="AN156" s="1"/>
-      <c r="AO156" s="1"/>
-      <c r="AP156" s="1"/>
-      <c r="AQ156" s="1"/>
-      <c r="AR156" s="1"/>
-      <c r="AS156" s="1"/>
-      <c r="AT156" s="1"/>
-      <c r="AU156" s="1"/>
-      <c r="AV156" s="1"/>
-    </row>
-    <row r="157" spans="1:48" ht="15.6">
-      <c r="D157" s="17"/>
-      <c r="E157" s="15"/>
-      <c r="F157" s="15"/>
-      <c r="G157" s="15"/>
-      <c r="H157" s="15"/>
-      <c r="I157" s="6"/>
-      <c r="J157" s="6"/>
+      <c r="AH156" s="122"/>
+      <c r="AI156" s="122"/>
+      <c r="AJ156" s="122"/>
+      <c r="AK156" s="122"/>
+      <c r="AL156" s="122"/>
+      <c r="AM156" s="122"/>
+      <c r="AN156" s="122"/>
+      <c r="AO156" s="122"/>
+      <c r="AP156" s="122"/>
+      <c r="AQ156" s="122"/>
+      <c r="AR156" s="122"/>
+      <c r="AS156" s="122"/>
+      <c r="AT156" s="122"/>
+      <c r="AU156" s="122"/>
+      <c r="AV156" s="122"/>
+    </row>
+    <row r="157" spans="1:48" ht="15">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>238</v>
+      </c>
+      <c r="C157" t="s">
+        <v>675</v>
+      </c>
+      <c r="D157" s="121" t="s">
+        <v>75</v>
+      </c>
+      <c r="E157" s="35" t="s">
+        <v>678</v>
+      </c>
+      <c r="F157" s="35" t="s">
+        <v>679</v>
+      </c>
+      <c r="G157" s="35" t="s">
+        <v>659</v>
+      </c>
+      <c r="H157" s="35" t="s">
+        <v>660</v>
+      </c>
+      <c r="I157" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J157" s="6">
+        <v>60</v>
+      </c>
       <c r="K157" s="6"/>
-      <c r="L157" s="7" t="s">
-        <v>663</v>
+      <c r="L157" s="7">
+        <v>2</v>
       </c>
       <c r="M157" s="6"/>
-      <c r="N157" s="18"/>
+      <c r="N157" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="O157" s="3"/>
       <c r="P157" s="3"/>
       <c r="Q157" s="3"/>
@@ -15042,38 +15293,61 @@
       <c r="AE157" s="3"/>
       <c r="AF157" s="3"/>
       <c r="AG157" s="3"/>
-      <c r="AH157" s="1"/>
-      <c r="AI157" s="1"/>
-      <c r="AJ157" s="1"/>
-      <c r="AK157" s="1"/>
-      <c r="AL157" s="1"/>
-      <c r="AM157" s="1"/>
-      <c r="AN157" s="1"/>
-      <c r="AO157" s="1"/>
-      <c r="AP157" s="1"/>
-      <c r="AQ157" s="1"/>
-      <c r="AR157" s="1"/>
-      <c r="AS157" s="1"/>
-      <c r="AT157" s="1"/>
-      <c r="AU157" s="1"/>
-      <c r="AV157" s="1"/>
-    </row>
-    <row r="158" spans="1:48" ht="15.6">
-      <c r="A158" s="51"/>
-      <c r="B158" s="51"/>
-      <c r="D158" s="17"/>
-      <c r="E158" s="15"/>
-      <c r="F158" s="15"/>
-      <c r="G158" s="15"/>
-      <c r="H158" s="15"/>
-      <c r="I158" s="6"/>
-      <c r="J158" s="6"/>
+      <c r="AH157" s="122"/>
+      <c r="AI157" s="122"/>
+      <c r="AJ157" s="122"/>
+      <c r="AK157" s="122"/>
+      <c r="AL157" s="122"/>
+      <c r="AM157" s="122"/>
+      <c r="AN157" s="122"/>
+      <c r="AO157" s="122"/>
+      <c r="AP157" s="122"/>
+      <c r="AQ157" s="122"/>
+      <c r="AR157" s="122"/>
+      <c r="AS157" s="122"/>
+      <c r="AT157" s="122"/>
+      <c r="AU157" s="122"/>
+      <c r="AV157" s="122"/>
+    </row>
+    <row r="158" spans="1:48" ht="15">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>238</v>
+      </c>
+      <c r="C158" t="s">
+        <v>675</v>
+      </c>
+      <c r="D158" s="121" t="s">
+        <v>75</v>
+      </c>
+      <c r="E158" s="35" t="s">
+        <v>678</v>
+      </c>
+      <c r="F158" s="35" t="s">
+        <v>679</v>
+      </c>
+      <c r="G158" s="35" t="s">
+        <v>659</v>
+      </c>
+      <c r="H158" s="35" t="s">
+        <v>660</v>
+      </c>
+      <c r="I158" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J158" s="6">
+        <v>60</v>
+      </c>
       <c r="K158" s="6"/>
-      <c r="L158" s="7" t="s">
-        <v>663</v>
+      <c r="L158" s="7">
+        <v>2</v>
       </c>
       <c r="M158" s="6"/>
-      <c r="N158" s="18"/>
+      <c r="N158" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="O158" s="3"/>
       <c r="P158" s="3"/>
       <c r="Q158" s="3"/>
@@ -15093,21 +15367,21 @@
       <c r="AE158" s="3"/>
       <c r="AF158" s="3"/>
       <c r="AG158" s="3"/>
-      <c r="AH158" s="1"/>
-      <c r="AI158" s="1"/>
-      <c r="AJ158" s="1"/>
-      <c r="AK158" s="1"/>
-      <c r="AL158" s="1"/>
-      <c r="AM158" s="1"/>
-      <c r="AN158" s="1"/>
-      <c r="AO158" s="1"/>
-      <c r="AP158" s="1"/>
-      <c r="AQ158" s="1"/>
-      <c r="AR158" s="1"/>
-      <c r="AS158" s="1"/>
-      <c r="AT158" s="1"/>
-      <c r="AU158" s="1"/>
-      <c r="AV158" s="1"/>
+      <c r="AH158" s="122"/>
+      <c r="AI158" s="122"/>
+      <c r="AJ158" s="122"/>
+      <c r="AK158" s="122"/>
+      <c r="AL158" s="122"/>
+      <c r="AM158" s="122"/>
+      <c r="AN158" s="122"/>
+      <c r="AO158" s="122"/>
+      <c r="AP158" s="122"/>
+      <c r="AQ158" s="122"/>
+      <c r="AR158" s="122"/>
+      <c r="AS158" s="122"/>
+      <c r="AT158" s="122"/>
+      <c r="AU158" s="122"/>
+      <c r="AV158" s="122"/>
     </row>
     <row r="159" spans="1:48" ht="15.6">
       <c r="D159" s="17"/>
@@ -15119,7 +15393,7 @@
       <c r="J159" s="6"/>
       <c r="K159" s="6"/>
       <c r="L159" s="7" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M159" s="6"/>
       <c r="N159" s="18"/>
@@ -15168,7 +15442,7 @@
       <c r="J160" s="6"/>
       <c r="K160" s="6"/>
       <c r="L160" s="7" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M160" s="6"/>
       <c r="N160" s="18"/>
@@ -15217,7 +15491,7 @@
       <c r="J161" s="6"/>
       <c r="K161" s="6"/>
       <c r="L161" s="7" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M161" s="6"/>
       <c r="N161" s="18"/>
@@ -15266,7 +15540,7 @@
       <c r="J162" s="6"/>
       <c r="K162" s="6"/>
       <c r="L162" s="7" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M162" s="6"/>
       <c r="N162" s="18"/>
@@ -15317,7 +15591,7 @@
       <c r="J163" s="6"/>
       <c r="K163" s="6"/>
       <c r="L163" s="7" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M163" s="6"/>
       <c r="N163" s="18"/>
@@ -15366,7 +15640,7 @@
       <c r="J164" s="6"/>
       <c r="K164" s="6"/>
       <c r="L164" s="7" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M164" s="6"/>
       <c r="N164" s="18"/>
@@ -15415,7 +15689,7 @@
       <c r="J165" s="9"/>
       <c r="K165" s="9"/>
       <c r="L165" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M165" s="9"/>
       <c r="N165" s="19"/>
@@ -15464,7 +15738,7 @@
       <c r="J166" s="9"/>
       <c r="K166" s="9"/>
       <c r="L166" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M166" s="9"/>
       <c r="N166" s="19"/>
@@ -15513,7 +15787,7 @@
       <c r="J167" s="9"/>
       <c r="K167" s="9"/>
       <c r="L167" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M167" s="9"/>
       <c r="N167" s="19"/>
@@ -15564,7 +15838,7 @@
       <c r="J168" s="9"/>
       <c r="K168" s="9"/>
       <c r="L168" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M168" s="9"/>
       <c r="N168" s="19"/>
@@ -15613,7 +15887,7 @@
       <c r="J169" s="9"/>
       <c r="K169" s="9"/>
       <c r="L169" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M169" s="9"/>
       <c r="N169" s="19"/>
@@ -15662,7 +15936,7 @@
       <c r="J170" s="9"/>
       <c r="K170" s="9"/>
       <c r="L170" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M170" s="9"/>
       <c r="N170" s="19"/>
@@ -15711,7 +15985,7 @@
       <c r="J171" s="9"/>
       <c r="K171" s="9"/>
       <c r="L171" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M171" s="9"/>
       <c r="N171" s="19"/>
@@ -15760,7 +16034,7 @@
       <c r="J172" s="9"/>
       <c r="K172" s="9"/>
       <c r="L172" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M172" s="9"/>
       <c r="N172" s="19"/>
@@ -15811,7 +16085,7 @@
       <c r="J173" s="9"/>
       <c r="K173" s="9"/>
       <c r="L173" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M173" s="9"/>
       <c r="N173" s="19"/>
@@ -15860,7 +16134,7 @@
       <c r="J174" s="9"/>
       <c r="K174" s="9"/>
       <c r="L174" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M174" s="9"/>
       <c r="N174" s="19"/>
@@ -15909,7 +16183,7 @@
       <c r="J175" s="9"/>
       <c r="K175" s="9"/>
       <c r="L175" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M175" s="9"/>
       <c r="N175" s="19"/>
@@ -15958,7 +16232,7 @@
       <c r="J176" s="9"/>
       <c r="K176" s="9"/>
       <c r="L176" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M176" s="9"/>
       <c r="N176" s="19"/>
@@ -16007,7 +16281,7 @@
       <c r="J177" s="9"/>
       <c r="K177" s="9"/>
       <c r="L177" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M177" s="9"/>
       <c r="N177" s="19"/>
@@ -16058,7 +16332,7 @@
       <c r="J178" s="9"/>
       <c r="K178" s="9"/>
       <c r="L178" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M178" s="9"/>
       <c r="N178" s="19"/>
@@ -16107,7 +16381,7 @@
       <c r="J179" s="9"/>
       <c r="K179" s="9"/>
       <c r="L179" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M179" s="9"/>
       <c r="N179" s="19"/>
@@ -16156,7 +16430,7 @@
       <c r="J180" s="9"/>
       <c r="K180" s="9"/>
       <c r="L180" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M180" s="9"/>
       <c r="N180" s="19"/>
@@ -16205,7 +16479,7 @@
       <c r="J181" s="9"/>
       <c r="K181" s="9"/>
       <c r="L181" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M181" s="9"/>
       <c r="N181" s="19"/>
@@ -16254,7 +16528,7 @@
       <c r="J182" s="9"/>
       <c r="K182" s="9"/>
       <c r="L182" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M182" s="9"/>
       <c r="N182" s="19"/>
@@ -16305,7 +16579,7 @@
       <c r="J183" s="9"/>
       <c r="K183" s="9"/>
       <c r="L183" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M183" s="9"/>
       <c r="N183" s="19"/>
@@ -16354,7 +16628,7 @@
       <c r="J184" s="9"/>
       <c r="K184" s="9"/>
       <c r="L184" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M184" s="9"/>
       <c r="N184" s="19"/>
@@ -16403,7 +16677,7 @@
       <c r="J185" s="9"/>
       <c r="K185" s="9"/>
       <c r="L185" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M185" s="9"/>
       <c r="N185" s="19"/>
@@ -16452,7 +16726,7 @@
       <c r="J186" s="9"/>
       <c r="K186" s="9"/>
       <c r="L186" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M186" s="9"/>
       <c r="N186" s="19"/>
@@ -16501,7 +16775,7 @@
       <c r="J187" s="9"/>
       <c r="K187" s="9"/>
       <c r="L187" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M187" s="9"/>
       <c r="N187" s="19"/>
@@ -16552,7 +16826,7 @@
       <c r="J188" s="9"/>
       <c r="K188" s="9"/>
       <c r="L188" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M188" s="9"/>
       <c r="N188" s="19"/>
@@ -16601,7 +16875,7 @@
       <c r="J189" s="9"/>
       <c r="K189" s="9"/>
       <c r="L189" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M189" s="9"/>
       <c r="N189" s="19"/>
@@ -16650,7 +16924,7 @@
       <c r="J190" s="9"/>
       <c r="K190" s="9"/>
       <c r="L190" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M190" s="9"/>
       <c r="N190" s="19"/>
@@ -16699,7 +16973,7 @@
       <c r="J191" s="9"/>
       <c r="K191" s="9"/>
       <c r="L191" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M191" s="9"/>
       <c r="N191" s="19"/>
@@ -16748,7 +17022,7 @@
       <c r="J192" s="9"/>
       <c r="K192" s="9"/>
       <c r="L192" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M192" s="9"/>
       <c r="N192" s="19"/>
@@ -16799,7 +17073,7 @@
       <c r="J193" s="9"/>
       <c r="K193" s="9"/>
       <c r="L193" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M193" s="9"/>
       <c r="N193" s="19"/>
@@ -16848,7 +17122,7 @@
       <c r="J194" s="9"/>
       <c r="K194" s="9"/>
       <c r="L194" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M194" s="9"/>
       <c r="N194" s="19"/>
@@ -16897,7 +17171,7 @@
       <c r="J195" s="9"/>
       <c r="K195" s="9"/>
       <c r="L195" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M195" s="9"/>
       <c r="N195" s="19"/>
@@ -16946,7 +17220,7 @@
       <c r="J196" s="9"/>
       <c r="K196" s="9"/>
       <c r="L196" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M196" s="9"/>
       <c r="N196" s="19"/>
@@ -16995,7 +17269,7 @@
       <c r="J197" s="9"/>
       <c r="K197" s="9"/>
       <c r="L197" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M197" s="9"/>
       <c r="N197" s="19"/>
@@ -17046,7 +17320,7 @@
       <c r="J198" s="9"/>
       <c r="K198" s="9"/>
       <c r="L198" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M198" s="9"/>
       <c r="N198" s="19"/>
@@ -17095,7 +17369,7 @@
       <c r="J199" s="9"/>
       <c r="K199" s="9"/>
       <c r="L199" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M199" s="9"/>
       <c r="N199" s="19"/>
@@ -17144,7 +17418,7 @@
       <c r="J200" s="9"/>
       <c r="K200" s="9"/>
       <c r="L200" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M200" s="9"/>
       <c r="N200" s="19"/>
@@ -17193,7 +17467,7 @@
       <c r="J201" s="9"/>
       <c r="K201" s="9"/>
       <c r="L201" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M201" s="9"/>
       <c r="N201" s="19"/>
@@ -17242,7 +17516,7 @@
       <c r="J202" s="9"/>
       <c r="K202" s="9"/>
       <c r="L202" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M202" s="9"/>
       <c r="N202" s="19"/>
@@ -17293,7 +17567,7 @@
       <c r="J203" s="9"/>
       <c r="K203" s="9"/>
       <c r="L203" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M203" s="9"/>
       <c r="N203" s="19"/>
@@ -17342,7 +17616,7 @@
       <c r="J204" s="9"/>
       <c r="K204" s="9"/>
       <c r="L204" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M204" s="9"/>
       <c r="N204" s="19"/>
@@ -17391,7 +17665,7 @@
       <c r="J205" s="9"/>
       <c r="K205" s="9"/>
       <c r="L205" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M205" s="9"/>
       <c r="N205" s="19"/>
@@ -17440,7 +17714,7 @@
       <c r="J206" s="9"/>
       <c r="K206" s="9"/>
       <c r="L206" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M206" s="9"/>
       <c r="N206" s="19"/>
@@ -17489,7 +17763,7 @@
       <c r="J207" s="9"/>
       <c r="K207" s="9"/>
       <c r="L207" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M207" s="9"/>
       <c r="N207" s="19"/>
@@ -17540,7 +17814,7 @@
       <c r="J208" s="9"/>
       <c r="K208" s="9"/>
       <c r="L208" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M208" s="9"/>
       <c r="N208" s="19"/>
@@ -17589,7 +17863,7 @@
       <c r="J209" s="9"/>
       <c r="K209" s="9"/>
       <c r="L209" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M209" s="9"/>
       <c r="N209" s="19"/>
@@ -17638,7 +17912,7 @@
       <c r="J210" s="9"/>
       <c r="K210" s="9"/>
       <c r="L210" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M210" s="9"/>
       <c r="N210" s="19"/>
@@ -17687,7 +17961,7 @@
       <c r="J211" s="9"/>
       <c r="K211" s="9"/>
       <c r="L211" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M211" s="9"/>
       <c r="N211" s="19"/>
@@ -17736,7 +18010,7 @@
       <c r="J212" s="9"/>
       <c r="K212" s="9"/>
       <c r="L212" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M212" s="9"/>
       <c r="N212" s="19"/>
@@ -17787,7 +18061,7 @@
       <c r="J213" s="9"/>
       <c r="K213" s="9"/>
       <c r="L213" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M213" s="9"/>
       <c r="N213" s="19"/>
@@ -17836,7 +18110,7 @@
       <c r="J214" s="9"/>
       <c r="K214" s="9"/>
       <c r="L214" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M214" s="9"/>
       <c r="N214" s="19"/>
@@ -17885,7 +18159,7 @@
       <c r="J215" s="9"/>
       <c r="K215" s="9"/>
       <c r="L215" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M215" s="9"/>
       <c r="N215" s="19"/>
@@ -17934,7 +18208,7 @@
       <c r="J216" s="9"/>
       <c r="K216" s="9"/>
       <c r="L216" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M216" s="9"/>
       <c r="N216" s="19"/>
@@ -17983,7 +18257,7 @@
       <c r="J217" s="9"/>
       <c r="K217" s="9"/>
       <c r="L217" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M217" s="9"/>
       <c r="N217" s="19"/>
@@ -18012,7 +18286,7 @@
       <c r="J218" s="9"/>
       <c r="K218" s="9"/>
       <c r="L218" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M218" s="9"/>
       <c r="N218" s="19"/>
@@ -18039,7 +18313,7 @@
       <c r="J219" s="9"/>
       <c r="K219" s="9"/>
       <c r="L219" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M219" s="9"/>
       <c r="N219" s="19"/>
@@ -18066,7 +18340,7 @@
       <c r="J220" s="9"/>
       <c r="K220" s="9"/>
       <c r="L220" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M220" s="9"/>
       <c r="N220" s="19"/>
@@ -18093,7 +18367,7 @@
       <c r="J221" s="9"/>
       <c r="K221" s="9"/>
       <c r="L221" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M221" s="9"/>
       <c r="N221" s="19"/>
@@ -18120,7 +18394,7 @@
       <c r="J222" s="9"/>
       <c r="K222" s="9"/>
       <c r="L222" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M222" s="9"/>
       <c r="N222" s="19"/>
@@ -18149,7 +18423,7 @@
       <c r="J223" s="9"/>
       <c r="K223" s="9"/>
       <c r="L223" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M223" s="9"/>
       <c r="N223" s="19"/>
@@ -18176,7 +18450,7 @@
       <c r="J224" s="9"/>
       <c r="K224" s="9"/>
       <c r="L224" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M224" s="9"/>
       <c r="N224" s="19"/>
@@ -18203,7 +18477,7 @@
       <c r="J225" s="9"/>
       <c r="K225" s="9"/>
       <c r="L225" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M225" s="9"/>
       <c r="N225" s="19"/>
@@ -18230,7 +18504,7 @@
       <c r="J226" s="9"/>
       <c r="K226" s="9"/>
       <c r="L226" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M226" s="9"/>
       <c r="N226" s="19"/>
@@ -18257,7 +18531,7 @@
       <c r="J227" s="9"/>
       <c r="K227" s="9"/>
       <c r="L227" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M227" s="9"/>
       <c r="N227" s="19"/>
@@ -18286,7 +18560,7 @@
       <c r="J228" s="9"/>
       <c r="K228" s="9"/>
       <c r="L228" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M228" s="9"/>
       <c r="N228" s="19"/>
@@ -18313,7 +18587,7 @@
       <c r="J229" s="9"/>
       <c r="K229" s="9"/>
       <c r="L229" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M229" s="9"/>
       <c r="N229" s="19"/>
@@ -18340,7 +18614,7 @@
       <c r="J230" s="9"/>
       <c r="K230" s="9"/>
       <c r="L230" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M230" s="9"/>
       <c r="N230" s="19"/>
@@ -18367,7 +18641,7 @@
       <c r="J231" s="9"/>
       <c r="K231" s="9"/>
       <c r="L231" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M231" s="9"/>
       <c r="N231" s="19"/>
@@ -18394,7 +18668,7 @@
       <c r="J232" s="9"/>
       <c r="K232" s="9"/>
       <c r="L232" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M232" s="9"/>
       <c r="N232" s="19"/>
@@ -18423,7 +18697,7 @@
       <c r="J233" s="9"/>
       <c r="K233" s="9"/>
       <c r="L233" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M233" s="9"/>
       <c r="N233" s="19"/>
@@ -18450,7 +18724,7 @@
       <c r="J234" s="9"/>
       <c r="K234" s="9"/>
       <c r="L234" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M234" s="9"/>
       <c r="N234" s="19"/>
@@ -18477,7 +18751,7 @@
       <c r="J235" s="9"/>
       <c r="K235" s="9"/>
       <c r="L235" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M235" s="9"/>
       <c r="N235" s="19"/>
@@ -18504,7 +18778,7 @@
       <c r="J236" s="9"/>
       <c r="K236" s="9"/>
       <c r="L236" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M236" s="9"/>
       <c r="N236" s="19"/>
@@ -18531,7 +18805,7 @@
       <c r="J237" s="9"/>
       <c r="K237" s="9"/>
       <c r="L237" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M237" s="9"/>
       <c r="N237" s="19"/>
@@ -18560,7 +18834,7 @@
       <c r="J238" s="9"/>
       <c r="K238" s="9"/>
       <c r="L238" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M238" s="9"/>
       <c r="N238" s="19"/>
@@ -18587,7 +18861,7 @@
       <c r="J239" s="9"/>
       <c r="K239" s="9"/>
       <c r="L239" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M239" s="9"/>
       <c r="N239" s="19"/>
@@ -18614,7 +18888,7 @@
       <c r="J240" s="9"/>
       <c r="K240" s="9"/>
       <c r="L240" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M240" s="9"/>
       <c r="N240" s="19"/>
@@ -18641,7 +18915,7 @@
       <c r="J241" s="9"/>
       <c r="K241" s="9"/>
       <c r="L241" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M241" s="9"/>
       <c r="N241" s="19"/>
@@ -18668,7 +18942,7 @@
       <c r="J242" s="9"/>
       <c r="K242" s="9"/>
       <c r="L242" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M242" s="9"/>
       <c r="N242" s="19"/>
@@ -18697,7 +18971,7 @@
       <c r="J243" s="9"/>
       <c r="K243" s="9"/>
       <c r="L243" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M243" s="9"/>
       <c r="N243" s="19"/>
@@ -18724,7 +18998,7 @@
       <c r="J244" s="9"/>
       <c r="K244" s="9"/>
       <c r="L244" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M244" s="9"/>
       <c r="N244" s="19"/>
@@ -18751,7 +19025,7 @@
       <c r="J245" s="9"/>
       <c r="K245" s="9"/>
       <c r="L245" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M245" s="9"/>
       <c r="N245" s="19"/>
@@ -18778,7 +19052,7 @@
       <c r="J246" s="9"/>
       <c r="K246" s="9"/>
       <c r="L246" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M246" s="9"/>
       <c r="N246" s="19"/>
@@ -18805,7 +19079,7 @@
       <c r="J247" s="9"/>
       <c r="K247" s="9"/>
       <c r="L247" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M247" s="9"/>
       <c r="N247" s="19"/>
@@ -18834,7 +19108,7 @@
       <c r="J248" s="9"/>
       <c r="K248" s="9"/>
       <c r="L248" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M248" s="9"/>
       <c r="N248" s="19"/>
@@ -18861,7 +19135,7 @@
       <c r="J249" s="9"/>
       <c r="K249" s="9"/>
       <c r="L249" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M249" s="9"/>
       <c r="N249" s="19"/>
@@ -18888,7 +19162,7 @@
       <c r="J250" s="9"/>
       <c r="K250" s="9"/>
       <c r="L250" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M250" s="9"/>
       <c r="N250" s="19"/>
@@ -18915,7 +19189,7 @@
       <c r="J251" s="9"/>
       <c r="K251" s="9"/>
       <c r="L251" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M251" s="9"/>
       <c r="N251" s="19"/>
@@ -18942,7 +19216,7 @@
       <c r="J252" s="9"/>
       <c r="K252" s="9"/>
       <c r="L252" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M252" s="9"/>
       <c r="N252" s="19"/>
@@ -18971,7 +19245,7 @@
       <c r="J253" s="9"/>
       <c r="K253" s="9"/>
       <c r="L253" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M253" s="9"/>
       <c r="N253" s="19"/>
@@ -18998,7 +19272,7 @@
       <c r="J254" s="9"/>
       <c r="K254" s="9"/>
       <c r="L254" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M254" s="9"/>
       <c r="N254" s="19"/>
@@ -19025,7 +19299,7 @@
       <c r="J255" s="9"/>
       <c r="K255" s="9"/>
       <c r="L255" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M255" s="9"/>
       <c r="N255" s="19"/>
@@ -19052,7 +19326,7 @@
       <c r="J256" s="9"/>
       <c r="K256" s="9"/>
       <c r="L256" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M256" s="9"/>
       <c r="N256" s="19"/>
@@ -19079,7 +19353,7 @@
       <c r="J257" s="9"/>
       <c r="K257" s="9"/>
       <c r="L257" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M257" s="9"/>
       <c r="N257" s="19"/>
@@ -19108,7 +19382,7 @@
       <c r="J258" s="9"/>
       <c r="K258" s="9"/>
       <c r="L258" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M258" s="9"/>
       <c r="N258" s="19"/>
@@ -19135,7 +19409,7 @@
       <c r="J259" s="9"/>
       <c r="K259" s="9"/>
       <c r="L259" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M259" s="9"/>
       <c r="N259" s="19"/>
@@ -19162,7 +19436,7 @@
       <c r="J260" s="9"/>
       <c r="K260" s="9"/>
       <c r="L260" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M260" s="9"/>
       <c r="N260" s="19"/>
@@ -19189,7 +19463,7 @@
       <c r="J261" s="9"/>
       <c r="K261" s="9"/>
       <c r="L261" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M261" s="9"/>
       <c r="N261" s="19"/>
@@ -19216,7 +19490,7 @@
       <c r="J262" s="9"/>
       <c r="K262" s="9"/>
       <c r="L262" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M262" s="9"/>
       <c r="N262" s="19"/>
@@ -19245,7 +19519,7 @@
       <c r="J263" s="9"/>
       <c r="K263" s="9"/>
       <c r="L263" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M263" s="9"/>
       <c r="N263" s="19"/>
@@ -19272,7 +19546,7 @@
       <c r="J264" s="9"/>
       <c r="K264" s="9"/>
       <c r="L264" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M264" s="9"/>
       <c r="N264" s="19"/>
@@ -19299,7 +19573,7 @@
       <c r="J265" s="9"/>
       <c r="K265" s="9"/>
       <c r="L265" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M265" s="9"/>
       <c r="N265" s="19"/>
@@ -19326,7 +19600,7 @@
       <c r="J266" s="9"/>
       <c r="K266" s="9"/>
       <c r="L266" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M266" s="9"/>
       <c r="N266" s="19"/>
@@ -19353,7 +19627,7 @@
       <c r="J267" s="9"/>
       <c r="K267" s="9"/>
       <c r="L267" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M267" s="9"/>
       <c r="N267" s="19"/>
@@ -19382,7 +19656,7 @@
       <c r="J268" s="9"/>
       <c r="K268" s="9"/>
       <c r="L268" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M268" s="9"/>
       <c r="N268" s="19"/>
@@ -19409,7 +19683,7 @@
       <c r="J269" s="9"/>
       <c r="K269" s="9"/>
       <c r="L269" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M269" s="9"/>
       <c r="N269" s="19"/>
@@ -19436,7 +19710,7 @@
       <c r="J270" s="9"/>
       <c r="K270" s="9"/>
       <c r="L270" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M270" s="9"/>
       <c r="N270" s="19"/>
@@ -19463,7 +19737,7 @@
       <c r="J271" s="9"/>
       <c r="K271" s="9"/>
       <c r="L271" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M271" s="9"/>
       <c r="N271" s="19"/>
@@ -19490,7 +19764,7 @@
       <c r="J272" s="9"/>
       <c r="K272" s="9"/>
       <c r="L272" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M272" s="9"/>
       <c r="N272" s="19"/>
@@ -19519,7 +19793,7 @@
       <c r="J273" s="9"/>
       <c r="K273" s="9"/>
       <c r="L273" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M273" s="9"/>
       <c r="N273" s="19"/>
@@ -19546,7 +19820,7 @@
       <c r="J274" s="9"/>
       <c r="K274" s="9"/>
       <c r="L274" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M274" s="9"/>
       <c r="N274" s="19"/>
@@ -19573,7 +19847,7 @@
       <c r="J275" s="9"/>
       <c r="K275" s="9"/>
       <c r="L275" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M275" s="9"/>
       <c r="N275" s="19"/>
@@ -19600,7 +19874,7 @@
       <c r="J276" s="9"/>
       <c r="K276" s="9"/>
       <c r="L276" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M276" s="9"/>
       <c r="N276" s="19"/>
@@ -19627,7 +19901,7 @@
       <c r="J277" s="9"/>
       <c r="K277" s="9"/>
       <c r="L277" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M277" s="9"/>
       <c r="N277" s="19"/>
@@ -19656,7 +19930,7 @@
       <c r="J278" s="9"/>
       <c r="K278" s="9"/>
       <c r="L278" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M278" s="9"/>
       <c r="N278" s="19"/>
@@ -19683,7 +19957,7 @@
       <c r="J279" s="9"/>
       <c r="K279" s="9"/>
       <c r="L279" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M279" s="9"/>
       <c r="N279" s="19"/>
@@ -19710,7 +19984,7 @@
       <c r="J280" s="9"/>
       <c r="K280" s="9"/>
       <c r="L280" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M280" s="9"/>
       <c r="N280" s="19"/>
@@ -19737,7 +20011,7 @@
       <c r="J281" s="9"/>
       <c r="K281" s="9"/>
       <c r="L281" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M281" s="9"/>
       <c r="N281" s="19"/>
@@ -19764,7 +20038,7 @@
       <c r="J282" s="9"/>
       <c r="K282" s="9"/>
       <c r="L282" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M282" s="9"/>
       <c r="N282" s="19"/>
@@ -19793,7 +20067,7 @@
       <c r="J283" s="9"/>
       <c r="K283" s="9"/>
       <c r="L283" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M283" s="9"/>
       <c r="N283" s="19"/>
@@ -19820,7 +20094,7 @@
       <c r="J284" s="9"/>
       <c r="K284" s="9"/>
       <c r="L284" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M284" s="9"/>
       <c r="N284" s="19"/>
@@ -19847,7 +20121,7 @@
       <c r="J285" s="9"/>
       <c r="K285" s="9"/>
       <c r="L285" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M285" s="9"/>
       <c r="N285" s="19"/>
@@ -19874,7 +20148,7 @@
       <c r="J286" s="9"/>
       <c r="K286" s="9"/>
       <c r="L286" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M286" s="9"/>
       <c r="N286" s="19"/>
@@ -19901,7 +20175,7 @@
       <c r="J287" s="9"/>
       <c r="K287" s="9"/>
       <c r="L287" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M287" s="9"/>
       <c r="N287" s="19"/>
@@ -19930,7 +20204,7 @@
       <c r="J288" s="9"/>
       <c r="K288" s="9"/>
       <c r="L288" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M288" s="9"/>
       <c r="N288" s="19"/>
@@ -19957,7 +20231,7 @@
       <c r="J289" s="9"/>
       <c r="K289" s="9"/>
       <c r="L289" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M289" s="9"/>
       <c r="N289" s="19"/>
@@ -19984,7 +20258,7 @@
       <c r="J290" s="9"/>
       <c r="K290" s="9"/>
       <c r="L290" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M290" s="9"/>
       <c r="N290" s="19"/>
@@ -20011,7 +20285,7 @@
       <c r="J291" s="9"/>
       <c r="K291" s="9"/>
       <c r="L291" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M291" s="9"/>
       <c r="N291" s="19"/>
@@ -20038,7 +20312,7 @@
       <c r="J292" s="9"/>
       <c r="K292" s="9"/>
       <c r="L292" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M292" s="9"/>
       <c r="N292" s="19"/>
@@ -20067,7 +20341,7 @@
       <c r="J293" s="9"/>
       <c r="K293" s="9"/>
       <c r="L293" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M293" s="9"/>
       <c r="N293" s="19"/>
@@ -20094,7 +20368,7 @@
       <c r="J294" s="9"/>
       <c r="K294" s="9"/>
       <c r="L294" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M294" s="9"/>
       <c r="N294" s="19"/>
@@ -20121,7 +20395,7 @@
       <c r="J295" s="9"/>
       <c r="K295" s="9"/>
       <c r="L295" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M295" s="9"/>
       <c r="N295" s="19"/>
@@ -20148,7 +20422,7 @@
       <c r="J296" s="9"/>
       <c r="K296" s="9"/>
       <c r="L296" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M296" s="9"/>
       <c r="N296" s="19"/>
@@ -20175,7 +20449,7 @@
       <c r="J297" s="9"/>
       <c r="K297" s="9"/>
       <c r="L297" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M297" s="9"/>
       <c r="N297" s="19"/>
@@ -20204,7 +20478,7 @@
       <c r="J298" s="9"/>
       <c r="K298" s="9"/>
       <c r="L298" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M298" s="9"/>
       <c r="N298" s="19"/>
@@ -20231,7 +20505,7 @@
       <c r="J299" s="9"/>
       <c r="K299" s="9"/>
       <c r="L299" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M299" s="9"/>
       <c r="N299" s="19"/>
@@ -20258,7 +20532,7 @@
       <c r="J300" s="9"/>
       <c r="K300" s="9"/>
       <c r="L300" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M300" s="9"/>
       <c r="N300" s="19"/>
@@ -20285,7 +20559,7 @@
       <c r="J301" s="9"/>
       <c r="K301" s="9"/>
       <c r="L301" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M301" s="9"/>
       <c r="N301" s="19"/>
@@ -20312,7 +20586,7 @@
       <c r="J302" s="9"/>
       <c r="K302" s="9"/>
       <c r="L302" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M302" s="9"/>
       <c r="N302" s="19"/>
@@ -20341,7 +20615,7 @@
       <c r="J303" s="9"/>
       <c r="K303" s="9"/>
       <c r="L303" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M303" s="9"/>
       <c r="N303" s="19"/>
@@ -20368,7 +20642,7 @@
       <c r="J304" s="9"/>
       <c r="K304" s="9"/>
       <c r="L304" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M304" s="9"/>
       <c r="N304" s="19"/>
@@ -20395,7 +20669,7 @@
       <c r="J305" s="9"/>
       <c r="K305" s="9"/>
       <c r="L305" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M305" s="9"/>
       <c r="N305" s="19"/>
@@ -20422,7 +20696,7 @@
       <c r="J306" s="9"/>
       <c r="K306" s="9"/>
       <c r="L306" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M306" s="9"/>
       <c r="N306" s="19"/>
@@ -20449,7 +20723,7 @@
       <c r="J307" s="9"/>
       <c r="K307" s="9"/>
       <c r="L307" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M307" s="9"/>
       <c r="N307" s="19"/>
@@ -20478,7 +20752,7 @@
       <c r="J308" s="9"/>
       <c r="K308" s="9"/>
       <c r="L308" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M308" s="9"/>
       <c r="N308" s="19"/>
@@ -20505,7 +20779,7 @@
       <c r="J309" s="9"/>
       <c r="K309" s="9"/>
       <c r="L309" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M309" s="9"/>
       <c r="N309" s="19"/>
@@ -20532,7 +20806,7 @@
       <c r="J310" s="9"/>
       <c r="K310" s="9"/>
       <c r="L310" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M310" s="9"/>
       <c r="N310" s="19"/>
@@ -20559,7 +20833,7 @@
       <c r="J311" s="9"/>
       <c r="K311" s="9"/>
       <c r="L311" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M311" s="9"/>
       <c r="N311" s="19"/>
@@ -20586,7 +20860,7 @@
       <c r="J312" s="9"/>
       <c r="K312" s="9"/>
       <c r="L312" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M312" s="9"/>
       <c r="N312" s="19"/>
@@ -20615,7 +20889,7 @@
       <c r="J313" s="9"/>
       <c r="K313" s="9"/>
       <c r="L313" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M313" s="9"/>
       <c r="N313" s="19"/>
@@ -20642,7 +20916,7 @@
       <c r="J314" s="9"/>
       <c r="K314" s="9"/>
       <c r="L314" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M314" s="9"/>
       <c r="N314" s="19"/>
@@ -20669,7 +20943,7 @@
       <c r="J315" s="9"/>
       <c r="K315" s="9"/>
       <c r="L315" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M315" s="9"/>
       <c r="N315" s="19"/>
@@ -20696,7 +20970,7 @@
       <c r="J316" s="9"/>
       <c r="K316" s="9"/>
       <c r="L316" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M316" s="9"/>
       <c r="N316" s="19"/>
@@ -20723,7 +20997,7 @@
       <c r="J317" s="9"/>
       <c r="K317" s="9"/>
       <c r="L317" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M317" s="9"/>
       <c r="N317" s="19"/>
@@ -20752,7 +21026,7 @@
       <c r="J318" s="9"/>
       <c r="K318" s="9"/>
       <c r="L318" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M318" s="9"/>
       <c r="N318" s="19"/>
@@ -20779,7 +21053,7 @@
       <c r="J319" s="9"/>
       <c r="K319" s="9"/>
       <c r="L319" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M319" s="9"/>
       <c r="N319" s="19"/>
@@ -20806,7 +21080,7 @@
       <c r="J320" s="9"/>
       <c r="K320" s="9"/>
       <c r="L320" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M320" s="9"/>
       <c r="N320" s="19"/>
@@ -20833,7 +21107,7 @@
       <c r="J321" s="9"/>
       <c r="K321" s="9"/>
       <c r="L321" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M321" s="9"/>
       <c r="N321" s="19"/>
@@ -20860,7 +21134,7 @@
       <c r="J322" s="9"/>
       <c r="K322" s="9"/>
       <c r="L322" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M322" s="9"/>
       <c r="N322" s="19"/>
@@ -20889,7 +21163,7 @@
       <c r="J323" s="9"/>
       <c r="K323" s="9"/>
       <c r="L323" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M323" s="9"/>
       <c r="N323" s="19"/>
@@ -20916,7 +21190,7 @@
       <c r="J324" s="9"/>
       <c r="K324" s="9"/>
       <c r="L324" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M324" s="9"/>
       <c r="N324" s="19"/>
@@ -20943,7 +21217,7 @@
       <c r="J325" s="9"/>
       <c r="K325" s="9"/>
       <c r="L325" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M325" s="9"/>
       <c r="N325" s="19"/>
@@ -20970,7 +21244,7 @@
       <c r="J326" s="9"/>
       <c r="K326" s="9"/>
       <c r="L326" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M326" s="9"/>
       <c r="N326" s="19"/>
@@ -20997,7 +21271,7 @@
       <c r="J327" s="9"/>
       <c r="K327" s="9"/>
       <c r="L327" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M327" s="9"/>
       <c r="N327" s="19"/>
@@ -21026,7 +21300,7 @@
       <c r="J328" s="9"/>
       <c r="K328" s="9"/>
       <c r="L328" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M328" s="9"/>
       <c r="N328" s="19"/>
@@ -21053,7 +21327,7 @@
       <c r="J329" s="9"/>
       <c r="K329" s="9"/>
       <c r="L329" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M329" s="9"/>
       <c r="N329" s="19"/>
@@ -21080,7 +21354,7 @@
       <c r="J330" s="9"/>
       <c r="K330" s="9"/>
       <c r="L330" s="10" t="s">
-        <v>663</v>
+        <v>680</v>
       </c>
       <c r="M330" s="9"/>
       <c r="N330" s="19"/>
@@ -21122,16 +21396,16 @@
         <v>75</v>
       </c>
       <c r="E332" s="16" t="s">
-        <v>664</v>
+        <v>681</v>
       </c>
       <c r="F332" s="16" t="s">
-        <v>665</v>
+        <v>682</v>
       </c>
       <c r="G332" s="16" t="s">
-        <v>666</v>
+        <v>683</v>
       </c>
       <c r="H332" s="16" t="s">
-        <v>667</v>
+        <v>684</v>
       </c>
       <c r="J332" s="11">
         <v>15</v>
@@ -21154,16 +21428,16 @@
         <v>75</v>
       </c>
       <c r="E333" s="16" t="s">
-        <v>668</v>
+        <v>685</v>
       </c>
       <c r="F333" s="16" t="s">
-        <v>669</v>
+        <v>686</v>
       </c>
       <c r="G333" s="16" t="s">
-        <v>670</v>
+        <v>687</v>
       </c>
       <c r="H333" s="16" t="s">
-        <v>671</v>
+        <v>688</v>
       </c>
       <c r="J333" s="11">
         <v>20</v>
@@ -21231,30 +21505,30 @@
   <sheetData>
     <row r="1" spans="1:11" s="13" customFormat="1" ht="31.5" customHeight="1">
       <c r="A1" s="53" t="s">
-        <v>672</v>
+        <v>689</v>
       </c>
       <c r="B1" s="53"/>
       <c r="C1" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>673</v>
+        <v>690</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>674</v>
+        <v>691</v>
       </c>
       <c r="F1" s="54"/>
       <c r="G1" s="53" t="s">
-        <v>675</v>
+        <v>692</v>
       </c>
       <c r="H1" s="58" t="s">
-        <v>676</v>
+        <v>693</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>677</v>
+        <v>694</v>
       </c>
       <c r="J1" s="55" t="s">
-        <v>678</v>
+        <v>695</v>
       </c>
       <c r="K1" s="61">
         <f>SUM(H2:H85)</f>
@@ -21266,13 +21540,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>679</v>
+        <v>696</v>
       </c>
       <c r="D2" s="57" t="s">
-        <v>680</v>
+        <v>697</v>
       </c>
       <c r="G2" s="60" t="s">
-        <v>681</v>
+        <v>698</v>
       </c>
       <c r="H2" s="59">
         <v>30</v>
@@ -21283,13 +21557,13 @@
         <v>800</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>682</v>
+        <v>699</v>
       </c>
       <c r="D3" s="57" t="s">
-        <v>680</v>
+        <v>697</v>
       </c>
       <c r="F3" s="60" t="s">
-        <v>683</v>
+        <v>700</v>
       </c>
       <c r="G3" s="11">
         <v>50</v>
@@ -21299,7 +21573,7 @@
         <v>60.8</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>684</v>
+        <v>701</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -21310,7 +21584,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>685</v>
+        <v>702</v>
       </c>
       <c r="G5" s="11">
         <v>2500</v>
@@ -21319,7 +21593,7 @@
         <v>29.45</v>
       </c>
       <c r="I5" s="34" t="s">
-        <v>686</v>
+        <v>703</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -21327,20 +21601,20 @@
         <v>8</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>687</v>
+        <v>704</v>
       </c>
       <c r="F6" s="60" t="s">
-        <v>688</v>
+        <v>705</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>689</v>
+        <v>706</v>
       </c>
       <c r="H6" s="59">
         <f>8*3.76</f>
         <v>30.08</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>690</v>
+        <v>707</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -21348,7 +21622,7 @@
         <v>1000</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>691</v>
+        <v>708</v>
       </c>
       <c r="I7" s="34"/>
     </row>
@@ -21357,7 +21631,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>692</v>
+        <v>709</v>
       </c>
       <c r="I8" s="34"/>
     </row>
@@ -21366,16 +21640,16 @@
         <v>10</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>693</v>
+        <v>710</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>694</v>
+        <v>711</v>
       </c>
       <c r="H9" s="59">
         <v>2.25</v>
       </c>
       <c r="I9" s="34" t="s">
-        <v>695</v>
+        <v>712</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -21383,16 +21657,16 @@
         <v>4</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>696</v>
+        <v>713</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>697</v>
+        <v>714</v>
       </c>
       <c r="H10" s="59">
         <v>5.9</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>695</v>
+        <v>712</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -21400,7 +21674,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>698</v>
+        <v>715</v>
       </c>
       <c r="G11" s="11">
         <v>144</v>
@@ -21409,7 +21683,7 @@
         <v>26.85</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>699</v>
+        <v>716</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -21417,16 +21691,16 @@
         <v>10</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>700</v>
+        <v>717</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>701</v>
+        <v>718</v>
       </c>
       <c r="H12" s="59">
         <v>19.95</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>686</v>
+        <v>703</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -21434,7 +21708,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>702</v>
+        <v>719</v>
       </c>
       <c r="G13" s="62">
         <v>20000</v>
@@ -21443,7 +21717,7 @@
         <v>29.99</v>
       </c>
       <c r="I13" s="34" t="s">
-        <v>703</v>
+        <v>720</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -21451,7 +21725,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>704</v>
+        <v>721</v>
       </c>
       <c r="G14" s="11">
         <v>5000</v>
@@ -21460,7 +21734,7 @@
         <v>54.95</v>
       </c>
       <c r="I14" s="34" t="s">
-        <v>705</v>
+        <v>722</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -21468,7 +21742,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>706</v>
+        <v>723</v>
       </c>
       <c r="G15" s="11">
         <v>75</v>
@@ -21482,7 +21756,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>707</v>
+        <v>724</v>
       </c>
       <c r="G16" s="11">
         <v>100</v>
@@ -21496,7 +21770,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>708</v>
+        <v>725</v>
       </c>
       <c r="G17" s="11">
         <v>1000</v>
@@ -21510,10 +21784,10 @@
         <v>5</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>709</v>
+        <v>726</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>710</v>
+        <v>727</v>
       </c>
       <c r="H18" s="59">
         <v>15</v>
@@ -21524,13 +21798,13 @@
         <v>2</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>711</v>
+        <v>728</v>
       </c>
       <c r="E19" t="s">
         <v>238</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>712</v>
+        <v>729</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -21538,7 +21812,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>713</v>
+        <v>730</v>
       </c>
       <c r="G20" s="11">
         <v>1</v>
@@ -21552,7 +21826,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>714</v>
+        <v>731</v>
       </c>
       <c r="G21" s="11">
         <v>1200</v>
@@ -21566,10 +21840,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>715</v>
+        <v>732</v>
       </c>
       <c r="F22" s="60" t="s">
-        <v>716</v>
+        <v>733</v>
       </c>
       <c r="G22" s="11">
         <v>50</v>
@@ -21583,22 +21857,22 @@
         <v>1</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>717</v>
+        <v>734</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>718</v>
+        <v>735</v>
       </c>
       <c r="H23" s="59">
         <v>10.85</v>
       </c>
       <c r="I23" s="34" t="s">
-        <v>719</v>
+        <v>736</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="56"/>
       <c r="C24" s="16" t="s">
-        <v>720</v>
+        <v>737</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -21606,10 +21880,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>721</v>
+        <v>738</v>
       </c>
       <c r="F25" s="60" t="s">
-        <v>722</v>
+        <v>739</v>
       </c>
       <c r="G25" s="11">
         <v>50</v>
@@ -21621,7 +21895,7 @@
     <row r="26" spans="1:9">
       <c r="A26" s="56"/>
       <c r="C26" s="16" t="s">
-        <v>723</v>
+        <v>740</v>
       </c>
       <c r="E26" t="s">
         <v>359</v>
@@ -21648,7 +21922,7 @@
         <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>724</v>
+        <v>741</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -21663,21 +21937,21 @@
         <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>724</v>
+        <v>741</v>
       </c>
       <c r="E31" t="s">
-        <v>725</v>
+        <v>742</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="56" t="s">
-        <v>726</v>
+        <v>743</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>40</v>
       </c>
       <c r="F32" s="60" t="s">
-        <v>722</v>
+        <v>739</v>
       </c>
       <c r="G32" s="11">
         <v>1</v>
@@ -21694,7 +21968,7 @@
         <v>151</v>
       </c>
       <c r="F33" s="60" t="s">
-        <v>722</v>
+        <v>739</v>
       </c>
       <c r="G33" s="11">
         <v>1</v>
@@ -21708,10 +21982,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>727</v>
+        <v>744</v>
       </c>
       <c r="F34" s="60" t="s">
-        <v>722</v>
+        <v>739</v>
       </c>
       <c r="G34" s="11">
         <v>1</v>
@@ -21725,10 +21999,10 @@
         <v>2</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>728</v>
+        <v>745</v>
       </c>
       <c r="F35" s="60" t="s">
-        <v>722</v>
+        <v>739</v>
       </c>
       <c r="G35" s="11">
         <v>1</v>
@@ -21742,10 +22016,10 @@
         <v>2</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>729</v>
+        <v>746</v>
       </c>
       <c r="F36" s="60" t="s">
-        <v>722</v>
+        <v>739</v>
       </c>
       <c r="G36" s="11">
         <v>72</v>
@@ -21759,10 +22033,10 @@
         <v>10</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>730</v>
+        <v>747</v>
       </c>
       <c r="F37" s="60" t="s">
-        <v>722</v>
+        <v>739</v>
       </c>
       <c r="G37" s="11">
         <v>10</v>
@@ -21780,16 +22054,16 @@
         <v>100</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>731</v>
+        <v>748</v>
       </c>
       <c r="D39" t="s">
-        <v>724</v>
+        <v>741</v>
       </c>
       <c r="E39" t="s">
-        <v>732</v>
+        <v>749</v>
       </c>
       <c r="F39" s="60" t="s">
-        <v>722</v>
+        <v>739</v>
       </c>
       <c r="G39" s="11">
         <v>1</v>
@@ -21804,10 +22078,10 @@
         <v>5</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>733</v>
+        <v>750</v>
       </c>
       <c r="F41" s="60" t="s">
-        <v>722</v>
+        <v>739</v>
       </c>
       <c r="G41" s="11">
         <v>1</v>
@@ -21819,7 +22093,7 @@
     <row r="42" spans="1:8">
       <c r="A42" s="56"/>
       <c r="C42" s="16" t="s">
-        <v>734</v>
+        <v>751</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -21830,7 +22104,7 @@
         <v>21</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>735</v>
+        <v>752</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -21841,7 +22115,7 @@
         <v>21</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>736</v>
+        <v>753</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -21852,7 +22126,7 @@
         <v>197</v>
       </c>
       <c r="F45" s="60" t="s">
-        <v>722</v>
+        <v>739</v>
       </c>
       <c r="G45" s="11">
         <v>10</v>
@@ -21864,13 +22138,13 @@
     <row r="46" spans="1:8">
       <c r="A46" s="16"/>
       <c r="C46" s="16" t="s">
-        <v>737</v>
+        <v>754</v>
       </c>
       <c r="D46" t="s">
-        <v>724</v>
+        <v>741</v>
       </c>
       <c r="E46" t="s">
-        <v>738</v>
+        <v>755</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -21879,23 +22153,23 @@
         <v>490</v>
       </c>
       <c r="D47" t="s">
-        <v>724</v>
+        <v>741</v>
       </c>
       <c r="E47" t="s">
-        <v>738</v>
+        <v>755</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="C48" s="16" t="s">
-        <v>739</v>
+        <v>756</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="C49" s="16" t="s">
-        <v>740</v>
+        <v>757</v>
       </c>
       <c r="D49" t="s">
-        <v>724</v>
+        <v>741</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -21903,10 +22177,10 @@
         <v>3</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>741</v>
+        <v>758</v>
       </c>
       <c r="F50" s="60" t="s">
-        <v>722</v>
+        <v>739</v>
       </c>
       <c r="G50" s="11">
         <v>3</v>
@@ -21917,15 +22191,15 @@
     </row>
     <row r="51" spans="1:8">
       <c r="C51" s="16" t="s">
-        <v>742</v>
+        <v>759</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="C52" s="16" t="s">
-        <v>743</v>
+        <v>760</v>
       </c>
       <c r="D52" t="s">
-        <v>724</v>
+        <v>741</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -21933,10 +22207,10 @@
         <v>10</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>744</v>
+        <v>761</v>
       </c>
       <c r="F53" s="60" t="s">
-        <v>716</v>
+        <v>733</v>
       </c>
       <c r="G53" s="11">
         <v>500</v>
@@ -21947,7 +22221,7 @@
     </row>
     <row r="54" spans="1:8">
       <c r="C54" s="16" t="s">
-        <v>745</v>
+        <v>762</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -21955,10 +22229,10 @@
         <v>2</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>746</v>
+        <v>763</v>
       </c>
       <c r="F55" s="60" t="s">
-        <v>747</v>
+        <v>764</v>
       </c>
       <c r="G55" s="11">
         <v>150</v>
@@ -21972,10 +22246,10 @@
         <v>2</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>748</v>
+        <v>765</v>
       </c>
       <c r="F56" s="60" t="s">
-        <v>722</v>
+        <v>739</v>
       </c>
       <c r="G56" s="11">
         <v>50</v>
@@ -21989,10 +22263,10 @@
         <v>2</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>749</v>
+        <v>766</v>
       </c>
       <c r="F57" s="60" t="s">
-        <v>722</v>
+        <v>739</v>
       </c>
       <c r="G57" s="11">
         <v>120</v>
@@ -22009,7 +22283,7 @@
         <v>455</v>
       </c>
       <c r="F58" s="60" t="s">
-        <v>747</v>
+        <v>764</v>
       </c>
       <c r="G58" s="11">
         <v>50</v>
@@ -22026,10 +22300,10 @@
         <v>470</v>
       </c>
       <c r="E59" t="s">
-        <v>750</v>
+        <v>767</v>
       </c>
       <c r="F59" s="60" t="s">
-        <v>751</v>
+        <v>768</v>
       </c>
       <c r="G59" s="11">
         <v>1</v>
@@ -22040,10 +22314,10 @@
         <v>1</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>752</v>
+        <v>769</v>
       </c>
       <c r="F60" s="60" t="s">
-        <v>722</v>
+        <v>739</v>
       </c>
       <c r="G60" s="11">
         <v>300</v>
@@ -22057,13 +22331,13 @@
         <v>20</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>753</v>
+        <v>770</v>
       </c>
       <c r="E61" t="s">
-        <v>754</v>
+        <v>771</v>
       </c>
       <c r="F61" s="60" t="s">
-        <v>722</v>
+        <v>739</v>
       </c>
       <c r="G61" s="11">
         <v>1</v>
@@ -22074,13 +22348,13 @@
         <v>20</v>
       </c>
       <c r="C62" s="16" t="s">
+        <v>772</v>
+      </c>
+      <c r="D62" t="s">
+        <v>741</v>
+      </c>
+      <c r="E62" t="s">
         <v>755</v>
-      </c>
-      <c r="D62" t="s">
-        <v>724</v>
-      </c>
-      <c r="E62" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -22088,16 +22362,16 @@
         <v>50</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>756</v>
+        <v>773</v>
       </c>
       <c r="D63" t="s">
-        <v>724</v>
+        <v>741</v>
       </c>
       <c r="E63" t="s">
-        <v>750</v>
+        <v>767</v>
       </c>
       <c r="F63" s="60" t="s">
-        <v>722</v>
+        <v>739</v>
       </c>
       <c r="G63" s="11">
         <v>6</v>
@@ -22108,16 +22382,16 @@
         <v>2</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>757</v>
+        <v>774</v>
       </c>
       <c r="D64" t="s">
-        <v>724</v>
+        <v>741</v>
       </c>
       <c r="E64" t="s">
-        <v>750</v>
+        <v>767</v>
       </c>
       <c r="F64" s="60" t="s">
-        <v>758</v>
+        <v>775</v>
       </c>
       <c r="G64" s="11">
         <v>1</v>
@@ -22128,16 +22402,16 @@
         <v>2</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>759</v>
+        <v>776</v>
       </c>
       <c r="D65" t="s">
-        <v>724</v>
+        <v>741</v>
       </c>
       <c r="E65" t="s">
-        <v>750</v>
+        <v>767</v>
       </c>
       <c r="F65" s="60" t="s">
-        <v>758</v>
+        <v>775</v>
       </c>
       <c r="G65" s="11">
         <v>1</v>
@@ -22145,10 +22419,10 @@
     </row>
     <row r="66" spans="1:7">
       <c r="C66" s="16" t="s">
-        <v>760</v>
+        <v>777</v>
       </c>
       <c r="D66" t="s">
-        <v>724</v>
+        <v>741</v>
       </c>
       <c r="E66" t="s">
         <v>238</v>
@@ -22159,7 +22433,7 @@
         <v>595</v>
       </c>
       <c r="D67" t="s">
-        <v>724</v>
+        <v>741</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15.6">
@@ -22167,23 +22441,23 @@
         <v>600</v>
       </c>
       <c r="D68" t="s">
-        <v>724</v>
+        <v>741</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="C69" s="16" t="s">
-        <v>761</v>
+        <v>778</v>
       </c>
       <c r="D69" t="s">
-        <v>724</v>
+        <v>741</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="C70" s="16" t="s">
-        <v>762</v>
+        <v>779</v>
       </c>
       <c r="D70" t="s">
-        <v>724</v>
+        <v>741</v>
       </c>
       <c r="E70" t="s">
         <v>238</v>
@@ -22194,17 +22468,17 @@
         <v>2</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>763</v>
+        <v>780</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="C72" s="16" t="s">
-        <v>764</v>
+        <v>781</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="C73" s="16" t="s">
-        <v>765</v>
+        <v>782</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -22212,22 +22486,22 @@
         <v>2</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>766</v>
+        <v>783</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="C75" s="16" t="s">
-        <v>767</v>
+        <v>784</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="C76" s="16" t="s">
-        <v>768</v>
+        <v>785</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="C77" s="16" t="s">
-        <v>769</v>
+        <v>786</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -22235,7 +22509,7 @@
         <v>10</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>770</v>
+        <v>787</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -22243,7 +22517,7 @@
         <v>10</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>771</v>
+        <v>788</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -22251,7 +22525,7 @@
         <v>3</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>772</v>
+        <v>789</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -22259,12 +22533,12 @@
         <v>3</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>773</v>
+        <v>790</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="C82" s="16" t="s">
-        <v>774</v>
+        <v>791</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -22327,19 +22601,19 @@
   <sheetData>
     <row r="1" spans="1:6" s="13" customFormat="1" ht="31.5" customHeight="1">
       <c r="A1" s="53" t="s">
-        <v>672</v>
+        <v>689</v>
       </c>
       <c r="B1" s="68" t="s">
-        <v>775</v>
+        <v>792</v>
       </c>
       <c r="C1" s="68" t="s">
-        <v>776</v>
+        <v>793</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>777</v>
+        <v>794</v>
       </c>
       <c r="F1" s="53" t="s">
-        <v>778</v>
+        <v>795</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -22350,7 +22624,7 @@
         <v>302</v>
       </c>
       <c r="D2" t="s">
-        <v>779</v>
+        <v>796</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -22363,10 +22637,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="16" t="s">
-        <v>780</v>
+        <v>797</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>781</v>
+        <v>798</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -22374,23 +22648,23 @@
         <v>93</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>782</v>
+        <v>799</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="16" t="s">
-        <v>783</v>
+        <v>800</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>784</v>
+        <v>801</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="16" t="s">
-        <v>785</v>
+        <v>802</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>786</v>
+        <v>803</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -22398,7 +22672,7 @@
         <v>253</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>787</v>
+        <v>804</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -22406,7 +22680,7 @@
         <v>367</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>788</v>
+        <v>805</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -22414,7 +22688,7 @@
         <v>378</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>789</v>
+        <v>806</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -22449,7 +22723,7 @@
         <v>471</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>790</v>
+        <v>807</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -22457,7 +22731,7 @@
         <v>480</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>791</v>
+        <v>808</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>359</v>
@@ -22465,10 +22739,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="16" t="s">
-        <v>792</v>
+        <v>809</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>793</v>
+        <v>810</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>359</v>
@@ -22476,7 +22750,7 @@
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="16" t="s">
-        <v>794</v>
+        <v>811</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>12</v>
@@ -22501,7 +22775,7 @@
         <v>601</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>795</v>
+        <v>812</v>
       </c>
     </row>
     <row r="20" spans="2:6">
@@ -22509,7 +22783,7 @@
         <v>606</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>796</v>
+        <v>813</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>359</v>
@@ -22520,7 +22794,7 @@
         <v>509</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>797</v>
+        <v>814</v>
       </c>
     </row>
   </sheetData>
@@ -22531,10 +22805,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BC913D-6BF3-42BF-B694-1F0F95BDE69C}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M136"/>
+  <dimension ref="A1:M157"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="J128" workbookViewId="0">
+      <selection activeCell="A155" sqref="A155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -22564,7 +22838,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="107" t="s">
-        <v>798</v>
+        <v>815</v>
       </c>
       <c r="G1" s="107" t="s">
         <v>9</v>
@@ -22576,7 +22850,7 @@
         <v>10</v>
       </c>
       <c r="J1" s="107" t="s">
-        <v>799</v>
+        <v>816</v>
       </c>
       <c r="K1" s="108" t="s">
         <v>12</v>
@@ -28747,7 +29021,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="109" t="s">
-        <v>800</v>
+        <v>817</v>
       </c>
       <c r="C133" s="109" t="str">
         <f>Aufgabenkatalog!G133</f>
@@ -28834,7 +29108,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="135" spans="1:13" hidden="1">
+    <row r="135" spans="1:13">
       <c r="A135" s="109">
         <f>Aufgabenkatalog!A135</f>
         <v>134</v>
@@ -28881,13 +29155,14 @@
         <v>false</v>
       </c>
     </row>
-    <row r="136" spans="1:13" hidden="1">
+    <row r="136" spans="1:13">
       <c r="A136" s="109">
         <f>Aufgabenkatalog!A136</f>
         <v>135</v>
       </c>
-      <c r="B136" s="109" t="s">
-        <v>639</v>
+      <c r="B136" s="109" t="str">
+        <f>Aufgabenkatalog!E136</f>
+        <v>CaEx High Kicks Friday Slot 1</v>
       </c>
       <c r="C136" s="109" t="str">
         <f>Aufgabenkatalog!G136</f>
@@ -28921,6 +29196,930 @@
       </c>
       <c r="M136" s="109" t="str">
         <f>IF(Aufgabenkatalog!C136="Ja","true","false")</f>
+        <v>false</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
+      <c r="A137" s="109">
+        <f>Aufgabenkatalog!A137</f>
+        <v>136</v>
+      </c>
+      <c r="B137" s="109" t="str">
+        <f>Aufgabenkatalog!E137</f>
+        <v>Sportzelt</v>
+      </c>
+      <c r="C137" s="109" t="str">
+        <f>Aufgabenkatalog!G137</f>
+        <v>Sporttent</v>
+      </c>
+      <c r="D137" s="109" t="str">
+        <f>Aufgabenkatalog!F137</f>
+        <v>Besuche das Sportzelt, borge dir ein Ballspiel aus und spiele eine Runde mit CaEx aus einem anderen Unterlager</v>
+      </c>
+      <c r="E137" s="109" t="str">
+        <f>Aufgabenkatalog!H137</f>
+        <v>Visit the sports tent, borrow a ball game and play a round with CaEx from another Subcamp</v>
+      </c>
+      <c r="F137" s="109">
+        <v>0</v>
+      </c>
+      <c r="G137" s="109">
+        <f>Aufgabenkatalog!J137</f>
+        <v>20</v>
+      </c>
+      <c r="H137" s="109">
+        <f>Aufgabenkatalog!L137</f>
+        <v>1</v>
+      </c>
+      <c r="I137" s="109"/>
+      <c r="J137" s="109"/>
+      <c r="K137" s="109"/>
+      <c r="L137" s="109" t="str">
+        <f>Aufgabenkatalog!N137</f>
+        <v>-</v>
+      </c>
+      <c r="M137" s="109" t="str">
+        <f>IF(Aufgabenkatalog!C137="Ja","true","false")</f>
+        <v>true</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
+      <c r="A138" s="109">
+        <f>Aufgabenkatalog!A138</f>
+        <v>138</v>
+      </c>
+      <c r="B138" s="109" t="str">
+        <f>Aufgabenkatalog!E138</f>
+        <v>Mölkky</v>
+      </c>
+      <c r="C138" s="109" t="str">
+        <f>Aufgabenkatalog!G138</f>
+        <v>Mölkky</v>
+      </c>
+      <c r="D138" s="109" t="str">
+        <f>Aufgabenkatalog!F138</f>
+        <v>Bastle dir aus Baumaterial das Finnische Spiel Mölky und spiele eine Runde</v>
+      </c>
+      <c r="E138" s="109" t="str">
+        <f>Aufgabenkatalog!H138</f>
+        <v>Make the Finnish game Mölky out of building materials and play a round of Mölky.</v>
+      </c>
+      <c r="F138" s="109">
+        <v>0</v>
+      </c>
+      <c r="G138" s="109">
+        <f>Aufgabenkatalog!J138</f>
+        <v>60</v>
+      </c>
+      <c r="H138" s="109">
+        <f>Aufgabenkatalog!L138</f>
+        <v>2</v>
+      </c>
+      <c r="I138" s="109"/>
+      <c r="J138" s="109"/>
+      <c r="K138" s="109"/>
+      <c r="L138" s="109" t="str">
+        <f>Aufgabenkatalog!N138</f>
+        <v>-</v>
+      </c>
+      <c r="M138" s="109" t="str">
+        <f>IF(Aufgabenkatalog!C138="Ja","true","false")</f>
+        <v>false</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
+      <c r="A139" s="109">
+        <f>Aufgabenkatalog!A139</f>
+        <v>139</v>
+      </c>
+      <c r="B139" s="109" t="str">
+        <f>Aufgabenkatalog!E139</f>
+        <v>Recycling</v>
+      </c>
+      <c r="C139" s="109" t="str">
+        <f>Aufgabenkatalog!G139</f>
+        <v>Recycling</v>
+      </c>
+      <c r="D139" s="109" t="str">
+        <f>Aufgabenkatalog!F139</f>
+        <v>Sammle 10 Flaschen oder Milchpackerl Stöpsel und gib sie bei der Müllstation ab um am Sonntag zu beobachten wie ein Karabiner daraus gemacht wird</v>
+      </c>
+      <c r="E139" s="109" t="str">
+        <f>Aufgabenkatalog!H139</f>
+        <v>Collect 10 bottles or milk carton stoppers and hand them in at the waste station to watch them being made into a carabiner on Sunday.</v>
+      </c>
+      <c r="F139" s="109">
+        <v>0</v>
+      </c>
+      <c r="G139" s="109">
+        <f>Aufgabenkatalog!J139</f>
+        <v>30</v>
+      </c>
+      <c r="H139" s="109">
+        <f>Aufgabenkatalog!L139</f>
+        <v>1</v>
+      </c>
+      <c r="I139" s="109"/>
+      <c r="J139" s="109"/>
+      <c r="K139" s="109"/>
+      <c r="L139" s="109" t="str">
+        <f>Aufgabenkatalog!N139</f>
+        <v>-</v>
+      </c>
+      <c r="M139" s="109" t="str">
+        <f>IF(Aufgabenkatalog!C139="Ja","true","false")</f>
+        <v>true</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
+      <c r="A140" s="109">
+        <f>Aufgabenkatalog!A140</f>
+        <v>140</v>
+      </c>
+      <c r="B140" s="109" t="str">
+        <f>Aufgabenkatalog!E140</f>
+        <v>Theaterstück</v>
+      </c>
+      <c r="C140" s="109" t="str">
+        <f>Aufgabenkatalog!G140</f>
+        <v>Theatre play</v>
+      </c>
+      <c r="D140" s="109" t="str">
+        <f>Aufgabenkatalog!F140</f>
+        <v>Am Donnerstag findet um 11 Uhr am Together Hauptplatz ein Theaterstück statt , siehe es dir an und berichte wie es dir gefallen hat.</v>
+      </c>
+      <c r="E140" s="109" t="str">
+        <f>Aufgabenkatalog!H140</f>
+        <v>There will be a theatre play on Thursday at 11am at Together main square , check it out and report back how you liked it.</v>
+      </c>
+      <c r="F140" s="109">
+        <v>0</v>
+      </c>
+      <c r="G140" s="109">
+        <f>Aufgabenkatalog!J140</f>
+        <v>30</v>
+      </c>
+      <c r="H140" s="109">
+        <f>Aufgabenkatalog!L140</f>
+        <v>1</v>
+      </c>
+      <c r="I140" s="109"/>
+      <c r="J140" s="109"/>
+      <c r="K140" s="109"/>
+      <c r="L140" s="109" t="str">
+        <f>Aufgabenkatalog!N140</f>
+        <v>-</v>
+      </c>
+      <c r="M140" s="109" t="str">
+        <f>IF(Aufgabenkatalog!C140="Ja","true","false")</f>
+        <v>false</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
+      <c r="A141" s="109">
+        <f>Aufgabenkatalog!A141</f>
+        <v>141</v>
+      </c>
+      <c r="B141" s="109" t="str">
+        <f>Aufgabenkatalog!E141</f>
+        <v>Together Run</v>
+      </c>
+      <c r="C141" s="109" t="str">
+        <f>Aufgabenkatalog!G141</f>
+        <v>Together Run</v>
+      </c>
+      <c r="D141" s="109" t="str">
+        <f>Aufgabenkatalog!F141</f>
+        <v>Am Sonntag (13.8.2023) findet ein Together Run (5 km) rund um das Lagergelände statt. Nim in einer Staffel mit 4 weiteren CaEx im Nachbar Unterlager teil (Anmeldung Sprtzelt)</v>
+      </c>
+      <c r="E141" s="109" t="str">
+        <f>Aufgabenkatalog!H141</f>
+        <v>On Sunday (13.8.2023) there will be a Together Run (5 km) around the camp area. Take part in a team with 4 other CaEx in the neighbouring subcamp (registration in the sports tent).</v>
+      </c>
+      <c r="F141" s="109">
+        <v>0</v>
+      </c>
+      <c r="G141" s="109">
+        <f>Aufgabenkatalog!J141</f>
+        <v>60</v>
+      </c>
+      <c r="H141" s="109">
+        <f>Aufgabenkatalog!L141</f>
+        <v>2</v>
+      </c>
+      <c r="I141" s="109"/>
+      <c r="J141" s="109"/>
+      <c r="K141" s="109"/>
+      <c r="L141" s="109">
+        <f>Aufgabenkatalog!N141</f>
+        <v>0</v>
+      </c>
+      <c r="M141" s="109" t="str">
+        <f>IF(Aufgabenkatalog!C141="Ja","true","false")</f>
+        <v>true</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
+      <c r="A142" s="109">
+        <f>Aufgabenkatalog!A142</f>
+        <v>142</v>
+      </c>
+      <c r="B142" s="109" t="str">
+        <f>Aufgabenkatalog!E142</f>
+        <v>CaEx High Kicks Slot 1 Donnerstag</v>
+      </c>
+      <c r="C142" s="109" t="str">
+        <f>Aufgabenkatalog!G142</f>
+        <v>CaEx High Kicks Slot Thursday</v>
+      </c>
+      <c r="D142" s="109" t="str">
+        <f>Aufgabenkatalog!F142</f>
+        <v>Melde dich beim CaEx High Kicks an, Slots: 14:45 (Zipline) - Tickets gibt’s bei den Pieces</v>
+      </c>
+      <c r="E142" s="109" t="str">
+        <f>Aufgabenkatalog!H142</f>
+        <v>Sign up for CaEx High Kicks, slots: 14:45 (Zipline) - Tickets available at the Pieces</v>
+      </c>
+      <c r="F142" s="109">
+        <v>0</v>
+      </c>
+      <c r="G142" s="109">
+        <f>Aufgabenkatalog!J142</f>
+        <v>60</v>
+      </c>
+      <c r="H142" s="109">
+        <f>Aufgabenkatalog!L142</f>
+        <v>2</v>
+      </c>
+      <c r="I142" s="109"/>
+      <c r="J142" s="109"/>
+      <c r="K142" s="109"/>
+      <c r="L142" s="109" t="str">
+        <f>Aufgabenkatalog!N142</f>
+        <v>-</v>
+      </c>
+      <c r="M142" s="109" t="str">
+        <f>IF(Aufgabenkatalog!C142="Ja","true","false")</f>
+        <v>true</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
+      <c r="A143" s="109">
+        <f>Aufgabenkatalog!A143</f>
+        <v>143</v>
+      </c>
+      <c r="B143" s="109" t="str">
+        <f>Aufgabenkatalog!E143</f>
+        <v>CaEx High Kicks Slot 1 Donnerstag</v>
+      </c>
+      <c r="C143" s="109" t="str">
+        <f>Aufgabenkatalog!G143</f>
+        <v>CaEx High Kicks Slot Thursday</v>
+      </c>
+      <c r="D143" s="109" t="str">
+        <f>Aufgabenkatalog!F143</f>
+        <v>Melde dich beim CaEx High Kicks an, Slots: 15:15 (Zipline)  - Tickets gibt’s bei den Pieces</v>
+      </c>
+      <c r="E143" s="109" t="str">
+        <f>Aufgabenkatalog!H143</f>
+        <v>Sign up for CaEx High Kicks, Slots: 15:15 (Zipline) - Tickets available at the Pieces</v>
+      </c>
+      <c r="F143" s="109">
+        <v>0</v>
+      </c>
+      <c r="G143" s="109">
+        <f>Aufgabenkatalog!J143</f>
+        <v>60</v>
+      </c>
+      <c r="H143" s="109">
+        <f>Aufgabenkatalog!L143</f>
+        <v>2</v>
+      </c>
+      <c r="I143" s="109"/>
+      <c r="J143" s="109"/>
+      <c r="K143" s="109"/>
+      <c r="L143" s="109" t="str">
+        <f>Aufgabenkatalog!N143</f>
+        <v>-</v>
+      </c>
+      <c r="M143" s="109" t="str">
+        <f>IF(Aufgabenkatalog!C143="Ja","true","false")</f>
+        <v>true</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
+      <c r="A144" s="109">
+        <f>Aufgabenkatalog!A144</f>
+        <v>144</v>
+      </c>
+      <c r="B144" s="109" t="str">
+        <f>Aufgabenkatalog!E144</f>
+        <v>CaEx High Kicks Slot 1 Donnerstag</v>
+      </c>
+      <c r="C144" s="109" t="str">
+        <f>Aufgabenkatalog!G144</f>
+        <v>CaEx High Kicks Slot Thursday</v>
+      </c>
+      <c r="D144" s="109" t="str">
+        <f>Aufgabenkatalog!F144</f>
+        <v>Melde dich beim CaEx High Kicks an, Slots: 15:45 (Zipline)  - Tickets gibt’s bei den Pieces</v>
+      </c>
+      <c r="E144" s="109" t="str">
+        <f>Aufgabenkatalog!H144</f>
+        <v>Sign up for CaEx High Kicks, Slots: 15:45 (Zipline) - Tickets available at the Pieces</v>
+      </c>
+      <c r="F144" s="109">
+        <v>0</v>
+      </c>
+      <c r="G144" s="109">
+        <f>Aufgabenkatalog!J144</f>
+        <v>60</v>
+      </c>
+      <c r="H144" s="109">
+        <f>Aufgabenkatalog!L144</f>
+        <v>2</v>
+      </c>
+      <c r="I144" s="109"/>
+      <c r="J144" s="109"/>
+      <c r="K144" s="109"/>
+      <c r="L144" s="109" t="str">
+        <f>Aufgabenkatalog!N144</f>
+        <v>-</v>
+      </c>
+      <c r="M144" s="109" t="str">
+        <f>IF(Aufgabenkatalog!C144="Ja","true","false")</f>
+        <v>true</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
+      <c r="A145" s="109">
+        <f>Aufgabenkatalog!A145</f>
+        <v>145</v>
+      </c>
+      <c r="B145" s="109" t="str">
+        <f>Aufgabenkatalog!E145</f>
+        <v>CaEx High Kicks Slot 1 Donnerstag</v>
+      </c>
+      <c r="C145" s="109" t="str">
+        <f>Aufgabenkatalog!G145</f>
+        <v>CaEx High Kicks Slot Thursday</v>
+      </c>
+      <c r="D145" s="109" t="str">
+        <f>Aufgabenkatalog!F145</f>
+        <v>Melde dich beim CaEx High Kicks an, Slots: 16:15 (Zipline)  - Tickets gibt’s bei den Pieces</v>
+      </c>
+      <c r="E145" s="109" t="str">
+        <f>Aufgabenkatalog!H145</f>
+        <v>Sign up for CaEx High Kicks, Slots: 16:15 (Zipline) - Tickets available at the Pieces</v>
+      </c>
+      <c r="F145" s="109">
+        <v>0</v>
+      </c>
+      <c r="G145" s="109">
+        <f>Aufgabenkatalog!J145</f>
+        <v>60</v>
+      </c>
+      <c r="H145" s="109">
+        <f>Aufgabenkatalog!L145</f>
+        <v>2</v>
+      </c>
+      <c r="I145" s="109"/>
+      <c r="J145" s="109"/>
+      <c r="K145" s="109"/>
+      <c r="L145" s="109" t="str">
+        <f>Aufgabenkatalog!N145</f>
+        <v>-</v>
+      </c>
+      <c r="M145" s="109" t="str">
+        <f>IF(Aufgabenkatalog!C145="Ja","true","false")</f>
+        <v>true</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
+      <c r="A146" s="109">
+        <f>Aufgabenkatalog!A146</f>
+        <v>146</v>
+      </c>
+      <c r="B146" s="109" t="str">
+        <f>Aufgabenkatalog!E146</f>
+        <v>CaEx High Kicks Slot 1 Donnerstag</v>
+      </c>
+      <c r="C146" s="109" t="str">
+        <f>Aufgabenkatalog!G146</f>
+        <v>CaEx High Kicks Slot Thursday</v>
+      </c>
+      <c r="D146" s="109" t="str">
+        <f>Aufgabenkatalog!F146</f>
+        <v>Melde dich beim CaEx High Kicks an, Slots: 16:45 (Zipline)  - Tickets gibt’s bei den Pieces</v>
+      </c>
+      <c r="E146" s="109" t="str">
+        <f>Aufgabenkatalog!H146</f>
+        <v>Sign up for CaEx High Kicks, Slots: 16:45 (Zipline) - Tickets available at the Pieces</v>
+      </c>
+      <c r="F146" s="109">
+        <v>0</v>
+      </c>
+      <c r="G146" s="109">
+        <f>Aufgabenkatalog!J146</f>
+        <v>60</v>
+      </c>
+      <c r="H146" s="109">
+        <f>Aufgabenkatalog!L146</f>
+        <v>2</v>
+      </c>
+      <c r="I146" s="109"/>
+      <c r="J146" s="109"/>
+      <c r="K146" s="109"/>
+      <c r="L146" s="109" t="str">
+        <f>Aufgabenkatalog!N146</f>
+        <v>-</v>
+      </c>
+      <c r="M146" s="109" t="str">
+        <f>IF(Aufgabenkatalog!C146="Ja","true","false")</f>
+        <v>true</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
+      <c r="A147" s="109">
+        <f>Aufgabenkatalog!A147</f>
+        <v>147</v>
+      </c>
+      <c r="B147" s="109" t="str">
+        <f>Aufgabenkatalog!E147</f>
+        <v>CaEx High Kicks Slot 1 Donnerstag</v>
+      </c>
+      <c r="C147" s="109" t="str">
+        <f>Aufgabenkatalog!G147</f>
+        <v>CaEx High Kicks Slot Thursday</v>
+      </c>
+      <c r="D147" s="109" t="str">
+        <f>Aufgabenkatalog!F147</f>
+        <v>Melde dich beim CaEx High Kicks an, Slots: 17:15 (Zipline)  - Tickets gibt’s bei den Pieces</v>
+      </c>
+      <c r="E147" s="109" t="str">
+        <f>Aufgabenkatalog!H147</f>
+        <v>Sign up for CaEx High Kicks, Slots: 17:15 (Zipline) - Tickets available at the Pieces</v>
+      </c>
+      <c r="F147" s="109">
+        <v>0</v>
+      </c>
+      <c r="G147" s="109">
+        <f>Aufgabenkatalog!J147</f>
+        <v>60</v>
+      </c>
+      <c r="H147" s="109">
+        <f>Aufgabenkatalog!L147</f>
+        <v>2</v>
+      </c>
+      <c r="I147" s="109"/>
+      <c r="J147" s="109"/>
+      <c r="K147" s="109"/>
+      <c r="L147" s="109" t="str">
+        <f>Aufgabenkatalog!N147</f>
+        <v>-</v>
+      </c>
+      <c r="M147" s="109" t="str">
+        <f>IF(Aufgabenkatalog!C147="Ja","true","false")</f>
+        <v>true</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
+      <c r="A148" s="109">
+        <f>Aufgabenkatalog!A148</f>
+        <v>148</v>
+      </c>
+      <c r="B148" s="109" t="str">
+        <f>Aufgabenkatalog!E148</f>
+        <v>CaEx High Kicks Slot 1 Donnerstag</v>
+      </c>
+      <c r="C148" s="109" t="str">
+        <f>Aufgabenkatalog!G148</f>
+        <v>CaEx High Kicks Slot Thursday</v>
+      </c>
+      <c r="D148" s="109" t="str">
+        <f>Aufgabenkatalog!F148</f>
+        <v>Melde dich beim CaEx High Kicks an, Slots: 14:30 (KingX)  - Tickets gibt’s bei den Pieces</v>
+      </c>
+      <c r="E148" s="109" t="str">
+        <f>Aufgabenkatalog!H148</f>
+        <v>Sign up for CaEx High Kicks, Slots: 14:30 (KingX) - Tickets available at the Pieces</v>
+      </c>
+      <c r="F148" s="109">
+        <v>0</v>
+      </c>
+      <c r="G148" s="109">
+        <f>Aufgabenkatalog!J148</f>
+        <v>120</v>
+      </c>
+      <c r="H148" s="109">
+        <f>Aufgabenkatalog!L148</f>
+        <v>2</v>
+      </c>
+      <c r="I148" s="109"/>
+      <c r="J148" s="109"/>
+      <c r="K148" s="109"/>
+      <c r="L148" s="109" t="str">
+        <f>Aufgabenkatalog!N148</f>
+        <v>-</v>
+      </c>
+      <c r="M148" s="109" t="str">
+        <f>IF(Aufgabenkatalog!C148="Ja","true","false")</f>
+        <v>true</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
+      <c r="A149" s="109">
+        <f>Aufgabenkatalog!A149</f>
+        <v>149</v>
+      </c>
+      <c r="B149" s="109" t="str">
+        <f>Aufgabenkatalog!E149</f>
+        <v>CaEx High Kicks Slot 1 Donnerstag</v>
+      </c>
+      <c r="C149" s="109" t="str">
+        <f>Aufgabenkatalog!G149</f>
+        <v>CaEx High Kicks Slot Thursday</v>
+      </c>
+      <c r="D149" s="109" t="str">
+        <f>Aufgabenkatalog!F149</f>
+        <v>Melde dich beim CaEx High Kicks an, Slots: 16:00 (KingX)  - Tickets gibt’s bei den Pieces</v>
+      </c>
+      <c r="E149" s="109" t="str">
+        <f>Aufgabenkatalog!H149</f>
+        <v>Sign up for CaEx High Kicks, Slots: 16:00 (KingX) - Tickets available at the Pieces</v>
+      </c>
+      <c r="F149" s="109">
+        <v>0</v>
+      </c>
+      <c r="G149" s="109">
+        <f>Aufgabenkatalog!J149</f>
+        <v>120</v>
+      </c>
+      <c r="H149" s="109">
+        <f>Aufgabenkatalog!L149</f>
+        <v>2</v>
+      </c>
+      <c r="I149" s="109"/>
+      <c r="J149" s="109"/>
+      <c r="K149" s="109"/>
+      <c r="L149" s="109" t="str">
+        <f>Aufgabenkatalog!N149</f>
+        <v>-</v>
+      </c>
+      <c r="M149" s="109" t="str">
+        <f>IF(Aufgabenkatalog!C149="Ja","true","false")</f>
+        <v>true</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
+      <c r="A150" s="109">
+        <f>Aufgabenkatalog!A150</f>
+        <v>150</v>
+      </c>
+      <c r="B150" s="109" t="str">
+        <f>Aufgabenkatalog!E150</f>
+        <v>CaEx High Kicks Slot 1 Donnerstag</v>
+      </c>
+      <c r="C150" s="109" t="str">
+        <f>Aufgabenkatalog!G150</f>
+        <v>CaEx High Kicks Slot Thursday</v>
+      </c>
+      <c r="D150" s="109" t="str">
+        <f>Aufgabenkatalog!F150</f>
+        <v>Melde dich beim CaEx High Kicks an, Slots: 14:30 (KingX)  - Tickets gibt’s bei den Pieces</v>
+      </c>
+      <c r="E150" s="109" t="str">
+        <f>Aufgabenkatalog!H150</f>
+        <v>Sign up for CaEx High Kicks, Slots: 14:30 (KingX) - Tickets available at the Pieces</v>
+      </c>
+      <c r="F150" s="109">
+        <v>0</v>
+      </c>
+      <c r="G150" s="109">
+        <f>Aufgabenkatalog!J150</f>
+        <v>120</v>
+      </c>
+      <c r="H150" s="109">
+        <f>Aufgabenkatalog!L150</f>
+        <v>3</v>
+      </c>
+      <c r="I150" s="109"/>
+      <c r="J150" s="109"/>
+      <c r="K150" s="109"/>
+      <c r="L150" s="109">
+        <f>Aufgabenkatalog!N150</f>
+        <v>0</v>
+      </c>
+      <c r="M150" s="109" t="str">
+        <f>IF(Aufgabenkatalog!C150="Ja","true","false")</f>
+        <v>false</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
+      <c r="A151" s="109">
+        <f>Aufgabenkatalog!A151</f>
+        <v>151</v>
+      </c>
+      <c r="B151" s="109" t="str">
+        <f>Aufgabenkatalog!E151</f>
+        <v>CaEx High Kicks Slot 1 Freitag</v>
+      </c>
+      <c r="C151" s="109" t="str">
+        <f>Aufgabenkatalog!G151</f>
+        <v>CaEx High Kicks Slot Thursday</v>
+      </c>
+      <c r="D151" s="109" t="str">
+        <f>Aufgabenkatalog!F151</f>
+        <v>Melde dich beim CaEx High Kicks an, Slots: 16:00 (KingX)  - Tickets gibt’s bei den Pieces</v>
+      </c>
+      <c r="E151" s="109" t="str">
+        <f>Aufgabenkatalog!H151</f>
+        <v>Sign up for CaEx High Kicks, Slots: 14:30 (KingX) - Tickets available at the Pieces</v>
+      </c>
+      <c r="F151" s="109">
+        <v>0</v>
+      </c>
+      <c r="G151" s="109">
+        <f>Aufgabenkatalog!J151</f>
+        <v>120</v>
+      </c>
+      <c r="H151" s="109">
+        <f>Aufgabenkatalog!L151</f>
+        <v>3</v>
+      </c>
+      <c r="I151" s="109"/>
+      <c r="J151" s="109"/>
+      <c r="K151" s="109"/>
+      <c r="L151" s="109">
+        <f>Aufgabenkatalog!N151</f>
+        <v>0</v>
+      </c>
+      <c r="M151" s="109" t="str">
+        <f>IF(Aufgabenkatalog!C151="Ja","true","false")</f>
+        <v>false</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
+      <c r="A152" s="109">
+        <f>Aufgabenkatalog!A152</f>
+        <v>152</v>
+      </c>
+      <c r="B152" s="109" t="str">
+        <f>Aufgabenkatalog!E152</f>
+        <v>CaEx High Kicks Slot 1 Freitag</v>
+      </c>
+      <c r="C152" s="109" t="str">
+        <f>Aufgabenkatalog!G152</f>
+        <v>CaEx High Kicks Slot Thursday</v>
+      </c>
+      <c r="D152" s="109" t="str">
+        <f>Aufgabenkatalog!F152</f>
+        <v>Melde dich beim CaEx High Kicks an, Slots: 16:00 (KingX)  - Tickets gibt’s bei den Pieces</v>
+      </c>
+      <c r="E152" s="109" t="str">
+        <f>Aufgabenkatalog!H152</f>
+        <v>Sign up for CaEx High Kicks, Slots: 14:30 (KingX) - Tickets available at the Pieces</v>
+      </c>
+      <c r="F152" s="109">
+        <v>0</v>
+      </c>
+      <c r="G152" s="109">
+        <f>Aufgabenkatalog!J152</f>
+        <v>120</v>
+      </c>
+      <c r="H152" s="109">
+        <f>Aufgabenkatalog!L152</f>
+        <v>3</v>
+      </c>
+      <c r="I152" s="109"/>
+      <c r="J152" s="109"/>
+      <c r="K152" s="109"/>
+      <c r="L152" s="109">
+        <f>Aufgabenkatalog!N152</f>
+        <v>0</v>
+      </c>
+      <c r="M152" s="109" t="str">
+        <f>IF(Aufgabenkatalog!C152="Ja","true","false")</f>
+        <v>false</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
+      <c r="A153" s="109">
+        <f>Aufgabenkatalog!A153</f>
+        <v>153</v>
+      </c>
+      <c r="B153" s="109" t="str">
+        <f>Aufgabenkatalog!E153</f>
+        <v>CaEx High Kicks Slot 1 Samstag</v>
+      </c>
+      <c r="C153" s="109" t="str">
+        <f>Aufgabenkatalog!G153</f>
+        <v>CaEx High Kicks Slot Thursday</v>
+      </c>
+      <c r="D153" s="109" t="str">
+        <f>Aufgabenkatalog!F153</f>
+        <v>Melde dich beim CaEx High Kicks an, Slots: 16:00 (KingX)  - Tickets gibt’s bei den Pieces</v>
+      </c>
+      <c r="E153" s="109" t="str">
+        <f>Aufgabenkatalog!H153</f>
+        <v>Sign up for CaEx High Kicks, Slots: 14:30 (KingX) - Tickets available at the Pieces</v>
+      </c>
+      <c r="F153" s="109">
+        <v>0</v>
+      </c>
+      <c r="G153" s="109">
+        <f>Aufgabenkatalog!J153</f>
+        <v>120</v>
+      </c>
+      <c r="H153" s="109">
+        <f>Aufgabenkatalog!L153</f>
+        <v>3</v>
+      </c>
+      <c r="I153" s="109"/>
+      <c r="J153" s="109"/>
+      <c r="K153" s="109"/>
+      <c r="L153" s="109">
+        <f>Aufgabenkatalog!N153</f>
+        <v>0</v>
+      </c>
+      <c r="M153" s="109" t="str">
+        <f>IF(Aufgabenkatalog!C153="Ja","true","false")</f>
+        <v>false</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
+      <c r="A154" s="109">
+        <f>Aufgabenkatalog!A154</f>
+        <v>154</v>
+      </c>
+      <c r="B154" s="109" t="str">
+        <f>Aufgabenkatalog!E154</f>
+        <v>CaEx High Kicks Slot 1 Dienstag</v>
+      </c>
+      <c r="C154" s="109" t="str">
+        <f>Aufgabenkatalog!G154</f>
+        <v>CaEx High Kicks Slot Thursday</v>
+      </c>
+      <c r="D154" s="109" t="str">
+        <f>Aufgabenkatalog!F154</f>
+        <v>Melde dich beim CaEx High Kicks an, Slots: 14:30 (KingX)  - Tickets gibt’s bei den Pieces</v>
+      </c>
+      <c r="E154" s="109" t="str">
+        <f>Aufgabenkatalog!H154</f>
+        <v>Sign up for CaEx High Kicks, Slots: 14:30 (KingX) - Tickets available at the Pieces</v>
+      </c>
+      <c r="F154" s="109">
+        <v>0</v>
+      </c>
+      <c r="G154" s="109">
+        <f>Aufgabenkatalog!J154</f>
+        <v>120</v>
+      </c>
+      <c r="H154" s="109">
+        <f>Aufgabenkatalog!L154</f>
+        <v>3</v>
+      </c>
+      <c r="I154" s="109"/>
+      <c r="J154" s="109"/>
+      <c r="K154" s="109"/>
+      <c r="L154" s="109">
+        <f>Aufgabenkatalog!N154</f>
+        <v>0</v>
+      </c>
+      <c r="M154" s="109" t="str">
+        <f>IF(Aufgabenkatalog!C154="Ja","true","false")</f>
+        <v>false</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13">
+      <c r="A155" s="109">
+        <f>Aufgabenkatalog!A155</f>
+        <v>155</v>
+      </c>
+      <c r="B155" s="109" t="str">
+        <f>Aufgabenkatalog!E155</f>
+        <v>CaEx High Kicks Slot 1 Dienstag</v>
+      </c>
+      <c r="C155" s="109" t="str">
+        <f>Aufgabenkatalog!G155</f>
+        <v>CaEx High Kicks Slot Thursday</v>
+      </c>
+      <c r="D155" s="109" t="str">
+        <f>Aufgabenkatalog!F155</f>
+        <v>Melde dich beim CaEx High Kicks an, Slots: 16:00 (KingX)  - Tickets gibt’s bei den Pieces</v>
+      </c>
+      <c r="E155" s="109" t="str">
+        <f>Aufgabenkatalog!H155</f>
+        <v>Sign up for CaEx High Kicks, Slots: 16:00 (KingX) - Tickets available at the Pieces</v>
+      </c>
+      <c r="F155" s="109">
+        <v>0</v>
+      </c>
+      <c r="G155" s="109">
+        <f>Aufgabenkatalog!J155</f>
+        <v>120</v>
+      </c>
+      <c r="H155" s="109">
+        <f>Aufgabenkatalog!L155</f>
+        <v>3</v>
+      </c>
+      <c r="I155" s="109"/>
+      <c r="J155" s="109"/>
+      <c r="K155" s="109"/>
+      <c r="L155" s="109">
+        <f>Aufgabenkatalog!N155</f>
+        <v>0</v>
+      </c>
+      <c r="M155" s="109" t="str">
+        <f>IF(Aufgabenkatalog!C155="Ja","true","false")</f>
+        <v>false</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
+      <c r="A156" s="109">
+        <f>Aufgabenkatalog!A156</f>
+        <v>156</v>
+      </c>
+      <c r="B156" s="109" t="str">
+        <f>Aufgabenkatalog!E156</f>
+        <v>CaEx High Kicks Slot 1 Dienstag</v>
+      </c>
+      <c r="C156" s="109" t="str">
+        <f>Aufgabenkatalog!G156</f>
+        <v>CaEx High Kicks Slot Thursday</v>
+      </c>
+      <c r="D156" s="109" t="str">
+        <f>Aufgabenkatalog!F156</f>
+        <v>Melde dich beim CaEx High Kicks an, Slots: 14:45 (Zipline) - Tickets gibt’s bei den Pieces</v>
+      </c>
+      <c r="E156" s="109" t="str">
+        <f>Aufgabenkatalog!H156</f>
+        <v>Sign up for CaEx High Kicks, slots: 14:45 (Zipline) - Tickets available at the Pieces</v>
+      </c>
+      <c r="F156" s="109">
+        <v>0</v>
+      </c>
+      <c r="G156" s="109">
+        <f>Aufgabenkatalog!J156</f>
+        <v>60</v>
+      </c>
+      <c r="H156" s="109">
+        <f>Aufgabenkatalog!L156</f>
+        <v>2</v>
+      </c>
+      <c r="I156" s="109"/>
+      <c r="J156" s="109"/>
+      <c r="K156" s="109"/>
+      <c r="L156" s="109" t="str">
+        <f>Aufgabenkatalog!N156</f>
+        <v>-</v>
+      </c>
+      <c r="M156" s="109" t="str">
+        <f>IF(Aufgabenkatalog!C156="Ja","true","false")</f>
+        <v>false</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13">
+      <c r="A157" s="109">
+        <f>Aufgabenkatalog!A157</f>
+        <v>156</v>
+      </c>
+      <c r="B157" s="109" t="str">
+        <f>Aufgabenkatalog!E157</f>
+        <v>CaEx High Kicks Slot 1 Dienstag</v>
+      </c>
+      <c r="C157" s="109" t="str">
+        <f>Aufgabenkatalog!G157</f>
+        <v>CaEx High Kicks Slot Thursday</v>
+      </c>
+      <c r="D157" s="109" t="str">
+        <f>Aufgabenkatalog!F157</f>
+        <v>Melde dich beim CaEx High Kicks an, Slots: 15:15 (Zipline) - Tickets gibt’s bei den Pieces</v>
+      </c>
+      <c r="E157" s="109" t="str">
+        <f>Aufgabenkatalog!H157</f>
+        <v>Sign up for CaEx High Kicks, slots: 14:45 (Zipline) - Tickets available at the Pieces</v>
+      </c>
+      <c r="F157" s="109">
+        <v>0</v>
+      </c>
+      <c r="G157" s="109">
+        <f>Aufgabenkatalog!J157</f>
+        <v>60</v>
+      </c>
+      <c r="H157" s="109">
+        <f>Aufgabenkatalog!L157</f>
+        <v>2</v>
+      </c>
+      <c r="I157" s="109"/>
+      <c r="J157" s="109"/>
+      <c r="K157" s="109"/>
+      <c r="L157" s="109" t="str">
+        <f>Aufgabenkatalog!N157</f>
+        <v>-</v>
+      </c>
+      <c r="M157" s="109" t="str">
+        <f>IF(Aufgabenkatalog!C157="Ja","true","false")</f>
         <v>false</v>
       </c>
     </row>
@@ -28938,6 +30137,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="560b4f41-a4e7-4222-8b43-3e9fe5c92fe3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e71fd78-3e96-49c3-9420-53931bd42b51">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Link xmlns="1e71fd78-3e96-49c3-9420-53931bd42b51" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100DF62AD970F9A6B40AEC446DFC723E2E7" ma:contentTypeVersion="18" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="2ee5de522d8969a87915241833e169e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e71fd78-3e96-49c3-9420-53931bd42b51" xmlns:ns3="560b4f41-a4e7-4222-8b43-3e9fe5c92fe3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f0565dce9d753535fb46b0675310da8" ns2:_="" ns3:_="">
     <xsd:import namespace="1e71fd78-3e96-49c3-9420-53931bd42b51"/>
@@ -29194,7 +30405,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -29203,26 +30414,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="560b4f41-a4e7-4222-8b43-3e9fe5c92fe3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e71fd78-3e96-49c3-9420-53931bd42b51">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Link xmlns="1e71fd78-3e96-49c3-9420-53931bd42b51" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F68D982-58DF-4F63-BD9F-DE9DC568D661}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE651BA1-3BDA-4F8F-9625-2ABBB82D566C}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2E729D6-ECE4-41C6-ADAB-82A40A7030B2}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F68D982-58DF-4F63-BD9F-DE9DC568D661}"/>
 </file>
--- a/convert/together23_pieces_datenbank.xlsx
+++ b/convert/together23_pieces_datenbank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ooepp.sharepoint.com/sites/Landeslager2023/Freigegebene Dokumente/General/CaEx/Programm/Challenges/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7ED1F60-2D09-4DAC-9BFF-6A8B2EFFCF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8076BD1B-522C-4D2B-B88A-A13F921C1394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="27288" windowHeight="17544" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="export" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Aufgabenkatalog!$A$1:$O$333</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Aufgabenkatalog!$A$1:$O$332</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">export!$H$1:$H$136</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="828">
   <si>
     <t>id</t>
   </si>
@@ -2135,7 +2135,7 @@
     <t>On Sunday (13.8.2023) there will be a Together Run (5 km) around the camp area. Take part in a team with 4 other CaEx in the neighbouring subcamp (registration in the sports tent).</t>
   </si>
   <si>
-    <t>CaEx High Kicks Slot 1 Donnerstag</t>
+    <t>CaEx High Kicks  Donnerstag</t>
   </si>
   <si>
     <t>Melde dich beim CaEx High Kicks an, Slots: 14:45 (Zipline) - Tickets gibt’s bei den Pieces</t>
@@ -2189,19 +2189,49 @@
     <t>Sign up for CaEx High Kicks, Slots: 16:00 (KingX) - Tickets available at the Pieces</t>
   </si>
   <si>
+    <t>CaEx High Kicks  Freitag</t>
+  </si>
+  <si>
     <t>Nein</t>
   </si>
   <si>
-    <t>CaEx High Kicks Slot 1 Freitag</t>
-  </si>
-  <si>
-    <t>CaEx High Kicks Slot 1 Samstag</t>
-  </si>
-  <si>
-    <t>CaEx High Kicks Slot 1 Dienstag</t>
+    <t>Sign up for CaEx High Kicks, Slots: 16:00 (KingX) - tickets available at the Pieces</t>
+  </si>
+  <si>
+    <t>CaEx High Kicks  Samstag</t>
+  </si>
+  <si>
+    <t>CaEx High Kicks  Dienstag</t>
+  </si>
+  <si>
+    <t>Sign up for CaEx High Kicks, Slots: 14:45 (Zipline) - tickets available at the Pieces</t>
   </si>
   <si>
     <t>Melde dich beim CaEx High Kicks an, Slots: 15:15 (Zipline) - Tickets gibt’s bei den Pieces</t>
+  </si>
+  <si>
+    <t>Melde dich beim CaEx High Kicks an, Slots: 15:45 (Zipline) - Tickets gibt’s bei den Pieces</t>
+  </si>
+  <si>
+    <t>Melde dich beim CaEx High Kicks an, Slots: 16:15 (Zipline) - Tickets gibt’s bei den Pieces</t>
+  </si>
+  <si>
+    <t>Melde dich beim CaEx High Kicks an, Slots: 16:45 (Zipline) - Tickets gibt’s bei den Pieces</t>
+  </si>
+  <si>
+    <t>Melde dich beim CaEx High Kicks an, Slots: 17:15 (Zipline) - Tickets gibt’s bei den Pieces</t>
+  </si>
+  <si>
+    <t>Burg Spiele</t>
+  </si>
+  <si>
+    <t>Spiele ein Spiel in der Burg Camelot</t>
+  </si>
+  <si>
+    <t>Castle Game</t>
+  </si>
+  <si>
+    <t>Play a game in Camelot Castle</t>
   </si>
   <si>
     <t> </t>
@@ -2625,7 +2655,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
   </numFmts>
-  <fonts count="58">
+  <fonts count="57">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3000,11 +3030,6 @@
       <name val="Malgun Gothic"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Bahnschrift"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3075,7 +3100,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3379,10 +3404,6 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -3717,10 +3738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV333"/>
+  <dimension ref="A1:AV332"/>
   <sheetViews>
-    <sheetView topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="A141" sqref="A141"/>
+    <sheetView topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -13633,7 +13654,7 @@
         <v>238</v>
       </c>
       <c r="C135" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D135" s="17" t="s">
         <v>75</v>
@@ -13849,7 +13870,7 @@
         <v>238</v>
       </c>
       <c r="C138" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D138" s="17" t="s">
         <v>75</v>
@@ -14729,29 +14750,29 @@
       <c r="AU149" s="1"/>
       <c r="AV149" s="1"/>
     </row>
-    <row r="150" spans="1:48" ht="15">
+    <row r="150" spans="1:48" ht="15.6">
       <c r="A150">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B150" t="s">
         <v>238</v>
       </c>
       <c r="C150" t="s">
-        <v>675</v>
+        <v>15</v>
       </c>
       <c r="D150" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E150" s="35" t="s">
-        <v>657</v>
-      </c>
-      <c r="F150" s="35" t="s">
+      <c r="E150" s="14" t="s">
+        <v>675</v>
+      </c>
+      <c r="F150" s="14" t="s">
         <v>671</v>
       </c>
-      <c r="G150" s="35" t="s">
+      <c r="G150" s="14" t="s">
         <v>659</v>
       </c>
-      <c r="H150" s="35" t="s">
+      <c r="H150" s="14" t="s">
         <v>672</v>
       </c>
       <c r="I150" s="6" t="s">
@@ -14801,30 +14822,30 @@
       <c r="AU150" s="1"/>
       <c r="AV150" s="1"/>
     </row>
-    <row r="151" spans="1:48" ht="15">
+    <row r="151" spans="1:48" ht="15.6">
       <c r="A151">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B151" t="s">
         <v>238</v>
       </c>
       <c r="C151" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D151" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E151" s="35" t="s">
-        <v>676</v>
-      </c>
-      <c r="F151" s="35" t="s">
+      <c r="E151" s="14" t="s">
+        <v>675</v>
+      </c>
+      <c r="F151" s="14" t="s">
         <v>673</v>
       </c>
-      <c r="G151" s="35" t="s">
+      <c r="G151" s="14" t="s">
         <v>659</v>
       </c>
-      <c r="H151" s="35" t="s">
-        <v>672</v>
+      <c r="H151" s="14" t="s">
+        <v>677</v>
       </c>
       <c r="I151" s="6" t="s">
         <v>21</v>
@@ -14873,30 +14894,30 @@
       <c r="AU151" s="1"/>
       <c r="AV151" s="1"/>
     </row>
-    <row r="152" spans="1:48" ht="15">
+    <row r="152" spans="1:48" ht="15.6">
       <c r="A152">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B152" t="s">
         <v>238</v>
       </c>
       <c r="C152" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D152" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E152" s="35" t="s">
-        <v>676</v>
-      </c>
-      <c r="F152" s="35" t="s">
+      <c r="E152" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="F152" s="14" t="s">
         <v>673</v>
       </c>
-      <c r="G152" s="35" t="s">
+      <c r="G152" s="14" t="s">
         <v>659</v>
       </c>
-      <c r="H152" s="35" t="s">
-        <v>672</v>
+      <c r="H152" s="14" t="s">
+        <v>677</v>
       </c>
       <c r="I152" s="6" t="s">
         <v>21</v>
@@ -14945,29 +14966,29 @@
       <c r="AU152" s="1"/>
       <c r="AV152" s="1"/>
     </row>
-    <row r="153" spans="1:48" ht="15">
+    <row r="153" spans="1:48" ht="15.6">
       <c r="A153">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B153" t="s">
         <v>238</v>
       </c>
       <c r="C153" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D153" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E153" s="35" t="s">
-        <v>677</v>
-      </c>
-      <c r="F153" s="35" t="s">
-        <v>673</v>
-      </c>
-      <c r="G153" s="35" t="s">
+      <c r="E153" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="F153" s="14" t="s">
+        <v>671</v>
+      </c>
+      <c r="G153" s="14" t="s">
         <v>659</v>
       </c>
-      <c r="H153" s="35" t="s">
+      <c r="H153" s="14" t="s">
         <v>672</v>
       </c>
       <c r="I153" s="6" t="s">
@@ -15017,30 +15038,30 @@
       <c r="AU153" s="1"/>
       <c r="AV153" s="1"/>
     </row>
-    <row r="154" spans="1:48" ht="15">
+    <row r="154" spans="1:48" ht="15.6">
       <c r="A154">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B154" t="s">
         <v>238</v>
       </c>
       <c r="C154" t="s">
-        <v>675</v>
-      </c>
-      <c r="D154" s="121" t="s">
+        <v>676</v>
+      </c>
+      <c r="D154" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E154" s="35" t="s">
-        <v>678</v>
-      </c>
-      <c r="F154" s="35" t="s">
-        <v>671</v>
-      </c>
-      <c r="G154" s="35" t="s">
+      <c r="E154" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="F154" s="14" t="s">
+        <v>673</v>
+      </c>
+      <c r="G154" s="14" t="s">
         <v>659</v>
       </c>
-      <c r="H154" s="35" t="s">
-        <v>672</v>
+      <c r="H154" s="14" t="s">
+        <v>674</v>
       </c>
       <c r="I154" s="6" t="s">
         <v>21</v>
@@ -15073,59 +15094,61 @@
       <c r="AE154" s="3"/>
       <c r="AF154" s="3"/>
       <c r="AG154" s="3"/>
-      <c r="AH154" s="122"/>
-      <c r="AI154" s="122"/>
-      <c r="AJ154" s="122"/>
-      <c r="AK154" s="122"/>
-      <c r="AL154" s="122"/>
-      <c r="AM154" s="122"/>
-      <c r="AN154" s="122"/>
-      <c r="AO154" s="122"/>
-      <c r="AP154" s="122"/>
-      <c r="AQ154" s="122"/>
-      <c r="AR154" s="122"/>
-      <c r="AS154" s="122"/>
-      <c r="AT154" s="122"/>
-      <c r="AU154" s="122"/>
-      <c r="AV154" s="122"/>
-    </row>
-    <row r="155" spans="1:48" ht="15">
+      <c r="AH154" s="1"/>
+      <c r="AI154" s="1"/>
+      <c r="AJ154" s="1"/>
+      <c r="AK154" s="1"/>
+      <c r="AL154" s="1"/>
+      <c r="AM154" s="1"/>
+      <c r="AN154" s="1"/>
+      <c r="AO154" s="1"/>
+      <c r="AP154" s="1"/>
+      <c r="AQ154" s="1"/>
+      <c r="AR154" s="1"/>
+      <c r="AS154" s="1"/>
+      <c r="AT154" s="1"/>
+      <c r="AU154" s="1"/>
+      <c r="AV154" s="1"/>
+    </row>
+    <row r="155" spans="1:48" ht="15.6">
       <c r="A155">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B155" t="s">
         <v>238</v>
       </c>
       <c r="C155" t="s">
-        <v>675</v>
-      </c>
-      <c r="D155" s="121" t="s">
+        <v>676</v>
+      </c>
+      <c r="D155" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E155" s="35" t="s">
-        <v>678</v>
-      </c>
-      <c r="F155" s="35" t="s">
-        <v>673</v>
-      </c>
-      <c r="G155" s="35" t="s">
+      <c r="E155" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="F155" s="14" t="s">
+        <v>658</v>
+      </c>
+      <c r="G155" s="14" t="s">
         <v>659</v>
       </c>
-      <c r="H155" s="35" t="s">
-        <v>674</v>
+      <c r="H155" s="14" t="s">
+        <v>680</v>
       </c>
       <c r="I155" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J155" s="6">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K155" s="6"/>
       <c r="L155" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M155" s="6"/>
-      <c r="N155" s="18"/>
+      <c r="N155" s="120" t="s">
+        <v>23</v>
+      </c>
       <c r="O155" s="3"/>
       <c r="P155" s="3"/>
       <c r="Q155" s="3"/>
@@ -15145,46 +15168,46 @@
       <c r="AE155" s="3"/>
       <c r="AF155" s="3"/>
       <c r="AG155" s="3"/>
-      <c r="AH155" s="122"/>
-      <c r="AI155" s="122"/>
-      <c r="AJ155" s="122"/>
-      <c r="AK155" s="122"/>
-      <c r="AL155" s="122"/>
-      <c r="AM155" s="122"/>
-      <c r="AN155" s="122"/>
-      <c r="AO155" s="122"/>
-      <c r="AP155" s="122"/>
-      <c r="AQ155" s="122"/>
-      <c r="AR155" s="122"/>
-      <c r="AS155" s="122"/>
-      <c r="AT155" s="122"/>
-      <c r="AU155" s="122"/>
-      <c r="AV155" s="122"/>
-    </row>
-    <row r="156" spans="1:48" ht="15">
+      <c r="AH155" s="1"/>
+      <c r="AI155" s="1"/>
+      <c r="AJ155" s="1"/>
+      <c r="AK155" s="1"/>
+      <c r="AL155" s="1"/>
+      <c r="AM155" s="1"/>
+      <c r="AN155" s="1"/>
+      <c r="AO155" s="1"/>
+      <c r="AP155" s="1"/>
+      <c r="AQ155" s="1"/>
+      <c r="AR155" s="1"/>
+      <c r="AS155" s="1"/>
+      <c r="AT155" s="1"/>
+      <c r="AU155" s="1"/>
+      <c r="AV155" s="1"/>
+    </row>
+    <row r="156" spans="1:48" ht="15.6">
       <c r="A156">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B156" t="s">
         <v>238</v>
       </c>
       <c r="C156" t="s">
-        <v>675</v>
-      </c>
-      <c r="D156" s="121" t="s">
+        <v>676</v>
+      </c>
+      <c r="D156" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E156" s="35" t="s">
-        <v>678</v>
-      </c>
-      <c r="F156" s="35" t="s">
-        <v>658</v>
-      </c>
-      <c r="G156" s="35" t="s">
+      <c r="E156" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="F156" s="14" t="s">
+        <v>681</v>
+      </c>
+      <c r="G156" s="14" t="s">
         <v>659</v>
       </c>
-      <c r="H156" s="35" t="s">
-        <v>660</v>
+      <c r="H156" s="14" t="s">
+        <v>662</v>
       </c>
       <c r="I156" s="6" t="s">
         <v>21</v>
@@ -15197,7 +15220,7 @@
         <v>2</v>
       </c>
       <c r="M156" s="6"/>
-      <c r="N156" s="18" t="s">
+      <c r="N156" s="120" t="s">
         <v>23</v>
       </c>
       <c r="O156" s="3"/>
@@ -15219,46 +15242,46 @@
       <c r="AE156" s="3"/>
       <c r="AF156" s="3"/>
       <c r="AG156" s="3"/>
-      <c r="AH156" s="122"/>
-      <c r="AI156" s="122"/>
-      <c r="AJ156" s="122"/>
-      <c r="AK156" s="122"/>
-      <c r="AL156" s="122"/>
-      <c r="AM156" s="122"/>
-      <c r="AN156" s="122"/>
-      <c r="AO156" s="122"/>
-      <c r="AP156" s="122"/>
-      <c r="AQ156" s="122"/>
-      <c r="AR156" s="122"/>
-      <c r="AS156" s="122"/>
-      <c r="AT156" s="122"/>
-      <c r="AU156" s="122"/>
-      <c r="AV156" s="122"/>
-    </row>
-    <row r="157" spans="1:48" ht="15">
+      <c r="AH156" s="1"/>
+      <c r="AI156" s="1"/>
+      <c r="AJ156" s="1"/>
+      <c r="AK156" s="1"/>
+      <c r="AL156" s="1"/>
+      <c r="AM156" s="1"/>
+      <c r="AN156" s="1"/>
+      <c r="AO156" s="1"/>
+      <c r="AP156" s="1"/>
+      <c r="AQ156" s="1"/>
+      <c r="AR156" s="1"/>
+      <c r="AS156" s="1"/>
+      <c r="AT156" s="1"/>
+      <c r="AU156" s="1"/>
+      <c r="AV156" s="1"/>
+    </row>
+    <row r="157" spans="1:48" ht="15.6">
       <c r="A157">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B157" t="s">
         <v>238</v>
       </c>
       <c r="C157" t="s">
-        <v>675</v>
-      </c>
-      <c r="D157" s="121" t="s">
+        <v>676</v>
+      </c>
+      <c r="D157" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E157" s="35" t="s">
-        <v>678</v>
-      </c>
-      <c r="F157" s="35" t="s">
+      <c r="E157" s="14" t="s">
         <v>679</v>
       </c>
-      <c r="G157" s="35" t="s">
+      <c r="F157" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="G157" s="14" t="s">
         <v>659</v>
       </c>
-      <c r="H157" s="35" t="s">
-        <v>660</v>
+      <c r="H157" s="14" t="s">
+        <v>664</v>
       </c>
       <c r="I157" s="6" t="s">
         <v>21</v>
@@ -15271,7 +15294,7 @@
         <v>2</v>
       </c>
       <c r="M157" s="6"/>
-      <c r="N157" s="18" t="s">
+      <c r="N157" s="120" t="s">
         <v>23</v>
       </c>
       <c r="O157" s="3"/>
@@ -15293,46 +15316,46 @@
       <c r="AE157" s="3"/>
       <c r="AF157" s="3"/>
       <c r="AG157" s="3"/>
-      <c r="AH157" s="122"/>
-      <c r="AI157" s="122"/>
-      <c r="AJ157" s="122"/>
-      <c r="AK157" s="122"/>
-      <c r="AL157" s="122"/>
-      <c r="AM157" s="122"/>
-      <c r="AN157" s="122"/>
-      <c r="AO157" s="122"/>
-      <c r="AP157" s="122"/>
-      <c r="AQ157" s="122"/>
-      <c r="AR157" s="122"/>
-      <c r="AS157" s="122"/>
-      <c r="AT157" s="122"/>
-      <c r="AU157" s="122"/>
-      <c r="AV157" s="122"/>
-    </row>
-    <row r="158" spans="1:48" ht="15">
+      <c r="AH157" s="1"/>
+      <c r="AI157" s="1"/>
+      <c r="AJ157" s="1"/>
+      <c r="AK157" s="1"/>
+      <c r="AL157" s="1"/>
+      <c r="AM157" s="1"/>
+      <c r="AN157" s="1"/>
+      <c r="AO157" s="1"/>
+      <c r="AP157" s="1"/>
+      <c r="AQ157" s="1"/>
+      <c r="AR157" s="1"/>
+      <c r="AS157" s="1"/>
+      <c r="AT157" s="1"/>
+      <c r="AU157" s="1"/>
+      <c r="AV157" s="1"/>
+    </row>
+    <row r="158" spans="1:48" ht="15.6">
       <c r="A158">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B158" t="s">
         <v>238</v>
       </c>
       <c r="C158" t="s">
-        <v>675</v>
-      </c>
-      <c r="D158" s="121" t="s">
+        <v>676</v>
+      </c>
+      <c r="D158" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E158" s="35" t="s">
-        <v>678</v>
-      </c>
-      <c r="F158" s="35" t="s">
+      <c r="E158" s="14" t="s">
         <v>679</v>
       </c>
-      <c r="G158" s="35" t="s">
+      <c r="F158" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="G158" s="14" t="s">
         <v>659</v>
       </c>
-      <c r="H158" s="35" t="s">
-        <v>660</v>
+      <c r="H158" s="14" t="s">
+        <v>666</v>
       </c>
       <c r="I158" s="6" t="s">
         <v>21</v>
@@ -15345,7 +15368,7 @@
         <v>2</v>
       </c>
       <c r="M158" s="6"/>
-      <c r="N158" s="18" t="s">
+      <c r="N158" s="120" t="s">
         <v>23</v>
       </c>
       <c r="O158" s="3"/>
@@ -15367,36 +15390,61 @@
       <c r="AE158" s="3"/>
       <c r="AF158" s="3"/>
       <c r="AG158" s="3"/>
-      <c r="AH158" s="122"/>
-      <c r="AI158" s="122"/>
-      <c r="AJ158" s="122"/>
-      <c r="AK158" s="122"/>
-      <c r="AL158" s="122"/>
-      <c r="AM158" s="122"/>
-      <c r="AN158" s="122"/>
-      <c r="AO158" s="122"/>
-      <c r="AP158" s="122"/>
-      <c r="AQ158" s="122"/>
-      <c r="AR158" s="122"/>
-      <c r="AS158" s="122"/>
-      <c r="AT158" s="122"/>
-      <c r="AU158" s="122"/>
-      <c r="AV158" s="122"/>
+      <c r="AH158" s="1"/>
+      <c r="AI158" s="1"/>
+      <c r="AJ158" s="1"/>
+      <c r="AK158" s="1"/>
+      <c r="AL158" s="1"/>
+      <c r="AM158" s="1"/>
+      <c r="AN158" s="1"/>
+      <c r="AO158" s="1"/>
+      <c r="AP158" s="1"/>
+      <c r="AQ158" s="1"/>
+      <c r="AR158" s="1"/>
+      <c r="AS158" s="1"/>
+      <c r="AT158" s="1"/>
+      <c r="AU158" s="1"/>
+      <c r="AV158" s="1"/>
     </row>
     <row r="159" spans="1:48" ht="15.6">
-      <c r="D159" s="17"/>
-      <c r="E159" s="15"/>
-      <c r="F159" s="15"/>
-      <c r="G159" s="15"/>
-      <c r="H159" s="15"/>
-      <c r="I159" s="6"/>
-      <c r="J159" s="6"/>
+      <c r="A159">
+        <v>160</v>
+      </c>
+      <c r="B159" t="s">
+        <v>238</v>
+      </c>
+      <c r="C159" t="s">
+        <v>676</v>
+      </c>
+      <c r="D159" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E159" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="F159" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="G159" s="14" t="s">
+        <v>659</v>
+      </c>
+      <c r="H159" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="I159" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J159" s="6">
+        <v>60</v>
+      </c>
       <c r="K159" s="6"/>
-      <c r="L159" s="7" t="s">
-        <v>680</v>
+      <c r="L159" s="7">
+        <v>2</v>
       </c>
       <c r="M159" s="6"/>
-      <c r="N159" s="18"/>
+      <c r="N159" s="120" t="s">
+        <v>23</v>
+      </c>
       <c r="O159" s="3"/>
       <c r="P159" s="3"/>
       <c r="Q159" s="3"/>
@@ -15433,19 +15481,44 @@
       <c r="AV159" s="1"/>
     </row>
     <row r="160" spans="1:48" ht="15.6">
-      <c r="D160" s="17"/>
-      <c r="E160" s="15"/>
-      <c r="F160" s="15"/>
-      <c r="G160" s="15"/>
-      <c r="H160" s="15"/>
-      <c r="I160" s="6"/>
-      <c r="J160" s="6"/>
+      <c r="A160">
+        <v>161</v>
+      </c>
+      <c r="B160" t="s">
+        <v>238</v>
+      </c>
+      <c r="C160" t="s">
+        <v>676</v>
+      </c>
+      <c r="D160" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E160" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="F160" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="G160" s="14" t="s">
+        <v>659</v>
+      </c>
+      <c r="H160" s="14" t="s">
+        <v>670</v>
+      </c>
+      <c r="I160" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J160" s="6">
+        <v>60</v>
+      </c>
       <c r="K160" s="6"/>
-      <c r="L160" s="7" t="s">
-        <v>680</v>
+      <c r="L160" s="7">
+        <v>2</v>
       </c>
       <c r="M160" s="6"/>
-      <c r="N160" s="18"/>
+      <c r="N160" s="120" t="s">
+        <v>23</v>
+      </c>
       <c r="O160" s="3"/>
       <c r="P160" s="3"/>
       <c r="Q160" s="3"/>
@@ -15482,19 +15555,44 @@
       <c r="AV160" s="1"/>
     </row>
     <row r="161" spans="1:48" ht="15.6">
-      <c r="D161" s="17"/>
-      <c r="E161" s="15"/>
-      <c r="F161" s="15"/>
-      <c r="G161" s="15"/>
-      <c r="H161" s="15"/>
-      <c r="I161" s="6"/>
-      <c r="J161" s="6"/>
+      <c r="A161">
+        <v>162</v>
+      </c>
+      <c r="B161" t="s">
+        <v>238</v>
+      </c>
+      <c r="C161" t="s">
+        <v>15</v>
+      </c>
+      <c r="D161" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E161" s="14" t="s">
+        <v>686</v>
+      </c>
+      <c r="F161" s="14" t="s">
+        <v>687</v>
+      </c>
+      <c r="G161" s="14" t="s">
+        <v>688</v>
+      </c>
+      <c r="H161" s="14" t="s">
+        <v>689</v>
+      </c>
+      <c r="I161" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J161" s="6">
+        <v>30</v>
+      </c>
       <c r="K161" s="6"/>
-      <c r="L161" s="7" t="s">
-        <v>680</v>
+      <c r="L161" s="7">
+        <v>1</v>
       </c>
       <c r="M161" s="6"/>
-      <c r="N161" s="18"/>
+      <c r="N161" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="O161" s="3"/>
       <c r="P161" s="3"/>
       <c r="Q161" s="3"/>
@@ -15531,6 +15629,7 @@
       <c r="AV161" s="1"/>
     </row>
     <row r="162" spans="1:48" ht="15.6">
+      <c r="A162" s="51"/>
       <c r="D162" s="17"/>
       <c r="E162" s="15"/>
       <c r="F162" s="15"/>
@@ -15540,7 +15639,7 @@
       <c r="J162" s="6"/>
       <c r="K162" s="6"/>
       <c r="L162" s="7" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M162" s="6"/>
       <c r="N162" s="18"/>
@@ -15580,18 +15679,16 @@
       <c r="AV162" s="1"/>
     </row>
     <row r="163" spans="1:48" ht="15.6">
-      <c r="A163" s="51"/>
-      <c r="B163" s="51"/>
       <c r="D163" s="17"/>
       <c r="E163" s="15"/>
       <c r="F163" s="15"/>
       <c r="G163" s="15"/>
       <c r="H163" s="15"/>
-      <c r="I163" s="6"/>
+      <c r="I163" s="8"/>
       <c r="J163" s="6"/>
       <c r="K163" s="6"/>
       <c r="L163" s="7" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M163" s="6"/>
       <c r="N163" s="18"/>
@@ -15630,39 +15727,39 @@
       <c r="AU163" s="1"/>
       <c r="AV163" s="1"/>
     </row>
-    <row r="164" spans="1:48" ht="15.6">
+    <row r="164" spans="1:48">
       <c r="D164" s="17"/>
       <c r="E164" s="15"/>
       <c r="F164" s="15"/>
       <c r="G164" s="15"/>
       <c r="H164" s="15"/>
-      <c r="I164" s="8"/>
-      <c r="J164" s="6"/>
-      <c r="K164" s="6"/>
-      <c r="L164" s="7" t="s">
-        <v>680</v>
-      </c>
-      <c r="M164" s="6"/>
-      <c r="N164" s="18"/>
-      <c r="O164" s="3"/>
-      <c r="P164" s="3"/>
-      <c r="Q164" s="3"/>
-      <c r="R164" s="3"/>
-      <c r="S164" s="3"/>
-      <c r="T164" s="3"/>
-      <c r="U164" s="3"/>
-      <c r="V164" s="3"/>
-      <c r="W164" s="3"/>
-      <c r="X164" s="3"/>
-      <c r="Y164" s="3"/>
-      <c r="Z164" s="3"/>
-      <c r="AA164" s="3"/>
-      <c r="AB164" s="3"/>
-      <c r="AC164" s="3"/>
-      <c r="AD164" s="3"/>
-      <c r="AE164" s="3"/>
-      <c r="AF164" s="3"/>
-      <c r="AG164" s="3"/>
+      <c r="I164" s="9"/>
+      <c r="J164" s="9"/>
+      <c r="K164" s="9"/>
+      <c r="L164" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="M164" s="9"/>
+      <c r="N164" s="19"/>
+      <c r="O164" s="2"/>
+      <c r="P164" s="2"/>
+      <c r="Q164" s="2"/>
+      <c r="R164" s="2"/>
+      <c r="S164" s="2"/>
+      <c r="T164" s="2"/>
+      <c r="U164" s="2"/>
+      <c r="V164" s="2"/>
+      <c r="W164" s="2"/>
+      <c r="X164" s="2"/>
+      <c r="Y164" s="2"/>
+      <c r="Z164" s="2"/>
+      <c r="AA164" s="1"/>
+      <c r="AB164" s="1"/>
+      <c r="AC164" s="1"/>
+      <c r="AD164" s="1"/>
+      <c r="AE164" s="1"/>
+      <c r="AF164" s="1"/>
+      <c r="AG164" s="1"/>
       <c r="AH164" s="1"/>
       <c r="AI164" s="1"/>
       <c r="AJ164" s="1"/>
@@ -15689,7 +15786,7 @@
       <c r="J165" s="9"/>
       <c r="K165" s="9"/>
       <c r="L165" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M165" s="9"/>
       <c r="N165" s="19"/>
@@ -15738,7 +15835,7 @@
       <c r="J166" s="9"/>
       <c r="K166" s="9"/>
       <c r="L166" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M166" s="9"/>
       <c r="N166" s="19"/>
@@ -15778,6 +15875,8 @@
       <c r="AV166" s="1"/>
     </row>
     <row r="167" spans="1:48">
+      <c r="A167" s="51"/>
+      <c r="B167" s="51"/>
       <c r="D167" s="17"/>
       <c r="E167" s="15"/>
       <c r="F167" s="15"/>
@@ -15787,7 +15886,7 @@
       <c r="J167" s="9"/>
       <c r="K167" s="9"/>
       <c r="L167" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M167" s="9"/>
       <c r="N167" s="19"/>
@@ -15827,8 +15926,6 @@
       <c r="AV167" s="1"/>
     </row>
     <row r="168" spans="1:48">
-      <c r="A168" s="51"/>
-      <c r="B168" s="51"/>
       <c r="D168" s="17"/>
       <c r="E168" s="15"/>
       <c r="F168" s="15"/>
@@ -15838,7 +15935,7 @@
       <c r="J168" s="9"/>
       <c r="K168" s="9"/>
       <c r="L168" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M168" s="9"/>
       <c r="N168" s="19"/>
@@ -15887,7 +15984,7 @@
       <c r="J169" s="9"/>
       <c r="K169" s="9"/>
       <c r="L169" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M169" s="9"/>
       <c r="N169" s="19"/>
@@ -15936,7 +16033,7 @@
       <c r="J170" s="9"/>
       <c r="K170" s="9"/>
       <c r="L170" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M170" s="9"/>
       <c r="N170" s="19"/>
@@ -15985,7 +16082,7 @@
       <c r="J171" s="9"/>
       <c r="K171" s="9"/>
       <c r="L171" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M171" s="9"/>
       <c r="N171" s="19"/>
@@ -16025,6 +16122,8 @@
       <c r="AV171" s="1"/>
     </row>
     <row r="172" spans="1:48">
+      <c r="A172" s="51"/>
+      <c r="B172" s="51"/>
       <c r="D172" s="17"/>
       <c r="E172" s="15"/>
       <c r="F172" s="15"/>
@@ -16034,7 +16133,7 @@
       <c r="J172" s="9"/>
       <c r="K172" s="9"/>
       <c r="L172" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M172" s="9"/>
       <c r="N172" s="19"/>
@@ -16074,8 +16173,6 @@
       <c r="AV172" s="1"/>
     </row>
     <row r="173" spans="1:48">
-      <c r="A173" s="51"/>
-      <c r="B173" s="51"/>
       <c r="D173" s="17"/>
       <c r="E173" s="15"/>
       <c r="F173" s="15"/>
@@ -16085,7 +16182,7 @@
       <c r="J173" s="9"/>
       <c r="K173" s="9"/>
       <c r="L173" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M173" s="9"/>
       <c r="N173" s="19"/>
@@ -16134,7 +16231,7 @@
       <c r="J174" s="9"/>
       <c r="K174" s="9"/>
       <c r="L174" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M174" s="9"/>
       <c r="N174" s="19"/>
@@ -16183,7 +16280,7 @@
       <c r="J175" s="9"/>
       <c r="K175" s="9"/>
       <c r="L175" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M175" s="9"/>
       <c r="N175" s="19"/>
@@ -16232,7 +16329,7 @@
       <c r="J176" s="9"/>
       <c r="K176" s="9"/>
       <c r="L176" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M176" s="9"/>
       <c r="N176" s="19"/>
@@ -16272,6 +16369,8 @@
       <c r="AV176" s="1"/>
     </row>
     <row r="177" spans="1:48">
+      <c r="A177" s="51"/>
+      <c r="B177" s="51"/>
       <c r="D177" s="17"/>
       <c r="E177" s="15"/>
       <c r="F177" s="15"/>
@@ -16281,7 +16380,7 @@
       <c r="J177" s="9"/>
       <c r="K177" s="9"/>
       <c r="L177" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M177" s="9"/>
       <c r="N177" s="19"/>
@@ -16321,8 +16420,6 @@
       <c r="AV177" s="1"/>
     </row>
     <row r="178" spans="1:48">
-      <c r="A178" s="51"/>
-      <c r="B178" s="51"/>
       <c r="D178" s="17"/>
       <c r="E178" s="15"/>
       <c r="F178" s="15"/>
@@ -16332,7 +16429,7 @@
       <c r="J178" s="9"/>
       <c r="K178" s="9"/>
       <c r="L178" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M178" s="9"/>
       <c r="N178" s="19"/>
@@ -16381,7 +16478,7 @@
       <c r="J179" s="9"/>
       <c r="K179" s="9"/>
       <c r="L179" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M179" s="9"/>
       <c r="N179" s="19"/>
@@ -16430,7 +16527,7 @@
       <c r="J180" s="9"/>
       <c r="K180" s="9"/>
       <c r="L180" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M180" s="9"/>
       <c r="N180" s="19"/>
@@ -16479,7 +16576,7 @@
       <c r="J181" s="9"/>
       <c r="K181" s="9"/>
       <c r="L181" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M181" s="9"/>
       <c r="N181" s="19"/>
@@ -16519,6 +16616,8 @@
       <c r="AV181" s="1"/>
     </row>
     <row r="182" spans="1:48">
+      <c r="A182" s="51"/>
+      <c r="B182" s="51"/>
       <c r="D182" s="17"/>
       <c r="E182" s="15"/>
       <c r="F182" s="15"/>
@@ -16528,7 +16627,7 @@
       <c r="J182" s="9"/>
       <c r="K182" s="9"/>
       <c r="L182" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M182" s="9"/>
       <c r="N182" s="19"/>
@@ -16568,8 +16667,6 @@
       <c r="AV182" s="1"/>
     </row>
     <row r="183" spans="1:48">
-      <c r="A183" s="51"/>
-      <c r="B183" s="51"/>
       <c r="D183" s="17"/>
       <c r="E183" s="15"/>
       <c r="F183" s="15"/>
@@ -16579,7 +16676,7 @@
       <c r="J183" s="9"/>
       <c r="K183" s="9"/>
       <c r="L183" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M183" s="9"/>
       <c r="N183" s="19"/>
@@ -16628,7 +16725,7 @@
       <c r="J184" s="9"/>
       <c r="K184" s="9"/>
       <c r="L184" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M184" s="9"/>
       <c r="N184" s="19"/>
@@ -16677,7 +16774,7 @@
       <c r="J185" s="9"/>
       <c r="K185" s="9"/>
       <c r="L185" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M185" s="9"/>
       <c r="N185" s="19"/>
@@ -16726,7 +16823,7 @@
       <c r="J186" s="9"/>
       <c r="K186" s="9"/>
       <c r="L186" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M186" s="9"/>
       <c r="N186" s="19"/>
@@ -16766,6 +16863,8 @@
       <c r="AV186" s="1"/>
     </row>
     <row r="187" spans="1:48">
+      <c r="A187" s="51"/>
+      <c r="B187" s="51"/>
       <c r="D187" s="17"/>
       <c r="E187" s="15"/>
       <c r="F187" s="15"/>
@@ -16775,7 +16874,7 @@
       <c r="J187" s="9"/>
       <c r="K187" s="9"/>
       <c r="L187" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M187" s="9"/>
       <c r="N187" s="19"/>
@@ -16815,8 +16914,6 @@
       <c r="AV187" s="1"/>
     </row>
     <row r="188" spans="1:48">
-      <c r="A188" s="51"/>
-      <c r="B188" s="51"/>
       <c r="D188" s="17"/>
       <c r="E188" s="15"/>
       <c r="F188" s="15"/>
@@ -16826,7 +16923,7 @@
       <c r="J188" s="9"/>
       <c r="K188" s="9"/>
       <c r="L188" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M188" s="9"/>
       <c r="N188" s="19"/>
@@ -16875,7 +16972,7 @@
       <c r="J189" s="9"/>
       <c r="K189" s="9"/>
       <c r="L189" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M189" s="9"/>
       <c r="N189" s="19"/>
@@ -16924,7 +17021,7 @@
       <c r="J190" s="9"/>
       <c r="K190" s="9"/>
       <c r="L190" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M190" s="9"/>
       <c r="N190" s="19"/>
@@ -16973,7 +17070,7 @@
       <c r="J191" s="9"/>
       <c r="K191" s="9"/>
       <c r="L191" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M191" s="9"/>
       <c r="N191" s="19"/>
@@ -17013,6 +17110,8 @@
       <c r="AV191" s="1"/>
     </row>
     <row r="192" spans="1:48">
+      <c r="A192" s="51"/>
+      <c r="B192" s="51"/>
       <c r="D192" s="17"/>
       <c r="E192" s="15"/>
       <c r="F192" s="15"/>
@@ -17022,7 +17121,7 @@
       <c r="J192" s="9"/>
       <c r="K192" s="9"/>
       <c r="L192" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M192" s="9"/>
       <c r="N192" s="19"/>
@@ -17062,8 +17161,6 @@
       <c r="AV192" s="1"/>
     </row>
     <row r="193" spans="1:48">
-      <c r="A193" s="51"/>
-      <c r="B193" s="51"/>
       <c r="D193" s="17"/>
       <c r="E193" s="15"/>
       <c r="F193" s="15"/>
@@ -17073,7 +17170,7 @@
       <c r="J193" s="9"/>
       <c r="K193" s="9"/>
       <c r="L193" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M193" s="9"/>
       <c r="N193" s="19"/>
@@ -17122,7 +17219,7 @@
       <c r="J194" s="9"/>
       <c r="K194" s="9"/>
       <c r="L194" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M194" s="9"/>
       <c r="N194" s="19"/>
@@ -17171,7 +17268,7 @@
       <c r="J195" s="9"/>
       <c r="K195" s="9"/>
       <c r="L195" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M195" s="9"/>
       <c r="N195" s="19"/>
@@ -17220,7 +17317,7 @@
       <c r="J196" s="9"/>
       <c r="K196" s="9"/>
       <c r="L196" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M196" s="9"/>
       <c r="N196" s="19"/>
@@ -17260,6 +17357,8 @@
       <c r="AV196" s="1"/>
     </row>
     <row r="197" spans="1:48">
+      <c r="A197" s="51"/>
+      <c r="B197" s="51"/>
       <c r="D197" s="17"/>
       <c r="E197" s="15"/>
       <c r="F197" s="15"/>
@@ -17269,7 +17368,7 @@
       <c r="J197" s="9"/>
       <c r="K197" s="9"/>
       <c r="L197" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M197" s="9"/>
       <c r="N197" s="19"/>
@@ -17309,8 +17408,6 @@
       <c r="AV197" s="1"/>
     </row>
     <row r="198" spans="1:48">
-      <c r="A198" s="51"/>
-      <c r="B198" s="51"/>
       <c r="D198" s="17"/>
       <c r="E198" s="15"/>
       <c r="F198" s="15"/>
@@ -17320,7 +17417,7 @@
       <c r="J198" s="9"/>
       <c r="K198" s="9"/>
       <c r="L198" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M198" s="9"/>
       <c r="N198" s="19"/>
@@ -17369,7 +17466,7 @@
       <c r="J199" s="9"/>
       <c r="K199" s="9"/>
       <c r="L199" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M199" s="9"/>
       <c r="N199" s="19"/>
@@ -17418,7 +17515,7 @@
       <c r="J200" s="9"/>
       <c r="K200" s="9"/>
       <c r="L200" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M200" s="9"/>
       <c r="N200" s="19"/>
@@ -17467,7 +17564,7 @@
       <c r="J201" s="9"/>
       <c r="K201" s="9"/>
       <c r="L201" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M201" s="9"/>
       <c r="N201" s="19"/>
@@ -17507,6 +17604,8 @@
       <c r="AV201" s="1"/>
     </row>
     <row r="202" spans="1:48">
+      <c r="A202" s="51"/>
+      <c r="B202" s="51"/>
       <c r="D202" s="17"/>
       <c r="E202" s="15"/>
       <c r="F202" s="15"/>
@@ -17516,7 +17615,7 @@
       <c r="J202" s="9"/>
       <c r="K202" s="9"/>
       <c r="L202" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M202" s="9"/>
       <c r="N202" s="19"/>
@@ -17556,8 +17655,6 @@
       <c r="AV202" s="1"/>
     </row>
     <row r="203" spans="1:48">
-      <c r="A203" s="51"/>
-      <c r="B203" s="51"/>
       <c r="D203" s="17"/>
       <c r="E203" s="15"/>
       <c r="F203" s="15"/>
@@ -17567,7 +17664,7 @@
       <c r="J203" s="9"/>
       <c r="K203" s="9"/>
       <c r="L203" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M203" s="9"/>
       <c r="N203" s="19"/>
@@ -17616,7 +17713,7 @@
       <c r="J204" s="9"/>
       <c r="K204" s="9"/>
       <c r="L204" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M204" s="9"/>
       <c r="N204" s="19"/>
@@ -17665,7 +17762,7 @@
       <c r="J205" s="9"/>
       <c r="K205" s="9"/>
       <c r="L205" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M205" s="9"/>
       <c r="N205" s="19"/>
@@ -17714,7 +17811,7 @@
       <c r="J206" s="9"/>
       <c r="K206" s="9"/>
       <c r="L206" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M206" s="9"/>
       <c r="N206" s="19"/>
@@ -17754,6 +17851,8 @@
       <c r="AV206" s="1"/>
     </row>
     <row r="207" spans="1:48">
+      <c r="A207" s="51"/>
+      <c r="B207" s="51"/>
       <c r="D207" s="17"/>
       <c r="E207" s="15"/>
       <c r="F207" s="15"/>
@@ -17763,7 +17862,7 @@
       <c r="J207" s="9"/>
       <c r="K207" s="9"/>
       <c r="L207" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M207" s="9"/>
       <c r="N207" s="19"/>
@@ -17803,8 +17902,6 @@
       <c r="AV207" s="1"/>
     </row>
     <row r="208" spans="1:48">
-      <c r="A208" s="51"/>
-      <c r="B208" s="51"/>
       <c r="D208" s="17"/>
       <c r="E208" s="15"/>
       <c r="F208" s="15"/>
@@ -17814,7 +17911,7 @@
       <c r="J208" s="9"/>
       <c r="K208" s="9"/>
       <c r="L208" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M208" s="9"/>
       <c r="N208" s="19"/>
@@ -17863,7 +17960,7 @@
       <c r="J209" s="9"/>
       <c r="K209" s="9"/>
       <c r="L209" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M209" s="9"/>
       <c r="N209" s="19"/>
@@ -17912,7 +18009,7 @@
       <c r="J210" s="9"/>
       <c r="K210" s="9"/>
       <c r="L210" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M210" s="9"/>
       <c r="N210" s="19"/>
@@ -17961,7 +18058,7 @@
       <c r="J211" s="9"/>
       <c r="K211" s="9"/>
       <c r="L211" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M211" s="9"/>
       <c r="N211" s="19"/>
@@ -18001,6 +18098,8 @@
       <c r="AV211" s="1"/>
     </row>
     <row r="212" spans="1:48">
+      <c r="A212" s="51"/>
+      <c r="B212" s="51"/>
       <c r="D212" s="17"/>
       <c r="E212" s="15"/>
       <c r="F212" s="15"/>
@@ -18010,7 +18109,7 @@
       <c r="J212" s="9"/>
       <c r="K212" s="9"/>
       <c r="L212" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M212" s="9"/>
       <c r="N212" s="19"/>
@@ -18050,8 +18149,6 @@
       <c r="AV212" s="1"/>
     </row>
     <row r="213" spans="1:48">
-      <c r="A213" s="51"/>
-      <c r="B213" s="51"/>
       <c r="D213" s="17"/>
       <c r="E213" s="15"/>
       <c r="F213" s="15"/>
@@ -18061,7 +18158,7 @@
       <c r="J213" s="9"/>
       <c r="K213" s="9"/>
       <c r="L213" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M213" s="9"/>
       <c r="N213" s="19"/>
@@ -18110,7 +18207,7 @@
       <c r="J214" s="9"/>
       <c r="K214" s="9"/>
       <c r="L214" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M214" s="9"/>
       <c r="N214" s="19"/>
@@ -18159,7 +18256,7 @@
       <c r="J215" s="9"/>
       <c r="K215" s="9"/>
       <c r="L215" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M215" s="9"/>
       <c r="N215" s="19"/>
@@ -18208,7 +18305,7 @@
       <c r="J216" s="9"/>
       <c r="K216" s="9"/>
       <c r="L216" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M216" s="9"/>
       <c r="N216" s="19"/>
@@ -18224,30 +18321,10 @@
       <c r="X216" s="2"/>
       <c r="Y216" s="2"/>
       <c r="Z216" s="2"/>
-      <c r="AA216" s="1"/>
-      <c r="AB216" s="1"/>
-      <c r="AC216" s="1"/>
-      <c r="AD216" s="1"/>
-      <c r="AE216" s="1"/>
-      <c r="AF216" s="1"/>
-      <c r="AG216" s="1"/>
-      <c r="AH216" s="1"/>
-      <c r="AI216" s="1"/>
-      <c r="AJ216" s="1"/>
-      <c r="AK216" s="1"/>
-      <c r="AL216" s="1"/>
-      <c r="AM216" s="1"/>
-      <c r="AN216" s="1"/>
-      <c r="AO216" s="1"/>
-      <c r="AP216" s="1"/>
-      <c r="AQ216" s="1"/>
-      <c r="AR216" s="1"/>
-      <c r="AS216" s="1"/>
-      <c r="AT216" s="1"/>
-      <c r="AU216" s="1"/>
-      <c r="AV216" s="1"/>
     </row>
     <row r="217" spans="1:48">
+      <c r="A217" s="51"/>
+      <c r="B217" s="51"/>
       <c r="D217" s="17"/>
       <c r="E217" s="15"/>
       <c r="F217" s="15"/>
@@ -18257,7 +18334,7 @@
       <c r="J217" s="9"/>
       <c r="K217" s="9"/>
       <c r="L217" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M217" s="9"/>
       <c r="N217" s="19"/>
@@ -18275,8 +18352,6 @@
       <c r="Z217" s="2"/>
     </row>
     <row r="218" spans="1:48">
-      <c r="A218" s="51"/>
-      <c r="B218" s="51"/>
       <c r="D218" s="17"/>
       <c r="E218" s="15"/>
       <c r="F218" s="15"/>
@@ -18286,7 +18361,7 @@
       <c r="J218" s="9"/>
       <c r="K218" s="9"/>
       <c r="L218" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M218" s="9"/>
       <c r="N218" s="19"/>
@@ -18313,7 +18388,7 @@
       <c r="J219" s="9"/>
       <c r="K219" s="9"/>
       <c r="L219" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M219" s="9"/>
       <c r="N219" s="19"/>
@@ -18340,7 +18415,7 @@
       <c r="J220" s="9"/>
       <c r="K220" s="9"/>
       <c r="L220" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M220" s="9"/>
       <c r="N220" s="19"/>
@@ -18367,7 +18442,7 @@
       <c r="J221" s="9"/>
       <c r="K221" s="9"/>
       <c r="L221" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M221" s="9"/>
       <c r="N221" s="19"/>
@@ -18385,6 +18460,8 @@
       <c r="Z221" s="2"/>
     </row>
     <row r="222" spans="1:48">
+      <c r="A222" s="51"/>
+      <c r="B222" s="51"/>
       <c r="D222" s="17"/>
       <c r="E222" s="15"/>
       <c r="F222" s="15"/>
@@ -18394,7 +18471,7 @@
       <c r="J222" s="9"/>
       <c r="K222" s="9"/>
       <c r="L222" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M222" s="9"/>
       <c r="N222" s="19"/>
@@ -18412,8 +18489,6 @@
       <c r="Z222" s="2"/>
     </row>
     <row r="223" spans="1:48">
-      <c r="A223" s="51"/>
-      <c r="B223" s="51"/>
       <c r="D223" s="17"/>
       <c r="E223" s="15"/>
       <c r="F223" s="15"/>
@@ -18423,7 +18498,7 @@
       <c r="J223" s="9"/>
       <c r="K223" s="9"/>
       <c r="L223" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M223" s="9"/>
       <c r="N223" s="19"/>
@@ -18450,7 +18525,7 @@
       <c r="J224" s="9"/>
       <c r="K224" s="9"/>
       <c r="L224" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M224" s="9"/>
       <c r="N224" s="19"/>
@@ -18477,7 +18552,7 @@
       <c r="J225" s="9"/>
       <c r="K225" s="9"/>
       <c r="L225" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M225" s="9"/>
       <c r="N225" s="19"/>
@@ -18504,7 +18579,7 @@
       <c r="J226" s="9"/>
       <c r="K226" s="9"/>
       <c r="L226" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M226" s="9"/>
       <c r="N226" s="19"/>
@@ -18522,6 +18597,8 @@
       <c r="Z226" s="2"/>
     </row>
     <row r="227" spans="1:26">
+      <c r="A227" s="51"/>
+      <c r="B227" s="51"/>
       <c r="D227" s="17"/>
       <c r="E227" s="15"/>
       <c r="F227" s="15"/>
@@ -18531,7 +18608,7 @@
       <c r="J227" s="9"/>
       <c r="K227" s="9"/>
       <c r="L227" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M227" s="9"/>
       <c r="N227" s="19"/>
@@ -18549,8 +18626,6 @@
       <c r="Z227" s="2"/>
     </row>
     <row r="228" spans="1:26">
-      <c r="A228" s="51"/>
-      <c r="B228" s="51"/>
       <c r="D228" s="17"/>
       <c r="E228" s="15"/>
       <c r="F228" s="15"/>
@@ -18560,7 +18635,7 @@
       <c r="J228" s="9"/>
       <c r="K228" s="9"/>
       <c r="L228" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M228" s="9"/>
       <c r="N228" s="19"/>
@@ -18587,7 +18662,7 @@
       <c r="J229" s="9"/>
       <c r="K229" s="9"/>
       <c r="L229" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M229" s="9"/>
       <c r="N229" s="19"/>
@@ -18614,7 +18689,7 @@
       <c r="J230" s="9"/>
       <c r="K230" s="9"/>
       <c r="L230" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M230" s="9"/>
       <c r="N230" s="19"/>
@@ -18641,7 +18716,7 @@
       <c r="J231" s="9"/>
       <c r="K231" s="9"/>
       <c r="L231" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M231" s="9"/>
       <c r="N231" s="19"/>
@@ -18659,6 +18734,8 @@
       <c r="Z231" s="2"/>
     </row>
     <row r="232" spans="1:26">
+      <c r="A232" s="51"/>
+      <c r="B232" s="51"/>
       <c r="D232" s="17"/>
       <c r="E232" s="15"/>
       <c r="F232" s="15"/>
@@ -18668,7 +18745,7 @@
       <c r="J232" s="9"/>
       <c r="K232" s="9"/>
       <c r="L232" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M232" s="9"/>
       <c r="N232" s="19"/>
@@ -18686,8 +18763,6 @@
       <c r="Z232" s="2"/>
     </row>
     <row r="233" spans="1:26">
-      <c r="A233" s="51"/>
-      <c r="B233" s="51"/>
       <c r="D233" s="17"/>
       <c r="E233" s="15"/>
       <c r="F233" s="15"/>
@@ -18697,7 +18772,7 @@
       <c r="J233" s="9"/>
       <c r="K233" s="9"/>
       <c r="L233" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M233" s="9"/>
       <c r="N233" s="19"/>
@@ -18724,7 +18799,7 @@
       <c r="J234" s="9"/>
       <c r="K234" s="9"/>
       <c r="L234" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M234" s="9"/>
       <c r="N234" s="19"/>
@@ -18751,7 +18826,7 @@
       <c r="J235" s="9"/>
       <c r="K235" s="9"/>
       <c r="L235" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M235" s="9"/>
       <c r="N235" s="19"/>
@@ -18778,7 +18853,7 @@
       <c r="J236" s="9"/>
       <c r="K236" s="9"/>
       <c r="L236" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M236" s="9"/>
       <c r="N236" s="19"/>
@@ -18796,6 +18871,8 @@
       <c r="Z236" s="2"/>
     </row>
     <row r="237" spans="1:26">
+      <c r="A237" s="51"/>
+      <c r="B237" s="51"/>
       <c r="D237" s="17"/>
       <c r="E237" s="15"/>
       <c r="F237" s="15"/>
@@ -18805,7 +18882,7 @@
       <c r="J237" s="9"/>
       <c r="K237" s="9"/>
       <c r="L237" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M237" s="9"/>
       <c r="N237" s="19"/>
@@ -18823,8 +18900,6 @@
       <c r="Z237" s="2"/>
     </row>
     <row r="238" spans="1:26">
-      <c r="A238" s="51"/>
-      <c r="B238" s="51"/>
       <c r="D238" s="17"/>
       <c r="E238" s="15"/>
       <c r="F238" s="15"/>
@@ -18834,7 +18909,7 @@
       <c r="J238" s="9"/>
       <c r="K238" s="9"/>
       <c r="L238" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M238" s="9"/>
       <c r="N238" s="19"/>
@@ -18861,7 +18936,7 @@
       <c r="J239" s="9"/>
       <c r="K239" s="9"/>
       <c r="L239" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M239" s="9"/>
       <c r="N239" s="19"/>
@@ -18888,7 +18963,7 @@
       <c r="J240" s="9"/>
       <c r="K240" s="9"/>
       <c r="L240" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M240" s="9"/>
       <c r="N240" s="19"/>
@@ -18915,7 +18990,7 @@
       <c r="J241" s="9"/>
       <c r="K241" s="9"/>
       <c r="L241" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M241" s="9"/>
       <c r="N241" s="19"/>
@@ -18933,6 +19008,8 @@
       <c r="Z241" s="2"/>
     </row>
     <row r="242" spans="1:26">
+      <c r="A242" s="51"/>
+      <c r="B242" s="51"/>
       <c r="D242" s="17"/>
       <c r="E242" s="15"/>
       <c r="F242" s="15"/>
@@ -18942,7 +19019,7 @@
       <c r="J242" s="9"/>
       <c r="K242" s="9"/>
       <c r="L242" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M242" s="9"/>
       <c r="N242" s="19"/>
@@ -18960,8 +19037,6 @@
       <c r="Z242" s="2"/>
     </row>
     <row r="243" spans="1:26">
-      <c r="A243" s="51"/>
-      <c r="B243" s="51"/>
       <c r="D243" s="17"/>
       <c r="E243" s="15"/>
       <c r="F243" s="15"/>
@@ -18971,7 +19046,7 @@
       <c r="J243" s="9"/>
       <c r="K243" s="9"/>
       <c r="L243" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M243" s="9"/>
       <c r="N243" s="19"/>
@@ -18998,7 +19073,7 @@
       <c r="J244" s="9"/>
       <c r="K244" s="9"/>
       <c r="L244" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M244" s="9"/>
       <c r="N244" s="19"/>
@@ -19025,7 +19100,7 @@
       <c r="J245" s="9"/>
       <c r="K245" s="9"/>
       <c r="L245" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M245" s="9"/>
       <c r="N245" s="19"/>
@@ -19052,7 +19127,7 @@
       <c r="J246" s="9"/>
       <c r="K246" s="9"/>
       <c r="L246" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M246" s="9"/>
       <c r="N246" s="19"/>
@@ -19070,6 +19145,8 @@
       <c r="Z246" s="2"/>
     </row>
     <row r="247" spans="1:26">
+      <c r="A247" s="51"/>
+      <c r="B247" s="51"/>
       <c r="D247" s="17"/>
       <c r="E247" s="15"/>
       <c r="F247" s="15"/>
@@ -19079,7 +19156,7 @@
       <c r="J247" s="9"/>
       <c r="K247" s="9"/>
       <c r="L247" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M247" s="9"/>
       <c r="N247" s="19"/>
@@ -19097,8 +19174,6 @@
       <c r="Z247" s="2"/>
     </row>
     <row r="248" spans="1:26">
-      <c r="A248" s="51"/>
-      <c r="B248" s="51"/>
       <c r="D248" s="17"/>
       <c r="E248" s="15"/>
       <c r="F248" s="15"/>
@@ -19108,7 +19183,7 @@
       <c r="J248" s="9"/>
       <c r="K248" s="9"/>
       <c r="L248" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M248" s="9"/>
       <c r="N248" s="19"/>
@@ -19135,7 +19210,7 @@
       <c r="J249" s="9"/>
       <c r="K249" s="9"/>
       <c r="L249" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M249" s="9"/>
       <c r="N249" s="19"/>
@@ -19162,7 +19237,7 @@
       <c r="J250" s="9"/>
       <c r="K250" s="9"/>
       <c r="L250" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M250" s="9"/>
       <c r="N250" s="19"/>
@@ -19189,7 +19264,7 @@
       <c r="J251" s="9"/>
       <c r="K251" s="9"/>
       <c r="L251" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M251" s="9"/>
       <c r="N251" s="19"/>
@@ -19207,6 +19282,8 @@
       <c r="Z251" s="2"/>
     </row>
     <row r="252" spans="1:26">
+      <c r="A252" s="51"/>
+      <c r="B252" s="51"/>
       <c r="D252" s="17"/>
       <c r="E252" s="15"/>
       <c r="F252" s="15"/>
@@ -19216,7 +19293,7 @@
       <c r="J252" s="9"/>
       <c r="K252" s="9"/>
       <c r="L252" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M252" s="9"/>
       <c r="N252" s="19"/>
@@ -19234,8 +19311,6 @@
       <c r="Z252" s="2"/>
     </row>
     <row r="253" spans="1:26">
-      <c r="A253" s="51"/>
-      <c r="B253" s="51"/>
       <c r="D253" s="17"/>
       <c r="E253" s="15"/>
       <c r="F253" s="15"/>
@@ -19245,7 +19320,7 @@
       <c r="J253" s="9"/>
       <c r="K253" s="9"/>
       <c r="L253" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M253" s="9"/>
       <c r="N253" s="19"/>
@@ -19272,7 +19347,7 @@
       <c r="J254" s="9"/>
       <c r="K254" s="9"/>
       <c r="L254" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M254" s="9"/>
       <c r="N254" s="19"/>
@@ -19299,7 +19374,7 @@
       <c r="J255" s="9"/>
       <c r="K255" s="9"/>
       <c r="L255" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M255" s="9"/>
       <c r="N255" s="19"/>
@@ -19326,7 +19401,7 @@
       <c r="J256" s="9"/>
       <c r="K256" s="9"/>
       <c r="L256" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M256" s="9"/>
       <c r="N256" s="19"/>
@@ -19344,6 +19419,8 @@
       <c r="Z256" s="2"/>
     </row>
     <row r="257" spans="1:26">
+      <c r="A257" s="51"/>
+      <c r="B257" s="51"/>
       <c r="D257" s="17"/>
       <c r="E257" s="15"/>
       <c r="F257" s="15"/>
@@ -19353,7 +19430,7 @@
       <c r="J257" s="9"/>
       <c r="K257" s="9"/>
       <c r="L257" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M257" s="9"/>
       <c r="N257" s="19"/>
@@ -19371,8 +19448,6 @@
       <c r="Z257" s="2"/>
     </row>
     <row r="258" spans="1:26">
-      <c r="A258" s="51"/>
-      <c r="B258" s="51"/>
       <c r="D258" s="17"/>
       <c r="E258" s="15"/>
       <c r="F258" s="15"/>
@@ -19382,7 +19457,7 @@
       <c r="J258" s="9"/>
       <c r="K258" s="9"/>
       <c r="L258" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M258" s="9"/>
       <c r="N258" s="19"/>
@@ -19409,7 +19484,7 @@
       <c r="J259" s="9"/>
       <c r="K259" s="9"/>
       <c r="L259" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M259" s="9"/>
       <c r="N259" s="19"/>
@@ -19436,7 +19511,7 @@
       <c r="J260" s="9"/>
       <c r="K260" s="9"/>
       <c r="L260" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M260" s="9"/>
       <c r="N260" s="19"/>
@@ -19463,7 +19538,7 @@
       <c r="J261" s="9"/>
       <c r="K261" s="9"/>
       <c r="L261" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M261" s="9"/>
       <c r="N261" s="19"/>
@@ -19481,6 +19556,8 @@
       <c r="Z261" s="2"/>
     </row>
     <row r="262" spans="1:26">
+      <c r="A262" s="51"/>
+      <c r="B262" s="51"/>
       <c r="D262" s="17"/>
       <c r="E262" s="15"/>
       <c r="F262" s="15"/>
@@ -19490,7 +19567,7 @@
       <c r="J262" s="9"/>
       <c r="K262" s="9"/>
       <c r="L262" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M262" s="9"/>
       <c r="N262" s="19"/>
@@ -19508,8 +19585,6 @@
       <c r="Z262" s="2"/>
     </row>
     <row r="263" spans="1:26">
-      <c r="A263" s="51"/>
-      <c r="B263" s="51"/>
       <c r="D263" s="17"/>
       <c r="E263" s="15"/>
       <c r="F263" s="15"/>
@@ -19519,7 +19594,7 @@
       <c r="J263" s="9"/>
       <c r="K263" s="9"/>
       <c r="L263" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M263" s="9"/>
       <c r="N263" s="19"/>
@@ -19546,7 +19621,7 @@
       <c r="J264" s="9"/>
       <c r="K264" s="9"/>
       <c r="L264" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M264" s="9"/>
       <c r="N264" s="19"/>
@@ -19573,7 +19648,7 @@
       <c r="J265" s="9"/>
       <c r="K265" s="9"/>
       <c r="L265" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M265" s="9"/>
       <c r="N265" s="19"/>
@@ -19600,7 +19675,7 @@
       <c r="J266" s="9"/>
       <c r="K266" s="9"/>
       <c r="L266" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M266" s="9"/>
       <c r="N266" s="19"/>
@@ -19618,6 +19693,8 @@
       <c r="Z266" s="2"/>
     </row>
     <row r="267" spans="1:26">
+      <c r="A267" s="51"/>
+      <c r="B267" s="51"/>
       <c r="D267" s="17"/>
       <c r="E267" s="15"/>
       <c r="F267" s="15"/>
@@ -19627,7 +19704,7 @@
       <c r="J267" s="9"/>
       <c r="K267" s="9"/>
       <c r="L267" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M267" s="9"/>
       <c r="N267" s="19"/>
@@ -19645,8 +19722,6 @@
       <c r="Z267" s="2"/>
     </row>
     <row r="268" spans="1:26">
-      <c r="A268" s="51"/>
-      <c r="B268" s="51"/>
       <c r="D268" s="17"/>
       <c r="E268" s="15"/>
       <c r="F268" s="15"/>
@@ -19656,7 +19731,7 @@
       <c r="J268" s="9"/>
       <c r="K268" s="9"/>
       <c r="L268" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M268" s="9"/>
       <c r="N268" s="19"/>
@@ -19683,7 +19758,7 @@
       <c r="J269" s="9"/>
       <c r="K269" s="9"/>
       <c r="L269" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M269" s="9"/>
       <c r="N269" s="19"/>
@@ -19710,7 +19785,7 @@
       <c r="J270" s="9"/>
       <c r="K270" s="9"/>
       <c r="L270" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M270" s="9"/>
       <c r="N270" s="19"/>
@@ -19737,7 +19812,7 @@
       <c r="J271" s="9"/>
       <c r="K271" s="9"/>
       <c r="L271" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M271" s="9"/>
       <c r="N271" s="19"/>
@@ -19755,6 +19830,8 @@
       <c r="Z271" s="2"/>
     </row>
     <row r="272" spans="1:26">
+      <c r="A272" s="51"/>
+      <c r="B272" s="51"/>
       <c r="D272" s="17"/>
       <c r="E272" s="15"/>
       <c r="F272" s="15"/>
@@ -19764,7 +19841,7 @@
       <c r="J272" s="9"/>
       <c r="K272" s="9"/>
       <c r="L272" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M272" s="9"/>
       <c r="N272" s="19"/>
@@ -19782,8 +19859,6 @@
       <c r="Z272" s="2"/>
     </row>
     <row r="273" spans="1:26">
-      <c r="A273" s="51"/>
-      <c r="B273" s="51"/>
       <c r="D273" s="17"/>
       <c r="E273" s="15"/>
       <c r="F273" s="15"/>
@@ -19793,7 +19868,7 @@
       <c r="J273" s="9"/>
       <c r="K273" s="9"/>
       <c r="L273" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M273" s="9"/>
       <c r="N273" s="19"/>
@@ -19820,7 +19895,7 @@
       <c r="J274" s="9"/>
       <c r="K274" s="9"/>
       <c r="L274" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M274" s="9"/>
       <c r="N274" s="19"/>
@@ -19847,7 +19922,7 @@
       <c r="J275" s="9"/>
       <c r="K275" s="9"/>
       <c r="L275" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M275" s="9"/>
       <c r="N275" s="19"/>
@@ -19874,7 +19949,7 @@
       <c r="J276" s="9"/>
       <c r="K276" s="9"/>
       <c r="L276" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M276" s="9"/>
       <c r="N276" s="19"/>
@@ -19892,6 +19967,8 @@
       <c r="Z276" s="2"/>
     </row>
     <row r="277" spans="1:26">
+      <c r="A277" s="51"/>
+      <c r="B277" s="51"/>
       <c r="D277" s="17"/>
       <c r="E277" s="15"/>
       <c r="F277" s="15"/>
@@ -19901,7 +19978,7 @@
       <c r="J277" s="9"/>
       <c r="K277" s="9"/>
       <c r="L277" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M277" s="9"/>
       <c r="N277" s="19"/>
@@ -19919,8 +19996,6 @@
       <c r="Z277" s="2"/>
     </row>
     <row r="278" spans="1:26">
-      <c r="A278" s="51"/>
-      <c r="B278" s="51"/>
       <c r="D278" s="17"/>
       <c r="E278" s="15"/>
       <c r="F278" s="15"/>
@@ -19930,7 +20005,7 @@
       <c r="J278" s="9"/>
       <c r="K278" s="9"/>
       <c r="L278" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M278" s="9"/>
       <c r="N278" s="19"/>
@@ -19957,7 +20032,7 @@
       <c r="J279" s="9"/>
       <c r="K279" s="9"/>
       <c r="L279" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M279" s="9"/>
       <c r="N279" s="19"/>
@@ -19984,7 +20059,7 @@
       <c r="J280" s="9"/>
       <c r="K280" s="9"/>
       <c r="L280" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M280" s="9"/>
       <c r="N280" s="19"/>
@@ -20011,7 +20086,7 @@
       <c r="J281" s="9"/>
       <c r="K281" s="9"/>
       <c r="L281" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M281" s="9"/>
       <c r="N281" s="19"/>
@@ -20029,6 +20104,8 @@
       <c r="Z281" s="2"/>
     </row>
     <row r="282" spans="1:26">
+      <c r="A282" s="51"/>
+      <c r="B282" s="51"/>
       <c r="D282" s="17"/>
       <c r="E282" s="15"/>
       <c r="F282" s="15"/>
@@ -20038,7 +20115,7 @@
       <c r="J282" s="9"/>
       <c r="K282" s="9"/>
       <c r="L282" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M282" s="9"/>
       <c r="N282" s="19"/>
@@ -20056,8 +20133,6 @@
       <c r="Z282" s="2"/>
     </row>
     <row r="283" spans="1:26">
-      <c r="A283" s="51"/>
-      <c r="B283" s="51"/>
       <c r="D283" s="17"/>
       <c r="E283" s="15"/>
       <c r="F283" s="15"/>
@@ -20067,7 +20142,7 @@
       <c r="J283" s="9"/>
       <c r="K283" s="9"/>
       <c r="L283" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M283" s="9"/>
       <c r="N283" s="19"/>
@@ -20094,7 +20169,7 @@
       <c r="J284" s="9"/>
       <c r="K284" s="9"/>
       <c r="L284" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M284" s="9"/>
       <c r="N284" s="19"/>
@@ -20121,7 +20196,7 @@
       <c r="J285" s="9"/>
       <c r="K285" s="9"/>
       <c r="L285" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M285" s="9"/>
       <c r="N285" s="19"/>
@@ -20148,7 +20223,7 @@
       <c r="J286" s="9"/>
       <c r="K286" s="9"/>
       <c r="L286" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M286" s="9"/>
       <c r="N286" s="19"/>
@@ -20166,6 +20241,8 @@
       <c r="Z286" s="2"/>
     </row>
     <row r="287" spans="1:26">
+      <c r="A287" s="51"/>
+      <c r="B287" s="51"/>
       <c r="D287" s="17"/>
       <c r="E287" s="15"/>
       <c r="F287" s="15"/>
@@ -20175,7 +20252,7 @@
       <c r="J287" s="9"/>
       <c r="K287" s="9"/>
       <c r="L287" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M287" s="9"/>
       <c r="N287" s="19"/>
@@ -20193,8 +20270,6 @@
       <c r="Z287" s="2"/>
     </row>
     <row r="288" spans="1:26">
-      <c r="A288" s="51"/>
-      <c r="B288" s="51"/>
       <c r="D288" s="17"/>
       <c r="E288" s="15"/>
       <c r="F288" s="15"/>
@@ -20204,7 +20279,7 @@
       <c r="J288" s="9"/>
       <c r="K288" s="9"/>
       <c r="L288" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M288" s="9"/>
       <c r="N288" s="19"/>
@@ -20231,7 +20306,7 @@
       <c r="J289" s="9"/>
       <c r="K289" s="9"/>
       <c r="L289" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M289" s="9"/>
       <c r="N289" s="19"/>
@@ -20258,7 +20333,7 @@
       <c r="J290" s="9"/>
       <c r="K290" s="9"/>
       <c r="L290" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M290" s="9"/>
       <c r="N290" s="19"/>
@@ -20285,7 +20360,7 @@
       <c r="J291" s="9"/>
       <c r="K291" s="9"/>
       <c r="L291" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M291" s="9"/>
       <c r="N291" s="19"/>
@@ -20303,6 +20378,8 @@
       <c r="Z291" s="2"/>
     </row>
     <row r="292" spans="1:26">
+      <c r="A292" s="51"/>
+      <c r="B292" s="51"/>
       <c r="D292" s="17"/>
       <c r="E292" s="15"/>
       <c r="F292" s="15"/>
@@ -20312,7 +20389,7 @@
       <c r="J292" s="9"/>
       <c r="K292" s="9"/>
       <c r="L292" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M292" s="9"/>
       <c r="N292" s="19"/>
@@ -20330,8 +20407,6 @@
       <c r="Z292" s="2"/>
     </row>
     <row r="293" spans="1:26">
-      <c r="A293" s="51"/>
-      <c r="B293" s="51"/>
       <c r="D293" s="17"/>
       <c r="E293" s="15"/>
       <c r="F293" s="15"/>
@@ -20341,7 +20416,7 @@
       <c r="J293" s="9"/>
       <c r="K293" s="9"/>
       <c r="L293" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M293" s="9"/>
       <c r="N293" s="19"/>
@@ -20368,7 +20443,7 @@
       <c r="J294" s="9"/>
       <c r="K294" s="9"/>
       <c r="L294" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M294" s="9"/>
       <c r="N294" s="19"/>
@@ -20395,7 +20470,7 @@
       <c r="J295" s="9"/>
       <c r="K295" s="9"/>
       <c r="L295" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M295" s="9"/>
       <c r="N295" s="19"/>
@@ -20422,7 +20497,7 @@
       <c r="J296" s="9"/>
       <c r="K296" s="9"/>
       <c r="L296" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M296" s="9"/>
       <c r="N296" s="19"/>
@@ -20440,6 +20515,8 @@
       <c r="Z296" s="2"/>
     </row>
     <row r="297" spans="1:26">
+      <c r="A297" s="51"/>
+      <c r="B297" s="51"/>
       <c r="D297" s="17"/>
       <c r="E297" s="15"/>
       <c r="F297" s="15"/>
@@ -20449,7 +20526,7 @@
       <c r="J297" s="9"/>
       <c r="K297" s="9"/>
       <c r="L297" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M297" s="9"/>
       <c r="N297" s="19"/>
@@ -20467,8 +20544,6 @@
       <c r="Z297" s="2"/>
     </row>
     <row r="298" spans="1:26">
-      <c r="A298" s="51"/>
-      <c r="B298" s="51"/>
       <c r="D298" s="17"/>
       <c r="E298" s="15"/>
       <c r="F298" s="15"/>
@@ -20478,7 +20553,7 @@
       <c r="J298" s="9"/>
       <c r="K298" s="9"/>
       <c r="L298" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M298" s="9"/>
       <c r="N298" s="19"/>
@@ -20505,7 +20580,7 @@
       <c r="J299" s="9"/>
       <c r="K299" s="9"/>
       <c r="L299" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M299" s="9"/>
       <c r="N299" s="19"/>
@@ -20532,7 +20607,7 @@
       <c r="J300" s="9"/>
       <c r="K300" s="9"/>
       <c r="L300" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M300" s="9"/>
       <c r="N300" s="19"/>
@@ -20559,7 +20634,7 @@
       <c r="J301" s="9"/>
       <c r="K301" s="9"/>
       <c r="L301" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M301" s="9"/>
       <c r="N301" s="19"/>
@@ -20577,6 +20652,8 @@
       <c r="Z301" s="2"/>
     </row>
     <row r="302" spans="1:26">
+      <c r="A302" s="51"/>
+      <c r="B302" s="51"/>
       <c r="D302" s="17"/>
       <c r="E302" s="15"/>
       <c r="F302" s="15"/>
@@ -20586,7 +20663,7 @@
       <c r="J302" s="9"/>
       <c r="K302" s="9"/>
       <c r="L302" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M302" s="9"/>
       <c r="N302" s="19"/>
@@ -20604,8 +20681,6 @@
       <c r="Z302" s="2"/>
     </row>
     <row r="303" spans="1:26">
-      <c r="A303" s="51"/>
-      <c r="B303" s="51"/>
       <c r="D303" s="17"/>
       <c r="E303" s="15"/>
       <c r="F303" s="15"/>
@@ -20615,7 +20690,7 @@
       <c r="J303" s="9"/>
       <c r="K303" s="9"/>
       <c r="L303" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M303" s="9"/>
       <c r="N303" s="19"/>
@@ -20642,7 +20717,7 @@
       <c r="J304" s="9"/>
       <c r="K304" s="9"/>
       <c r="L304" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M304" s="9"/>
       <c r="N304" s="19"/>
@@ -20669,7 +20744,7 @@
       <c r="J305" s="9"/>
       <c r="K305" s="9"/>
       <c r="L305" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M305" s="9"/>
       <c r="N305" s="19"/>
@@ -20696,7 +20771,7 @@
       <c r="J306" s="9"/>
       <c r="K306" s="9"/>
       <c r="L306" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M306" s="9"/>
       <c r="N306" s="19"/>
@@ -20714,6 +20789,8 @@
       <c r="Z306" s="2"/>
     </row>
     <row r="307" spans="1:26">
+      <c r="A307" s="51"/>
+      <c r="B307" s="51"/>
       <c r="D307" s="17"/>
       <c r="E307" s="15"/>
       <c r="F307" s="15"/>
@@ -20723,7 +20800,7 @@
       <c r="J307" s="9"/>
       <c r="K307" s="9"/>
       <c r="L307" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M307" s="9"/>
       <c r="N307" s="19"/>
@@ -20741,8 +20818,6 @@
       <c r="Z307" s="2"/>
     </row>
     <row r="308" spans="1:26">
-      <c r="A308" s="51"/>
-      <c r="B308" s="51"/>
       <c r="D308" s="17"/>
       <c r="E308" s="15"/>
       <c r="F308" s="15"/>
@@ -20752,7 +20827,7 @@
       <c r="J308" s="9"/>
       <c r="K308" s="9"/>
       <c r="L308" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M308" s="9"/>
       <c r="N308" s="19"/>
@@ -20779,7 +20854,7 @@
       <c r="J309" s="9"/>
       <c r="K309" s="9"/>
       <c r="L309" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M309" s="9"/>
       <c r="N309" s="19"/>
@@ -20806,7 +20881,7 @@
       <c r="J310" s="9"/>
       <c r="K310" s="9"/>
       <c r="L310" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M310" s="9"/>
       <c r="N310" s="19"/>
@@ -20833,7 +20908,7 @@
       <c r="J311" s="9"/>
       <c r="K311" s="9"/>
       <c r="L311" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M311" s="9"/>
       <c r="N311" s="19"/>
@@ -20851,6 +20926,8 @@
       <c r="Z311" s="2"/>
     </row>
     <row r="312" spans="1:26">
+      <c r="A312" s="51"/>
+      <c r="B312" s="51"/>
       <c r="D312" s="17"/>
       <c r="E312" s="15"/>
       <c r="F312" s="15"/>
@@ -20860,7 +20937,7 @@
       <c r="J312" s="9"/>
       <c r="K312" s="9"/>
       <c r="L312" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M312" s="9"/>
       <c r="N312" s="19"/>
@@ -20878,8 +20955,6 @@
       <c r="Z312" s="2"/>
     </row>
     <row r="313" spans="1:26">
-      <c r="A313" s="51"/>
-      <c r="B313" s="51"/>
       <c r="D313" s="17"/>
       <c r="E313" s="15"/>
       <c r="F313" s="15"/>
@@ -20889,7 +20964,7 @@
       <c r="J313" s="9"/>
       <c r="K313" s="9"/>
       <c r="L313" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M313" s="9"/>
       <c r="N313" s="19"/>
@@ -20916,7 +20991,7 @@
       <c r="J314" s="9"/>
       <c r="K314" s="9"/>
       <c r="L314" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M314" s="9"/>
       <c r="N314" s="19"/>
@@ -20943,7 +21018,7 @@
       <c r="J315" s="9"/>
       <c r="K315" s="9"/>
       <c r="L315" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M315" s="9"/>
       <c r="N315" s="19"/>
@@ -20970,7 +21045,7 @@
       <c r="J316" s="9"/>
       <c r="K316" s="9"/>
       <c r="L316" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M316" s="9"/>
       <c r="N316" s="19"/>
@@ -20988,6 +21063,8 @@
       <c r="Z316" s="2"/>
     </row>
     <row r="317" spans="1:26">
+      <c r="A317" s="51"/>
+      <c r="B317" s="51"/>
       <c r="D317" s="17"/>
       <c r="E317" s="15"/>
       <c r="F317" s="15"/>
@@ -20997,7 +21074,7 @@
       <c r="J317" s="9"/>
       <c r="K317" s="9"/>
       <c r="L317" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M317" s="9"/>
       <c r="N317" s="19"/>
@@ -21015,8 +21092,6 @@
       <c r="Z317" s="2"/>
     </row>
     <row r="318" spans="1:26">
-      <c r="A318" s="51"/>
-      <c r="B318" s="51"/>
       <c r="D318" s="17"/>
       <c r="E318" s="15"/>
       <c r="F318" s="15"/>
@@ -21026,7 +21101,7 @@
       <c r="J318" s="9"/>
       <c r="K318" s="9"/>
       <c r="L318" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M318" s="9"/>
       <c r="N318" s="19"/>
@@ -21053,7 +21128,7 @@
       <c r="J319" s="9"/>
       <c r="K319" s="9"/>
       <c r="L319" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M319" s="9"/>
       <c r="N319" s="19"/>
@@ -21080,7 +21155,7 @@
       <c r="J320" s="9"/>
       <c r="K320" s="9"/>
       <c r="L320" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M320" s="9"/>
       <c r="N320" s="19"/>
@@ -21107,7 +21182,7 @@
       <c r="J321" s="9"/>
       <c r="K321" s="9"/>
       <c r="L321" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M321" s="9"/>
       <c r="N321" s="19"/>
@@ -21125,6 +21200,8 @@
       <c r="Z321" s="2"/>
     </row>
     <row r="322" spans="1:26">
+      <c r="A322" s="51"/>
+      <c r="B322" s="51"/>
       <c r="D322" s="17"/>
       <c r="E322" s="15"/>
       <c r="F322" s="15"/>
@@ -21134,7 +21211,7 @@
       <c r="J322" s="9"/>
       <c r="K322" s="9"/>
       <c r="L322" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M322" s="9"/>
       <c r="N322" s="19"/>
@@ -21152,8 +21229,6 @@
       <c r="Z322" s="2"/>
     </row>
     <row r="323" spans="1:26">
-      <c r="A323" s="51"/>
-      <c r="B323" s="51"/>
       <c r="D323" s="17"/>
       <c r="E323" s="15"/>
       <c r="F323" s="15"/>
@@ -21163,7 +21238,7 @@
       <c r="J323" s="9"/>
       <c r="K323" s="9"/>
       <c r="L323" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M323" s="9"/>
       <c r="N323" s="19"/>
@@ -21190,7 +21265,7 @@
       <c r="J324" s="9"/>
       <c r="K324" s="9"/>
       <c r="L324" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M324" s="9"/>
       <c r="N324" s="19"/>
@@ -21217,7 +21292,7 @@
       <c r="J325" s="9"/>
       <c r="K325" s="9"/>
       <c r="L325" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M325" s="9"/>
       <c r="N325" s="19"/>
@@ -21244,7 +21319,7 @@
       <c r="J326" s="9"/>
       <c r="K326" s="9"/>
       <c r="L326" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M326" s="9"/>
       <c r="N326" s="19"/>
@@ -21262,6 +21337,8 @@
       <c r="Z326" s="2"/>
     </row>
     <row r="327" spans="1:26">
+      <c r="A327" s="51"/>
+      <c r="B327" s="51"/>
       <c r="D327" s="17"/>
       <c r="E327" s="15"/>
       <c r="F327" s="15"/>
@@ -21271,7 +21348,7 @@
       <c r="J327" s="9"/>
       <c r="K327" s="9"/>
       <c r="L327" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M327" s="9"/>
       <c r="N327" s="19"/>
@@ -21289,8 +21366,6 @@
       <c r="Z327" s="2"/>
     </row>
     <row r="328" spans="1:26">
-      <c r="A328" s="51"/>
-      <c r="B328" s="51"/>
       <c r="D328" s="17"/>
       <c r="E328" s="15"/>
       <c r="F328" s="15"/>
@@ -21300,7 +21375,7 @@
       <c r="J328" s="9"/>
       <c r="K328" s="9"/>
       <c r="L328" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M328" s="9"/>
       <c r="N328" s="19"/>
@@ -21327,7 +21402,7 @@
       <c r="J329" s="9"/>
       <c r="K329" s="9"/>
       <c r="L329" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="M329" s="9"/>
       <c r="N329" s="19"/>
@@ -21345,109 +21420,82 @@
       <c r="Z329" s="2"/>
     </row>
     <row r="330" spans="1:26">
-      <c r="D330" s="17"/>
-      <c r="E330" s="15"/>
-      <c r="F330" s="15"/>
-      <c r="G330" s="15"/>
-      <c r="H330" s="15"/>
-      <c r="I330" s="9"/>
-      <c r="J330" s="9"/>
-      <c r="K330" s="9"/>
-      <c r="L330" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="M330" s="9"/>
-      <c r="N330" s="19"/>
-      <c r="O330" s="2"/>
-      <c r="P330" s="2"/>
-      <c r="Q330" s="2"/>
-      <c r="R330" s="2"/>
-      <c r="S330" s="2"/>
-      <c r="T330" s="2"/>
-      <c r="U330" s="2"/>
-      <c r="V330" s="2"/>
-      <c r="W330" s="2"/>
-      <c r="X330" s="2"/>
-      <c r="Y330" s="2"/>
-      <c r="Z330" s="2"/>
+      <c r="A330">
+        <v>122</v>
+      </c>
+      <c r="B330" s="109" t="s">
+        <v>238</v>
+      </c>
+      <c r="C330" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="331" spans="1:26">
       <c r="A331">
-        <v>122</v>
-      </c>
-      <c r="B331" s="109" t="s">
+        <v>135</v>
+      </c>
+      <c r="B331" t="s">
         <v>238</v>
       </c>
       <c r="C331" t="s">
         <v>24</v>
       </c>
+      <c r="D331" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E331" s="16" t="s">
+        <v>691</v>
+      </c>
+      <c r="F331" s="16" t="s">
+        <v>692</v>
+      </c>
+      <c r="G331" s="16" t="s">
+        <v>693</v>
+      </c>
+      <c r="H331" s="16" t="s">
+        <v>694</v>
+      </c>
+      <c r="J331" s="11">
+        <v>15</v>
+      </c>
+      <c r="L331" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="332" spans="1:26">
       <c r="A332">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B332" t="s">
         <v>238</v>
       </c>
       <c r="C332" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D332" s="11" t="s">
         <v>75</v>
       </c>
       <c r="E332" s="16" t="s">
-        <v>681</v>
+        <v>695</v>
       </c>
       <c r="F332" s="16" t="s">
-        <v>682</v>
+        <v>696</v>
       </c>
       <c r="G332" s="16" t="s">
-        <v>683</v>
+        <v>697</v>
       </c>
       <c r="H332" s="16" t="s">
-        <v>684</v>
+        <v>698</v>
       </c>
       <c r="J332" s="11">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L332" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:26">
-      <c r="A333">
-        <v>137</v>
-      </c>
-      <c r="B333" t="s">
-        <v>238</v>
-      </c>
-      <c r="C333" t="s">
-        <v>15</v>
-      </c>
-      <c r="D333" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E333" s="16" t="s">
-        <v>685</v>
-      </c>
-      <c r="F333" s="16" t="s">
-        <v>686</v>
-      </c>
-      <c r="G333" s="16" t="s">
-        <v>687</v>
-      </c>
-      <c r="H333" s="16" t="s">
-        <v>688</v>
-      </c>
-      <c r="J333" s="11">
-        <v>20</v>
-      </c>
-      <c r="L333" s="11">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:O333" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:O332" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="M86" r:id="rId1" xr:uid="{954017CD-E028-47AD-880B-D994F42943E3}"/>
     <hyperlink ref="M87" r:id="rId2" xr:uid="{F643B520-F58D-4BD6-B634-4474D947E197}"/>
@@ -21505,30 +21553,30 @@
   <sheetData>
     <row r="1" spans="1:11" s="13" customFormat="1" ht="31.5" customHeight="1">
       <c r="A1" s="53" t="s">
-        <v>689</v>
+        <v>699</v>
       </c>
       <c r="B1" s="53"/>
       <c r="C1" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="F1" s="54"/>
       <c r="G1" s="53" t="s">
-        <v>692</v>
+        <v>702</v>
       </c>
       <c r="H1" s="58" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>694</v>
+        <v>704</v>
       </c>
       <c r="J1" s="55" t="s">
-        <v>695</v>
+        <v>705</v>
       </c>
       <c r="K1" s="61">
         <f>SUM(H2:H85)</f>
@@ -21540,13 +21588,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="D2" s="57" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="G2" s="60" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="H2" s="59">
         <v>30</v>
@@ -21557,13 +21605,13 @@
         <v>800</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>699</v>
+        <v>709</v>
       </c>
       <c r="D3" s="57" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="F3" s="60" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="G3" s="11">
         <v>50</v>
@@ -21573,7 +21621,7 @@
         <v>60.8</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>701</v>
+        <v>711</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -21584,7 +21632,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="G5" s="11">
         <v>2500</v>
@@ -21593,7 +21641,7 @@
         <v>29.45</v>
       </c>
       <c r="I5" s="34" t="s">
-        <v>703</v>
+        <v>713</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -21601,20 +21649,20 @@
         <v>8</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>704</v>
+        <v>714</v>
       </c>
       <c r="F6" s="60" t="s">
-        <v>705</v>
+        <v>715</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
       <c r="H6" s="59">
         <f>8*3.76</f>
         <v>30.08</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>707</v>
+        <v>717</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -21622,7 +21670,7 @@
         <v>1000</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
       <c r="I7" s="34"/>
     </row>
@@ -21631,7 +21679,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>709</v>
+        <v>719</v>
       </c>
       <c r="I8" s="34"/>
     </row>
@@ -21640,16 +21688,16 @@
         <v>10</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="H9" s="59">
         <v>2.25</v>
       </c>
       <c r="I9" s="34" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -21657,16 +21705,16 @@
         <v>4</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>713</v>
+        <v>723</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>714</v>
+        <v>724</v>
       </c>
       <c r="H10" s="59">
         <v>5.9</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -21674,7 +21722,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
       <c r="G11" s="11">
         <v>144</v>
@@ -21683,7 +21731,7 @@
         <v>26.85</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>716</v>
+        <v>726</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -21691,16 +21739,16 @@
         <v>10</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>717</v>
+        <v>727</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>718</v>
+        <v>728</v>
       </c>
       <c r="H12" s="59">
         <v>19.95</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>703</v>
+        <v>713</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -21708,7 +21756,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>719</v>
+        <v>729</v>
       </c>
       <c r="G13" s="62">
         <v>20000</v>
@@ -21717,7 +21765,7 @@
         <v>29.99</v>
       </c>
       <c r="I13" s="34" t="s">
-        <v>720</v>
+        <v>730</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -21725,7 +21773,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>721</v>
+        <v>731</v>
       </c>
       <c r="G14" s="11">
         <v>5000</v>
@@ -21734,7 +21782,7 @@
         <v>54.95</v>
       </c>
       <c r="I14" s="34" t="s">
-        <v>722</v>
+        <v>732</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -21742,7 +21790,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>723</v>
+        <v>733</v>
       </c>
       <c r="G15" s="11">
         <v>75</v>
@@ -21756,7 +21804,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>724</v>
+        <v>734</v>
       </c>
       <c r="G16" s="11">
         <v>100</v>
@@ -21770,7 +21818,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>725</v>
+        <v>735</v>
       </c>
       <c r="G17" s="11">
         <v>1000</v>
@@ -21784,10 +21832,10 @@
         <v>5</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>726</v>
+        <v>736</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="H18" s="59">
         <v>15</v>
@@ -21798,13 +21846,13 @@
         <v>2</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>728</v>
+        <v>738</v>
       </c>
       <c r="E19" t="s">
         <v>238</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -21812,7 +21860,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>730</v>
+        <v>740</v>
       </c>
       <c r="G20" s="11">
         <v>1</v>
@@ -21826,7 +21874,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>731</v>
+        <v>741</v>
       </c>
       <c r="G21" s="11">
         <v>1200</v>
@@ -21840,10 +21888,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>732</v>
+        <v>742</v>
       </c>
       <c r="F22" s="60" t="s">
-        <v>733</v>
+        <v>743</v>
       </c>
       <c r="G22" s="11">
         <v>50</v>
@@ -21857,22 +21905,22 @@
         <v>1</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>734</v>
+        <v>744</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>735</v>
+        <v>745</v>
       </c>
       <c r="H23" s="59">
         <v>10.85</v>
       </c>
       <c r="I23" s="34" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="56"/>
       <c r="C24" s="16" t="s">
-        <v>737</v>
+        <v>747</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -21880,10 +21928,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>738</v>
+        <v>748</v>
       </c>
       <c r="F25" s="60" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="G25" s="11">
         <v>50</v>
@@ -21895,7 +21943,7 @@
     <row r="26" spans="1:9">
       <c r="A26" s="56"/>
       <c r="C26" s="16" t="s">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="E26" t="s">
         <v>359</v>
@@ -21922,7 +21970,7 @@
         <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -21937,21 +21985,21 @@
         <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
       <c r="E31" t="s">
-        <v>742</v>
+        <v>752</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="56" t="s">
-        <v>743</v>
+        <v>753</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>40</v>
       </c>
       <c r="F32" s="60" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="G32" s="11">
         <v>1</v>
@@ -21968,7 +22016,7 @@
         <v>151</v>
       </c>
       <c r="F33" s="60" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="G33" s="11">
         <v>1</v>
@@ -21982,10 +22030,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>744</v>
+        <v>754</v>
       </c>
       <c r="F34" s="60" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="G34" s="11">
         <v>1</v>
@@ -21999,10 +22047,10 @@
         <v>2</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>745</v>
+        <v>755</v>
       </c>
       <c r="F35" s="60" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="G35" s="11">
         <v>1</v>
@@ -22016,10 +22064,10 @@
         <v>2</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>746</v>
+        <v>756</v>
       </c>
       <c r="F36" s="60" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="G36" s="11">
         <v>72</v>
@@ -22033,10 +22081,10 @@
         <v>10</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>747</v>
+        <v>757</v>
       </c>
       <c r="F37" s="60" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="G37" s="11">
         <v>10</v>
@@ -22054,16 +22102,16 @@
         <v>100</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>748</v>
+        <v>758</v>
       </c>
       <c r="D39" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
       <c r="E39" t="s">
+        <v>759</v>
+      </c>
+      <c r="F39" s="60" t="s">
         <v>749</v>
-      </c>
-      <c r="F39" s="60" t="s">
-        <v>739</v>
       </c>
       <c r="G39" s="11">
         <v>1</v>
@@ -22078,10 +22126,10 @@
         <v>5</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="F41" s="60" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="G41" s="11">
         <v>1</v>
@@ -22093,7 +22141,7 @@
     <row r="42" spans="1:8">
       <c r="A42" s="56"/>
       <c r="C42" s="16" t="s">
-        <v>751</v>
+        <v>761</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -22104,7 +22152,7 @@
         <v>21</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>752</v>
+        <v>762</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -22115,7 +22163,7 @@
         <v>21</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>753</v>
+        <v>763</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -22126,7 +22174,7 @@
         <v>197</v>
       </c>
       <c r="F45" s="60" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="G45" s="11">
         <v>10</v>
@@ -22138,13 +22186,13 @@
     <row r="46" spans="1:8">
       <c r="A46" s="16"/>
       <c r="C46" s="16" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
       <c r="D46" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
       <c r="E46" t="s">
-        <v>755</v>
+        <v>765</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -22153,23 +22201,23 @@
         <v>490</v>
       </c>
       <c r="D47" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
       <c r="E47" t="s">
-        <v>755</v>
+        <v>765</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="C48" s="16" t="s">
-        <v>756</v>
+        <v>766</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="C49" s="16" t="s">
-        <v>757</v>
+        <v>767</v>
       </c>
       <c r="D49" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -22177,10 +22225,10 @@
         <v>3</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>758</v>
+        <v>768</v>
       </c>
       <c r="F50" s="60" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="G50" s="11">
         <v>3</v>
@@ -22191,15 +22239,15 @@
     </row>
     <row r="51" spans="1:8">
       <c r="C51" s="16" t="s">
-        <v>759</v>
+        <v>769</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="C52" s="16" t="s">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="D52" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -22207,10 +22255,10 @@
         <v>10</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>761</v>
+        <v>771</v>
       </c>
       <c r="F53" s="60" t="s">
-        <v>733</v>
+        <v>743</v>
       </c>
       <c r="G53" s="11">
         <v>500</v>
@@ -22221,7 +22269,7 @@
     </row>
     <row r="54" spans="1:8">
       <c r="C54" s="16" t="s">
-        <v>762</v>
+        <v>772</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -22229,10 +22277,10 @@
         <v>2</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>763</v>
+        <v>773</v>
       </c>
       <c r="F55" s="60" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="G55" s="11">
         <v>150</v>
@@ -22246,10 +22294,10 @@
         <v>2</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>765</v>
+        <v>775</v>
       </c>
       <c r="F56" s="60" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="G56" s="11">
         <v>50</v>
@@ -22263,10 +22311,10 @@
         <v>2</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>766</v>
+        <v>776</v>
       </c>
       <c r="F57" s="60" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="G57" s="11">
         <v>120</v>
@@ -22283,7 +22331,7 @@
         <v>455</v>
       </c>
       <c r="F58" s="60" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="G58" s="11">
         <v>50</v>
@@ -22300,10 +22348,10 @@
         <v>470</v>
       </c>
       <c r="E59" t="s">
-        <v>767</v>
+        <v>777</v>
       </c>
       <c r="F59" s="60" t="s">
-        <v>768</v>
+        <v>778</v>
       </c>
       <c r="G59" s="11">
         <v>1</v>
@@ -22314,10 +22362,10 @@
         <v>1</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>769</v>
+        <v>779</v>
       </c>
       <c r="F60" s="60" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="G60" s="11">
         <v>300</v>
@@ -22331,13 +22379,13 @@
         <v>20</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>770</v>
+        <v>780</v>
       </c>
       <c r="E61" t="s">
-        <v>771</v>
+        <v>781</v>
       </c>
       <c r="F61" s="60" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="G61" s="11">
         <v>1</v>
@@ -22348,13 +22396,13 @@
         <v>20</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>772</v>
+        <v>782</v>
       </c>
       <c r="D62" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
       <c r="E62" t="s">
-        <v>755</v>
+        <v>765</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -22362,16 +22410,16 @@
         <v>50</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>773</v>
+        <v>783</v>
       </c>
       <c r="D63" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
       <c r="E63" t="s">
-        <v>767</v>
+        <v>777</v>
       </c>
       <c r="F63" s="60" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="G63" s="11">
         <v>6</v>
@@ -22382,16 +22430,16 @@
         <v>2</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>774</v>
+        <v>784</v>
       </c>
       <c r="D64" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
       <c r="E64" t="s">
-        <v>767</v>
+        <v>777</v>
       </c>
       <c r="F64" s="60" t="s">
-        <v>775</v>
+        <v>785</v>
       </c>
       <c r="G64" s="11">
         <v>1</v>
@@ -22402,16 +22450,16 @@
         <v>2</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>776</v>
+        <v>786</v>
       </c>
       <c r="D65" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
       <c r="E65" t="s">
-        <v>767</v>
+        <v>777</v>
       </c>
       <c r="F65" s="60" t="s">
-        <v>775</v>
+        <v>785</v>
       </c>
       <c r="G65" s="11">
         <v>1</v>
@@ -22419,10 +22467,10 @@
     </row>
     <row r="66" spans="1:7">
       <c r="C66" s="16" t="s">
-        <v>777</v>
+        <v>787</v>
       </c>
       <c r="D66" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
       <c r="E66" t="s">
         <v>238</v>
@@ -22433,7 +22481,7 @@
         <v>595</v>
       </c>
       <c r="D67" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15.6">
@@ -22441,23 +22489,23 @@
         <v>600</v>
       </c>
       <c r="D68" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="C69" s="16" t="s">
-        <v>778</v>
+        <v>788</v>
       </c>
       <c r="D69" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="C70" s="16" t="s">
-        <v>779</v>
+        <v>789</v>
       </c>
       <c r="D70" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
       <c r="E70" t="s">
         <v>238</v>
@@ -22468,17 +22516,17 @@
         <v>2</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>780</v>
+        <v>790</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="C72" s="16" t="s">
-        <v>781</v>
+        <v>791</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="C73" s="16" t="s">
-        <v>782</v>
+        <v>792</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -22486,22 +22534,22 @@
         <v>2</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>783</v>
+        <v>793</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="C75" s="16" t="s">
-        <v>784</v>
+        <v>794</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="C76" s="16" t="s">
-        <v>785</v>
+        <v>795</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="C77" s="16" t="s">
-        <v>786</v>
+        <v>796</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -22509,7 +22557,7 @@
         <v>10</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>787</v>
+        <v>797</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -22517,7 +22565,7 @@
         <v>10</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>788</v>
+        <v>798</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -22525,7 +22573,7 @@
         <v>3</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>789</v>
+        <v>799</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -22533,12 +22581,12 @@
         <v>3</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>790</v>
+        <v>800</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="C82" s="16" t="s">
-        <v>791</v>
+        <v>801</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -22601,19 +22649,19 @@
   <sheetData>
     <row r="1" spans="1:6" s="13" customFormat="1" ht="31.5" customHeight="1">
       <c r="A1" s="53" t="s">
-        <v>689</v>
+        <v>699</v>
       </c>
       <c r="B1" s="68" t="s">
-        <v>792</v>
+        <v>802</v>
       </c>
       <c r="C1" s="68" t="s">
-        <v>793</v>
+        <v>803</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>794</v>
+        <v>804</v>
       </c>
       <c r="F1" s="53" t="s">
-        <v>795</v>
+        <v>805</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -22624,7 +22672,7 @@
         <v>302</v>
       </c>
       <c r="D2" t="s">
-        <v>796</v>
+        <v>806</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -22637,10 +22685,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="16" t="s">
-        <v>797</v>
+        <v>807</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>798</v>
+        <v>808</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -22648,23 +22696,23 @@
         <v>93</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>799</v>
+        <v>809</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="16" t="s">
-        <v>800</v>
+        <v>810</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>801</v>
+        <v>811</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="16" t="s">
-        <v>802</v>
+        <v>812</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>803</v>
+        <v>813</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -22672,7 +22720,7 @@
         <v>253</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>804</v>
+        <v>814</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -22680,7 +22728,7 @@
         <v>367</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>805</v>
+        <v>815</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -22688,7 +22736,7 @@
         <v>378</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>806</v>
+        <v>816</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -22723,7 +22771,7 @@
         <v>471</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>807</v>
+        <v>817</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -22731,7 +22779,7 @@
         <v>480</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>808</v>
+        <v>818</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>359</v>
@@ -22739,10 +22787,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="16" t="s">
-        <v>809</v>
+        <v>819</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>810</v>
+        <v>820</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>359</v>
@@ -22750,7 +22798,7 @@
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="16" t="s">
-        <v>811</v>
+        <v>821</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>12</v>
@@ -22775,7 +22823,7 @@
         <v>601</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>812</v>
+        <v>822</v>
       </c>
     </row>
     <row r="20" spans="2:6">
@@ -22783,7 +22831,7 @@
         <v>606</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>813</v>
+        <v>823</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>359</v>
@@ -22794,7 +22842,7 @@
         <v>509</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>814</v>
+        <v>824</v>
       </c>
     </row>
   </sheetData>
@@ -22807,8 +22855,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J128" workbookViewId="0">
-      <selection activeCell="A155" sqref="A155"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="B157" sqref="B157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -22838,7 +22886,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="107" t="s">
-        <v>815</v>
+        <v>825</v>
       </c>
       <c r="G1" s="107" t="s">
         <v>9</v>
@@ -22850,7 +22898,7 @@
         <v>10</v>
       </c>
       <c r="J1" s="107" t="s">
-        <v>816</v>
+        <v>826</v>
       </c>
       <c r="K1" s="108" t="s">
         <v>12</v>
@@ -29021,7 +29069,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="109" t="s">
-        <v>817</v>
+        <v>827</v>
       </c>
       <c r="C133" s="109" t="str">
         <f>Aufgabenkatalog!G133</f>
@@ -29108,7 +29156,7 @@
         <v>false</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" hidden="1">
       <c r="A135" s="109">
         <f>Aufgabenkatalog!A135</f>
         <v>134</v>
@@ -29152,10 +29200,10 @@
       </c>
       <c r="M135" s="109" t="str">
         <f>IF(Aufgabenkatalog!C135="Ja","true","false")</f>
-        <v>false</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13">
+        <v>true</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" hidden="1">
       <c r="A136" s="109">
         <f>Aufgabenkatalog!A136</f>
         <v>135</v>
@@ -29284,7 +29332,7 @@
       </c>
       <c r="M138" s="109" t="str">
         <f>IF(Aufgabenkatalog!C138="Ja","true","false")</f>
-        <v>false</v>
+        <v>true</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -29426,7 +29474,7 @@
       </c>
       <c r="B142" s="109" t="str">
         <f>Aufgabenkatalog!E142</f>
-        <v>CaEx High Kicks Slot 1 Donnerstag</v>
+        <v>CaEx High Kicks  Donnerstag</v>
       </c>
       <c r="C142" s="109" t="str">
         <f>Aufgabenkatalog!G142</f>
@@ -29470,7 +29518,7 @@
       </c>
       <c r="B143" s="109" t="str">
         <f>Aufgabenkatalog!E143</f>
-        <v>CaEx High Kicks Slot 1 Donnerstag</v>
+        <v>CaEx High Kicks  Donnerstag</v>
       </c>
       <c r="C143" s="109" t="str">
         <f>Aufgabenkatalog!G143</f>
@@ -29514,7 +29562,7 @@
       </c>
       <c r="B144" s="109" t="str">
         <f>Aufgabenkatalog!E144</f>
-        <v>CaEx High Kicks Slot 1 Donnerstag</v>
+        <v>CaEx High Kicks  Donnerstag</v>
       </c>
       <c r="C144" s="109" t="str">
         <f>Aufgabenkatalog!G144</f>
@@ -29558,7 +29606,7 @@
       </c>
       <c r="B145" s="109" t="str">
         <f>Aufgabenkatalog!E145</f>
-        <v>CaEx High Kicks Slot 1 Donnerstag</v>
+        <v>CaEx High Kicks  Donnerstag</v>
       </c>
       <c r="C145" s="109" t="str">
         <f>Aufgabenkatalog!G145</f>
@@ -29602,7 +29650,7 @@
       </c>
       <c r="B146" s="109" t="str">
         <f>Aufgabenkatalog!E146</f>
-        <v>CaEx High Kicks Slot 1 Donnerstag</v>
+        <v>CaEx High Kicks  Donnerstag</v>
       </c>
       <c r="C146" s="109" t="str">
         <f>Aufgabenkatalog!G146</f>
@@ -29646,7 +29694,7 @@
       </c>
       <c r="B147" s="109" t="str">
         <f>Aufgabenkatalog!E147</f>
-        <v>CaEx High Kicks Slot 1 Donnerstag</v>
+        <v>CaEx High Kicks  Donnerstag</v>
       </c>
       <c r="C147" s="109" t="str">
         <f>Aufgabenkatalog!G147</f>
@@ -29690,7 +29738,7 @@
       </c>
       <c r="B148" s="109" t="str">
         <f>Aufgabenkatalog!E148</f>
-        <v>CaEx High Kicks Slot 1 Donnerstag</v>
+        <v>CaEx High Kicks  Donnerstag</v>
       </c>
       <c r="C148" s="109" t="str">
         <f>Aufgabenkatalog!G148</f>
@@ -29734,7 +29782,7 @@
       </c>
       <c r="B149" s="109" t="str">
         <f>Aufgabenkatalog!E149</f>
-        <v>CaEx High Kicks Slot 1 Donnerstag</v>
+        <v>CaEx High Kicks  Donnerstag</v>
       </c>
       <c r="C149" s="109" t="str">
         <f>Aufgabenkatalog!G149</f>
@@ -29772,354 +29820,354 @@
       </c>
     </row>
     <row r="150" spans="1:13">
-      <c r="A150" s="109">
-        <f>Aufgabenkatalog!A150</f>
-        <v>150</v>
-      </c>
-      <c r="B150" s="109" t="str">
-        <f>Aufgabenkatalog!E150</f>
-        <v>CaEx High Kicks Slot 1 Donnerstag</v>
-      </c>
-      <c r="C150" s="109" t="str">
-        <f>Aufgabenkatalog!G150</f>
-        <v>CaEx High Kicks Slot Thursday</v>
-      </c>
-      <c r="D150" s="109" t="str">
-        <f>Aufgabenkatalog!F150</f>
-        <v>Melde dich beim CaEx High Kicks an, Slots: 14:30 (KingX)  - Tickets gibt’s bei den Pieces</v>
-      </c>
-      <c r="E150" s="109" t="str">
-        <f>Aufgabenkatalog!H150</f>
-        <v>Sign up for CaEx High Kicks, Slots: 14:30 (KingX) - Tickets available at the Pieces</v>
+      <c r="A150" s="109" t="e">
+        <f>Aufgabenkatalog!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B150" s="109" t="e">
+        <f>Aufgabenkatalog!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C150" s="109" t="e">
+        <f>Aufgabenkatalog!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D150" s="109" t="e">
+        <f>Aufgabenkatalog!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E150" s="109" t="e">
+        <f>Aufgabenkatalog!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F150" s="109">
         <v>0</v>
       </c>
-      <c r="G150" s="109">
-        <f>Aufgabenkatalog!J150</f>
-        <v>120</v>
-      </c>
-      <c r="H150" s="109">
-        <f>Aufgabenkatalog!L150</f>
-        <v>3</v>
+      <c r="G150" s="109" t="e">
+        <f>Aufgabenkatalog!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H150" s="109" t="e">
+        <f>Aufgabenkatalog!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="I150" s="109"/>
       <c r="J150" s="109"/>
       <c r="K150" s="109"/>
-      <c r="L150" s="109">
-        <f>Aufgabenkatalog!N150</f>
-        <v>0</v>
-      </c>
-      <c r="M150" s="109" t="str">
-        <f>IF(Aufgabenkatalog!C150="Ja","true","false")</f>
-        <v>false</v>
+      <c r="L150" s="109" t="e">
+        <f>Aufgabenkatalog!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M150" s="109" t="e">
+        <f>IF(Aufgabenkatalog!#REF!="Ja","true","false")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="151" spans="1:13">
       <c r="A151" s="109">
-        <f>Aufgabenkatalog!A151</f>
+        <f>Aufgabenkatalog!A150</f>
         <v>151</v>
       </c>
       <c r="B151" s="109" t="str">
-        <f>Aufgabenkatalog!E151</f>
-        <v>CaEx High Kicks Slot 1 Freitag</v>
+        <f>Aufgabenkatalog!E150</f>
+        <v>CaEx High Kicks  Freitag</v>
       </c>
       <c r="C151" s="109" t="str">
-        <f>Aufgabenkatalog!G151</f>
+        <f>Aufgabenkatalog!G150</f>
         <v>CaEx High Kicks Slot Thursday</v>
       </c>
       <c r="D151" s="109" t="str">
-        <f>Aufgabenkatalog!F151</f>
-        <v>Melde dich beim CaEx High Kicks an, Slots: 16:00 (KingX)  - Tickets gibt’s bei den Pieces</v>
+        <f>Aufgabenkatalog!F150</f>
+        <v>Melde dich beim CaEx High Kicks an, Slots: 14:30 (KingX)  - Tickets gibt’s bei den Pieces</v>
       </c>
       <c r="E151" s="109" t="str">
-        <f>Aufgabenkatalog!H151</f>
+        <f>Aufgabenkatalog!H150</f>
         <v>Sign up for CaEx High Kicks, Slots: 14:30 (KingX) - Tickets available at the Pieces</v>
       </c>
       <c r="F151" s="109">
         <v>0</v>
       </c>
       <c r="G151" s="109">
-        <f>Aufgabenkatalog!J151</f>
+        <f>Aufgabenkatalog!J150</f>
         <v>120</v>
       </c>
       <c r="H151" s="109">
-        <f>Aufgabenkatalog!L151</f>
+        <f>Aufgabenkatalog!L150</f>
         <v>3</v>
       </c>
       <c r="I151" s="109"/>
       <c r="J151" s="109"/>
       <c r="K151" s="109"/>
       <c r="L151" s="109">
-        <f>Aufgabenkatalog!N151</f>
+        <f>Aufgabenkatalog!N150</f>
         <v>0</v>
       </c>
       <c r="M151" s="109" t="str">
-        <f>IF(Aufgabenkatalog!C151="Ja","true","false")</f>
-        <v>false</v>
+        <f>IF(Aufgabenkatalog!C150="Ja","true","false")</f>
+        <v>true</v>
       </c>
     </row>
     <row r="152" spans="1:13">
       <c r="A152" s="109">
-        <f>Aufgabenkatalog!A152</f>
+        <f>Aufgabenkatalog!A151</f>
         <v>152</v>
       </c>
       <c r="B152" s="109" t="str">
-        <f>Aufgabenkatalog!E152</f>
-        <v>CaEx High Kicks Slot 1 Freitag</v>
+        <f>Aufgabenkatalog!E151</f>
+        <v>CaEx High Kicks  Freitag</v>
       </c>
       <c r="C152" s="109" t="str">
-        <f>Aufgabenkatalog!G152</f>
+        <f>Aufgabenkatalog!G151</f>
         <v>CaEx High Kicks Slot Thursday</v>
       </c>
       <c r="D152" s="109" t="str">
-        <f>Aufgabenkatalog!F152</f>
+        <f>Aufgabenkatalog!F151</f>
         <v>Melde dich beim CaEx High Kicks an, Slots: 16:00 (KingX)  - Tickets gibt’s bei den Pieces</v>
       </c>
       <c r="E152" s="109" t="str">
-        <f>Aufgabenkatalog!H152</f>
-        <v>Sign up for CaEx High Kicks, Slots: 14:30 (KingX) - Tickets available at the Pieces</v>
+        <f>Aufgabenkatalog!H151</f>
+        <v>Sign up for CaEx High Kicks, Slots: 16:00 (KingX) - tickets available at the Pieces</v>
       </c>
       <c r="F152" s="109">
         <v>0</v>
       </c>
       <c r="G152" s="109">
-        <f>Aufgabenkatalog!J152</f>
+        <f>Aufgabenkatalog!J151</f>
         <v>120</v>
       </c>
       <c r="H152" s="109">
-        <f>Aufgabenkatalog!L152</f>
+        <f>Aufgabenkatalog!L151</f>
         <v>3</v>
       </c>
       <c r="I152" s="109"/>
       <c r="J152" s="109"/>
       <c r="K152" s="109"/>
       <c r="L152" s="109">
-        <f>Aufgabenkatalog!N152</f>
+        <f>Aufgabenkatalog!N151</f>
         <v>0</v>
       </c>
       <c r="M152" s="109" t="str">
-        <f>IF(Aufgabenkatalog!C152="Ja","true","false")</f>
+        <f>IF(Aufgabenkatalog!C151="Ja","true","false")</f>
         <v>false</v>
       </c>
     </row>
     <row r="153" spans="1:13">
       <c r="A153" s="109">
-        <f>Aufgabenkatalog!A153</f>
+        <f>Aufgabenkatalog!A152</f>
         <v>153</v>
       </c>
       <c r="B153" s="109" t="str">
-        <f>Aufgabenkatalog!E153</f>
-        <v>CaEx High Kicks Slot 1 Samstag</v>
+        <f>Aufgabenkatalog!E152</f>
+        <v>CaEx High Kicks  Samstag</v>
       </c>
       <c r="C153" s="109" t="str">
-        <f>Aufgabenkatalog!G153</f>
+        <f>Aufgabenkatalog!G152</f>
         <v>CaEx High Kicks Slot Thursday</v>
       </c>
       <c r="D153" s="109" t="str">
-        <f>Aufgabenkatalog!F153</f>
+        <f>Aufgabenkatalog!F152</f>
         <v>Melde dich beim CaEx High Kicks an, Slots: 16:00 (KingX)  - Tickets gibt’s bei den Pieces</v>
       </c>
       <c r="E153" s="109" t="str">
-        <f>Aufgabenkatalog!H153</f>
-        <v>Sign up for CaEx High Kicks, Slots: 14:30 (KingX) - Tickets available at the Pieces</v>
+        <f>Aufgabenkatalog!H152</f>
+        <v>Sign up for CaEx High Kicks, Slots: 16:00 (KingX) - tickets available at the Pieces</v>
       </c>
       <c r="F153" s="109">
         <v>0</v>
       </c>
       <c r="G153" s="109">
-        <f>Aufgabenkatalog!J153</f>
+        <f>Aufgabenkatalog!J152</f>
         <v>120</v>
       </c>
       <c r="H153" s="109">
-        <f>Aufgabenkatalog!L153</f>
+        <f>Aufgabenkatalog!L152</f>
         <v>3</v>
       </c>
       <c r="I153" s="109"/>
       <c r="J153" s="109"/>
       <c r="K153" s="109"/>
       <c r="L153" s="109">
-        <f>Aufgabenkatalog!N153</f>
+        <f>Aufgabenkatalog!N152</f>
         <v>0</v>
       </c>
       <c r="M153" s="109" t="str">
-        <f>IF(Aufgabenkatalog!C153="Ja","true","false")</f>
+        <f>IF(Aufgabenkatalog!C152="Ja","true","false")</f>
         <v>false</v>
       </c>
     </row>
     <row r="154" spans="1:13">
       <c r="A154" s="109">
-        <f>Aufgabenkatalog!A154</f>
+        <f>Aufgabenkatalog!A153</f>
         <v>154</v>
       </c>
       <c r="B154" s="109" t="str">
-        <f>Aufgabenkatalog!E154</f>
-        <v>CaEx High Kicks Slot 1 Dienstag</v>
+        <f>Aufgabenkatalog!E153</f>
+        <v>CaEx High Kicks  Dienstag</v>
       </c>
       <c r="C154" s="109" t="str">
-        <f>Aufgabenkatalog!G154</f>
+        <f>Aufgabenkatalog!G153</f>
         <v>CaEx High Kicks Slot Thursday</v>
       </c>
       <c r="D154" s="109" t="str">
-        <f>Aufgabenkatalog!F154</f>
+        <f>Aufgabenkatalog!F153</f>
         <v>Melde dich beim CaEx High Kicks an, Slots: 14:30 (KingX)  - Tickets gibt’s bei den Pieces</v>
       </c>
       <c r="E154" s="109" t="str">
-        <f>Aufgabenkatalog!H154</f>
+        <f>Aufgabenkatalog!H153</f>
         <v>Sign up for CaEx High Kicks, Slots: 14:30 (KingX) - Tickets available at the Pieces</v>
       </c>
       <c r="F154" s="109">
         <v>0</v>
       </c>
       <c r="G154" s="109">
-        <f>Aufgabenkatalog!J154</f>
+        <f>Aufgabenkatalog!J153</f>
         <v>120</v>
       </c>
       <c r="H154" s="109">
-        <f>Aufgabenkatalog!L154</f>
+        <f>Aufgabenkatalog!L153</f>
         <v>3</v>
       </c>
       <c r="I154" s="109"/>
       <c r="J154" s="109"/>
       <c r="K154" s="109"/>
       <c r="L154" s="109">
-        <f>Aufgabenkatalog!N154</f>
+        <f>Aufgabenkatalog!N153</f>
         <v>0</v>
       </c>
       <c r="M154" s="109" t="str">
-        <f>IF(Aufgabenkatalog!C154="Ja","true","false")</f>
+        <f>IF(Aufgabenkatalog!C153="Ja","true","false")</f>
         <v>false</v>
       </c>
     </row>
     <row r="155" spans="1:13">
       <c r="A155" s="109">
-        <f>Aufgabenkatalog!A155</f>
+        <f>Aufgabenkatalog!A154</f>
         <v>155</v>
       </c>
       <c r="B155" s="109" t="str">
-        <f>Aufgabenkatalog!E155</f>
-        <v>CaEx High Kicks Slot 1 Dienstag</v>
+        <f>Aufgabenkatalog!E154</f>
+        <v>CaEx High Kicks  Dienstag</v>
       </c>
       <c r="C155" s="109" t="str">
-        <f>Aufgabenkatalog!G155</f>
+        <f>Aufgabenkatalog!G154</f>
         <v>CaEx High Kicks Slot Thursday</v>
       </c>
       <c r="D155" s="109" t="str">
-        <f>Aufgabenkatalog!F155</f>
+        <f>Aufgabenkatalog!F154</f>
         <v>Melde dich beim CaEx High Kicks an, Slots: 16:00 (KingX)  - Tickets gibt’s bei den Pieces</v>
       </c>
       <c r="E155" s="109" t="str">
-        <f>Aufgabenkatalog!H155</f>
+        <f>Aufgabenkatalog!H154</f>
         <v>Sign up for CaEx High Kicks, Slots: 16:00 (KingX) - Tickets available at the Pieces</v>
       </c>
       <c r="F155" s="109">
         <v>0</v>
       </c>
       <c r="G155" s="109">
-        <f>Aufgabenkatalog!J155</f>
+        <f>Aufgabenkatalog!J154</f>
         <v>120</v>
       </c>
       <c r="H155" s="109">
-        <f>Aufgabenkatalog!L155</f>
+        <f>Aufgabenkatalog!L154</f>
         <v>3</v>
       </c>
       <c r="I155" s="109"/>
       <c r="J155" s="109"/>
       <c r="K155" s="109"/>
       <c r="L155" s="109">
-        <f>Aufgabenkatalog!N155</f>
+        <f>Aufgabenkatalog!N154</f>
         <v>0</v>
       </c>
       <c r="M155" s="109" t="str">
-        <f>IF(Aufgabenkatalog!C155="Ja","true","false")</f>
+        <f>IF(Aufgabenkatalog!C154="Ja","true","false")</f>
         <v>false</v>
       </c>
     </row>
     <row r="156" spans="1:13">
       <c r="A156" s="109">
-        <f>Aufgabenkatalog!A156</f>
+        <f>Aufgabenkatalog!A155</f>
         <v>156</v>
       </c>
       <c r="B156" s="109" t="str">
-        <f>Aufgabenkatalog!E156</f>
-        <v>CaEx High Kicks Slot 1 Dienstag</v>
+        <f>Aufgabenkatalog!E155</f>
+        <v>CaEx High Kicks  Dienstag</v>
       </c>
       <c r="C156" s="109" t="str">
-        <f>Aufgabenkatalog!G156</f>
+        <f>Aufgabenkatalog!G155</f>
         <v>CaEx High Kicks Slot Thursday</v>
       </c>
       <c r="D156" s="109" t="str">
-        <f>Aufgabenkatalog!F156</f>
+        <f>Aufgabenkatalog!F155</f>
         <v>Melde dich beim CaEx High Kicks an, Slots: 14:45 (Zipline) - Tickets gibt’s bei den Pieces</v>
       </c>
       <c r="E156" s="109" t="str">
-        <f>Aufgabenkatalog!H156</f>
-        <v>Sign up for CaEx High Kicks, slots: 14:45 (Zipline) - Tickets available at the Pieces</v>
+        <f>Aufgabenkatalog!H155</f>
+        <v>Sign up for CaEx High Kicks, Slots: 14:45 (Zipline) - tickets available at the Pieces</v>
       </c>
       <c r="F156" s="109">
         <v>0</v>
       </c>
       <c r="G156" s="109">
-        <f>Aufgabenkatalog!J156</f>
+        <f>Aufgabenkatalog!J155</f>
         <v>60</v>
       </c>
       <c r="H156" s="109">
-        <f>Aufgabenkatalog!L156</f>
+        <f>Aufgabenkatalog!L155</f>
         <v>2</v>
       </c>
       <c r="I156" s="109"/>
       <c r="J156" s="109"/>
       <c r="K156" s="109"/>
       <c r="L156" s="109" t="str">
-        <f>Aufgabenkatalog!N156</f>
+        <f>Aufgabenkatalog!N155</f>
         <v>-</v>
       </c>
       <c r="M156" s="109" t="str">
-        <f>IF(Aufgabenkatalog!C156="Ja","true","false")</f>
+        <f>IF(Aufgabenkatalog!C155="Ja","true","false")</f>
         <v>false</v>
       </c>
     </row>
     <row r="157" spans="1:13">
       <c r="A157" s="109">
-        <f>Aufgabenkatalog!A157</f>
-        <v>156</v>
+        <f>Aufgabenkatalog!A156</f>
+        <v>157</v>
       </c>
       <c r="B157" s="109" t="str">
-        <f>Aufgabenkatalog!E157</f>
-        <v>CaEx High Kicks Slot 1 Dienstag</v>
+        <f>Aufgabenkatalog!E156</f>
+        <v>CaEx High Kicks  Dienstag</v>
       </c>
       <c r="C157" s="109" t="str">
-        <f>Aufgabenkatalog!G157</f>
+        <f>Aufgabenkatalog!G156</f>
         <v>CaEx High Kicks Slot Thursday</v>
       </c>
       <c r="D157" s="109" t="str">
-        <f>Aufgabenkatalog!F157</f>
+        <f>Aufgabenkatalog!F156</f>
         <v>Melde dich beim CaEx High Kicks an, Slots: 15:15 (Zipline) - Tickets gibt’s bei den Pieces</v>
       </c>
       <c r="E157" s="109" t="str">
-        <f>Aufgabenkatalog!H157</f>
-        <v>Sign up for CaEx High Kicks, slots: 14:45 (Zipline) - Tickets available at the Pieces</v>
+        <f>Aufgabenkatalog!H156</f>
+        <v>Sign up for CaEx High Kicks, Slots: 15:15 (Zipline) - Tickets available at the Pieces</v>
       </c>
       <c r="F157" s="109">
         <v>0</v>
       </c>
       <c r="G157" s="109">
-        <f>Aufgabenkatalog!J157</f>
+        <f>Aufgabenkatalog!J156</f>
         <v>60</v>
       </c>
       <c r="H157" s="109">
-        <f>Aufgabenkatalog!L157</f>
+        <f>Aufgabenkatalog!L156</f>
         <v>2</v>
       </c>
       <c r="I157" s="109"/>
       <c r="J157" s="109"/>
       <c r="K157" s="109"/>
       <c r="L157" s="109" t="str">
-        <f>Aufgabenkatalog!N157</f>
+        <f>Aufgabenkatalog!N156</f>
         <v>-</v>
       </c>
       <c r="M157" s="109" t="str">
-        <f>IF(Aufgabenkatalog!C157="Ja","true","false")</f>
+        <f>IF(Aufgabenkatalog!C156="Ja","true","false")</f>
         <v>false</v>
       </c>
     </row>
@@ -30137,6 +30185,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="560b4f41-a4e7-4222-8b43-3e9fe5c92fe3" xsi:nil="true"/>
@@ -30148,7 +30205,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100DF62AD970F9A6B40AEC446DFC723E2E7" ma:contentTypeVersion="18" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="2ee5de522d8969a87915241833e169e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e71fd78-3e96-49c3-9420-53931bd42b51" xmlns:ns3="560b4f41-a4e7-4222-8b43-3e9fe5c92fe3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f0565dce9d753535fb46b0675310da8" ns2:_="" ns3:_="">
     <xsd:import namespace="1e71fd78-3e96-49c3-9420-53931bd42b51"/>
@@ -30405,23 +30462,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2E729D6-ECE4-41C6-ADAB-82A40A7030B2}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F68D982-58DF-4F63-BD9F-DE9DC568D661}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE651BA1-3BDA-4F8F-9625-2ABBB82D566C}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2E729D6-ECE4-41C6-ADAB-82A40A7030B2}"/>
 </file>
--- a/convert/together23_pieces_datenbank.xlsx
+++ b/convert/together23_pieces_datenbank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26809"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26807"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ooepp.sharepoint.com/sites/Landeslager2023/Freigegebene Dokumente/General/CaEx/Programm/Challenges/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2704" documentId="11_190DAA1207F0DBD6ED48F50D4A2FF690CFA73119" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA1F4902-54AE-4913-9FB8-5A4108394FD2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84DF19B2-33BB-4F29-9776-F1A112F4FDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="27288" windowHeight="17544" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="27288" windowHeight="17544" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgabenkatalog" sheetId="1" r:id="rId1"/>
@@ -3831,7 +3831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV500"/>
   <sheetViews>
-    <sheetView topLeftCell="A326" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H329" workbookViewId="0">
       <selection activeCell="L174" sqref="L174:L340"/>
     </sheetView>
   </sheetViews>
@@ -16541,7 +16541,9 @@
       <c r="I173" s="6"/>
       <c r="J173" s="6"/>
       <c r="K173" s="9"/>
-      <c r="L173" s="10"/>
+      <c r="L173" s="10">
+        <v>1</v>
+      </c>
       <c r="M173" s="9"/>
       <c r="N173" s="19"/>
       <c r="O173" s="2"/>
@@ -16613,7 +16615,7 @@
       </c>
       <c r="K174" s="6"/>
       <c r="L174" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M174" s="6"/>
       <c r="N174" s="64" t="s">
@@ -16688,7 +16690,7 @@
       </c>
       <c r="K175" s="6"/>
       <c r="L175" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M175" s="6"/>
       <c r="N175" s="65" t="s">
@@ -16763,7 +16765,7 @@
       </c>
       <c r="K176" s="6"/>
       <c r="L176" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M176" s="6"/>
       <c r="N176" s="64" t="s">
@@ -16840,7 +16842,7 @@
         <v>55</v>
       </c>
       <c r="L177" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M177" s="22"/>
       <c r="N177" s="28" t="s">
@@ -16915,7 +16917,7 @@
       </c>
       <c r="K178" s="6"/>
       <c r="L178" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M178" s="71" t="s">
         <v>60</v>
@@ -16992,7 +16994,7 @@
       </c>
       <c r="K179" s="22"/>
       <c r="L179" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M179" s="22"/>
       <c r="N179" s="28" t="s">
@@ -17067,7 +17069,7 @@
       </c>
       <c r="K180" s="6"/>
       <c r="L180" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M180" s="6"/>
       <c r="N180" s="40" t="s">
@@ -17142,7 +17144,7 @@
       </c>
       <c r="K181" s="6"/>
       <c r="L181" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M181" s="6"/>
       <c r="N181" s="40" t="s">
@@ -17217,7 +17219,7 @@
       </c>
       <c r="K182" s="6"/>
       <c r="L182" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M182" s="6"/>
       <c r="N182" s="40" t="s">
@@ -17292,7 +17294,7 @@
       </c>
       <c r="K183" s="6"/>
       <c r="L183" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M183" s="6"/>
       <c r="N183" s="37" t="s">
@@ -17367,7 +17369,7 @@
       </c>
       <c r="K184" s="6"/>
       <c r="L184" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M184" s="6"/>
       <c r="N184" s="64" t="s">
@@ -17442,7 +17444,7 @@
       </c>
       <c r="K185" s="6"/>
       <c r="L185" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M185" s="6"/>
       <c r="N185" s="64" t="s">
@@ -17517,7 +17519,7 @@
       </c>
       <c r="K186" s="6"/>
       <c r="L186" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M186" s="6"/>
       <c r="N186" s="64" t="s">
@@ -17592,7 +17594,7 @@
       </c>
       <c r="K187" s="23"/>
       <c r="L187" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M187" s="22"/>
       <c r="N187" s="41" t="s">
@@ -17667,7 +17669,7 @@
       </c>
       <c r="K188" s="6"/>
       <c r="L188" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M188" s="6"/>
       <c r="N188" s="37" t="s">
@@ -17742,7 +17744,7 @@
       </c>
       <c r="K189" s="6"/>
       <c r="L189" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M189" s="6"/>
       <c r="N189" s="37" t="s">
@@ -17817,7 +17819,7 @@
       </c>
       <c r="K190" s="22"/>
       <c r="L190" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M190" s="22"/>
       <c r="N190" s="43" t="s">
@@ -17892,7 +17894,7 @@
       </c>
       <c r="K191" s="6"/>
       <c r="L191" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M191" s="6"/>
       <c r="N191" s="37" t="s">
@@ -17967,7 +17969,7 @@
       </c>
       <c r="K192" s="6"/>
       <c r="L192" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M192" s="6"/>
       <c r="N192" s="64" t="s">
@@ -18042,7 +18044,7 @@
       </c>
       <c r="K193" s="6"/>
       <c r="L193" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M193" s="6"/>
       <c r="N193" s="64" t="s">
@@ -18117,7 +18119,7 @@
       </c>
       <c r="K194" s="6"/>
       <c r="L194" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M194" s="6"/>
       <c r="N194" s="64" t="s">
@@ -18192,7 +18194,7 @@
       </c>
       <c r="K195" s="6"/>
       <c r="L195" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M195" s="6"/>
       <c r="N195" s="64" t="s">
@@ -18267,7 +18269,7 @@
       </c>
       <c r="K196" s="6"/>
       <c r="L196" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M196" s="6"/>
       <c r="N196" s="18" t="s">
@@ -18342,7 +18344,7 @@
       </c>
       <c r="K197" s="6"/>
       <c r="L197" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M197" s="6"/>
       <c r="N197" s="64" t="s">
@@ -18417,7 +18419,7 @@
       </c>
       <c r="K198" s="46"/>
       <c r="L198" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M198" s="46"/>
       <c r="N198" s="52" t="s">
@@ -18492,7 +18494,7 @@
       </c>
       <c r="K199" s="6"/>
       <c r="L199" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M199" s="6"/>
       <c r="N199" s="64" t="s">
@@ -18567,7 +18569,7 @@
       </c>
       <c r="K200" s="6"/>
       <c r="L200" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M200" s="6"/>
       <c r="N200" s="64" t="s">
@@ -18642,7 +18644,7 @@
       </c>
       <c r="K201" s="22"/>
       <c r="L201" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M201" s="22"/>
       <c r="N201" s="43" t="s">
@@ -18717,7 +18719,7 @@
       </c>
       <c r="K202" s="6"/>
       <c r="L202" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M202" s="6"/>
       <c r="N202" s="37" t="s">
@@ -18792,7 +18794,7 @@
       </c>
       <c r="K203" s="6"/>
       <c r="L203" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M203" s="6"/>
       <c r="N203" s="37" t="s">
@@ -18867,7 +18869,7 @@
       </c>
       <c r="K204" s="96"/>
       <c r="L204" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M204" s="96" t="s">
         <v>178</v>
@@ -18944,7 +18946,7 @@
       </c>
       <c r="K205" s="6"/>
       <c r="L205" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M205" s="6" t="s">
         <v>178</v>
@@ -19021,7 +19023,7 @@
       </c>
       <c r="K206" s="6"/>
       <c r="L206" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M206" s="93" t="s">
         <v>187</v>
@@ -19098,7 +19100,7 @@
       </c>
       <c r="K207" s="6"/>
       <c r="L207" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M207" s="6"/>
       <c r="N207" s="37" t="s">
@@ -19173,7 +19175,7 @@
       </c>
       <c r="K208" s="6"/>
       <c r="L208" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M208" s="6"/>
       <c r="N208" s="64" t="s">
@@ -19248,7 +19250,7 @@
       </c>
       <c r="K209" s="6"/>
       <c r="L209" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M209" s="6"/>
       <c r="N209" s="37" t="s">
@@ -19323,7 +19325,7 @@
       </c>
       <c r="K210" s="6"/>
       <c r="L210" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M210" s="6"/>
       <c r="N210" s="37" t="s">
@@ -19398,7 +19400,7 @@
       </c>
       <c r="K211" s="6"/>
       <c r="L211" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M211" s="6"/>
       <c r="N211" s="37" t="s">
@@ -19473,7 +19475,7 @@
       </c>
       <c r="K212" s="6"/>
       <c r="L212" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M212" s="6"/>
       <c r="N212" s="37" t="s">
@@ -19548,7 +19550,7 @@
       </c>
       <c r="K213" s="6"/>
       <c r="L213" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M213" s="6"/>
       <c r="N213" s="64" t="s">
@@ -19623,7 +19625,7 @@
       </c>
       <c r="K214" s="6"/>
       <c r="L214" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M214" s="6"/>
       <c r="N214" s="37" t="s">
@@ -19698,7 +19700,7 @@
       </c>
       <c r="K215" s="6"/>
       <c r="L215" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M215" s="6"/>
       <c r="N215" s="37" t="s">
@@ -19773,7 +19775,7 @@
       </c>
       <c r="K216" s="6"/>
       <c r="L216" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M216" s="6"/>
       <c r="N216" s="37" t="s">
@@ -19826,7 +19828,7 @@
       </c>
       <c r="K217" s="6"/>
       <c r="L217" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M217" s="6"/>
       <c r="N217" s="37" t="s">
@@ -19879,7 +19881,7 @@
       </c>
       <c r="K218" s="88"/>
       <c r="L218" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M218" s="88"/>
       <c r="N218" s="90" t="s">
@@ -19930,7 +19932,7 @@
       <c r="J219" s="22"/>
       <c r="K219" s="22"/>
       <c r="L219" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M219" s="22"/>
       <c r="N219" s="43" t="s">
@@ -19983,7 +19985,7 @@
       </c>
       <c r="K220" s="6"/>
       <c r="L220" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M220" s="6"/>
       <c r="N220" s="64" t="s">
@@ -20036,7 +20038,7 @@
       </c>
       <c r="K221" s="6"/>
       <c r="L221" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M221" s="93" t="s">
         <v>252</v>
@@ -20091,7 +20093,7 @@
       </c>
       <c r="K222" s="22"/>
       <c r="L222" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M222" s="22"/>
       <c r="N222" s="67" t="s">
@@ -20144,7 +20146,7 @@
       </c>
       <c r="K223" s="6"/>
       <c r="L223" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M223" s="93" t="s">
         <v>262</v>
@@ -20199,7 +20201,7 @@
       </c>
       <c r="K224" s="6"/>
       <c r="L224" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M224" s="6"/>
       <c r="N224" s="64" t="s">
@@ -20252,7 +20254,7 @@
       </c>
       <c r="K225" s="23"/>
       <c r="L225" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M225" s="22"/>
       <c r="N225" s="41" t="s">
@@ -20305,7 +20307,7 @@
       </c>
       <c r="K226" s="46"/>
       <c r="L226" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M226" s="46"/>
       <c r="N226" s="48" t="s">
@@ -20358,7 +20360,7 @@
       </c>
       <c r="K227" s="6"/>
       <c r="L227" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M227" s="6"/>
       <c r="N227" s="64" t="s">
@@ -20411,7 +20413,7 @@
       </c>
       <c r="K228" s="6"/>
       <c r="L228" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M228" s="6"/>
       <c r="N228" s="64" t="s">
@@ -20464,7 +20466,7 @@
       </c>
       <c r="K229" s="6"/>
       <c r="L229" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M229" s="6"/>
       <c r="N229" s="64" t="s">
@@ -20517,7 +20519,7 @@
       </c>
       <c r="K230" s="6"/>
       <c r="L230" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M230" s="6"/>
       <c r="N230" s="37" t="s">
@@ -20570,7 +20572,7 @@
       </c>
       <c r="K231" s="6"/>
       <c r="L231" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M231" s="6"/>
       <c r="N231" s="37" t="s">
@@ -20623,7 +20625,7 @@
       </c>
       <c r="K232" s="6"/>
       <c r="L232" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M232" s="6"/>
       <c r="N232" s="64" t="s">
@@ -20676,7 +20678,7 @@
       </c>
       <c r="K233" s="6"/>
       <c r="L233" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M233" s="6"/>
       <c r="N233" s="18" t="s">
@@ -20729,7 +20731,7 @@
       </c>
       <c r="K234" s="6"/>
       <c r="L234" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M234" s="6"/>
       <c r="N234" s="64" t="s">
@@ -20782,7 +20784,7 @@
       </c>
       <c r="K235" s="6"/>
       <c r="L235" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M235" s="6"/>
       <c r="N235" s="37" t="s">
@@ -20835,7 +20837,7 @@
       </c>
       <c r="K236" s="22"/>
       <c r="L236" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M236" s="22"/>
       <c r="N236" s="43" t="s">
@@ -20888,7 +20890,7 @@
       </c>
       <c r="K237" s="6"/>
       <c r="L237" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M237" s="6"/>
       <c r="N237" s="64" t="s">
@@ -20941,7 +20943,7 @@
       </c>
       <c r="K238" s="6"/>
       <c r="L238" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M238" s="6"/>
       <c r="N238" s="64" t="s">
@@ -20994,7 +20996,7 @@
       </c>
       <c r="K239" s="6"/>
       <c r="L239" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M239" s="93" t="s">
         <v>329</v>
@@ -21047,7 +21049,7 @@
       </c>
       <c r="K240" s="22"/>
       <c r="L240" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M240" s="22"/>
       <c r="N240" s="119" t="s">
@@ -21098,7 +21100,7 @@
       </c>
       <c r="K241" s="22"/>
       <c r="L241" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M241" s="22"/>
       <c r="N241" s="119" t="s">
@@ -21149,7 +21151,7 @@
       </c>
       <c r="K242" s="22"/>
       <c r="L242" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M242" s="22"/>
       <c r="N242" s="119" t="s">
@@ -21198,7 +21200,7 @@
       <c r="J243" s="22"/>
       <c r="K243" s="22"/>
       <c r="L243" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M243" s="22"/>
       <c r="N243" s="28" t="s">
@@ -21247,7 +21249,7 @@
       <c r="J244" s="22"/>
       <c r="K244" s="22"/>
       <c r="L244" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M244" s="22"/>
       <c r="N244" s="119" t="s">
@@ -21296,7 +21298,7 @@
       <c r="J245" s="22"/>
       <c r="K245" s="22"/>
       <c r="L245" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M245" s="22"/>
       <c r="N245" s="119" t="s">
@@ -21345,7 +21347,7 @@
       <c r="J246" s="22"/>
       <c r="K246" s="22"/>
       <c r="L246" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M246" s="22"/>
       <c r="N246" s="28" t="s">
@@ -21394,7 +21396,7 @@
       <c r="J247" s="22"/>
       <c r="K247" s="22"/>
       <c r="L247" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M247" s="22"/>
       <c r="N247" s="28" t="s">
@@ -21445,7 +21447,7 @@
       <c r="J248" s="6"/>
       <c r="K248" s="6"/>
       <c r="L248" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M248" s="6"/>
       <c r="N248" s="37" t="s">
@@ -21496,7 +21498,7 @@
       <c r="J249" s="6"/>
       <c r="K249" s="6"/>
       <c r="L249" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M249" s="6"/>
       <c r="N249" s="37" t="s">
@@ -21547,7 +21549,7 @@
       <c r="J250" s="6"/>
       <c r="K250" s="6"/>
       <c r="L250" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M250" s="6" t="s">
         <v>369</v>
@@ -21600,7 +21602,7 @@
       <c r="J251" s="6"/>
       <c r="K251" s="6"/>
       <c r="L251" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M251" s="6"/>
       <c r="N251" s="37" t="s">
@@ -21651,7 +21653,7 @@
       <c r="J252" s="6"/>
       <c r="K252" s="6"/>
       <c r="L252" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M252" s="6" t="s">
         <v>379</v>
@@ -21704,7 +21706,7 @@
       <c r="J253" s="6"/>
       <c r="K253" s="6"/>
       <c r="L253" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M253" s="6"/>
       <c r="N253" s="64" t="s">
@@ -21755,7 +21757,7 @@
       <c r="J254" s="6"/>
       <c r="K254" s="6"/>
       <c r="L254" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M254" s="34" t="s">
         <v>389</v>
@@ -21808,7 +21810,7 @@
       <c r="J255" s="6"/>
       <c r="K255" s="6"/>
       <c r="L255" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M255" s="33" t="s">
         <v>394</v>
@@ -21861,7 +21863,7 @@
       <c r="J256" s="6"/>
       <c r="K256" s="6"/>
       <c r="L256" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M256" s="18"/>
       <c r="N256" s="66" t="s">
@@ -21912,7 +21914,7 @@
       <c r="J257" s="6"/>
       <c r="K257" s="6"/>
       <c r="L257" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M257" s="33" t="s">
         <v>405</v>
@@ -21965,7 +21967,7 @@
       <c r="J258" s="6"/>
       <c r="K258" s="6"/>
       <c r="L258" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M258" s="33" t="s">
         <v>411</v>
@@ -22018,7 +22020,7 @@
       <c r="J259" s="6"/>
       <c r="K259" s="6"/>
       <c r="L259" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M259" s="33" t="s">
         <v>417</v>
@@ -22071,7 +22073,7 @@
       <c r="J260" s="6"/>
       <c r="K260" s="6"/>
       <c r="L260" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M260" s="18"/>
       <c r="N260" s="66" t="s">
@@ -22122,7 +22124,7 @@
       <c r="J261" s="6"/>
       <c r="K261" s="6"/>
       <c r="L261" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M261" s="18"/>
       <c r="N261" s="40" t="s">
@@ -22173,7 +22175,7 @@
       <c r="J262" s="6"/>
       <c r="K262" s="6"/>
       <c r="L262" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M262" s="33" t="s">
         <v>432</v>
@@ -22226,7 +22228,7 @@
       <c r="J263" s="6"/>
       <c r="K263" s="6"/>
       <c r="L263" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M263" s="18"/>
       <c r="N263" s="40" t="s">
@@ -22277,7 +22279,7 @@
       <c r="J264" s="6"/>
       <c r="K264" s="6"/>
       <c r="L264" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M264" s="33" t="s">
         <v>442</v>
@@ -22330,7 +22332,7 @@
       <c r="J265" s="6"/>
       <c r="K265" s="6"/>
       <c r="L265" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M265" s="33" t="s">
         <v>447</v>
@@ -22383,7 +22385,7 @@
       <c r="J266" s="96"/>
       <c r="K266" s="96"/>
       <c r="L266" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M266" s="101"/>
       <c r="N266" s="102" t="s">
@@ -22434,7 +22436,7 @@
       <c r="J267" s="6"/>
       <c r="K267" s="6"/>
       <c r="L267" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M267" s="18"/>
       <c r="N267" s="66" t="s">
@@ -22485,7 +22487,7 @@
       <c r="J268" s="6"/>
       <c r="K268" s="6"/>
       <c r="L268" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M268" s="6" t="s">
         <v>463</v>
@@ -22538,7 +22540,7 @@
       <c r="J269" s="6"/>
       <c r="K269" s="6"/>
       <c r="L269" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M269" s="6"/>
       <c r="N269" s="64" t="s">
@@ -22589,7 +22591,7 @@
       <c r="J270" s="96"/>
       <c r="K270" s="96"/>
       <c r="L270" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M270" s="96"/>
       <c r="N270" s="103" t="s">
@@ -22640,7 +22642,7 @@
       <c r="J271" s="6"/>
       <c r="K271" s="6"/>
       <c r="L271" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M271" s="6"/>
       <c r="N271" s="64" t="s">
@@ -22693,7 +22695,7 @@
       </c>
       <c r="K272" s="6"/>
       <c r="L272" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M272" s="6"/>
       <c r="N272" s="64" t="s">
@@ -22746,7 +22748,7 @@
       </c>
       <c r="K273" s="6"/>
       <c r="L273" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M273" s="6"/>
       <c r="N273" s="64" t="s">
@@ -22799,7 +22801,7 @@
       </c>
       <c r="K274" s="6"/>
       <c r="L274" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M274" s="6"/>
       <c r="N274" s="64" t="s">
@@ -22852,7 +22854,7 @@
       </c>
       <c r="K275" s="6"/>
       <c r="L275" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M275" s="6"/>
       <c r="N275" s="64" t="s">
@@ -22905,7 +22907,7 @@
       </c>
       <c r="K276" s="6"/>
       <c r="L276" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M276" s="6"/>
       <c r="N276" s="64" t="s">
@@ -22958,7 +22960,7 @@
       </c>
       <c r="K277" s="6"/>
       <c r="L277" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M277" s="6"/>
       <c r="N277" s="64" t="s">
@@ -23011,7 +23013,7 @@
       </c>
       <c r="K278" s="6"/>
       <c r="L278" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M278" s="33" t="s">
         <v>512</v>
@@ -23063,7 +23065,7 @@
       <c r="J279" s="78"/>
       <c r="K279" s="78"/>
       <c r="L279" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M279" s="80" t="s">
         <v>516</v>
@@ -23115,7 +23117,7 @@
       <c r="J280" s="78"/>
       <c r="K280" s="78"/>
       <c r="L280" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M280" s="80" t="s">
         <v>519</v>
@@ -23167,7 +23169,7 @@
       <c r="J281" s="78"/>
       <c r="K281" s="78"/>
       <c r="L281" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M281" s="80" t="s">
         <v>522</v>
@@ -23222,7 +23224,7 @@
       </c>
       <c r="K282" s="6"/>
       <c r="L282" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M282" s="18"/>
       <c r="N282" s="66" t="s">
@@ -23275,7 +23277,7 @@
       </c>
       <c r="K283" s="6"/>
       <c r="L283" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M283" s="33" t="s">
         <v>533</v>
@@ -23330,7 +23332,7 @@
       </c>
       <c r="K284" s="6"/>
       <c r="L284" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M284" s="33" t="s">
         <v>538</v>
@@ -23385,7 +23387,7 @@
       </c>
       <c r="K285" s="6"/>
       <c r="L285" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M285" s="18"/>
       <c r="N285" s="66" t="s">
@@ -23438,7 +23440,7 @@
       </c>
       <c r="K286" s="6"/>
       <c r="L286" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M286" s="6"/>
       <c r="N286" s="64" t="s">
@@ -23491,7 +23493,7 @@
       </c>
       <c r="K287" s="6"/>
       <c r="L287" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M287" s="6"/>
       <c r="N287" s="64" t="s">
@@ -23544,7 +23546,7 @@
       </c>
       <c r="K288" s="96"/>
       <c r="L288" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M288" s="106" t="s">
         <v>560</v>
@@ -23597,7 +23599,7 @@
       </c>
       <c r="K289" s="6"/>
       <c r="L289" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M289" s="34" t="s">
         <v>565</v>
@@ -23652,7 +23654,7 @@
       </c>
       <c r="K290" s="6"/>
       <c r="L290" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M290" s="34" t="s">
         <v>571</v>
@@ -23707,7 +23709,7 @@
       </c>
       <c r="K291" s="6"/>
       <c r="L291" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M291" s="33" t="s">
         <v>576</v>
@@ -23762,7 +23764,7 @@
       </c>
       <c r="K292" s="6"/>
       <c r="L292" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M292" s="95" t="s">
         <v>583</v>
@@ -23817,7 +23819,7 @@
       </c>
       <c r="K293" s="6"/>
       <c r="L293" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M293" s="94" t="s">
         <v>588</v>
@@ -23872,7 +23874,7 @@
       </c>
       <c r="K294" s="6"/>
       <c r="L294" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M294" s="94" t="s">
         <v>592</v>
@@ -23927,7 +23929,7 @@
       </c>
       <c r="K295" s="6"/>
       <c r="L295" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M295" s="34" t="s">
         <v>597</v>
@@ -23982,7 +23984,7 @@
       </c>
       <c r="K296" s="6"/>
       <c r="L296" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M296" s="6"/>
       <c r="N296" s="64" t="s">
@@ -24035,7 +24037,7 @@
       </c>
       <c r="K297" s="6"/>
       <c r="L297" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M297" s="6"/>
       <c r="N297" s="64" t="s">
@@ -24088,7 +24090,7 @@
       </c>
       <c r="K298" s="6"/>
       <c r="L298" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M298" s="38" t="s">
         <v>613</v>
@@ -24143,7 +24145,7 @@
       </c>
       <c r="K299" s="6"/>
       <c r="L299" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N299" s="64" t="s">
         <v>619</v>
@@ -24193,7 +24195,7 @@
       </c>
       <c r="K300" s="6"/>
       <c r="L300" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M300" s="6"/>
       <c r="N300" s="120" t="s">
@@ -24244,7 +24246,7 @@
       </c>
       <c r="K301" s="6"/>
       <c r="L301" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M301" s="6"/>
       <c r="N301" s="120" t="s">
@@ -24297,7 +24299,7 @@
       </c>
       <c r="K302" s="6"/>
       <c r="L302" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M302" s="6"/>
       <c r="N302" s="18" t="s">
@@ -24350,7 +24352,7 @@
       </c>
       <c r="K303" s="6"/>
       <c r="L303" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M303" s="6"/>
       <c r="N303" s="18" t="s">
@@ -24397,7 +24399,7 @@
       <c r="J304" s="6"/>
       <c r="K304" s="6"/>
       <c r="L304" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M304" s="6"/>
       <c r="N304" s="120" t="s">
@@ -24450,7 +24452,7 @@
       </c>
       <c r="K305" s="6"/>
       <c r="L305" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M305" s="6"/>
       <c r="N305" s="120" t="s">
@@ -24503,7 +24505,7 @@
       </c>
       <c r="K306" s="6"/>
       <c r="L306" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M306" s="93" t="s">
         <v>645</v>
@@ -24558,7 +24560,7 @@
       </c>
       <c r="K307" s="6"/>
       <c r="L307" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M307" s="6"/>
       <c r="N307" s="18" t="s">
@@ -24611,7 +24613,7 @@
       </c>
       <c r="K308" s="6"/>
       <c r="L308" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M308" s="6"/>
       <c r="N308" s="18" t="s">
@@ -24664,7 +24666,7 @@
       </c>
       <c r="K309" s="6"/>
       <c r="L309" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M309" s="6"/>
       <c r="N309" s="18"/>
@@ -24715,7 +24717,7 @@
       </c>
       <c r="K310" s="6"/>
       <c r="L310" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M310" s="6"/>
       <c r="N310" s="120" t="s">
@@ -24768,7 +24770,7 @@
       </c>
       <c r="K311" s="6"/>
       <c r="L311" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M311" s="6"/>
       <c r="N311" s="120" t="s">
@@ -24821,7 +24823,7 @@
       </c>
       <c r="K312" s="6"/>
       <c r="L312" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M312" s="6"/>
       <c r="N312" s="120" t="s">
@@ -24874,7 +24876,7 @@
       </c>
       <c r="K313" s="6"/>
       <c r="L313" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M313" s="6"/>
       <c r="N313" s="120" t="s">
@@ -24927,7 +24929,7 @@
       </c>
       <c r="K314" s="6"/>
       <c r="L314" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M314" s="6"/>
       <c r="N314" s="120" t="s">
@@ -24980,7 +24982,7 @@
       </c>
       <c r="K315" s="6"/>
       <c r="L315" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M315" s="6"/>
       <c r="N315" s="120" t="s">
@@ -25033,7 +25035,7 @@
       </c>
       <c r="K316" s="6"/>
       <c r="L316" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M316" s="6"/>
       <c r="N316" s="120" t="s">
@@ -25086,7 +25088,7 @@
       </c>
       <c r="K317" s="6"/>
       <c r="L317" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M317" s="6"/>
       <c r="N317" s="120" t="s">
@@ -25139,7 +25141,7 @@
       </c>
       <c r="K318" s="6"/>
       <c r="L318" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M318" s="6"/>
       <c r="N318" s="18"/>
@@ -25190,7 +25192,7 @@
       </c>
       <c r="K319" s="6"/>
       <c r="L319" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M319" s="6"/>
       <c r="N319" s="18"/>
@@ -25241,7 +25243,7 @@
       </c>
       <c r="K320" s="6"/>
       <c r="L320" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M320" s="6"/>
       <c r="N320" s="18"/>
@@ -25292,7 +25294,7 @@
       </c>
       <c r="K321" s="6"/>
       <c r="L321" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M321" s="6"/>
       <c r="N321" s="18"/>
@@ -25343,7 +25345,7 @@
       </c>
       <c r="K322" s="6"/>
       <c r="L322" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M322" s="6"/>
       <c r="N322" s="18"/>
@@ -25394,7 +25396,7 @@
       </c>
       <c r="K323" s="6"/>
       <c r="L323" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M323" s="6"/>
       <c r="N323" s="120" t="s">
@@ -25447,7 +25449,7 @@
       </c>
       <c r="K324" s="6"/>
       <c r="L324" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M324" s="6"/>
       <c r="N324" s="120" t="s">
@@ -25500,7 +25502,7 @@
       </c>
       <c r="K325" s="6"/>
       <c r="L325" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M325" s="6"/>
       <c r="N325" s="120" t="s">
@@ -25553,7 +25555,7 @@
       </c>
       <c r="K326" s="6"/>
       <c r="L326" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M326" s="6"/>
       <c r="N326" s="120" t="s">
@@ -25606,7 +25608,7 @@
       </c>
       <c r="K327" s="6"/>
       <c r="L327" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M327" s="6"/>
       <c r="N327" s="120" t="s">
@@ -25659,7 +25661,7 @@
       </c>
       <c r="K328" s="6"/>
       <c r="L328" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M328" s="6"/>
       <c r="N328" s="120" t="s">
@@ -25712,7 +25714,7 @@
       </c>
       <c r="K329" s="6"/>
       <c r="L329" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M329" s="6"/>
       <c r="N329" s="18" t="s">
@@ -25765,7 +25767,7 @@
       </c>
       <c r="K330" s="6"/>
       <c r="L330" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M330" s="6"/>
       <c r="N330" s="18"/>
@@ -25804,7 +25806,7 @@
       </c>
       <c r="K331" s="6"/>
       <c r="L331" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M331" s="121" t="s">
         <v>694</v>
@@ -25844,7 +25846,7 @@
         <v>15</v>
       </c>
       <c r="L332" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:26" ht="15">
@@ -25880,7 +25882,7 @@
         <v>20</v>
       </c>
       <c r="L333" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:26" ht="15">
@@ -25917,7 +25919,7 @@
       </c>
       <c r="K334" s="6"/>
       <c r="L334" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M334" s="6"/>
       <c r="N334" s="64" t="s">
@@ -25958,7 +25960,7 @@
       </c>
       <c r="K335" s="9"/>
       <c r="L335" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M335" s="9"/>
       <c r="N335" s="19"/>
@@ -25997,7 +25999,7 @@
       </c>
       <c r="K336" s="9"/>
       <c r="L336" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M336" s="9"/>
       <c r="N336" s="19"/>
@@ -26036,7 +26038,7 @@
       </c>
       <c r="K337" s="9"/>
       <c r="L337" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M337" s="9"/>
       <c r="N337" s="19"/>
@@ -26075,7 +26077,7 @@
       </c>
       <c r="K338" s="9"/>
       <c r="L338" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M338" s="9"/>
       <c r="N338" s="19"/>
@@ -26114,7 +26116,7 @@
       </c>
       <c r="K339" s="9"/>
       <c r="L339" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M339" s="9"/>
       <c r="N339" s="19"/>
@@ -26153,7 +26155,7 @@
       </c>
       <c r="K340" s="9"/>
       <c r="L340" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M340" s="9"/>
       <c r="N340" s="19"/>
@@ -30005,9 +30007,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BC913D-6BF3-42BF-B694-1F0F95BDE69C}">
-  <dimension ref="A1:M427"/>
+  <dimension ref="A1:M342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I404" workbookViewId="0">
+    <sheetView topLeftCell="I404" workbookViewId="0">
       <selection activeCell="A343" sqref="A343:M427"/>
     </sheetView>
   </sheetViews>
@@ -38142,7 +38144,7 @@
       </c>
       <c r="H174" s="109">
         <f>Aufgabenkatalog!L173</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174" s="109"/>
       <c r="J174" s="109"/>
@@ -38187,7 +38189,7 @@
       </c>
       <c r="H175" s="109">
         <f>Aufgabenkatalog!L174</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I175" s="109"/>
       <c r="J175" s="109"/>
@@ -38232,7 +38234,7 @@
       </c>
       <c r="H176" s="109">
         <f>Aufgabenkatalog!L175</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176" s="109"/>
       <c r="J176" s="109"/>
@@ -38277,7 +38279,7 @@
       </c>
       <c r="H177" s="109">
         <f>Aufgabenkatalog!L176</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177" s="109"/>
       <c r="J177" s="109"/>
@@ -38322,7 +38324,7 @@
       </c>
       <c r="H178" s="109">
         <f>Aufgabenkatalog!L177</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178" s="109"/>
       <c r="J178" s="109"/>
@@ -38367,7 +38369,7 @@
       </c>
       <c r="H179" s="109">
         <f>Aufgabenkatalog!L178</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179" s="109"/>
       <c r="J179" s="109"/>
@@ -38412,7 +38414,7 @@
       </c>
       <c r="H180" s="109">
         <f>Aufgabenkatalog!L179</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180" s="109"/>
       <c r="J180" s="109"/>
@@ -38457,7 +38459,7 @@
       </c>
       <c r="H181" s="109">
         <f>Aufgabenkatalog!L180</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I181" s="109"/>
       <c r="J181" s="109"/>
@@ -38502,7 +38504,7 @@
       </c>
       <c r="H182" s="109">
         <f>Aufgabenkatalog!L181</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I182" s="109"/>
       <c r="J182" s="109"/>
@@ -38547,7 +38549,7 @@
       </c>
       <c r="H183" s="109">
         <f>Aufgabenkatalog!L182</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183" s="109"/>
       <c r="J183" s="109"/>
@@ -38592,7 +38594,7 @@
       </c>
       <c r="H184" s="109">
         <f>Aufgabenkatalog!L183</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I184" s="109"/>
       <c r="J184" s="109"/>
@@ -38637,7 +38639,7 @@
       </c>
       <c r="H185" s="109">
         <f>Aufgabenkatalog!L184</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I185" s="109"/>
       <c r="J185" s="109"/>
@@ -38682,7 +38684,7 @@
       </c>
       <c r="H186" s="109">
         <f>Aufgabenkatalog!L185</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186" s="109"/>
       <c r="J186" s="109"/>
@@ -38727,7 +38729,7 @@
       </c>
       <c r="H187" s="109">
         <f>Aufgabenkatalog!L186</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I187" s="109"/>
       <c r="J187" s="109"/>
@@ -38772,7 +38774,7 @@
       </c>
       <c r="H188" s="109">
         <f>Aufgabenkatalog!L187</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I188" s="109"/>
       <c r="J188" s="109"/>
@@ -38817,7 +38819,7 @@
       </c>
       <c r="H189" s="109">
         <f>Aufgabenkatalog!L188</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I189" s="109"/>
       <c r="J189" s="109"/>
@@ -38862,7 +38864,7 @@
       </c>
       <c r="H190" s="109">
         <f>Aufgabenkatalog!L189</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I190" s="109"/>
       <c r="J190" s="109"/>
@@ -38907,7 +38909,7 @@
       </c>
       <c r="H191" s="109">
         <f>Aufgabenkatalog!L190</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I191" s="109"/>
       <c r="J191" s="109"/>
@@ -38952,7 +38954,7 @@
       </c>
       <c r="H192" s="109">
         <f>Aufgabenkatalog!L191</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I192" s="109"/>
       <c r="J192" s="109"/>
@@ -38997,7 +38999,7 @@
       </c>
       <c r="H193" s="109">
         <f>Aufgabenkatalog!L192</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I193" s="109"/>
       <c r="J193" s="109"/>
@@ -39042,7 +39044,7 @@
       </c>
       <c r="H194" s="109">
         <f>Aufgabenkatalog!L193</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I194" s="109"/>
       <c r="J194" s="109"/>
@@ -39087,7 +39089,7 @@
       </c>
       <c r="H195" s="109">
         <f>Aufgabenkatalog!L194</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I195" s="109"/>
       <c r="J195" s="109"/>
@@ -39132,7 +39134,7 @@
       </c>
       <c r="H196" s="109">
         <f>Aufgabenkatalog!L195</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I196" s="109"/>
       <c r="J196" s="109"/>
@@ -39177,7 +39179,7 @@
       </c>
       <c r="H197" s="109">
         <f>Aufgabenkatalog!L196</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I197" s="109"/>
       <c r="J197" s="109"/>
@@ -39222,7 +39224,7 @@
       </c>
       <c r="H198" s="109">
         <f>Aufgabenkatalog!L197</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I198" s="109"/>
       <c r="J198" s="109"/>
@@ -39267,7 +39269,7 @@
       </c>
       <c r="H199" s="109">
         <f>Aufgabenkatalog!L198</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I199" s="109"/>
       <c r="J199" s="109"/>
@@ -39312,7 +39314,7 @@
       </c>
       <c r="H200" s="109">
         <f>Aufgabenkatalog!L199</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I200" s="109"/>
       <c r="J200" s="109"/>
@@ -39357,7 +39359,7 @@
       </c>
       <c r="H201" s="109">
         <f>Aufgabenkatalog!L200</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I201" s="109"/>
       <c r="J201" s="109"/>
@@ -39402,7 +39404,7 @@
       </c>
       <c r="H202" s="109">
         <f>Aufgabenkatalog!L201</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I202" s="109"/>
       <c r="J202" s="109"/>
@@ -39447,7 +39449,7 @@
       </c>
       <c r="H203" s="109">
         <f>Aufgabenkatalog!L202</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I203" s="109"/>
       <c r="J203" s="109"/>
@@ -39492,7 +39494,7 @@
       </c>
       <c r="H204" s="109">
         <f>Aufgabenkatalog!L203</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I204" s="109"/>
       <c r="J204" s="109"/>
@@ -39537,7 +39539,7 @@
       </c>
       <c r="H205" s="109">
         <f>Aufgabenkatalog!L204</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I205" s="109"/>
       <c r="J205" s="109"/>
@@ -39582,7 +39584,7 @@
       </c>
       <c r="H206" s="109">
         <f>Aufgabenkatalog!L205</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I206" s="109"/>
       <c r="J206" s="109"/>
@@ -39627,7 +39629,7 @@
       </c>
       <c r="H207" s="109">
         <f>Aufgabenkatalog!L206</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I207" s="109"/>
       <c r="J207" s="109"/>
@@ -39672,7 +39674,7 @@
       </c>
       <c r="H208" s="109">
         <f>Aufgabenkatalog!L207</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I208" s="109"/>
       <c r="J208" s="109"/>
@@ -39717,7 +39719,7 @@
       </c>
       <c r="H209" s="109">
         <f>Aufgabenkatalog!L208</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I209" s="109"/>
       <c r="J209" s="109"/>
@@ -39762,7 +39764,7 @@
       </c>
       <c r="H210" s="109">
         <f>Aufgabenkatalog!L209</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I210" s="109"/>
       <c r="J210" s="109"/>
@@ -39807,7 +39809,7 @@
       </c>
       <c r="H211" s="109">
         <f>Aufgabenkatalog!L210</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I211" s="109"/>
       <c r="J211" s="109"/>
@@ -39852,7 +39854,7 @@
       </c>
       <c r="H212" s="109">
         <f>Aufgabenkatalog!L211</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I212" s="109"/>
       <c r="J212" s="109"/>
@@ -39897,7 +39899,7 @@
       </c>
       <c r="H213" s="109">
         <f>Aufgabenkatalog!L212</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I213" s="109"/>
       <c r="J213" s="109"/>
@@ -39942,7 +39944,7 @@
       </c>
       <c r="H214" s="109">
         <f>Aufgabenkatalog!L213</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I214" s="109"/>
       <c r="J214" s="109"/>
@@ -39987,7 +39989,7 @@
       </c>
       <c r="H215" s="109">
         <f>Aufgabenkatalog!L214</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I215" s="109"/>
       <c r="J215" s="109"/>
@@ -40032,7 +40034,7 @@
       </c>
       <c r="H216" s="109">
         <f>Aufgabenkatalog!L215</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I216" s="109"/>
       <c r="J216" s="109"/>
@@ -40077,7 +40079,7 @@
       </c>
       <c r="H217" s="109">
         <f>Aufgabenkatalog!L216</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I217" s="109"/>
       <c r="J217" s="109"/>
@@ -40122,7 +40124,7 @@
       </c>
       <c r="H218" s="109">
         <f>Aufgabenkatalog!L217</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I218" s="109"/>
       <c r="J218" s="109"/>
@@ -40167,7 +40169,7 @@
       </c>
       <c r="H219" s="109">
         <f>Aufgabenkatalog!L218</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I219" s="109"/>
       <c r="J219" s="109"/>
@@ -40212,7 +40214,7 @@
       </c>
       <c r="H220" s="109">
         <f>Aufgabenkatalog!L219</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I220" s="109"/>
       <c r="J220" s="109"/>
@@ -40257,7 +40259,7 @@
       </c>
       <c r="H221" s="109">
         <f>Aufgabenkatalog!L220</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I221" s="109"/>
       <c r="J221" s="109"/>
@@ -40302,7 +40304,7 @@
       </c>
       <c r="H222" s="109">
         <f>Aufgabenkatalog!L221</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I222" s="109"/>
       <c r="J222" s="109"/>
@@ -40347,7 +40349,7 @@
       </c>
       <c r="H223" s="109">
         <f>Aufgabenkatalog!L222</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I223" s="109"/>
       <c r="J223" s="109"/>
@@ -40392,7 +40394,7 @@
       </c>
       <c r="H224" s="109">
         <f>Aufgabenkatalog!L223</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I224" s="109"/>
       <c r="J224" s="109"/>
@@ -40437,7 +40439,7 @@
       </c>
       <c r="H225" s="109">
         <f>Aufgabenkatalog!L224</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I225" s="109"/>
       <c r="J225" s="109"/>
@@ -40482,7 +40484,7 @@
       </c>
       <c r="H226" s="109">
         <f>Aufgabenkatalog!L225</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I226" s="109"/>
       <c r="J226" s="109"/>
@@ -40527,7 +40529,7 @@
       </c>
       <c r="H227" s="109">
         <f>Aufgabenkatalog!L226</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I227" s="109"/>
       <c r="J227" s="109"/>
@@ -40572,7 +40574,7 @@
       </c>
       <c r="H228" s="109">
         <f>Aufgabenkatalog!L227</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I228" s="109"/>
       <c r="J228" s="109"/>
@@ -40617,7 +40619,7 @@
       </c>
       <c r="H229" s="109">
         <f>Aufgabenkatalog!L228</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I229" s="109"/>
       <c r="J229" s="109"/>
@@ -40662,7 +40664,7 @@
       </c>
       <c r="H230" s="109">
         <f>Aufgabenkatalog!L229</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I230" s="109"/>
       <c r="J230" s="109"/>
@@ -40707,7 +40709,7 @@
       </c>
       <c r="H231" s="109">
         <f>Aufgabenkatalog!L230</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I231" s="109"/>
       <c r="J231" s="109"/>
@@ -40752,7 +40754,7 @@
       </c>
       <c r="H232" s="109">
         <f>Aufgabenkatalog!L231</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I232" s="109"/>
       <c r="J232" s="109"/>
@@ -40797,7 +40799,7 @@
       </c>
       <c r="H233" s="109">
         <f>Aufgabenkatalog!L232</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I233" s="109"/>
       <c r="J233" s="109"/>
@@ -40842,7 +40844,7 @@
       </c>
       <c r="H234" s="109">
         <f>Aufgabenkatalog!L233</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I234" s="109"/>
       <c r="J234" s="109"/>
@@ -40887,7 +40889,7 @@
       </c>
       <c r="H235" s="109">
         <f>Aufgabenkatalog!L234</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I235" s="109"/>
       <c r="J235" s="109"/>
@@ -40932,7 +40934,7 @@
       </c>
       <c r="H236" s="109">
         <f>Aufgabenkatalog!L235</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I236" s="109"/>
       <c r="J236" s="109"/>
@@ -40977,7 +40979,7 @@
       </c>
       <c r="H237" s="109">
         <f>Aufgabenkatalog!L236</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I237" s="109"/>
       <c r="J237" s="109"/>
@@ -41022,7 +41024,7 @@
       </c>
       <c r="H238" s="109">
         <f>Aufgabenkatalog!L237</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I238" s="109"/>
       <c r="J238" s="109"/>
@@ -41067,7 +41069,7 @@
       </c>
       <c r="H239" s="109">
         <f>Aufgabenkatalog!L238</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I239" s="109"/>
       <c r="J239" s="109"/>
@@ -41112,7 +41114,7 @@
       </c>
       <c r="H240" s="109">
         <f>Aufgabenkatalog!L239</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I240" s="109"/>
       <c r="J240" s="109"/>
@@ -41157,7 +41159,7 @@
       </c>
       <c r="H241" s="109">
         <f>Aufgabenkatalog!L240</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I241" s="109"/>
       <c r="J241" s="109"/>
@@ -41202,7 +41204,7 @@
       </c>
       <c r="H242" s="109">
         <f>Aufgabenkatalog!L241</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I242" s="109"/>
       <c r="J242" s="109"/>
@@ -41247,7 +41249,7 @@
       </c>
       <c r="H243" s="109">
         <f>Aufgabenkatalog!L242</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I243" s="109"/>
       <c r="J243" s="109"/>
@@ -41292,7 +41294,7 @@
       </c>
       <c r="H244" s="109">
         <f>Aufgabenkatalog!L243</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I244" s="109"/>
       <c r="J244" s="109"/>
@@ -41337,7 +41339,7 @@
       </c>
       <c r="H245" s="109">
         <f>Aufgabenkatalog!L244</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I245" s="109"/>
       <c r="J245" s="109"/>
@@ -41382,7 +41384,7 @@
       </c>
       <c r="H246" s="109">
         <f>Aufgabenkatalog!L245</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I246" s="109"/>
       <c r="J246" s="109"/>
@@ -41427,7 +41429,7 @@
       </c>
       <c r="H247" s="109">
         <f>Aufgabenkatalog!L246</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I247" s="109"/>
       <c r="J247" s="109"/>
@@ -41472,7 +41474,7 @@
       </c>
       <c r="H248" s="109">
         <f>Aufgabenkatalog!L247</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I248" s="109"/>
       <c r="J248" s="109"/>
@@ -41517,7 +41519,7 @@
       </c>
       <c r="H249" s="109">
         <f>Aufgabenkatalog!L248</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I249" s="109"/>
       <c r="J249" s="109"/>
@@ -41562,7 +41564,7 @@
       </c>
       <c r="H250" s="109">
         <f>Aufgabenkatalog!L249</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I250" s="109"/>
       <c r="J250" s="109"/>
@@ -41607,7 +41609,7 @@
       </c>
       <c r="H251" s="109">
         <f>Aufgabenkatalog!L250</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I251" s="109"/>
       <c r="J251" s="109"/>
@@ -41652,7 +41654,7 @@
       </c>
       <c r="H252" s="109">
         <f>Aufgabenkatalog!L251</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I252" s="109"/>
       <c r="J252" s="109"/>
@@ -41697,7 +41699,7 @@
       </c>
       <c r="H253" s="109">
         <f>Aufgabenkatalog!L252</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I253" s="109"/>
       <c r="J253" s="109"/>
@@ -41742,7 +41744,7 @@
       </c>
       <c r="H254" s="109">
         <f>Aufgabenkatalog!L253</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I254" s="109"/>
       <c r="J254" s="109"/>
@@ -41787,7 +41789,7 @@
       </c>
       <c r="H255" s="109">
         <f>Aufgabenkatalog!L254</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I255" s="109"/>
       <c r="J255" s="109"/>
@@ -41832,7 +41834,7 @@
       </c>
       <c r="H256" s="109">
         <f>Aufgabenkatalog!L255</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I256" s="109"/>
       <c r="J256" s="109"/>
@@ -41877,7 +41879,7 @@
       </c>
       <c r="H257" s="109">
         <f>Aufgabenkatalog!L256</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I257" s="109"/>
       <c r="J257" s="109"/>
@@ -41922,7 +41924,7 @@
       </c>
       <c r="H258" s="109">
         <f>Aufgabenkatalog!L257</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I258" s="109"/>
       <c r="J258" s="109"/>
@@ -41967,7 +41969,7 @@
       </c>
       <c r="H259" s="109">
         <f>Aufgabenkatalog!L258</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I259" s="109"/>
       <c r="J259" s="109"/>
@@ -42012,7 +42014,7 @@
       </c>
       <c r="H260" s="109">
         <f>Aufgabenkatalog!L259</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I260" s="109"/>
       <c r="J260" s="109"/>
@@ -42057,7 +42059,7 @@
       </c>
       <c r="H261" s="109">
         <f>Aufgabenkatalog!L260</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I261" s="109"/>
       <c r="J261" s="109"/>
@@ -42102,7 +42104,7 @@
       </c>
       <c r="H262" s="109">
         <f>Aufgabenkatalog!L261</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I262" s="109"/>
       <c r="J262" s="109"/>
@@ -42147,7 +42149,7 @@
       </c>
       <c r="H263" s="109">
         <f>Aufgabenkatalog!L262</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I263" s="109"/>
       <c r="J263" s="109"/>
@@ -42192,7 +42194,7 @@
       </c>
       <c r="H264" s="109">
         <f>Aufgabenkatalog!L263</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I264" s="109"/>
       <c r="J264" s="109"/>
@@ -42237,7 +42239,7 @@
       </c>
       <c r="H265" s="109">
         <f>Aufgabenkatalog!L264</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I265" s="109"/>
       <c r="J265" s="109"/>
@@ -42282,7 +42284,7 @@
       </c>
       <c r="H266" s="109">
         <f>Aufgabenkatalog!L265</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I266" s="109"/>
       <c r="J266" s="109"/>
@@ -42327,7 +42329,7 @@
       </c>
       <c r="H267" s="109">
         <f>Aufgabenkatalog!L266</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I267" s="109"/>
       <c r="J267" s="109"/>
@@ -42372,7 +42374,7 @@
       </c>
       <c r="H268" s="109">
         <f>Aufgabenkatalog!L267</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I268" s="109"/>
       <c r="J268" s="109"/>
@@ -42417,7 +42419,7 @@
       </c>
       <c r="H269" s="109">
         <f>Aufgabenkatalog!L268</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I269" s="109"/>
       <c r="J269" s="109"/>
@@ -42462,7 +42464,7 @@
       </c>
       <c r="H270" s="109">
         <f>Aufgabenkatalog!L269</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I270" s="109"/>
       <c r="J270" s="109"/>
@@ -42507,7 +42509,7 @@
       </c>
       <c r="H271" s="109">
         <f>Aufgabenkatalog!L270</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I271" s="109"/>
       <c r="J271" s="109"/>
@@ -42552,7 +42554,7 @@
       </c>
       <c r="H272" s="109">
         <f>Aufgabenkatalog!L271</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I272" s="109"/>
       <c r="J272" s="109"/>
@@ -42597,7 +42599,7 @@
       </c>
       <c r="H273" s="109">
         <f>Aufgabenkatalog!L272</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I273" s="109"/>
       <c r="J273" s="109"/>
@@ -42642,7 +42644,7 @@
       </c>
       <c r="H274" s="109">
         <f>Aufgabenkatalog!L273</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I274" s="109"/>
       <c r="J274" s="109"/>
@@ -42687,7 +42689,7 @@
       </c>
       <c r="H275" s="109">
         <f>Aufgabenkatalog!L274</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I275" s="109"/>
       <c r="J275" s="109"/>
@@ -42732,7 +42734,7 @@
       </c>
       <c r="H276" s="109">
         <f>Aufgabenkatalog!L275</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I276" s="109"/>
       <c r="J276" s="109"/>
@@ -42777,7 +42779,7 @@
       </c>
       <c r="H277" s="109">
         <f>Aufgabenkatalog!L276</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I277" s="109"/>
       <c r="J277" s="109"/>
@@ -42822,7 +42824,7 @@
       </c>
       <c r="H278" s="109">
         <f>Aufgabenkatalog!L277</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I278" s="109"/>
       <c r="J278" s="109"/>
@@ -42867,7 +42869,7 @@
       </c>
       <c r="H279" s="109">
         <f>Aufgabenkatalog!L278</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I279" s="109"/>
       <c r="J279" s="109"/>
@@ -42912,7 +42914,7 @@
       </c>
       <c r="H280" s="109">
         <f>Aufgabenkatalog!L279</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I280" s="109"/>
       <c r="J280" s="109"/>
@@ -42957,7 +42959,7 @@
       </c>
       <c r="H281" s="109">
         <f>Aufgabenkatalog!L280</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I281" s="109"/>
       <c r="J281" s="109"/>
@@ -43002,7 +43004,7 @@
       </c>
       <c r="H282" s="109">
         <f>Aufgabenkatalog!L281</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I282" s="109"/>
       <c r="J282" s="109"/>
@@ -43047,7 +43049,7 @@
       </c>
       <c r="H283" s="109">
         <f>Aufgabenkatalog!L282</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I283" s="109"/>
       <c r="J283" s="109"/>
@@ -43092,7 +43094,7 @@
       </c>
       <c r="H284" s="109">
         <f>Aufgabenkatalog!L283</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I284" s="109"/>
       <c r="J284" s="109"/>
@@ -43137,7 +43139,7 @@
       </c>
       <c r="H285" s="109">
         <f>Aufgabenkatalog!L284</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I285" s="109"/>
       <c r="J285" s="109"/>
@@ -43182,7 +43184,7 @@
       </c>
       <c r="H286" s="109">
         <f>Aufgabenkatalog!L285</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I286" s="109"/>
       <c r="J286" s="109"/>
@@ -43227,7 +43229,7 @@
       </c>
       <c r="H287" s="109">
         <f>Aufgabenkatalog!L286</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I287" s="109"/>
       <c r="J287" s="109"/>
@@ -43272,7 +43274,7 @@
       </c>
       <c r="H288" s="109">
         <f>Aufgabenkatalog!L287</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I288" s="109"/>
       <c r="J288" s="109"/>
@@ -43317,7 +43319,7 @@
       </c>
       <c r="H289" s="109">
         <f>Aufgabenkatalog!L288</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I289" s="109"/>
       <c r="J289" s="109"/>
@@ -43362,7 +43364,7 @@
       </c>
       <c r="H290" s="109">
         <f>Aufgabenkatalog!L289</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I290" s="109"/>
       <c r="J290" s="109"/>
@@ -43407,7 +43409,7 @@
       </c>
       <c r="H291" s="109">
         <f>Aufgabenkatalog!L290</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I291" s="109"/>
       <c r="J291" s="109"/>
@@ -43452,7 +43454,7 @@
       </c>
       <c r="H292" s="109">
         <f>Aufgabenkatalog!L291</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I292" s="109"/>
       <c r="J292" s="109"/>
@@ -43497,7 +43499,7 @@
       </c>
       <c r="H293" s="109">
         <f>Aufgabenkatalog!L292</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I293" s="109"/>
       <c r="J293" s="109"/>
@@ -43542,7 +43544,7 @@
       </c>
       <c r="H294" s="109">
         <f>Aufgabenkatalog!L293</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I294" s="109"/>
       <c r="J294" s="109"/>
@@ -43587,7 +43589,7 @@
       </c>
       <c r="H295" s="109">
         <f>Aufgabenkatalog!L294</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I295" s="109"/>
       <c r="J295" s="109"/>
@@ -43632,7 +43634,7 @@
       </c>
       <c r="H296" s="109">
         <f>Aufgabenkatalog!L295</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I296" s="109"/>
       <c r="J296" s="109"/>
@@ -43677,7 +43679,7 @@
       </c>
       <c r="H297" s="109">
         <f>Aufgabenkatalog!L296</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I297" s="109"/>
       <c r="J297" s="109"/>
@@ -43722,7 +43724,7 @@
       </c>
       <c r="H298" s="109">
         <f>Aufgabenkatalog!L297</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I298" s="109"/>
       <c r="J298" s="109"/>
@@ -43767,7 +43769,7 @@
       </c>
       <c r="H299" s="109">
         <f>Aufgabenkatalog!L298</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I299" s="109"/>
       <c r="J299" s="109"/>
@@ -43812,7 +43814,7 @@
       </c>
       <c r="H300" s="109">
         <f>Aufgabenkatalog!L299</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I300" s="109"/>
       <c r="J300" s="109"/>
@@ -43857,7 +43859,7 @@
       </c>
       <c r="H301" s="109">
         <f>Aufgabenkatalog!L300</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I301" s="109"/>
       <c r="J301" s="109"/>
@@ -43902,7 +43904,7 @@
       </c>
       <c r="H302" s="109">
         <f>Aufgabenkatalog!L301</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I302" s="109"/>
       <c r="J302" s="109"/>
@@ -43947,7 +43949,7 @@
       </c>
       <c r="H303" s="109">
         <f>Aufgabenkatalog!L302</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I303" s="109"/>
       <c r="J303" s="109"/>
@@ -43992,7 +43994,7 @@
       </c>
       <c r="H304" s="109">
         <f>Aufgabenkatalog!L303</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I304" s="109"/>
       <c r="J304" s="109"/>
@@ -44037,7 +44039,7 @@
       </c>
       <c r="H305" s="109">
         <f>Aufgabenkatalog!L304</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I305" s="109"/>
       <c r="J305" s="109"/>
@@ -44082,7 +44084,7 @@
       </c>
       <c r="H306" s="109">
         <f>Aufgabenkatalog!L305</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I306" s="109"/>
       <c r="J306" s="109"/>
@@ -44127,7 +44129,7 @@
       </c>
       <c r="H307" s="109">
         <f>Aufgabenkatalog!L306</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I307" s="109"/>
       <c r="J307" s="109"/>
@@ -44172,7 +44174,7 @@
       </c>
       <c r="H308" s="109">
         <f>Aufgabenkatalog!L307</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I308" s="109"/>
       <c r="J308" s="109"/>
@@ -44217,7 +44219,7 @@
       </c>
       <c r="H309" s="109">
         <f>Aufgabenkatalog!L308</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I309" s="109"/>
       <c r="J309" s="109"/>
@@ -44262,7 +44264,7 @@
       </c>
       <c r="H310" s="109">
         <f>Aufgabenkatalog!L309</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I310" s="109"/>
       <c r="J310" s="109"/>
@@ -44307,7 +44309,7 @@
       </c>
       <c r="H311" s="109">
         <f>Aufgabenkatalog!L310</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I311" s="109"/>
       <c r="J311" s="109"/>
@@ -44352,7 +44354,7 @@
       </c>
       <c r="H312" s="109">
         <f>Aufgabenkatalog!L311</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I312" s="109"/>
       <c r="J312" s="109"/>
@@ -44397,7 +44399,7 @@
       </c>
       <c r="H313" s="109">
         <f>Aufgabenkatalog!L312</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I313" s="109"/>
       <c r="J313" s="109"/>
@@ -44442,7 +44444,7 @@
       </c>
       <c r="H314" s="109">
         <f>Aufgabenkatalog!L313</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I314" s="109"/>
       <c r="J314" s="109"/>
@@ -44487,7 +44489,7 @@
       </c>
       <c r="H315" s="109">
         <f>Aufgabenkatalog!L314</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I315" s="109"/>
       <c r="J315" s="109"/>
@@ -44532,7 +44534,7 @@
       </c>
       <c r="H316" s="109">
         <f>Aufgabenkatalog!L315</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I316" s="109"/>
       <c r="J316" s="109"/>
@@ -44577,7 +44579,7 @@
       </c>
       <c r="H317" s="109">
         <f>Aufgabenkatalog!L316</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I317" s="109"/>
       <c r="J317" s="109"/>
@@ -44622,7 +44624,7 @@
       </c>
       <c r="H318" s="109">
         <f>Aufgabenkatalog!L317</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I318" s="109"/>
       <c r="J318" s="109"/>
@@ -44667,7 +44669,7 @@
       </c>
       <c r="H319" s="109">
         <f>Aufgabenkatalog!L318</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I319" s="109"/>
       <c r="J319" s="109"/>
@@ -44712,7 +44714,7 @@
       </c>
       <c r="H320" s="109">
         <f>Aufgabenkatalog!L319</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I320" s="109"/>
       <c r="J320" s="109"/>
@@ -44757,7 +44759,7 @@
       </c>
       <c r="H321" s="109">
         <f>Aufgabenkatalog!L320</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I321" s="109"/>
       <c r="J321" s="109"/>
@@ -44802,7 +44804,7 @@
       </c>
       <c r="H322" s="109">
         <f>Aufgabenkatalog!L321</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I322" s="109"/>
       <c r="J322" s="109"/>
@@ -44847,7 +44849,7 @@
       </c>
       <c r="H323" s="109">
         <f>Aufgabenkatalog!L322</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I323" s="109"/>
       <c r="J323" s="109"/>
@@ -44892,7 +44894,7 @@
       </c>
       <c r="H324" s="109">
         <f>Aufgabenkatalog!L323</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I324" s="109"/>
       <c r="J324" s="109"/>
@@ -44937,7 +44939,7 @@
       </c>
       <c r="H325" s="109">
         <f>Aufgabenkatalog!L324</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I325" s="109"/>
       <c r="J325" s="109"/>
@@ -44982,7 +44984,7 @@
       </c>
       <c r="H326" s="109">
         <f>Aufgabenkatalog!L325</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I326" s="109"/>
       <c r="J326" s="109"/>
@@ -45027,7 +45029,7 @@
       </c>
       <c r="H327" s="109">
         <f>Aufgabenkatalog!L326</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I327" s="109"/>
       <c r="J327" s="109"/>
@@ -45072,7 +45074,7 @@
       </c>
       <c r="H328" s="109">
         <f>Aufgabenkatalog!L327</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I328" s="109"/>
       <c r="J328" s="109"/>
@@ -45117,7 +45119,7 @@
       </c>
       <c r="H329" s="109">
         <f>Aufgabenkatalog!L328</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I329" s="109"/>
       <c r="J329" s="109"/>
@@ -45162,7 +45164,7 @@
       </c>
       <c r="H330" s="109">
         <f>Aufgabenkatalog!L329</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I330" s="109"/>
       <c r="J330" s="109"/>
@@ -45207,7 +45209,7 @@
       </c>
       <c r="H331" s="109">
         <f>Aufgabenkatalog!L330</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I331" s="109"/>
       <c r="J331" s="109"/>
@@ -45252,7 +45254,7 @@
       </c>
       <c r="H332" s="109">
         <f>Aufgabenkatalog!L331</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I332" s="109"/>
       <c r="J332" s="109"/>
@@ -45297,7 +45299,7 @@
       </c>
       <c r="H333" s="109">
         <f>Aufgabenkatalog!L332</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I333" s="109"/>
       <c r="J333" s="109"/>
@@ -45342,7 +45344,7 @@
       </c>
       <c r="H334" s="109">
         <f>Aufgabenkatalog!L333</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I334" s="109"/>
       <c r="J334" s="109"/>
@@ -45387,7 +45389,7 @@
       </c>
       <c r="H335" s="109">
         <f>Aufgabenkatalog!L334</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I335" s="109"/>
       <c r="J335" s="109"/>
@@ -45432,7 +45434,7 @@
       </c>
       <c r="H336" s="109">
         <f>Aufgabenkatalog!L335</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I336" s="109"/>
       <c r="J336" s="109"/>
@@ -45477,7 +45479,7 @@
       </c>
       <c r="H337" s="109">
         <f>Aufgabenkatalog!L336</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I337" s="109"/>
       <c r="J337" s="109"/>
@@ -45522,7 +45524,7 @@
       </c>
       <c r="H338" s="109">
         <f>Aufgabenkatalog!L337</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I338" s="109"/>
       <c r="J338" s="109"/>
@@ -45567,7 +45569,7 @@
       </c>
       <c r="H339" s="109">
         <f>Aufgabenkatalog!L338</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I339" s="109"/>
       <c r="J339" s="109"/>
@@ -45612,7 +45614,7 @@
       </c>
       <c r="H340" s="109">
         <f>Aufgabenkatalog!L339</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I340" s="109"/>
       <c r="J340" s="109"/>
@@ -45657,7 +45659,7 @@
       </c>
       <c r="H341" s="109">
         <f>Aufgabenkatalog!L340</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I341" s="109"/>
       <c r="J341" s="109"/>
@@ -45715,1281 +45717,6 @@
         <f>IF(Aufgabenkatalog!C341="Ja","true","false")</f>
         <v>false</v>
       </c>
-    </row>
-    <row r="343" spans="1:13">
-      <c r="A343" s="109"/>
-      <c r="B343" s="109"/>
-      <c r="C343" s="109"/>
-      <c r="D343" s="109"/>
-      <c r="E343" s="109"/>
-      <c r="F343" s="109"/>
-      <c r="G343" s="109"/>
-      <c r="H343" s="109"/>
-      <c r="I343" s="109"/>
-      <c r="J343" s="109"/>
-      <c r="K343" s="109"/>
-      <c r="L343" s="109"/>
-      <c r="M343" s="109"/>
-    </row>
-    <row r="344" spans="1:13">
-      <c r="A344" s="109"/>
-      <c r="B344" s="109"/>
-      <c r="C344" s="109"/>
-      <c r="D344" s="109"/>
-      <c r="E344" s="109"/>
-      <c r="F344" s="109"/>
-      <c r="G344" s="109"/>
-      <c r="H344" s="109"/>
-      <c r="I344" s="109"/>
-      <c r="J344" s="109"/>
-      <c r="K344" s="109"/>
-      <c r="L344" s="109"/>
-      <c r="M344" s="109"/>
-    </row>
-    <row r="345" spans="1:13">
-      <c r="A345" s="109"/>
-      <c r="B345" s="109"/>
-      <c r="C345" s="109"/>
-      <c r="D345" s="109"/>
-      <c r="E345" s="109"/>
-      <c r="F345" s="109"/>
-      <c r="G345" s="109"/>
-      <c r="H345" s="109"/>
-      <c r="I345" s="109"/>
-      <c r="J345" s="109"/>
-      <c r="K345" s="109"/>
-      <c r="L345" s="109"/>
-      <c r="M345" s="109"/>
-    </row>
-    <row r="346" spans="1:13">
-      <c r="A346" s="109"/>
-      <c r="B346" s="109"/>
-      <c r="C346" s="109"/>
-      <c r="D346" s="109"/>
-      <c r="E346" s="109"/>
-      <c r="F346" s="109"/>
-      <c r="G346" s="109"/>
-      <c r="H346" s="109"/>
-      <c r="I346" s="109"/>
-      <c r="J346" s="109"/>
-      <c r="K346" s="109"/>
-      <c r="L346" s="109"/>
-      <c r="M346" s="109"/>
-    </row>
-    <row r="347" spans="1:13">
-      <c r="A347" s="109"/>
-      <c r="B347" s="109"/>
-      <c r="C347" s="109"/>
-      <c r="D347" s="109"/>
-      <c r="E347" s="109"/>
-      <c r="F347" s="109"/>
-      <c r="G347" s="109"/>
-      <c r="H347" s="109"/>
-      <c r="I347" s="109"/>
-      <c r="J347" s="109"/>
-      <c r="K347" s="109"/>
-      <c r="L347" s="109"/>
-      <c r="M347" s="109"/>
-    </row>
-    <row r="348" spans="1:13">
-      <c r="A348" s="109"/>
-      <c r="B348" s="109"/>
-      <c r="C348" s="109"/>
-      <c r="D348" s="109"/>
-      <c r="E348" s="109"/>
-      <c r="F348" s="109"/>
-      <c r="G348" s="109"/>
-      <c r="H348" s="109"/>
-      <c r="I348" s="109"/>
-      <c r="J348" s="109"/>
-      <c r="K348" s="109"/>
-      <c r="L348" s="109"/>
-      <c r="M348" s="109"/>
-    </row>
-    <row r="349" spans="1:13">
-      <c r="A349" s="109"/>
-      <c r="B349" s="109"/>
-      <c r="C349" s="109"/>
-      <c r="D349" s="109"/>
-      <c r="E349" s="109"/>
-      <c r="F349" s="109"/>
-      <c r="G349" s="109"/>
-      <c r="H349" s="109"/>
-      <c r="I349" s="109"/>
-      <c r="J349" s="109"/>
-      <c r="K349" s="109"/>
-      <c r="L349" s="109"/>
-      <c r="M349" s="109"/>
-    </row>
-    <row r="350" spans="1:13">
-      <c r="A350" s="109"/>
-      <c r="B350" s="109"/>
-      <c r="C350" s="109"/>
-      <c r="D350" s="109"/>
-      <c r="E350" s="109"/>
-      <c r="F350" s="109"/>
-      <c r="G350" s="109"/>
-      <c r="H350" s="109"/>
-      <c r="I350" s="109"/>
-      <c r="J350" s="109"/>
-      <c r="K350" s="109"/>
-      <c r="L350" s="109"/>
-      <c r="M350" s="109"/>
-    </row>
-    <row r="351" spans="1:13">
-      <c r="A351" s="109"/>
-      <c r="B351" s="109"/>
-      <c r="C351" s="109"/>
-      <c r="D351" s="109"/>
-      <c r="E351" s="109"/>
-      <c r="F351" s="109"/>
-      <c r="G351" s="109"/>
-      <c r="H351" s="109"/>
-      <c r="I351" s="109"/>
-      <c r="J351" s="109"/>
-      <c r="K351" s="109"/>
-      <c r="L351" s="109"/>
-      <c r="M351" s="109"/>
-    </row>
-    <row r="352" spans="1:13">
-      <c r="A352" s="109"/>
-      <c r="B352" s="109"/>
-      <c r="C352" s="109"/>
-      <c r="D352" s="109"/>
-      <c r="E352" s="109"/>
-      <c r="F352" s="109"/>
-      <c r="G352" s="109"/>
-      <c r="H352" s="109"/>
-      <c r="I352" s="109"/>
-      <c r="J352" s="109"/>
-      <c r="K352" s="109"/>
-      <c r="L352" s="109"/>
-      <c r="M352" s="109"/>
-    </row>
-    <row r="353" spans="1:13">
-      <c r="A353" s="109"/>
-      <c r="B353" s="109"/>
-      <c r="C353" s="109"/>
-      <c r="D353" s="109"/>
-      <c r="E353" s="109"/>
-      <c r="F353" s="109"/>
-      <c r="G353" s="109"/>
-      <c r="H353" s="109"/>
-      <c r="I353" s="109"/>
-      <c r="J353" s="109"/>
-      <c r="K353" s="109"/>
-      <c r="L353" s="109"/>
-      <c r="M353" s="109"/>
-    </row>
-    <row r="354" spans="1:13">
-      <c r="A354" s="109"/>
-      <c r="B354" s="109"/>
-      <c r="C354" s="109"/>
-      <c r="D354" s="109"/>
-      <c r="E354" s="109"/>
-      <c r="F354" s="109"/>
-      <c r="G354" s="109"/>
-      <c r="H354" s="109"/>
-      <c r="I354" s="109"/>
-      <c r="J354" s="109"/>
-      <c r="K354" s="109"/>
-      <c r="L354" s="109"/>
-      <c r="M354" s="109"/>
-    </row>
-    <row r="355" spans="1:13">
-      <c r="A355" s="109"/>
-      <c r="B355" s="109"/>
-      <c r="C355" s="109"/>
-      <c r="D355" s="109"/>
-      <c r="E355" s="109"/>
-      <c r="F355" s="109"/>
-      <c r="G355" s="109"/>
-      <c r="H355" s="109"/>
-      <c r="I355" s="109"/>
-      <c r="J355" s="109"/>
-      <c r="K355" s="109"/>
-      <c r="L355" s="109"/>
-      <c r="M355" s="109"/>
-    </row>
-    <row r="356" spans="1:13">
-      <c r="A356" s="109"/>
-      <c r="B356" s="109"/>
-      <c r="C356" s="109"/>
-      <c r="D356" s="109"/>
-      <c r="E356" s="109"/>
-      <c r="F356" s="109"/>
-      <c r="G356" s="109"/>
-      <c r="H356" s="109"/>
-      <c r="I356" s="109"/>
-      <c r="J356" s="109"/>
-      <c r="K356" s="109"/>
-      <c r="L356" s="109"/>
-      <c r="M356" s="109"/>
-    </row>
-    <row r="357" spans="1:13">
-      <c r="A357" s="109"/>
-      <c r="B357" s="109"/>
-      <c r="C357" s="109"/>
-      <c r="D357" s="109"/>
-      <c r="E357" s="109"/>
-      <c r="F357" s="109"/>
-      <c r="G357" s="109"/>
-      <c r="H357" s="109"/>
-      <c r="I357" s="109"/>
-      <c r="J357" s="109"/>
-      <c r="K357" s="109"/>
-      <c r="L357" s="109"/>
-      <c r="M357" s="109"/>
-    </row>
-    <row r="358" spans="1:13">
-      <c r="A358" s="109"/>
-      <c r="B358" s="109"/>
-      <c r="C358" s="109"/>
-      <c r="D358" s="109"/>
-      <c r="E358" s="109"/>
-      <c r="F358" s="109"/>
-      <c r="G358" s="109"/>
-      <c r="H358" s="109"/>
-      <c r="I358" s="109"/>
-      <c r="J358" s="109"/>
-      <c r="K358" s="109"/>
-      <c r="L358" s="109"/>
-      <c r="M358" s="109"/>
-    </row>
-    <row r="359" spans="1:13">
-      <c r="A359" s="109"/>
-      <c r="B359" s="109"/>
-      <c r="C359" s="109"/>
-      <c r="D359" s="109"/>
-      <c r="E359" s="109"/>
-      <c r="F359" s="109"/>
-      <c r="G359" s="109"/>
-      <c r="H359" s="109"/>
-      <c r="I359" s="109"/>
-      <c r="J359" s="109"/>
-      <c r="K359" s="109"/>
-      <c r="L359" s="109"/>
-      <c r="M359" s="109"/>
-    </row>
-    <row r="360" spans="1:13">
-      <c r="A360" s="109"/>
-      <c r="B360" s="109"/>
-      <c r="C360" s="109"/>
-      <c r="D360" s="109"/>
-      <c r="E360" s="109"/>
-      <c r="F360" s="109"/>
-      <c r="G360" s="109"/>
-      <c r="H360" s="109"/>
-      <c r="I360" s="109"/>
-      <c r="J360" s="109"/>
-      <c r="K360" s="109"/>
-      <c r="L360" s="109"/>
-      <c r="M360" s="109"/>
-    </row>
-    <row r="361" spans="1:13">
-      <c r="A361" s="109"/>
-      <c r="B361" s="109"/>
-      <c r="C361" s="109"/>
-      <c r="D361" s="109"/>
-      <c r="E361" s="109"/>
-      <c r="F361" s="109"/>
-      <c r="G361" s="109"/>
-      <c r="H361" s="109"/>
-      <c r="I361" s="109"/>
-      <c r="J361" s="109"/>
-      <c r="K361" s="109"/>
-      <c r="L361" s="109"/>
-      <c r="M361" s="109"/>
-    </row>
-    <row r="362" spans="1:13">
-      <c r="A362" s="109"/>
-      <c r="B362" s="109"/>
-      <c r="C362" s="109"/>
-      <c r="D362" s="109"/>
-      <c r="E362" s="109"/>
-      <c r="F362" s="109"/>
-      <c r="G362" s="109"/>
-      <c r="H362" s="109"/>
-      <c r="I362" s="109"/>
-      <c r="J362" s="109"/>
-      <c r="K362" s="109"/>
-      <c r="L362" s="109"/>
-      <c r="M362" s="109"/>
-    </row>
-    <row r="363" spans="1:13">
-      <c r="A363" s="109"/>
-      <c r="B363" s="109"/>
-      <c r="C363" s="109"/>
-      <c r="D363" s="109"/>
-      <c r="E363" s="109"/>
-      <c r="F363" s="109"/>
-      <c r="G363" s="109"/>
-      <c r="H363" s="109"/>
-      <c r="I363" s="109"/>
-      <c r="J363" s="109"/>
-      <c r="K363" s="109"/>
-      <c r="L363" s="109"/>
-      <c r="M363" s="109"/>
-    </row>
-    <row r="364" spans="1:13">
-      <c r="A364" s="109"/>
-      <c r="B364" s="109"/>
-      <c r="C364" s="109"/>
-      <c r="D364" s="109"/>
-      <c r="E364" s="109"/>
-      <c r="F364" s="109"/>
-      <c r="G364" s="109"/>
-      <c r="H364" s="109"/>
-      <c r="I364" s="109"/>
-      <c r="J364" s="109"/>
-      <c r="K364" s="109"/>
-      <c r="L364" s="109"/>
-      <c r="M364" s="109"/>
-    </row>
-    <row r="365" spans="1:13">
-      <c r="A365" s="109"/>
-      <c r="B365" s="109"/>
-      <c r="C365" s="109"/>
-      <c r="D365" s="109"/>
-      <c r="E365" s="109"/>
-      <c r="F365" s="109"/>
-      <c r="G365" s="109"/>
-      <c r="H365" s="109"/>
-      <c r="I365" s="109"/>
-      <c r="J365" s="109"/>
-      <c r="K365" s="109"/>
-      <c r="L365" s="109"/>
-      <c r="M365" s="109"/>
-    </row>
-    <row r="366" spans="1:13">
-      <c r="A366" s="109"/>
-      <c r="B366" s="109"/>
-      <c r="C366" s="109"/>
-      <c r="D366" s="109"/>
-      <c r="E366" s="109"/>
-      <c r="F366" s="109"/>
-      <c r="G366" s="109"/>
-      <c r="H366" s="109"/>
-      <c r="I366" s="109"/>
-      <c r="J366" s="109"/>
-      <c r="K366" s="109"/>
-      <c r="L366" s="109"/>
-      <c r="M366" s="109"/>
-    </row>
-    <row r="367" spans="1:13">
-      <c r="A367" s="109"/>
-      <c r="B367" s="109"/>
-      <c r="C367" s="109"/>
-      <c r="D367" s="109"/>
-      <c r="E367" s="109"/>
-      <c r="F367" s="109"/>
-      <c r="G367" s="109"/>
-      <c r="H367" s="109"/>
-      <c r="I367" s="109"/>
-      <c r="J367" s="109"/>
-      <c r="K367" s="109"/>
-      <c r="L367" s="109"/>
-      <c r="M367" s="109"/>
-    </row>
-    <row r="368" spans="1:13">
-      <c r="A368" s="109"/>
-      <c r="B368" s="109"/>
-      <c r="C368" s="109"/>
-      <c r="D368" s="109"/>
-      <c r="E368" s="109"/>
-      <c r="F368" s="109"/>
-      <c r="G368" s="109"/>
-      <c r="H368" s="109"/>
-      <c r="I368" s="109"/>
-      <c r="J368" s="109"/>
-      <c r="K368" s="109"/>
-      <c r="L368" s="109"/>
-      <c r="M368" s="109"/>
-    </row>
-    <row r="369" spans="1:13">
-      <c r="A369" s="109"/>
-      <c r="B369" s="109"/>
-      <c r="C369" s="109"/>
-      <c r="D369" s="109"/>
-      <c r="E369" s="109"/>
-      <c r="F369" s="109"/>
-      <c r="G369" s="109"/>
-      <c r="H369" s="109"/>
-      <c r="I369" s="109"/>
-      <c r="J369" s="109"/>
-      <c r="K369" s="109"/>
-      <c r="L369" s="109"/>
-      <c r="M369" s="109"/>
-    </row>
-    <row r="370" spans="1:13">
-      <c r="A370" s="109"/>
-      <c r="B370" s="109"/>
-      <c r="C370" s="109"/>
-      <c r="D370" s="109"/>
-      <c r="E370" s="109"/>
-      <c r="F370" s="109"/>
-      <c r="G370" s="109"/>
-      <c r="H370" s="109"/>
-      <c r="I370" s="109"/>
-      <c r="J370" s="109"/>
-      <c r="K370" s="109"/>
-      <c r="L370" s="109"/>
-      <c r="M370" s="109"/>
-    </row>
-    <row r="371" spans="1:13">
-      <c r="A371" s="109"/>
-      <c r="B371" s="109"/>
-      <c r="C371" s="109"/>
-      <c r="D371" s="109"/>
-      <c r="E371" s="109"/>
-      <c r="F371" s="109"/>
-      <c r="G371" s="109"/>
-      <c r="H371" s="109"/>
-      <c r="I371" s="109"/>
-      <c r="J371" s="109"/>
-      <c r="K371" s="109"/>
-      <c r="L371" s="109"/>
-      <c r="M371" s="109"/>
-    </row>
-    <row r="372" spans="1:13">
-      <c r="A372" s="109"/>
-      <c r="B372" s="109"/>
-      <c r="C372" s="109"/>
-      <c r="D372" s="109"/>
-      <c r="E372" s="109"/>
-      <c r="F372" s="109"/>
-      <c r="G372" s="109"/>
-      <c r="H372" s="109"/>
-      <c r="I372" s="109"/>
-      <c r="J372" s="109"/>
-      <c r="K372" s="109"/>
-      <c r="L372" s="109"/>
-      <c r="M372" s="109"/>
-    </row>
-    <row r="373" spans="1:13">
-      <c r="A373" s="109"/>
-      <c r="B373" s="109"/>
-      <c r="C373" s="109"/>
-      <c r="D373" s="109"/>
-      <c r="E373" s="109"/>
-      <c r="F373" s="109"/>
-      <c r="G373" s="109"/>
-      <c r="H373" s="109"/>
-      <c r="I373" s="109"/>
-      <c r="J373" s="109"/>
-      <c r="K373" s="109"/>
-      <c r="L373" s="109"/>
-      <c r="M373" s="109"/>
-    </row>
-    <row r="374" spans="1:13">
-      <c r="A374" s="109"/>
-      <c r="B374" s="109"/>
-      <c r="C374" s="109"/>
-      <c r="D374" s="109"/>
-      <c r="E374" s="109"/>
-      <c r="F374" s="109"/>
-      <c r="G374" s="109"/>
-      <c r="H374" s="109"/>
-      <c r="I374" s="109"/>
-      <c r="J374" s="109"/>
-      <c r="K374" s="109"/>
-      <c r="L374" s="109"/>
-      <c r="M374" s="109"/>
-    </row>
-    <row r="375" spans="1:13">
-      <c r="A375" s="109"/>
-      <c r="B375" s="109"/>
-      <c r="C375" s="109"/>
-      <c r="D375" s="109"/>
-      <c r="E375" s="109"/>
-      <c r="F375" s="109"/>
-      <c r="G375" s="109"/>
-      <c r="H375" s="109"/>
-      <c r="I375" s="109"/>
-      <c r="J375" s="109"/>
-      <c r="K375" s="109"/>
-      <c r="L375" s="109"/>
-      <c r="M375" s="109"/>
-    </row>
-    <row r="376" spans="1:13">
-      <c r="A376" s="109"/>
-      <c r="B376" s="109"/>
-      <c r="C376" s="109"/>
-      <c r="D376" s="109"/>
-      <c r="E376" s="109"/>
-      <c r="F376" s="109"/>
-      <c r="G376" s="109"/>
-      <c r="H376" s="109"/>
-      <c r="I376" s="109"/>
-      <c r="J376" s="109"/>
-      <c r="K376" s="109"/>
-      <c r="L376" s="109"/>
-      <c r="M376" s="109"/>
-    </row>
-    <row r="377" spans="1:13">
-      <c r="A377" s="109"/>
-      <c r="B377" s="109"/>
-      <c r="C377" s="109"/>
-      <c r="D377" s="109"/>
-      <c r="E377" s="109"/>
-      <c r="F377" s="109"/>
-      <c r="G377" s="109"/>
-      <c r="H377" s="109"/>
-      <c r="I377" s="109"/>
-      <c r="J377" s="109"/>
-      <c r="K377" s="109"/>
-      <c r="L377" s="109"/>
-      <c r="M377" s="109"/>
-    </row>
-    <row r="378" spans="1:13">
-      <c r="A378" s="109"/>
-      <c r="B378" s="109"/>
-      <c r="C378" s="109"/>
-      <c r="D378" s="109"/>
-      <c r="E378" s="109"/>
-      <c r="F378" s="109"/>
-      <c r="G378" s="109"/>
-      <c r="H378" s="109"/>
-      <c r="I378" s="109"/>
-      <c r="J378" s="109"/>
-      <c r="K378" s="109"/>
-      <c r="L378" s="109"/>
-      <c r="M378" s="109"/>
-    </row>
-    <row r="379" spans="1:13">
-      <c r="A379" s="109"/>
-      <c r="B379" s="109"/>
-      <c r="C379" s="109"/>
-      <c r="D379" s="109"/>
-      <c r="E379" s="109"/>
-      <c r="F379" s="109"/>
-      <c r="G379" s="109"/>
-      <c r="H379" s="109"/>
-      <c r="I379" s="109"/>
-      <c r="J379" s="109"/>
-      <c r="K379" s="109"/>
-      <c r="L379" s="109"/>
-      <c r="M379" s="109"/>
-    </row>
-    <row r="380" spans="1:13">
-      <c r="A380" s="109"/>
-      <c r="B380" s="109"/>
-      <c r="C380" s="109"/>
-      <c r="D380" s="109"/>
-      <c r="E380" s="109"/>
-      <c r="F380" s="109"/>
-      <c r="G380" s="109"/>
-      <c r="H380" s="109"/>
-      <c r="I380" s="109"/>
-      <c r="J380" s="109"/>
-      <c r="K380" s="109"/>
-      <c r="L380" s="109"/>
-      <c r="M380" s="109"/>
-    </row>
-    <row r="381" spans="1:13">
-      <c r="A381" s="109"/>
-      <c r="B381" s="109"/>
-      <c r="C381" s="109"/>
-      <c r="D381" s="109"/>
-      <c r="E381" s="109"/>
-      <c r="F381" s="109"/>
-      <c r="G381" s="109"/>
-      <c r="H381" s="109"/>
-      <c r="I381" s="109"/>
-      <c r="J381" s="109"/>
-      <c r="K381" s="109"/>
-      <c r="L381" s="109"/>
-      <c r="M381" s="109"/>
-    </row>
-    <row r="382" spans="1:13">
-      <c r="A382" s="109"/>
-      <c r="B382" s="109"/>
-      <c r="C382" s="109"/>
-      <c r="D382" s="109"/>
-      <c r="E382" s="109"/>
-      <c r="F382" s="109"/>
-      <c r="G382" s="109"/>
-      <c r="H382" s="109"/>
-      <c r="I382" s="109"/>
-      <c r="J382" s="109"/>
-      <c r="K382" s="109"/>
-      <c r="L382" s="109"/>
-      <c r="M382" s="109"/>
-    </row>
-    <row r="383" spans="1:13">
-      <c r="A383" s="109"/>
-      <c r="B383" s="109"/>
-      <c r="C383" s="109"/>
-      <c r="D383" s="109"/>
-      <c r="E383" s="109"/>
-      <c r="F383" s="109"/>
-      <c r="G383" s="109"/>
-      <c r="H383" s="109"/>
-      <c r="I383" s="109"/>
-      <c r="J383" s="109"/>
-      <c r="K383" s="109"/>
-      <c r="L383" s="109"/>
-      <c r="M383" s="109"/>
-    </row>
-    <row r="384" spans="1:13">
-      <c r="A384" s="109"/>
-      <c r="B384" s="109"/>
-      <c r="C384" s="109"/>
-      <c r="D384" s="109"/>
-      <c r="E384" s="109"/>
-      <c r="F384" s="109"/>
-      <c r="G384" s="109"/>
-      <c r="H384" s="109"/>
-      <c r="I384" s="109"/>
-      <c r="J384" s="109"/>
-      <c r="K384" s="109"/>
-      <c r="L384" s="109"/>
-      <c r="M384" s="109"/>
-    </row>
-    <row r="385" spans="1:13">
-      <c r="A385" s="109"/>
-      <c r="B385" s="109"/>
-      <c r="C385" s="109"/>
-      <c r="D385" s="109"/>
-      <c r="E385" s="109"/>
-      <c r="F385" s="109"/>
-      <c r="G385" s="109"/>
-      <c r="H385" s="109"/>
-      <c r="I385" s="109"/>
-      <c r="J385" s="109"/>
-      <c r="K385" s="109"/>
-      <c r="L385" s="109"/>
-      <c r="M385" s="109"/>
-    </row>
-    <row r="386" spans="1:13">
-      <c r="A386" s="109"/>
-      <c r="B386" s="109"/>
-      <c r="C386" s="109"/>
-      <c r="D386" s="109"/>
-      <c r="E386" s="109"/>
-      <c r="F386" s="109"/>
-      <c r="G386" s="109"/>
-      <c r="H386" s="109"/>
-      <c r="I386" s="109"/>
-      <c r="J386" s="109"/>
-      <c r="K386" s="109"/>
-      <c r="L386" s="109"/>
-      <c r="M386" s="109"/>
-    </row>
-    <row r="387" spans="1:13">
-      <c r="A387" s="109"/>
-      <c r="B387" s="109"/>
-      <c r="C387" s="109"/>
-      <c r="D387" s="109"/>
-      <c r="E387" s="109"/>
-      <c r="F387" s="109"/>
-      <c r="G387" s="109"/>
-      <c r="H387" s="109"/>
-      <c r="I387" s="109"/>
-      <c r="J387" s="109"/>
-      <c r="K387" s="109"/>
-      <c r="L387" s="109"/>
-      <c r="M387" s="109"/>
-    </row>
-    <row r="388" spans="1:13">
-      <c r="A388" s="109"/>
-      <c r="B388" s="109"/>
-      <c r="C388" s="109"/>
-      <c r="D388" s="109"/>
-      <c r="E388" s="109"/>
-      <c r="F388" s="109"/>
-      <c r="G388" s="109"/>
-      <c r="H388" s="109"/>
-      <c r="I388" s="109"/>
-      <c r="J388" s="109"/>
-      <c r="K388" s="109"/>
-      <c r="L388" s="109"/>
-      <c r="M388" s="109"/>
-    </row>
-    <row r="389" spans="1:13">
-      <c r="A389" s="109"/>
-      <c r="B389" s="109"/>
-      <c r="C389" s="109"/>
-      <c r="D389" s="109"/>
-      <c r="E389" s="109"/>
-      <c r="F389" s="109"/>
-      <c r="G389" s="109"/>
-      <c r="H389" s="109"/>
-      <c r="I389" s="109"/>
-      <c r="J389" s="109"/>
-      <c r="K389" s="109"/>
-      <c r="L389" s="109"/>
-      <c r="M389" s="109"/>
-    </row>
-    <row r="390" spans="1:13">
-      <c r="A390" s="109"/>
-      <c r="B390" s="109"/>
-      <c r="C390" s="109"/>
-      <c r="D390" s="109"/>
-      <c r="E390" s="109"/>
-      <c r="F390" s="109"/>
-      <c r="G390" s="109"/>
-      <c r="H390" s="109"/>
-      <c r="I390" s="109"/>
-      <c r="J390" s="109"/>
-      <c r="K390" s="109"/>
-      <c r="L390" s="109"/>
-      <c r="M390" s="109"/>
-    </row>
-    <row r="391" spans="1:13">
-      <c r="A391" s="109"/>
-      <c r="B391" s="109"/>
-      <c r="C391" s="109"/>
-      <c r="D391" s="109"/>
-      <c r="E391" s="109"/>
-      <c r="F391" s="109"/>
-      <c r="G391" s="109"/>
-      <c r="H391" s="109"/>
-      <c r="I391" s="109"/>
-      <c r="J391" s="109"/>
-      <c r="K391" s="109"/>
-      <c r="L391" s="109"/>
-      <c r="M391" s="109"/>
-    </row>
-    <row r="392" spans="1:13">
-      <c r="A392" s="109"/>
-      <c r="B392" s="109"/>
-      <c r="C392" s="109"/>
-      <c r="D392" s="109"/>
-      <c r="E392" s="109"/>
-      <c r="F392" s="109"/>
-      <c r="G392" s="109"/>
-      <c r="H392" s="109"/>
-      <c r="I392" s="109"/>
-      <c r="J392" s="109"/>
-      <c r="K392" s="109"/>
-      <c r="L392" s="109"/>
-      <c r="M392" s="109"/>
-    </row>
-    <row r="393" spans="1:13">
-      <c r="A393" s="109"/>
-      <c r="B393" s="109"/>
-      <c r="C393" s="109"/>
-      <c r="D393" s="109"/>
-      <c r="E393" s="109"/>
-      <c r="F393" s="109"/>
-      <c r="G393" s="109"/>
-      <c r="H393" s="109"/>
-      <c r="I393" s="109"/>
-      <c r="J393" s="109"/>
-      <c r="K393" s="109"/>
-      <c r="L393" s="109"/>
-      <c r="M393" s="109"/>
-    </row>
-    <row r="394" spans="1:13">
-      <c r="A394" s="109"/>
-      <c r="B394" s="109"/>
-      <c r="C394" s="109"/>
-      <c r="D394" s="109"/>
-      <c r="E394" s="109"/>
-      <c r="F394" s="109"/>
-      <c r="G394" s="109"/>
-      <c r="H394" s="109"/>
-      <c r="I394" s="109"/>
-      <c r="J394" s="109"/>
-      <c r="K394" s="109"/>
-      <c r="L394" s="109"/>
-      <c r="M394" s="109"/>
-    </row>
-    <row r="395" spans="1:13">
-      <c r="A395" s="109"/>
-      <c r="B395" s="109"/>
-      <c r="C395" s="109"/>
-      <c r="D395" s="109"/>
-      <c r="E395" s="109"/>
-      <c r="F395" s="109"/>
-      <c r="G395" s="109"/>
-      <c r="H395" s="109"/>
-      <c r="I395" s="109"/>
-      <c r="J395" s="109"/>
-      <c r="K395" s="109"/>
-      <c r="L395" s="109"/>
-      <c r="M395" s="109"/>
-    </row>
-    <row r="396" spans="1:13">
-      <c r="A396" s="109"/>
-      <c r="B396" s="109"/>
-      <c r="C396" s="109"/>
-      <c r="D396" s="109"/>
-      <c r="E396" s="109"/>
-      <c r="F396" s="109"/>
-      <c r="G396" s="109"/>
-      <c r="H396" s="109"/>
-      <c r="I396" s="109"/>
-      <c r="J396" s="109"/>
-      <c r="K396" s="109"/>
-      <c r="L396" s="109"/>
-      <c r="M396" s="109"/>
-    </row>
-    <row r="397" spans="1:13">
-      <c r="A397" s="109"/>
-      <c r="B397" s="109"/>
-      <c r="C397" s="109"/>
-      <c r="D397" s="109"/>
-      <c r="E397" s="109"/>
-      <c r="F397" s="109"/>
-      <c r="G397" s="109"/>
-      <c r="H397" s="109"/>
-      <c r="I397" s="109"/>
-      <c r="J397" s="109"/>
-      <c r="K397" s="109"/>
-      <c r="L397" s="109"/>
-      <c r="M397" s="109"/>
-    </row>
-    <row r="398" spans="1:13">
-      <c r="A398" s="109"/>
-      <c r="B398" s="109"/>
-      <c r="C398" s="109"/>
-      <c r="D398" s="109"/>
-      <c r="E398" s="109"/>
-      <c r="F398" s="109"/>
-      <c r="G398" s="109"/>
-      <c r="H398" s="109"/>
-      <c r="I398" s="109"/>
-      <c r="J398" s="109"/>
-      <c r="K398" s="109"/>
-      <c r="L398" s="109"/>
-      <c r="M398" s="109"/>
-    </row>
-    <row r="399" spans="1:13">
-      <c r="A399" s="109"/>
-      <c r="B399" s="109"/>
-      <c r="C399" s="109"/>
-      <c r="D399" s="109"/>
-      <c r="E399" s="109"/>
-      <c r="F399" s="109"/>
-      <c r="G399" s="109"/>
-      <c r="H399" s="109"/>
-      <c r="I399" s="109"/>
-      <c r="J399" s="109"/>
-      <c r="K399" s="109"/>
-      <c r="L399" s="109"/>
-      <c r="M399" s="109"/>
-    </row>
-    <row r="400" spans="1:13">
-      <c r="A400" s="109"/>
-      <c r="B400" s="109"/>
-      <c r="C400" s="109"/>
-      <c r="D400" s="109"/>
-      <c r="E400" s="109"/>
-      <c r="F400" s="109"/>
-      <c r="G400" s="109"/>
-      <c r="H400" s="109"/>
-      <c r="I400" s="109"/>
-      <c r="J400" s="109"/>
-      <c r="K400" s="109"/>
-      <c r="L400" s="109"/>
-      <c r="M400" s="109"/>
-    </row>
-    <row r="401" spans="1:13">
-      <c r="A401" s="109"/>
-      <c r="B401" s="109"/>
-      <c r="C401" s="109"/>
-      <c r="D401" s="109"/>
-      <c r="E401" s="109"/>
-      <c r="F401" s="109"/>
-      <c r="G401" s="109"/>
-      <c r="H401" s="109"/>
-      <c r="I401" s="109"/>
-      <c r="J401" s="109"/>
-      <c r="K401" s="109"/>
-      <c r="L401" s="109"/>
-      <c r="M401" s="109"/>
-    </row>
-    <row r="402" spans="1:13">
-      <c r="A402" s="109"/>
-      <c r="B402" s="109"/>
-      <c r="C402" s="109"/>
-      <c r="D402" s="109"/>
-      <c r="E402" s="109"/>
-      <c r="F402" s="109"/>
-      <c r="G402" s="109"/>
-      <c r="H402" s="109"/>
-      <c r="I402" s="109"/>
-      <c r="J402" s="109"/>
-      <c r="K402" s="109"/>
-      <c r="L402" s="109"/>
-      <c r="M402" s="109"/>
-    </row>
-    <row r="403" spans="1:13">
-      <c r="A403" s="109"/>
-      <c r="B403" s="109"/>
-      <c r="C403" s="109"/>
-      <c r="D403" s="109"/>
-      <c r="E403" s="109"/>
-      <c r="F403" s="109"/>
-      <c r="G403" s="109"/>
-      <c r="H403" s="109"/>
-      <c r="I403" s="109"/>
-      <c r="J403" s="109"/>
-      <c r="K403" s="109"/>
-      <c r="L403" s="109"/>
-      <c r="M403" s="109"/>
-    </row>
-    <row r="404" spans="1:13">
-      <c r="A404" s="109"/>
-      <c r="B404" s="109"/>
-      <c r="C404" s="109"/>
-      <c r="D404" s="109"/>
-      <c r="E404" s="109"/>
-      <c r="F404" s="109"/>
-      <c r="G404" s="109"/>
-      <c r="H404" s="109"/>
-      <c r="I404" s="109"/>
-      <c r="J404" s="109"/>
-      <c r="K404" s="109"/>
-      <c r="L404" s="109"/>
-      <c r="M404" s="109"/>
-    </row>
-    <row r="405" spans="1:13">
-      <c r="A405" s="109"/>
-      <c r="B405" s="109"/>
-      <c r="C405" s="109"/>
-      <c r="D405" s="109"/>
-      <c r="E405" s="109"/>
-      <c r="F405" s="109"/>
-      <c r="G405" s="109"/>
-      <c r="H405" s="109"/>
-      <c r="I405" s="109"/>
-      <c r="J405" s="109"/>
-      <c r="K405" s="109"/>
-      <c r="L405" s="109"/>
-      <c r="M405" s="109"/>
-    </row>
-    <row r="406" spans="1:13">
-      <c r="A406" s="109"/>
-      <c r="B406" s="109"/>
-      <c r="C406" s="109"/>
-      <c r="D406" s="109"/>
-      <c r="E406" s="109"/>
-      <c r="F406" s="109"/>
-      <c r="G406" s="109"/>
-      <c r="H406" s="109"/>
-      <c r="I406" s="109"/>
-      <c r="J406" s="109"/>
-      <c r="K406" s="109"/>
-      <c r="L406" s="109"/>
-      <c r="M406" s="109"/>
-    </row>
-    <row r="407" spans="1:13">
-      <c r="A407" s="109"/>
-      <c r="B407" s="109"/>
-      <c r="C407" s="109"/>
-      <c r="D407" s="109"/>
-      <c r="E407" s="109"/>
-      <c r="F407" s="109"/>
-      <c r="G407" s="109"/>
-      <c r="H407" s="109"/>
-      <c r="I407" s="109"/>
-      <c r="J407" s="109"/>
-      <c r="K407" s="109"/>
-      <c r="L407" s="109"/>
-      <c r="M407" s="109"/>
-    </row>
-    <row r="408" spans="1:13">
-      <c r="A408" s="109"/>
-      <c r="B408" s="109"/>
-      <c r="C408" s="109"/>
-      <c r="D408" s="109"/>
-      <c r="E408" s="109"/>
-      <c r="F408" s="109"/>
-      <c r="G408" s="109"/>
-      <c r="H408" s="109"/>
-      <c r="I408" s="109"/>
-      <c r="J408" s="109"/>
-      <c r="K408" s="109"/>
-      <c r="L408" s="109"/>
-      <c r="M408" s="109"/>
-    </row>
-    <row r="409" spans="1:13">
-      <c r="A409" s="109"/>
-      <c r="B409" s="109"/>
-      <c r="C409" s="109"/>
-      <c r="D409" s="109"/>
-      <c r="E409" s="109"/>
-      <c r="F409" s="109"/>
-      <c r="G409" s="109"/>
-      <c r="H409" s="109"/>
-      <c r="I409" s="109"/>
-      <c r="J409" s="109"/>
-      <c r="K409" s="109"/>
-      <c r="L409" s="109"/>
-      <c r="M409" s="109"/>
-    </row>
-    <row r="410" spans="1:13">
-      <c r="A410" s="109"/>
-      <c r="B410" s="109"/>
-      <c r="C410" s="109"/>
-      <c r="D410" s="109"/>
-      <c r="E410" s="109"/>
-      <c r="F410" s="109"/>
-      <c r="G410" s="109"/>
-      <c r="H410" s="109"/>
-      <c r="I410" s="109"/>
-      <c r="J410" s="109"/>
-      <c r="K410" s="109"/>
-      <c r="L410" s="109"/>
-      <c r="M410" s="109"/>
-    </row>
-    <row r="411" spans="1:13">
-      <c r="A411" s="109"/>
-      <c r="B411" s="109"/>
-      <c r="C411" s="109"/>
-      <c r="D411" s="109"/>
-      <c r="E411" s="109"/>
-      <c r="F411" s="109"/>
-      <c r="G411" s="109"/>
-      <c r="H411" s="109"/>
-      <c r="I411" s="109"/>
-      <c r="J411" s="109"/>
-      <c r="K411" s="109"/>
-      <c r="L411" s="109"/>
-      <c r="M411" s="109"/>
-    </row>
-    <row r="412" spans="1:13">
-      <c r="A412" s="109"/>
-      <c r="B412" s="109"/>
-      <c r="C412" s="109"/>
-      <c r="D412" s="109"/>
-      <c r="E412" s="109"/>
-      <c r="F412" s="109"/>
-      <c r="G412" s="109"/>
-      <c r="H412" s="109"/>
-      <c r="I412" s="109"/>
-      <c r="J412" s="109"/>
-      <c r="K412" s="109"/>
-      <c r="L412" s="109"/>
-      <c r="M412" s="109"/>
-    </row>
-    <row r="413" spans="1:13">
-      <c r="A413" s="109"/>
-      <c r="B413" s="109"/>
-      <c r="C413" s="109"/>
-      <c r="D413" s="109"/>
-      <c r="E413" s="109"/>
-      <c r="F413" s="109"/>
-      <c r="G413" s="109"/>
-      <c r="H413" s="109"/>
-      <c r="I413" s="109"/>
-      <c r="J413" s="109"/>
-      <c r="K413" s="109"/>
-      <c r="L413" s="109"/>
-      <c r="M413" s="109"/>
-    </row>
-    <row r="414" spans="1:13">
-      <c r="A414" s="109"/>
-      <c r="B414" s="109"/>
-      <c r="C414" s="109"/>
-      <c r="D414" s="109"/>
-      <c r="E414" s="109"/>
-      <c r="F414" s="109"/>
-      <c r="G414" s="109"/>
-      <c r="H414" s="109"/>
-      <c r="I414" s="109"/>
-      <c r="J414" s="109"/>
-      <c r="K414" s="109"/>
-      <c r="L414" s="109"/>
-      <c r="M414" s="109"/>
-    </row>
-    <row r="415" spans="1:13">
-      <c r="A415" s="109"/>
-      <c r="B415" s="109"/>
-      <c r="C415" s="109"/>
-      <c r="D415" s="109"/>
-      <c r="E415" s="109"/>
-      <c r="F415" s="109"/>
-      <c r="G415" s="109"/>
-      <c r="H415" s="109"/>
-      <c r="I415" s="109"/>
-      <c r="J415" s="109"/>
-      <c r="K415" s="109"/>
-      <c r="L415" s="109"/>
-      <c r="M415" s="109"/>
-    </row>
-    <row r="416" spans="1:13">
-      <c r="A416" s="109"/>
-      <c r="B416" s="109"/>
-      <c r="C416" s="109"/>
-      <c r="D416" s="109"/>
-      <c r="E416" s="109"/>
-      <c r="F416" s="109"/>
-      <c r="G416" s="109"/>
-      <c r="H416" s="109"/>
-      <c r="I416" s="109"/>
-      <c r="J416" s="109"/>
-      <c r="K416" s="109"/>
-      <c r="L416" s="109"/>
-      <c r="M416" s="109"/>
-    </row>
-    <row r="417" spans="1:13">
-      <c r="A417" s="109"/>
-      <c r="B417" s="109"/>
-      <c r="C417" s="109"/>
-      <c r="D417" s="109"/>
-      <c r="E417" s="109"/>
-      <c r="F417" s="109"/>
-      <c r="G417" s="109"/>
-      <c r="H417" s="109"/>
-      <c r="I417" s="109"/>
-      <c r="J417" s="109"/>
-      <c r="K417" s="109"/>
-      <c r="L417" s="109"/>
-      <c r="M417" s="109"/>
-    </row>
-    <row r="418" spans="1:13">
-      <c r="A418" s="109"/>
-      <c r="B418" s="109"/>
-      <c r="C418" s="109"/>
-      <c r="D418" s="109"/>
-      <c r="E418" s="109"/>
-      <c r="F418" s="109"/>
-      <c r="G418" s="109"/>
-      <c r="H418" s="109"/>
-      <c r="I418" s="109"/>
-      <c r="J418" s="109"/>
-      <c r="K418" s="109"/>
-      <c r="L418" s="109"/>
-      <c r="M418" s="109"/>
-    </row>
-    <row r="419" spans="1:13">
-      <c r="A419" s="109"/>
-      <c r="B419" s="109"/>
-      <c r="C419" s="109"/>
-      <c r="D419" s="109"/>
-      <c r="E419" s="109"/>
-      <c r="F419" s="109"/>
-      <c r="G419" s="109"/>
-      <c r="H419" s="109"/>
-      <c r="I419" s="109"/>
-      <c r="J419" s="109"/>
-      <c r="K419" s="109"/>
-      <c r="L419" s="109"/>
-      <c r="M419" s="109"/>
-    </row>
-    <row r="420" spans="1:13">
-      <c r="A420" s="109"/>
-      <c r="B420" s="109"/>
-      <c r="C420" s="109"/>
-      <c r="D420" s="109"/>
-      <c r="E420" s="109"/>
-      <c r="F420" s="109"/>
-      <c r="G420" s="109"/>
-      <c r="H420" s="109"/>
-      <c r="I420" s="109"/>
-      <c r="J420" s="109"/>
-      <c r="K420" s="109"/>
-      <c r="L420" s="109"/>
-      <c r="M420" s="109"/>
-    </row>
-    <row r="421" spans="1:13">
-      <c r="A421" s="109"/>
-      <c r="B421" s="109"/>
-      <c r="C421" s="109"/>
-      <c r="D421" s="109"/>
-      <c r="E421" s="109"/>
-      <c r="F421" s="109"/>
-      <c r="G421" s="109"/>
-      <c r="H421" s="109"/>
-      <c r="I421" s="109"/>
-      <c r="J421" s="109"/>
-      <c r="K421" s="109"/>
-      <c r="L421" s="109"/>
-      <c r="M421" s="109"/>
-    </row>
-    <row r="422" spans="1:13">
-      <c r="A422" s="109"/>
-      <c r="B422" s="109"/>
-      <c r="C422" s="109"/>
-      <c r="D422" s="109"/>
-      <c r="E422" s="109"/>
-      <c r="F422" s="109"/>
-      <c r="G422" s="109"/>
-      <c r="H422" s="109"/>
-      <c r="I422" s="109"/>
-      <c r="J422" s="109"/>
-      <c r="K422" s="109"/>
-      <c r="L422" s="109"/>
-      <c r="M422" s="109"/>
-    </row>
-    <row r="423" spans="1:13">
-      <c r="A423" s="109"/>
-      <c r="B423" s="109"/>
-      <c r="C423" s="109"/>
-      <c r="D423" s="109"/>
-      <c r="E423" s="109"/>
-      <c r="F423" s="109"/>
-      <c r="G423" s="109"/>
-      <c r="H423" s="109"/>
-      <c r="I423" s="109"/>
-      <c r="J423" s="109"/>
-      <c r="K423" s="109"/>
-      <c r="L423" s="109"/>
-      <c r="M423" s="109"/>
-    </row>
-    <row r="424" spans="1:13">
-      <c r="A424" s="109"/>
-      <c r="B424" s="109"/>
-      <c r="C424" s="109"/>
-      <c r="D424" s="109"/>
-      <c r="E424" s="109"/>
-      <c r="F424" s="109"/>
-      <c r="G424" s="109"/>
-      <c r="H424" s="109"/>
-      <c r="I424" s="109"/>
-      <c r="J424" s="109"/>
-      <c r="K424" s="109"/>
-      <c r="L424" s="109"/>
-      <c r="M424" s="109"/>
-    </row>
-    <row r="425" spans="1:13">
-      <c r="A425" s="109"/>
-      <c r="B425" s="109"/>
-      <c r="C425" s="109"/>
-      <c r="D425" s="109"/>
-      <c r="E425" s="109"/>
-      <c r="F425" s="109"/>
-      <c r="G425" s="109"/>
-      <c r="H425" s="109"/>
-      <c r="I425" s="109"/>
-      <c r="J425" s="109"/>
-      <c r="K425" s="109"/>
-      <c r="L425" s="109"/>
-      <c r="M425" s="109"/>
-    </row>
-    <row r="426" spans="1:13">
-      <c r="A426" s="109"/>
-      <c r="B426" s="109"/>
-      <c r="C426" s="109"/>
-      <c r="D426" s="109"/>
-      <c r="E426" s="109"/>
-      <c r="F426" s="109"/>
-      <c r="G426" s="109"/>
-      <c r="H426" s="109"/>
-      <c r="I426" s="109"/>
-      <c r="J426" s="109"/>
-      <c r="K426" s="109"/>
-      <c r="L426" s="109"/>
-      <c r="M426" s="109"/>
-    </row>
-    <row r="427" spans="1:13">
-      <c r="A427" s="109"/>
-      <c r="B427" s="109"/>
-      <c r="C427" s="109"/>
-      <c r="D427" s="109"/>
-      <c r="E427" s="109"/>
-      <c r="F427" s="109"/>
-      <c r="G427" s="109"/>
-      <c r="H427" s="109"/>
-      <c r="I427" s="109"/>
-      <c r="J427" s="109"/>
-      <c r="K427" s="109"/>
-      <c r="L427" s="109"/>
-      <c r="M427" s="109"/>
     </row>
   </sheetData>
   <autoFilter ref="H1:H173" xr:uid="{25BC913D-6BF3-42BF-B694-1F0F95BDE69C}"/>
@@ -46999,15 +45726,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="560b4f41-a4e7-4222-8b43-3e9fe5c92fe3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e71fd78-3e96-49c3-9420-53931bd42b51">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Link xmlns="1e71fd78-3e96-49c3-9420-53931bd42b51" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -47268,16 +45992,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="560b4f41-a4e7-4222-8b43-3e9fe5c92fe3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e71fd78-3e96-49c3-9420-53931bd42b51">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Link xmlns="1e71fd78-3e96-49c3-9420-53931bd42b51" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F68D982-58DF-4F63-BD9F-DE9DC568D661}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2E729D6-ECE4-41C6-ADAB-82A40A7030B2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -47285,5 +46012,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2E729D6-ECE4-41C6-ADAB-82A40A7030B2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F68D982-58DF-4F63-BD9F-DE9DC568D661}"/>
 </file>